--- a/Google Calendar.xlsx
+++ b/Google Calendar.xlsx
@@ -5,7 +5,7 @@
   <fileSharing readOnlyRecommended="0" userName="HP"/>
   <workbookPr/>
   <bookViews>
-    <workbookView activeTab="7" xWindow="240" yWindow="60" windowWidth="29040" windowHeight="15720" tabRatio="500"/>
+    <workbookView activeTab="0" xWindow="240" yWindow="60" windowWidth="29040" windowHeight="15720" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Декомпозиция" sheetId="1" r:id="rId4"/>
@@ -20,10 +20,10 @@
   <calcPr/>
   <extLst>
     <ext uri="smNativeData">
-      <pm:revision xmlns:pm="smNativeData" day="1723564117" val="1068" rev="124" revOS="4" revMin="124" revMax="0"/>
-      <pm:docPrefs xmlns:pm="smNativeData" id="1723564117" fixedDigits="0" showNotice="1" showFrameBounds="1" autoChart="1" recalcOnPrint="1" recalcOnCopy="1" finalRounding="1" compatTextArt="1" tab="567" useDefinedPrintRange="1" printArea="currentSheet"/>
-      <pm:compatibility xmlns:pm="smNativeData" id="1723564117" overlapCells="1"/>
-      <pm:defCurrency xmlns:pm="smNativeData" id="1723564117"/>
+      <pm:revision xmlns:pm="smNativeData" day="1723568519" val="1068" rev="124" revOS="4" revMin="124" revMax="0"/>
+      <pm:docPrefs xmlns:pm="smNativeData" id="1723568519" fixedDigits="0" showNotice="1" showFrameBounds="1" autoChart="1" recalcOnPrint="1" recalcOnCopy="1" finalRounding="1" compatTextArt="1" tab="567" useDefinedPrintRange="1" printArea="currentSheet"/>
+      <pm:compatibility xmlns:pm="smNativeData" id="1723568519" overlapCells="1"/>
+      <pm:defCurrency xmlns:pm="smNativeData" id="1723568519"/>
     </ext>
   </extLst>
 </workbook>
@@ -1478,7 +1478,7 @@
     <numFmt numFmtId="10" formatCode="0.00%"/>
     <numFmt numFmtId="166" formatCode="0.0%"/>
   </numFmts>
-  <fonts count="31">
+  <fonts count="32">
     <font>
       <name val="Arial"/>
       <charset val="204"/>
@@ -1487,7 +1487,7 @@
       <sz val="10"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1723564117" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1723568519" ulstyle="none" kern="1">
             <pm:latin face="Arial" sz="200" lang="default"/>
             <pm:cs face="Times New Roman" sz="200" lang="default"/>
             <pm:ea face="SimSun" sz="200" lang="default"/>
@@ -1504,7 +1504,7 @@
       <sz val="10"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1723564117" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1723568519" ulstyle="none" kern="1">
             <pm:latin face="Arial" sz="200" lang="default" weight="bold"/>
             <pm:cs face="Times New Roman" sz="200" lang="default" weight="bold"/>
             <pm:ea face="SimSun" sz="200" lang="default" weight="bold"/>
@@ -1520,7 +1520,7 @@
       <sz val="20"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1723564117" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1723568519" ulstyle="none" kern="1">
             <pm:latin face="Calibri" sz="400" lang="default"/>
             <pm:cs face="Times New Roman" sz="400" lang="default"/>
             <pm:ea face="SimSun" sz="400" lang="default"/>
@@ -1536,7 +1536,7 @@
       <sz val="20"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1723564117" fgClr="E26B0A" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1723568519" fgClr="E26B0A" ulstyle="none" kern="1">
             <pm:latin face="Calibri" sz="400" lang="default"/>
             <pm:cs face="Times New Roman" sz="400" lang="default"/>
             <pm:ea face="SimSun" sz="400" lang="default"/>
@@ -1552,7 +1552,7 @@
       <sz val="20"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1723564117" fgClr="FFFFFF" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1723568519" fgClr="FFFFFF" ulstyle="none" kern="1">
             <pm:latin face="Calibri" sz="400" lang="default"/>
             <pm:cs face="Times New Roman" sz="400" lang="default"/>
             <pm:ea face="SimSun" sz="400" lang="default"/>
@@ -1570,7 +1570,7 @@
       <sz val="14"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1723564117" fgClr="FFFFFF" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1723568519" fgClr="FFFFFF" ulstyle="none" kern="1">
             <pm:latin face="Calibri" sz="280" lang="default" weight="bold" i="1"/>
             <pm:cs face="Times New Roman" sz="280" lang="default" weight="bold" i="1"/>
             <pm:ea face="SimSun" sz="280" lang="default" weight="bold" i="1"/>
@@ -1586,7 +1586,7 @@
       <sz val="12"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1723564117" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1723568519" ulstyle="none" kern="1">
             <pm:latin face="Arial" sz="240" lang="default"/>
             <pm:cs face="Times New Roman" sz="240" lang="default"/>
             <pm:ea face="SimSun" sz="240" lang="default"/>
@@ -1603,7 +1603,7 @@
       <sz val="10"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1723564117" fgClr="00007F" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1723568519" fgClr="00007F" ulstyle="none" kern="1">
             <pm:latin face="Arial" sz="200" lang="default" weight="bold"/>
             <pm:cs face="Times New Roman" sz="200" lang="default" weight="bold"/>
             <pm:ea face="SimSun" sz="200" lang="default" weight="bold"/>
@@ -1619,7 +1619,7 @@
       <sz val="8"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1723564117" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1723568519" ulstyle="none" kern="1">
             <pm:latin face="Arial" sz="160" lang="default"/>
             <pm:cs face="Times New Roman" sz="160" lang="default"/>
             <pm:ea face="SimSun" sz="160" lang="default"/>
@@ -1635,7 +1635,7 @@
       <sz val="10"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1723564117" fgClr="00007F" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1723568519" fgClr="00007F" ulstyle="none" kern="1">
             <pm:latin face="Arial" sz="200" lang="default"/>
             <pm:cs face="Times New Roman" sz="200" lang="default"/>
             <pm:ea face="SimSun" sz="200" lang="default"/>
@@ -1652,7 +1652,7 @@
       <u val="single"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1723564117" fgClr="0000FF" ulstyle="single" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1723568519" fgClr="0000FF" ulstyle="single" kern="1">
             <pm:latin face="Arial" sz="200" lang="default"/>
             <pm:cs face="Times New Roman" sz="200" lang="default"/>
             <pm:ea face="SimSun" sz="200" lang="default"/>
@@ -1669,7 +1669,7 @@
       <sz val="8"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1723564117" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1723568519" ulstyle="none" kern="1">
             <pm:latin face="Arial" sz="160" lang="default" weight="bold"/>
             <pm:cs face="Times New Roman" sz="160" lang="default" weight="bold"/>
             <pm:ea face="SimSun" sz="160" lang="default" weight="bold"/>
@@ -1685,7 +1685,7 @@
       <sz val="8"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1723564117" fgClr="974706" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1723568519" fgClr="974706" ulstyle="none" kern="1">
             <pm:latin face="Arial" sz="160" lang="default"/>
             <pm:cs face="Times New Roman" sz="160" lang="default"/>
             <pm:ea face="SimSun" sz="160" lang="default"/>
@@ -1701,7 +1701,7 @@
       <sz val="10"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1723564117" fgClr="FF0000" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1723568519" fgClr="FF0000" ulstyle="none" kern="1">
             <pm:latin face="Arial" sz="200" lang="default"/>
             <pm:cs face="Times New Roman" sz="200" lang="default"/>
             <pm:ea face="SimSun" sz="200" lang="default"/>
@@ -1717,7 +1717,7 @@
       <sz val="10"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1723564117" fgClr="0070C0" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1723568519" fgClr="0070C0" ulstyle="none" kern="1">
             <pm:latin face="Arial" sz="200" lang="default"/>
             <pm:cs face="Times New Roman" sz="200" lang="default"/>
             <pm:ea face="SimSun" sz="200" lang="default"/>
@@ -1733,7 +1733,7 @@
       <sz val="10"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1723564117" fgClr="00B050" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1723568519" fgClr="00B050" ulstyle="none" kern="1">
             <pm:latin face="Arial" sz="200" lang="default"/>
             <pm:cs face="Times New Roman" sz="200" lang="default"/>
             <pm:ea face="SimSun" sz="200" lang="default"/>
@@ -1750,7 +1750,7 @@
       <u val="single"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1723564117" fgClr="0000FF" ulstyle="single" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1723568519" fgClr="0000FF" ulstyle="single" kern="1">
             <pm:latin face="Arial" sz="200" lang="default"/>
             <pm:cs face="Times New Roman" sz="200" lang="default"/>
             <pm:ea face="SimSun" sz="200" lang="default"/>
@@ -1768,7 +1768,7 @@
       <u val="single"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1723564117" fgClr="0000FF" ulstyle="single" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1723568519" fgClr="0000FF" ulstyle="single" kern="1">
             <pm:latin face="Arial" sz="200" lang="default"/>
             <pm:cs face="Times New Roman" sz="200" lang="default"/>
             <pm:ea face="SimSun" sz="200" lang="default"/>
@@ -1786,7 +1786,7 @@
       <u val="single"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1723564117" fgClr="0000FF" ulstyle="single" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1723568519" fgClr="0000FF" ulstyle="single" kern="1">
             <pm:latin face="Arial" sz="200" lang="default"/>
             <pm:cs face="Times New Roman" sz="200" lang="default"/>
             <pm:ea face="SimSun" sz="200" lang="default"/>
@@ -1804,7 +1804,7 @@
       <u val="single"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1723564117" fgClr="0000FF" ulstyle="single" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1723568519" fgClr="0000FF" ulstyle="single" kern="1">
             <pm:latin face="Arial" sz="200" lang="default"/>
             <pm:cs face="Times New Roman" sz="200" lang="default"/>
             <pm:ea face="SimSun" sz="200" lang="default"/>
@@ -1821,7 +1821,7 @@
       <sz val="10"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1723564117" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1723568519" ulstyle="none" kern="1">
             <pm:latin face="Arial" sz="200" lang="default"/>
             <pm:cs face="Arial" sz="200" lang="default"/>
             <pm:ea face="Arial" sz="200" lang="default"/>
@@ -1838,7 +1838,7 @@
       <u val="single"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1723564117" fgClr="0000FF" ulstyle="single" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1723568519" fgClr="0000FF" ulstyle="single" kern="1">
             <pm:latin face="Arial" sz="200" lang="default"/>
             <pm:cs face="Times New Roman" sz="200" lang="default"/>
             <pm:ea face="SimSun" sz="200" lang="default"/>
@@ -1856,7 +1856,7 @@
       <u val="single"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1723564117" fgClr="0000FF" ulstyle="single" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1723568519" fgClr="0000FF" ulstyle="single" kern="1">
             <pm:latin face="Arial" sz="200" lang="default"/>
             <pm:cs face="Times New Roman" sz="200" lang="default"/>
             <pm:ea face="SimSun" sz="200" lang="default"/>
@@ -1874,7 +1874,7 @@
       <u val="single"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1723564117" fgClr="0000FF" ulstyle="single" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1723568519" fgClr="0000FF" ulstyle="single" kern="1">
             <pm:latin face="Arial" sz="200" lang="default"/>
             <pm:cs face="Times New Roman" sz="200" lang="default"/>
             <pm:ea face="SimSun" sz="200" lang="default"/>
@@ -1892,7 +1892,7 @@
       <sz val="10"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1723564117" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1723568519" ulstyle="none" kern="1">
             <pm:latin face="Arial" sz="200" lang="default" weight="bold"/>
             <pm:cs face="Arial" sz="200" lang="default" weight="bold"/>
             <pm:ea face="Arial" sz="200" lang="default" weight="bold"/>
@@ -1909,7 +1909,7 @@
       <sz val="10"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1723564117" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1723568519" ulstyle="none" kern="1">
             <pm:latin face="Arial" sz="200" lang="default" weight="bold"/>
             <pm:cs face="Times New Roman" sz="200" lang="default"/>
             <pm:ea face="SimSun" sz="200" lang="default"/>
@@ -1926,7 +1926,7 @@
       <u val="single"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1723564117" fgClr="0000FF" ulstyle="single" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1723568519" fgClr="0000FF" ulstyle="single" kern="1">
             <pm:latin face="Arial" sz="200" lang="default"/>
             <pm:cs face="Times New Roman" sz="200" lang="default"/>
             <pm:ea face="SimSun" sz="200" lang="default"/>
@@ -1944,7 +1944,7 @@
       <u val="single"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1723564117" fgClr="0000FF" ulstyle="single" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1723568519" fgClr="0000FF" ulstyle="single" kern="1">
             <pm:latin face="Arial" sz="200" lang="default"/>
             <pm:cs face="Times New Roman" sz="200" lang="default"/>
             <pm:ea face="SimSun" sz="200" lang="default"/>
@@ -1962,7 +1962,7 @@
       <sz val="11"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1723564117" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1723568519" ulstyle="none" kern="1">
             <pm:latin face="Arial" sz="220" lang="default" weight="bold"/>
             <pm:cs face="Times New Roman" sz="200" lang="default"/>
             <pm:ea face="SimSun" sz="200" lang="default"/>
@@ -1978,7 +1978,7 @@
       <sz val="11"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1723564117" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1723568519" ulstyle="none" kern="1">
             <pm:latin face="Arial" sz="220" lang="default"/>
             <pm:cs face="Times New Roman" sz="200" lang="default"/>
             <pm:ea face="SimSun" sz="200" lang="default"/>
@@ -1995,10 +1995,26 @@
       <sz val="10"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1723564117" fgClr="FF0000" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1723568519" fgClr="FF0000" ulstyle="none" kern="1">
             <pm:latin face="Arial" sz="200" lang="default" weight="bold"/>
             <pm:cs face="Times New Roman" sz="200" lang="default"/>
             <pm:ea face="SimSun" sz="200" lang="default"/>
+          </pm:charSpec>
+        </ext>
+      </extLst>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <charset val="204"/>
+      <family val="2"/>
+      <color rgb="FF000000"/>
+      <sz val="9"/>
+      <extLst>
+        <ext uri="smNativeData">
+          <pm:charSpec xmlns:pm="smNativeData" id="1723568519" ulstyle="none" kern="1">
+            <pm:latin face="Arial" sz="180" lang="default"/>
+            <pm:cs face="Arial" sz="180" lang="default"/>
+            <pm:ea face="Arial" sz="180" lang="default"/>
           </pm:charSpec>
         </ext>
       </extLst>
@@ -2017,7 +2033,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1723564117" type="1" fgLvl="100" fgClr="009E9E9E" bgLvl="0" bgClr="00FFFFFF"/>
+            <pm:shade xmlns:pm="smNativeData" id="1723568519" type="1" fgLvl="100" fgClr="009E9E9E" bgLvl="0" bgClr="00FFFFFF"/>
           </ext>
         </extLst>
       </patternFill>
@@ -2028,7 +2044,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1723564117" type="1" fgLvl="100" fgClr="009E9E9E" bgLvl="0" bgClr="00FFFFFF"/>
+            <pm:shade xmlns:pm="smNativeData" id="1723568519" type="1" fgLvl="100" fgClr="009E9E9E" bgLvl="0" bgClr="00FFFFFF"/>
           </ext>
         </extLst>
       </patternFill>
@@ -2039,7 +2055,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1723564117" type="1" fgLvl="100" fgClr="009E9E9E" bgLvl="0" bgClr="00FFFFFF"/>
+            <pm:shade xmlns:pm="smNativeData" id="1723568519" type="1" fgLvl="100" fgClr="009E9E9E" bgLvl="0" bgClr="00FFFFFF"/>
           </ext>
         </extLst>
       </patternFill>
@@ -2050,7 +2066,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1723564117" type="1" fgLvl="100" fgClr="009E9E9E" bgLvl="0" bgClr="00FFFFFF"/>
+            <pm:shade xmlns:pm="smNativeData" id="1723568519" type="1" fgLvl="100" fgClr="009E9E9E" bgLvl="0" bgClr="00FFFFFF"/>
           </ext>
         </extLst>
       </patternFill>
@@ -2061,7 +2077,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1723564117" type="1" fgLvl="100" fgClr="009E9E9E" bgLvl="0" bgClr="00FFFFFF"/>
+            <pm:shade xmlns:pm="smNativeData" id="1723568519" type="1" fgLvl="100" fgClr="009E9E9E" bgLvl="0" bgClr="00FFFFFF"/>
           </ext>
         </extLst>
       </patternFill>
@@ -2072,7 +2088,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1723564117" type="1" fgLvl="100" fgClr="009E9E9E" bgLvl="0" bgClr="00FFFFFF"/>
+            <pm:shade xmlns:pm="smNativeData" id="1723568519" type="1" fgLvl="100" fgClr="009E9E9E" bgLvl="0" bgClr="00FFFFFF"/>
           </ext>
         </extLst>
       </patternFill>
@@ -2083,7 +2099,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1723564117" type="1" fgLvl="100" fgClr="009E9E9E" bgLvl="0" bgClr="00FFFFFF"/>
+            <pm:shade xmlns:pm="smNativeData" id="1723568519" type="1" fgLvl="100" fgClr="009E9E9E" bgLvl="0" bgClr="00FFFFFF"/>
           </ext>
         </extLst>
       </patternFill>
@@ -2094,7 +2110,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1723564117" type="1" fgLvl="100" fgClr="009E9E9E" bgLvl="0" bgClr="00FFFFFF"/>
+            <pm:shade xmlns:pm="smNativeData" id="1723568519" type="1" fgLvl="100" fgClr="009E9E9E" bgLvl="0" bgClr="00FFFFFF"/>
           </ext>
         </extLst>
       </patternFill>
@@ -2114,7 +2130,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1723564117" type="1" fgLvl="100" fgClr="0000FB00" bgLvl="0" bgClr="00FFFFFF"/>
+            <pm:shade xmlns:pm="smNativeData" id="1723568519" type="1" fgLvl="100" fgClr="0000FB00" bgLvl="0" bgClr="00FFFFFF"/>
           </ext>
         </extLst>
       </patternFill>
@@ -2125,7 +2141,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1723564117" type="1" fgLvl="100" fgClr="00E6E6E6" bgLvl="0" bgClr="00FFFFFF"/>
+            <pm:shade xmlns:pm="smNativeData" id="1723568519" type="1" fgLvl="100" fgClr="00E6E6E6" bgLvl="0" bgClr="00FFFFFF"/>
           </ext>
         </extLst>
       </patternFill>
@@ -2136,7 +2152,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1723564117" type="1" fgLvl="100" fgClr="00FABE8D" bgLvl="0" bgClr="00FFFFFF"/>
+            <pm:shade xmlns:pm="smNativeData" id="1723568519" type="1" fgLvl="100" fgClr="00FABE8D" bgLvl="0" bgClr="00FFFFFF"/>
           </ext>
         </extLst>
       </patternFill>
@@ -2147,7 +2163,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1723564117" type="1" fgLvl="100" fgClr="00F1AA54" bgLvl="0" bgClr="00FFFFFF"/>
+            <pm:shade xmlns:pm="smNativeData" id="1723568519" type="1" fgLvl="100" fgClr="00F1AA54" bgLvl="0" bgClr="00FFFFFF"/>
           </ext>
         </extLst>
       </patternFill>
@@ -2158,7 +2174,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1723564117" type="1" fgLvl="100" fgClr="00FFFF00" bgLvl="0" bgClr="00FFFFFF"/>
+            <pm:shade xmlns:pm="smNativeData" id="1723568519" type="1" fgLvl="100" fgClr="00FFFF00" bgLvl="0" bgClr="00FFFFFF"/>
           </ext>
         </extLst>
       </patternFill>
@@ -2169,7 +2185,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1723564117" type="1" fgLvl="100" fgClr="00FF6600" bgLvl="0" bgClr="00FFFFFF"/>
+            <pm:shade xmlns:pm="smNativeData" id="1723568519" type="1" fgLvl="100" fgClr="00FF6600" bgLvl="0" bgClr="00FFFFFF"/>
           </ext>
         </extLst>
       </patternFill>
@@ -2180,7 +2196,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1723564117" type="1" fgLvl="100" fgClr="00FF0000" bgLvl="0" bgClr="00FFFFFF"/>
+            <pm:shade xmlns:pm="smNativeData" id="1723568519" type="1" fgLvl="100" fgClr="00FF0000" bgLvl="0" bgClr="00FFFFFF"/>
           </ext>
         </extLst>
       </patternFill>
@@ -2191,7 +2207,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1723564117" type="1" fgLvl="100" fgClr="004D4D4D" bgLvl="0" bgClr="00FFFFFF"/>
+            <pm:shade xmlns:pm="smNativeData" id="1723568519" type="1" fgLvl="100" fgClr="004D4D4D" bgLvl="0" bgClr="00FFFFFF"/>
           </ext>
         </extLst>
       </patternFill>
@@ -2202,7 +2218,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1723564117" type="1" fgLvl="100" fgClr="00661E75" bgLvl="0" bgClr="00FFFFFF"/>
+            <pm:shade xmlns:pm="smNativeData" id="1723568519" type="1" fgLvl="100" fgClr="00661E75" bgLvl="0" bgClr="00FFFFFF"/>
           </ext>
         </extLst>
       </patternFill>
@@ -2213,7 +2229,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1723564117" type="1" fgLvl="100" fgClr="0000FFFF" bgLvl="0" bgClr="00FFFFFF"/>
+            <pm:shade xmlns:pm="smNativeData" id="1723568519" type="1" fgLvl="100" fgClr="0000FFFF" bgLvl="0" bgClr="00FFFFFF"/>
           </ext>
         </extLst>
       </patternFill>
@@ -2224,7 +2240,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1723564117" type="1" fgLvl="100" fgClr="004D4D4D" bgLvl="0" bgClr="00FFFFFF"/>
+            <pm:shade xmlns:pm="smNativeData" id="1723568519" type="1" fgLvl="100" fgClr="004D4D4D" bgLvl="0" bgClr="00FFFFFF"/>
           </ext>
         </extLst>
       </patternFill>
@@ -2235,7 +2251,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1723564117" type="1" fgLvl="100" fgClr="007F7F7F" bgLvl="0" bgClr="00FFFFFF"/>
+            <pm:shade xmlns:pm="smNativeData" id="1723568519" type="1" fgLvl="100" fgClr="007F7F7F" bgLvl="0" bgClr="00FFFFFF"/>
           </ext>
         </extLst>
       </patternFill>
@@ -2246,7 +2262,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1723564117" type="1" fgLvl="100" fgClr="00E26B0A" bgLvl="0" bgClr="00FFFFFF"/>
+            <pm:shade xmlns:pm="smNativeData" id="1723568519" type="1" fgLvl="100" fgClr="00E26B0A" bgLvl="0" bgClr="00FFFFFF"/>
           </ext>
         </extLst>
       </patternFill>
@@ -2257,7 +2273,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1723564117" type="1" fgLvl="100" fgClr="00E26B0A" bgLvl="0" bgClr="00FFFFFF"/>
+            <pm:shade xmlns:pm="smNativeData" id="1723568519" type="1" fgLvl="100" fgClr="00E26B0A" bgLvl="0" bgClr="00FFFFFF"/>
           </ext>
         </extLst>
       </patternFill>
@@ -2268,7 +2284,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1723564117" type="1" fgLvl="100" fgClr="00E26B0A" bgLvl="0" bgClr="00FFFFFF"/>
+            <pm:shade xmlns:pm="smNativeData" id="1723568519" type="1" fgLvl="100" fgClr="00E26B0A" bgLvl="0" bgClr="00FFFFFF"/>
           </ext>
         </extLst>
       </patternFill>
@@ -2279,7 +2295,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1723564117" type="1" fgLvl="100" fgClr="00E26B0A" bgLvl="0" bgClr="00FFFFFF"/>
+            <pm:shade xmlns:pm="smNativeData" id="1723568519" type="1" fgLvl="100" fgClr="00E26B0A" bgLvl="0" bgClr="00FFFFFF"/>
           </ext>
         </extLst>
       </patternFill>
@@ -2350,7 +2366,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1723564117" type="1" fgLvl="38" fgClr="00000000" bgLvl="100" bgClr="00FFFFFF"/>
+            <pm:shade xmlns:pm="smNativeData" id="1723568519" type="1" fgLvl="38" fgClr="00000000" bgLvl="100" bgClr="00FFFFFF"/>
           </ext>
         </extLst>
       </patternFill>
@@ -2361,7 +2377,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1723564117" type="1" fgLvl="38" fgClr="00000000" bgLvl="100" bgClr="00FFFFFF"/>
+            <pm:shade xmlns:pm="smNativeData" id="1723568519" type="1" fgLvl="38" fgClr="00000000" bgLvl="100" bgClr="00FFFFFF"/>
           </ext>
         </extLst>
       </patternFill>
@@ -2372,7 +2388,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1723564117" type="1" fgLvl="38" fgClr="00000000" bgLvl="100" bgClr="00FFFFFF"/>
+            <pm:shade xmlns:pm="smNativeData" id="1723568519" type="1" fgLvl="38" fgClr="00000000" bgLvl="100" bgClr="00FFFFFF"/>
           </ext>
         </extLst>
       </patternFill>
@@ -2383,7 +2399,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1723564117" type="1" fgLvl="100" fgClr="007679F1" bgLvl="100" bgClr="00FFFFFF"/>
+            <pm:shade xmlns:pm="smNativeData" id="1723568519" type="1" fgLvl="100" fgClr="007679F1" bgLvl="100" bgClr="00FFFFFF"/>
           </ext>
         </extLst>
       </patternFill>
@@ -2403,7 +2419,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1723564117" type="1" fgLvl="38" fgClr="00000000" bgLvl="100" bgClr="00FFFFFF"/>
+            <pm:shade xmlns:pm="smNativeData" id="1723568519" type="1" fgLvl="38" fgClr="00000000" bgLvl="100" bgClr="00FFFFFF"/>
           </ext>
         </extLst>
       </patternFill>
@@ -2414,7 +2430,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1723564117" type="1" fgLvl="13" fgClr="00000000" bgLvl="100" bgClr="00FFFFFF"/>
+            <pm:shade xmlns:pm="smNativeData" id="1723568519" type="1" fgLvl="13" fgClr="00000000" bgLvl="100" bgClr="00FFFFFF"/>
           </ext>
         </extLst>
       </patternFill>
@@ -2425,7 +2441,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1723564117" type="1" fgLvl="38" fgClr="00000000" bgLvl="100" bgClr="00FFFFFF"/>
+            <pm:shade xmlns:pm="smNativeData" id="1723568519" type="1" fgLvl="38" fgClr="00000000" bgLvl="100" bgClr="00FFFFFF"/>
           </ext>
         </extLst>
       </patternFill>
@@ -2436,7 +2452,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1723564117" type="1" fgLvl="38" fgClr="00000000" bgLvl="100" bgClr="00FFFFFF"/>
+            <pm:shade xmlns:pm="smNativeData" id="1723568519" type="1" fgLvl="38" fgClr="00000000" bgLvl="100" bgClr="00FFFFFF"/>
           </ext>
         </extLst>
       </patternFill>
@@ -2447,7 +2463,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1723564117" type="1" fgLvl="38" fgClr="00000000" bgLvl="100" bgClr="00FFFFFF"/>
+            <pm:shade xmlns:pm="smNativeData" id="1723568519" type="1" fgLvl="38" fgClr="00000000" bgLvl="100" bgClr="00FFFFFF"/>
           </ext>
         </extLst>
       </patternFill>
@@ -2467,7 +2483,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1723564117" type="1" fgLvl="100" fgClr="00F1AA54" bgLvl="0" bgClr="00FFFFFF"/>
+            <pm:shade xmlns:pm="smNativeData" id="1723568519" type="1" fgLvl="100" fgClr="00F1AA54" bgLvl="0" bgClr="00FFFFFF"/>
           </ext>
         </extLst>
       </patternFill>
@@ -2478,7 +2494,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1723564117" type="1" fgLvl="100" fgClr="00F1AA54" bgLvl="0" bgClr="00FFFFFF"/>
+            <pm:shade xmlns:pm="smNativeData" id="1723568519" type="1" fgLvl="100" fgClr="00F1AA54" bgLvl="0" bgClr="00FFFFFF"/>
           </ext>
         </extLst>
       </patternFill>
@@ -2489,7 +2505,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1723564117" type="1" fgLvl="100" fgClr="00FABE8D" bgLvl="0" bgClr="00FFFFFF"/>
+            <pm:shade xmlns:pm="smNativeData" id="1723568519" type="1" fgLvl="100" fgClr="00FABE8D" bgLvl="0" bgClr="00FFFFFF"/>
           </ext>
         </extLst>
       </patternFill>
@@ -2500,7 +2516,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1723564117" type="1" fgLvl="100" fgClr="00FFFF00" bgLvl="0" bgClr="00FFFFFF"/>
+            <pm:shade xmlns:pm="smNativeData" id="1723568519" type="1" fgLvl="100" fgClr="00FFFF00" bgLvl="0" bgClr="00FFFFFF"/>
           </ext>
         </extLst>
       </patternFill>
@@ -2511,7 +2527,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1723564117" type="1" fgLvl="100" fgClr="00007F00" bgLvl="100" bgClr="00FFFFFF"/>
+            <pm:shade xmlns:pm="smNativeData" id="1723568519" type="1" fgLvl="100" fgClr="00007F00" bgLvl="100" bgClr="00FFFFFF"/>
           </ext>
         </extLst>
       </patternFill>
@@ -2522,7 +2538,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1723564117" type="1" fgLvl="88" fgClr="00FABE8D" bgLvl="0" bgClr="00FFFFFF"/>
+            <pm:shade xmlns:pm="smNativeData" id="1723568519" type="1" fgLvl="88" fgClr="00FABE8D" bgLvl="0" bgClr="00FFFFFF"/>
           </ext>
         </extLst>
       </patternFill>
@@ -2533,7 +2549,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1723564117" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="100" bgClr="00000000"/>
+            <pm:shade xmlns:pm="smNativeData" id="1723568519" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="100" bgClr="00000000"/>
           </ext>
         </extLst>
       </patternFill>
@@ -2555,7 +2571,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1723564117"/>
+          <pm:border xmlns:pm="smNativeData" id="1723568519"/>
         </ext>
       </extLst>
     </border>
@@ -2574,7 +2590,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1723564117">
+          <pm:border xmlns:pm="smNativeData" id="1723568519">
             <pm:line position="top" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
           </pm:border>
         </ext>
@@ -2595,7 +2611,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1723564117">
+          <pm:border xmlns:pm="smNativeData" id="1723568519">
             <pm:line position="top" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="right" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
           </pm:border>
@@ -2617,7 +2633,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1723564117">
+          <pm:border xmlns:pm="smNativeData" id="1723568519">
             <pm:line position="left" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
           </pm:border>
         </ext>
@@ -2638,7 +2654,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1723564117"/>
+          <pm:border xmlns:pm="smNativeData" id="1723568519"/>
         </ext>
       </extLst>
     </border>
@@ -2657,7 +2673,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1723564117">
+          <pm:border xmlns:pm="smNativeData" id="1723568519">
             <pm:line position="right" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
           </pm:border>
         </ext>
@@ -2678,7 +2694,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1723564117">
+          <pm:border xmlns:pm="smNativeData" id="1723568519">
             <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
           </pm:border>
         </ext>
@@ -2699,7 +2715,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1723564117">
+          <pm:border xmlns:pm="smNativeData" id="1723568519">
             <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="right" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
           </pm:border>
@@ -2721,7 +2737,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1723564117">
+          <pm:border xmlns:pm="smNativeData" id="1723568519">
             <pm:line position="top" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="left" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
           </pm:border>
@@ -2743,7 +2759,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1723564117">
+          <pm:border xmlns:pm="smNativeData" id="1723568519">
             <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
           </pm:border>
         </ext>
@@ -2764,7 +2780,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1723564117">
+          <pm:border xmlns:pm="smNativeData" id="1723568519">
             <pm:line position="left" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="right" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
           </pm:border>
@@ -2786,7 +2802,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1723564117">
+          <pm:border xmlns:pm="smNativeData" id="1723568519">
             <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="left" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="right" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
@@ -2809,7 +2825,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1723564117"/>
+          <pm:border xmlns:pm="smNativeData" id="1723568519"/>
         </ext>
       </extLst>
     </border>
@@ -2828,7 +2844,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1723564117">
+          <pm:border xmlns:pm="smNativeData" id="1723568519">
             <pm:line position="left" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="right" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
           </pm:border>
@@ -2850,7 +2866,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1723564117">
+          <pm:border xmlns:pm="smNativeData" id="1723568519">
             <pm:line position="left" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="right" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
           </pm:border>
@@ -2872,7 +2888,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1723564117">
+          <pm:border xmlns:pm="smNativeData" id="1723568519">
             <pm:line position="left" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="right" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
           </pm:border>
@@ -2894,7 +2910,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1723564117">
+          <pm:border xmlns:pm="smNativeData" id="1723568519">
             <pm:line position="left" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="right" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
           </pm:border>
@@ -2916,7 +2932,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1723564117">
+          <pm:border xmlns:pm="smNativeData" id="1723568519">
             <pm:line position="left" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="right" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
           </pm:border>
@@ -2938,7 +2954,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1723564117">
+          <pm:border xmlns:pm="smNativeData" id="1723568519">
             <pm:line position="left" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="right" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
           </pm:border>
@@ -2960,7 +2976,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1723564117">
+          <pm:border xmlns:pm="smNativeData" id="1723568519">
             <pm:line position="left" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="right" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
           </pm:border>
@@ -2982,7 +2998,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1723564117">
+          <pm:border xmlns:pm="smNativeData" id="1723568519">
             <pm:line position="left" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="right" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
           </pm:border>
@@ -3004,7 +3020,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1723564117">
+          <pm:border xmlns:pm="smNativeData" id="1723568519">
             <pm:line position="left" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="right" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
           </pm:border>
@@ -3026,7 +3042,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1723564117"/>
+          <pm:border xmlns:pm="smNativeData" id="1723568519"/>
         </ext>
       </extLst>
     </border>
@@ -3045,7 +3061,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1723564117"/>
+          <pm:border xmlns:pm="smNativeData" id="1723568519"/>
         </ext>
       </extLst>
     </border>
@@ -3064,7 +3080,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1723564117">
+          <pm:border xmlns:pm="smNativeData" id="1723568519">
             <pm:line position="top" type="1" style="0" width="30" dist="20" width2="20" rgb="000000"/>
             <pm:line position="bottom" type="1" style="0" width="30" dist="20" width2="20" rgb="000000"/>
             <pm:line position="left" type="1" style="0" width="30" dist="20" width2="20" rgb="000000"/>
@@ -3087,7 +3103,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1723564117">
+          <pm:border xmlns:pm="smNativeData" id="1723568519">
             <pm:line position="top" type="1" style="0" width="30" dist="20" width2="20" rgb="000000"/>
             <pm:line position="bottom" type="1" style="0" width="30" dist="20" width2="20" rgb="000000"/>
           </pm:border>
@@ -3109,7 +3125,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1723564117">
+          <pm:border xmlns:pm="smNativeData" id="1723568519">
             <pm:line position="top" type="1" style="0" width="30" dist="20" width2="20" rgb="000000"/>
             <pm:line position="bottom" type="1" style="0" width="30" dist="20" width2="20" rgb="000000"/>
             <pm:line position="right" type="1" style="0" width="30" dist="20" width2="20" rgb="000000"/>
@@ -3132,7 +3148,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1723564117"/>
+          <pm:border xmlns:pm="smNativeData" id="1723568519"/>
         </ext>
       </extLst>
     </border>
@@ -3151,7 +3167,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1723564117">
+          <pm:border xmlns:pm="smNativeData" id="1723568519">
             <pm:line position="top" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="left" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
@@ -3174,7 +3190,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1723564117">
+          <pm:border xmlns:pm="smNativeData" id="1723568519">
             <pm:line position="top" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
           </pm:border>
@@ -3196,7 +3212,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1723564117">
+          <pm:border xmlns:pm="smNativeData" id="1723568519">
             <pm:line position="top" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="right" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
@@ -3219,7 +3235,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1723564117">
+          <pm:border xmlns:pm="smNativeData" id="1723568519">
             <pm:line position="top" type="1" style="0" width="30" dist="20" width2="20" rgb="000000"/>
             <pm:line position="bottom" type="1" style="0" width="30" dist="20" width2="20" rgb="000000"/>
             <pm:line position="left" type="1" style="0" width="30" dist="20" width2="20" rgb="000000"/>
@@ -3242,7 +3258,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1723564117">
+          <pm:border xmlns:pm="smNativeData" id="1723568519">
             <pm:line position="top" type="1" style="0" width="30" dist="20" width2="20" rgb="000000"/>
             <pm:line position="bottom" type="1" style="0" width="30" dist="20" width2="20" rgb="000000"/>
           </pm:border>
@@ -3264,7 +3280,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1723564117">
+          <pm:border xmlns:pm="smNativeData" id="1723568519">
             <pm:line position="top" type="1" style="0" width="30" dist="20" width2="20" rgb="000000"/>
             <pm:line position="bottom" type="1" style="0" width="30" dist="20" width2="20" rgb="000000"/>
             <pm:line position="right" type="1" style="0" width="30" dist="20" width2="20" rgb="000000"/>
@@ -3287,7 +3303,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1723564117">
+          <pm:border xmlns:pm="smNativeData" id="1723568519">
             <pm:line position="top" type="1" style="0" width="30" dist="20" width2="20" rgb="000000"/>
             <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
           </pm:border>
@@ -3309,7 +3325,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1723564117">
+          <pm:border xmlns:pm="smNativeData" id="1723568519">
             <pm:line position="left" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
           </pm:border>
         </ext>
@@ -3330,7 +3346,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1723564117">
+          <pm:border xmlns:pm="smNativeData" id="1723568519">
             <pm:line position="top" type="1" style="0" width="30" dist="20" width2="20" rgb="000000"/>
             <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="right" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
@@ -3353,7 +3369,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1723564117">
+          <pm:border xmlns:pm="smNativeData" id="1723568519">
             <pm:line position="top" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="left" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
           </pm:border>
@@ -3375,7 +3391,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1723564117">
+          <pm:border xmlns:pm="smNativeData" id="1723568519">
             <pm:line position="top" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
           </pm:border>
         </ext>
@@ -3396,7 +3412,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1723564117">
+          <pm:border xmlns:pm="smNativeData" id="1723568519">
             <pm:line position="right" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
           </pm:border>
         </ext>
@@ -3417,7 +3433,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1723564117">
+          <pm:border xmlns:pm="smNativeData" id="1723568519">
             <pm:line position="top" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="bottom" type="1" style="0" width="40" dist="20" width2="20" rgb="000000"/>
           </pm:border>
@@ -3439,7 +3455,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1723564117">
+          <pm:border xmlns:pm="smNativeData" id="1723568519">
             <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="left" type="1" style="1" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="right" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
@@ -3462,7 +3478,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1723564117">
+          <pm:border xmlns:pm="smNativeData" id="1723568519">
             <pm:line position="bottom" type="1" style="0" width="40" dist="20" width2="20" rgb="000000"/>
             <pm:line position="left" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
           </pm:border>
@@ -3484,7 +3500,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1723564117">
+          <pm:border xmlns:pm="smNativeData" id="1723568519">
             <pm:line position="bottom" type="1" style="0" width="40" dist="20" width2="20" rgb="000000"/>
           </pm:border>
         </ext>
@@ -3505,7 +3521,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1723564117">
+          <pm:border xmlns:pm="smNativeData" id="1723568519">
             <pm:line position="top" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="left" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
@@ -3529,7 +3545,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1723564117">
+          <pm:border xmlns:pm="smNativeData" id="1723568519">
             <pm:line position="top" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="bottom" type="1" style="0" width="40" dist="20" width2="20" rgb="000000"/>
             <pm:line position="left" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
@@ -3553,7 +3569,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1723564117">
+          <pm:border xmlns:pm="smNativeData" id="1723568519">
             <pm:line position="top" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="left" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="right" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
@@ -3576,7 +3592,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1723564117">
+          <pm:border xmlns:pm="smNativeData" id="1723568519">
             <pm:line position="bottom" type="1" style="0" width="40" dist="20" width2="20" rgb="000000"/>
             <pm:line position="left" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="right" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
@@ -3599,7 +3615,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1723564117">
+          <pm:border xmlns:pm="smNativeData" id="1723568519">
             <pm:line position="bottom" type="1" style="0" width="40" dist="20" width2="20" rgb="000000"/>
             <pm:line position="right" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
           </pm:border>
@@ -3621,7 +3637,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1723564117">
+          <pm:border xmlns:pm="smNativeData" id="1723568519">
             <pm:line position="bottom" type="1" style="0" width="40" dist="20" width2="20" rgb="000000"/>
             <pm:line position="left" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="right" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
@@ -3644,7 +3660,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1723564117">
+          <pm:border xmlns:pm="smNativeData" id="1723568519">
             <pm:line position="bottom" type="1" style="0" width="40" dist="20" width2="20" rgb="000000"/>
             <pm:line position="left" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
           </pm:border>
@@ -3666,7 +3682,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1723564117">
+          <pm:border xmlns:pm="smNativeData" id="1723568519">
             <pm:line position="top" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="left" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
@@ -3690,7 +3706,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1723564117">
+          <pm:border xmlns:pm="smNativeData" id="1723568519">
             <pm:line position="top" type="1" style="0" width="40" dist="20" width2="20" rgb="000000"/>
             <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="left" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
@@ -3713,7 +3729,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1723564117">
+          <pm:border xmlns:pm="smNativeData" id="1723568519">
             <pm:line position="top" type="1" style="0" width="40" dist="20" width2="20" rgb="000000"/>
             <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
           </pm:border>
@@ -3735,7 +3751,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1723564117">
+          <pm:border xmlns:pm="smNativeData" id="1723568519">
             <pm:line position="top" type="1" style="0" width="40" dist="20" width2="20" rgb="000000"/>
             <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="right" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
@@ -3758,7 +3774,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1723564117"/>
+          <pm:border xmlns:pm="smNativeData" id="1723568519"/>
         </ext>
       </extLst>
     </border>
@@ -3777,7 +3793,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1723564117">
+          <pm:border xmlns:pm="smNativeData" id="1723568519">
             <pm:line position="top" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="left" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
@@ -3801,7 +3817,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1723564117">
+          <pm:border xmlns:pm="smNativeData" id="1723568519">
             <pm:line position="top" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="left" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
           </pm:border>
@@ -3823,7 +3839,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1723564117">
+          <pm:border xmlns:pm="smNativeData" id="1723568519">
             <pm:line position="top" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
           </pm:border>
         </ext>
@@ -3844,7 +3860,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1723564117">
+          <pm:border xmlns:pm="smNativeData" id="1723568519">
             <pm:line position="top" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="right" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
           </pm:border>
@@ -3866,7 +3882,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1723564117">
+          <pm:border xmlns:pm="smNativeData" id="1723568519">
             <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="left" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
           </pm:border>
@@ -3888,7 +3904,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1723564117">
+          <pm:border xmlns:pm="smNativeData" id="1723568519">
             <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="right" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
           </pm:border>
@@ -3910,7 +3926,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1723564117">
+          <pm:border xmlns:pm="smNativeData" id="1723568519">
             <pm:line position="top" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="right" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
           </pm:border>
@@ -3932,7 +3948,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1723564117">
+          <pm:border xmlns:pm="smNativeData" id="1723568519">
             <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="left" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="right" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
@@ -3955,7 +3971,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1723564117">
+          <pm:border xmlns:pm="smNativeData" id="1723568519">
             <pm:line position="top" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="left" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
@@ -3979,7 +3995,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1723564117">
+          <pm:border xmlns:pm="smNativeData" id="1723568519">
             <pm:line position="top" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="left" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
@@ -4003,7 +4019,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1723564117">
+          <pm:border xmlns:pm="smNativeData" id="1723568519">
             <pm:line position="top" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="left" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
@@ -4027,7 +4043,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1723564117">
+          <pm:border xmlns:pm="smNativeData" id="1723568519">
             <pm:line position="top" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="left" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
@@ -4051,7 +4067,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1723564117">
+          <pm:border xmlns:pm="smNativeData" id="1723568519">
             <pm:line position="top" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="left" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
@@ -4075,7 +4091,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1723564117"/>
+          <pm:border xmlns:pm="smNativeData" id="1723568519"/>
         </ext>
       </extLst>
     </border>
@@ -4419,10 +4435,10 @@
   <tableStyles count="0"/>
   <extLst>
     <ext uri="smNativeData">
-      <pm:charStyles xmlns:pm="smNativeData" id="1723564117" count="1">
+      <pm:charStyles xmlns:pm="smNativeData" id="1723568519" count="1">
         <pm:charStyle name="Обычный" fontId="0" Id="1"/>
       </pm:charStyles>
-      <pm:colors xmlns:pm="smNativeData" id="1723564117" count="18">
+      <pm:colors xmlns:pm="smNativeData" id="1723568519" count="18">
         <pm:color name="Цвет 24" rgb="E26B0A"/>
         <pm:color name="Цвет 25" rgb="974706"/>
         <pm:color name="Цвет 26" rgb="0070C0"/>
@@ -4693,7 +4709,7 @@
   </c:txPr>
   <c:extLst>
     <c:ext xmlns:sm="smo" uri="smo">
-      <sm:colorScheme xmlns:sm="smo" id="1723564117" val="7"/>
+      <sm:colorScheme xmlns:sm="smo" id="1723568519" val="7"/>
     </c:ext>
   </c:extLst>
 </c:chartSpace>
@@ -4955,18 +4971,18 @@
             <c:numRef>
               <c:f>отчет!$G$35:$J$35</c:f>
               <c:numCache>
-                <c:formatCode>0.0%</c:formatCode>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>0.973</c:v>
                 </c:pt>
-                <c:pt idx="1" formatCode="0.00%">
+                <c:pt idx="1">
                   <c:v>0.0052</c:v>
                 </c:pt>
-                <c:pt idx="2" formatCode="0.00%">
+                <c:pt idx="2">
                   <c:v>0.0109</c:v>
                 </c:pt>
-                <c:pt idx="3" formatCode="0.00%">
+                <c:pt idx="3">
                   <c:v>0.0109</c:v>
                 </c:pt>
               </c:numCache>
@@ -5026,15 +5042,6 @@
           <a:noFill/>
         </a:ln>
       </c:spPr>
-      <c:txPr>
-        <a:bodyPr anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr/>
-          </a:pPr>
-        </a:p>
-      </c:txPr>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
@@ -5058,7 +5065,7 @@
   </c:txPr>
   <c:extLst>
     <c:ext xmlns:sm="smo" uri="smo">
-      <sm:colorScheme xmlns:sm="smo" id="1723564117" val="7"/>
+      <sm:colorScheme xmlns:sm="smo" id="1723568519" val="7"/>
     </c:ext>
   </c:extLst>
 </c:chartSpace>
@@ -5085,7 +5092,7 @@
         <xdr:cNvSpPr>
           <a:extLst>
             <a:ext uri="smNativeData">
-              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_VYC7ZhMAAAAlAAAAZQAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAABAAAAAAAAAAEAAABQAAAAhbacS3FV1T8AAAAAAAAAAAAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAEAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAAAAAAAAeAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAAAAAAAALAAAAnAB3AwIAAAAOAAAAVQIUA9U/AAAiAAAA+Q0AAB4CAAAAAAAA"/>
+              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_h5G7ZhMAAAAlAAAAZQAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAABAAAAAAAAAAEAAABQAAAAhbacS3FV1T8AAAAAAAAAAAAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAEAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAAAAAAAAeAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAAAAAAAALAAAAnAB3AwIAAAAOAAAAVQIUA9U/AAAiAAAA+Q0AAB4CAAAAAAAA"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvSpPr>
@@ -5171,7 +5178,7 @@
         <xdr:cNvSpPr>
           <a:extLst>
             <a:ext uri="smNativeData">
-              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_VYC7ZhMAAAAlAAAAZQAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAABAAAAAAAAAAEAAABQAAAAhbacS3FV1T8AAAAAAAAAAAAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAEAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAAAAAAAAeAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAAAUAAAAOAAAA6gDJAQcAAAAPAAAANAFmAdNLAACOBAAAUgYAAM4BAAAAAAAA"/>
+              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_h5G7ZhMAAAAlAAAAZQAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAABAAAAAAAAAAEAAABQAAAAhbacS3FV1T8AAAAAAAAAAAAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAEAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAAAAAAAAeAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAAAUAAAAOAAAA6gDJAQcAAAAPAAAANAFmAdNLAACOBAAAUgYAAM4BAAAAAAAA"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvSpPr>
@@ -5246,7 +5253,7 @@
         <xdr:cNvSpPr>
           <a:extLst>
             <a:ext uri="smNativeData">
-              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_VYC7ZhMAAAAlAAAAZQAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAABAAAAAAAAAAEAAABQAAAAhbacS3FV1T8AAAAAAAAAAAAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAEAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAADcANgAeAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAAAUAAAAKAAAAVwD2AwgAAAAMAAAAOQLPAQk8AABuBAAAVwYAAAYDAAAAAAAA"/>
+              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_h5G7ZhMAAAAlAAAAZQAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAABAAAAAAAAAAEAAABQAAAAhbacS3FV1T8AAAAAAAAAAAAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAEAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAADcANgAeAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAAAUAAAAKAAAAVwD2AwgAAAAMAAAAOQLPAQk8AABuBAAAVwYAAAYDAAAAAAAA"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvSpPr>
@@ -5332,7 +5339,7 @@
         <xdr:cNvSpPr>
           <a:extLst>
             <a:ext uri="smNativeData">
-              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_VYC7ZhMAAAAlAAAAZQAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAABAAAAAAAAAAEAAABQAAAAhbacS3FV1T8AAAAAAAAAAAAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAEAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAAJeXl/8eAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAAAUAAAAFAAAApQAAAQgAAAAHAAAARQAfAe0aAAB/BAAAcQsAAIgCAAAAAAAA"/>
+              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_h5G7ZhMAAAAlAAAAZQAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAABAAAAAAAAAAEAAABQAAAAhbacS3FV1T8AAAAAAAAAAAAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAEAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAAJeXl/8eAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAAAUAAAAFAAAApQAAAQgAAAAHAAAARQAfAe0aAAB/BAAAcQsAAIgCAAAAAAAA"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvSpPr>
@@ -5412,7 +5419,7 @@
         <xdr:cNvSpPr>
           <a:extLst>
             <a:ext uri="smNativeData">
-              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_VYC7ZhMAAAAlAAAAZQAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAABAAAAAAAAAAEAAABQAAAAhbacS3FV1T8AAAAAAAAAAAAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAEAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAAAAAAAAeAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAAAUAAAAWAAAABgEmAwcAAAAYAAAA6wH8AA5+AACUBAAAUwYAAPABAAAAAAAA"/>
+              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_h5G7ZhMAAAAlAAAAZQAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAABAAAAAAAAAAEAAABQAAAAhbacS3FV1T8AAAAAAAAAAAAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAEAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAAAAAAAAeAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAAAUAAAAWAAAABgEmAwcAAAAYAAAA6wH8AA5+AACUBAAAUwYAAPABAAAAAAAA"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvSpPr>
@@ -5502,7 +5509,7 @@
         <xdr:cNvCxnSpPr>
           <a:extLst>
             <a:ext uri="smNativeData">
-              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_VYC7ZhMAAAAlAAAADQAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAAAAAAAAAAAAAEAAABQAAAAAAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAAAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAZAAAAAEAAABAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAAAAAAAAeAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAAAQAAAAFAAAAAADqAwQAAAAQAAAARQAsAksgAAB8AwAAjj4AAA8AAAAAAAAA"/>
+              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_h5G7ZhMAAAAlAAAADQAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAAAAAAAAAAAAAEAAABQAAAAAAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAAAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAZAAAAAEAAABAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAAAAAAAAeAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAAAQAAAAFAAAAAADqAwQAAAAQAAAARQAsAksgAAB8AwAAjj4AAA8AAAAAAAAA"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvCxnSpPr>
@@ -5548,7 +5555,7 @@
         <xdr:cNvSpPr>
           <a:extLst>
             <a:ext uri="smNativeData">
-              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_VYC7ZhMAAAAlAAAAZQAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAABAAAAAAAAAAEAAABQAAAAhbacS3FV1T8AAAAAAAAAAAAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAEAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAAObotv8eAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAAAoAAAAJAAAA5gA2AA0AAAAJAAAA2gKUAjwvAADoCAAAUQUAAAoDAAAAAAAA"/>
+              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_h5G7ZhMAAAAlAAAAZQAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAABAAAAAAAAAAEAAABQAAAAhbacS3FV1T8AAAAAAAAAAAAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAEAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAAObotv8eAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAAAoAAAAJAAAA5gA2AA0AAAAJAAAA2gKUAjwvAADoCAAAUQUAAAoDAAAAAAAA"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvSpPr>
@@ -5644,7 +5651,7 @@
         <xdr:cNvSpPr>
           <a:extLst>
             <a:ext uri="smNativeData">
-              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_VYC7ZhMAAAAlAAAAZQAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAABAAAAAAAAAAEAAABQAAAAhbacS3FV1T8AAAAAAAAAAAAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAEAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAAAAAAAAeAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAAAoAAAAHAAAA0wD7AQ0AAAAIAAAATwFZApQnAADkCAAAZAUAALgCAAAAAAAA"/>
+              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_h5G7ZhMAAAAlAAAAZQAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAABAAAAAAAAAAEAAABQAAAAhbacS3FV1T8AAAAAAAAAAAAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAEAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAAAAAAAAeAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAAAoAAAAHAAAA0wD7AQ0AAAAIAAAATwFZApQnAADkCAAAZAUAALgCAAAAAAAA"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvSpPr>
@@ -5719,7 +5726,7 @@
         <xdr:cNvSpPr>
           <a:extLst>
             <a:ext uri="smNativeData">
-              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_VYC7ZhMAAAAlAAAAZQAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAABAAAAAAAAAAEAAABQAAAAhbacS3FV1T8AAAAAAAAAAAAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAEAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAAAAAAAAeAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAAAkAAAAGAAAA+wNXAA0AAAAHAAAAFAEDAdIgAAC1CAAAZQUAANoCAAAAAAAA"/>
+              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_h5G7ZhMAAAAlAAAAZQAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAABAAAAAAAAAAEAAABQAAAAhbacS3FV1T8AAAAAAAAAAAAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAEAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAAAAAAAAeAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAAAkAAAAGAAAA+wNXAA0AAAAHAAAAFAEDAdIgAAC1CAAAZQUAANoCAAAAAAAA"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvSpPr>
@@ -5816,7 +5823,7 @@
         <xdr:cNvSpPr>
           <a:extLst>
             <a:ext uri="smNativeData">
-              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_VYC7ZhMAAAAlAAAAZQAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAABAAAAAAAAAAEAAABQAAAAhbacS3FV1T8AAAAAAAAAAAAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAEAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAAAAAAAAeAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAAAoAAAAFAAAAcwBIAA0AAAAFAAAAFAE1A5oZAADPCAAAZAUAAMACAAAAAAAA"/>
+              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_h5G7ZhMAAAAlAAAAZQAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAABAAAAAAAAAAEAAABQAAAAhbacS3FV1T8AAAAAAAAAAAAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAEAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAAAAAAAAeAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAAAoAAAAFAAAAcwBIAA0AAAAFAAAAFAE1A5oZAADPCAAAZAUAAMACAAAAAAAA"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvSpPr>
@@ -5891,7 +5898,7 @@
         <xdr:cNvSpPr>
           <a:extLst>
             <a:ext uri="smNativeData">
-              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_VYC7ZhMAAAAlAAAAZQAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAABAAAAAAAAAAEAAABQAAAAhbacS3FV1T8AAAAAAAAAAAAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAEAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAAAAAAAAeAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAAAoAAAADAAAAJQDvAQ0AAAAEAAAAegJiA/cRAAC+CAAAcwYAAB8DAAAAAAAA"/>
+              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_h5G7ZhMAAAAlAAAAZQAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAABAAAAAAAAAAEAAABQAAAAhbacS3FV1T8AAAAAAAAAAAAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAEAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAAAAAAAAeAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAAAoAAAADAAAAJQDvAQ0AAAAEAAAAegJiA/cRAAC+CAAAcwYAAB8DAAAAAAAA"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvSpPr>
@@ -5966,7 +5973,7 @@
         <xdr:cNvSpPr>
           <a:extLst>
             <a:ext uri="smNativeData">
-              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_VYC7ZhMAAAAlAAAAZQAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAABAAAAAAAAAAEAAABQAAAAhbacS3FV1T8AAAAAAAAAAAAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAEAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAAAAAAAAeAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAABgAAAACAAAAZgGUARoAAAAEAAAAKgHSAE8LAAA2FQAAVAoAALEBAAAAAAAA"/>
+              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_h5G7ZhMAAAAlAAAAZQAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAABAAAAAAAAAAEAAABQAAAAhbacS3FV1T8AAAAAAAAAAAAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAEAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAAAAAAAAeAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAABgAAAACAAAAZgGUARoAAAAEAAAAKgHSAE8LAAA2FQAAVAoAALEBAAAAAAAA"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvSpPr>
@@ -6052,7 +6059,7 @@
         <xdr:cNvSpPr>
           <a:extLst>
             <a:ext uri="smNativeData">
-              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_VYC7ZhMAAAAlAAAAZQAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAABAAAAAAAAAAEAAABQAAAAhbacS3FV1T8AAAAAAAAAAAAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAEAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAAAAAAAAeAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAAA4AAAACAAAAHwNiARAAAAAEAAAA7AK3APwKAADgDAAAiQoAALMBAAAAAAAA"/>
+              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_h5G7ZhMAAAAlAAAAZQAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAABAAAAAAAAAAEAAABQAAAAhbacS3FV1T8AAAAAAAAAAAAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAEAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAAAAAAAAeAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAAA4AAAACAAAAHwNiARAAAAAEAAAA7AK3APwKAADgDAAAiQoAALMBAAAAAAAA"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvSpPr>
@@ -6138,7 +6145,7 @@
         <xdr:cNvSpPr>
           <a:extLst>
             <a:ext uri="smNativeData">
-              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_VYC7ZhMAAAAlAAAAZQAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAABAAAAAAAAAAEAAABQAAAAhbacS3FV1T8AAAAAAAAAAAAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAEAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAAAAAAAAeAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAABEAAAACAAAA7AJjARQAAAAEAAAAXADOAP4KAAByDwAAoAoAAA4CAAAAAAAA"/>
+              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_h5G7ZhMAAAAlAAAAZQAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAABAAAAAAAAAAEAAABQAAAAhbacS3FV1T8AAAAAAAAAAAAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAEAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAAAAAAAAeAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAABEAAAACAAAA7AJjARQAAAAEAAAAXADOAP4KAAByDwAAoAoAAA4CAAAAAAAA"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvSpPr>
@@ -6224,7 +6231,7 @@
         <xdr:cNvSpPr>
           <a:extLst>
             <a:ext uri="smNativeData">
-              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_VYC7ZhMAAAAlAAAAZQAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAABAAAAAAAAAAEAAABQAAAAhbacS3FV1T8AAAAAAAAAAAAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAEAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAAAAAAAAeAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAABUAAAACAAAAEgB2ARYAAAAEAAAA2wPOAB0LAABPEgAAgQoAALIBAAAAAAAA"/>
+              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_h5G7ZhMAAAAlAAAAZQAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAABAAAAAAAAAAEAAABQAAAAhbacS3FV1T8AAAAAAAAAAAAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAEAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAAAAAAAAeAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAABUAAAACAAAAEgB2ARYAAAAEAAAA2wPOAB0LAABPEgAAgQoAALIBAAAAAAAA"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvSpPr>
@@ -6310,7 +6317,7 @@
         <xdr:cNvSpPr>
           <a:extLst>
             <a:ext uri="smNativeData">
-              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_VYC7ZhMAAAAlAAAAZQAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAABAAAAAAAAAAEAAABQAAAAhbacS3FV1T8AAAAAAAAAAAAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAEAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAAAAAAAAeAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAAA4AAAAFAAAANwD8ABAAAAAGAAAA9QGxAuUaAAA+DAAAeggAAB8CAAAAAAAA"/>
+              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_h5G7ZhMAAAAlAAAAZQAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAABAAAAAAAAAAEAAABQAAAAhbacS3FV1T8AAAAAAAAAAAAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAEAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAAAAAAAAeAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAAA4AAAAFAAAANwD8ABAAAAAGAAAA9QGxAuUaAAA+DAAAeggAAB8CAAAAAAAA"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvSpPr>
@@ -6380,7 +6387,7 @@
         <xdr:cNvSpPr>
           <a:extLst>
             <a:ext uri="smNativeData">
-              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_VYC7ZhMAAAAlAAAAZQAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAABAAAAAAAAAAEAAABQAAAAhbacS3FV1T8AAAAAAAAAAAAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAEAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAAAAAAAAeAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAABEAAAAFAAAA6gDeABMAAAAGAAAA0gNhAq4aAAACDwAAWggAAGACAAAAAAAA"/>
+              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_h5G7ZhMAAAAlAAAAZQAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAABAAAAAAAAAAEAAABQAAAAhbacS3FV1T8AAAAAAAAAAAAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAEAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAAAAAAAAeAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAABEAAAAFAAAA6gDeABMAAAAGAAAA0gNhAq4aAAACDwAAWggAAGACAAAAAAAA"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvSpPr>
@@ -6455,7 +6462,7 @@
         <xdr:cNvSpPr>
           <a:extLst>
             <a:ext uri="smNativeData">
-              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_VYC7ZhMAAAAlAAAAZQAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAABAAAAAAAAAAEAAABQAAAAhbacS3FV1T8AAAAAAAAAAAAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAEAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAAAEAAAAeAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAABQAAAAFAAAAMQMCARcAAAAGAAAAtAGIAvAaAAAeEgAAQggAAEoCAAAAAAAA"/>
+              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_h5G7ZhMAAAAlAAAAZQAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAABAAAAAAAAAAEAAABQAAAAhbacS3FV1T8AAAAAAAAAAAAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAEAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAAAEAAAAeAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAABQAAAAFAAAAMQMCARcAAAAGAAAAtAGIAvAaAAAeEgAAQggAAEoCAAAAAAAA"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvSpPr>
@@ -6530,7 +6537,7 @@
         <xdr:cNvSpPr>
           <a:extLst>
             <a:ext uri="smNativeData">
-              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_VYC7ZhMAAAAlAAAAZQAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAABAAAAAAAAAAEAAABQAAAAhbacS3FV1T8AAAAAAAAAAAAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAEAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAAAUAAAAeAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAABgAAAAFAAAALgDlABsAAAAGAAAAzwBoArsaAADyFAAAVQgAAMACAAAAAAAA"/>
+              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_h5G7ZhMAAAAlAAAAZQAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAABAAAAAAAAAAEAAABQAAAAhbacS3FV1T8AAAAAAAAAAAAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAEAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAAAUAAAAeAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAABgAAAAFAAAALgDlABsAAAAGAAAAzwBoArsaAADyFAAAVQgAAMACAAAAAAAA"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvSpPr>
@@ -6621,7 +6628,7 @@
         <xdr:cNvSpPr>
           <a:extLst>
             <a:ext uri="smNativeData">
-              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_VYC7ZhMAAAAlAAAAZQAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAABAAAAAAAAAAEAAABQAAAAhbacS3FV1T8AAAAAAAAAAAAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAEAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAAAAAAAAeAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAAA4AAAAIAAAA7gMSABEAAAAJAAAAywHkAIEqAAANDQAAQgYAACYCAAAAAAAA"/>
+              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_h5G7ZhMAAAAlAAAAZQAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAABAAAAAAAAAAEAAABQAAAAhbacS3FV1T8AAAAAAAAAAAAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAEAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAAAAAAAAeAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAAA4AAAAIAAAA7gMSABEAAAAJAAAAywHkAIEqAAANDQAAQgYAACYCAAAAAAAA"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvSpPr>
@@ -6707,7 +6714,7 @@
         <xdr:cNvSpPr>
           <a:extLst>
             <a:ext uri="smNativeData">
-              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_VYC7ZhMAAAAlAAAAZQAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAABAAAAAAAAAAEAAABQAAAAhbacS3FV1T8AAAAAAAAAAAAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAEAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAAAAAAAAeAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAABEAAAAHAAAAsgP4AxQAAAAJAAAA6QP7AGIqAACdDwAAlQYAAKkCAAAAAAAA"/>
+              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_h5G7ZhMAAAAlAAAAZQAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAABAAAAAAAAAAEAAABQAAAAhbacS3FV1T8AAAAAAAAAAAAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAEAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAAAAAAAAeAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAABEAAAAHAAAAsgP4AxQAAAAJAAAA6QP7AGIqAACdDwAAlQYAAKkCAAAAAAAA"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvSpPr>
@@ -6782,7 +6789,7 @@
         <xdr:cNvSpPr>
           <a:extLst>
             <a:ext uri="smNativeData">
-              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_VYC7ZhMAAAAlAAAAZQAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAABAAAAAAAAAAEAAABQAAAAhbacS3FV1T8AAAAAAAAAAAAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAEAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAAAAAAAAeAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAABUAAAAIAAAAAgImABgAAAAJAAAAtAHyAJYqAAC7EgAATAYAAIwCAAAAAAAA"/>
+              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_h5G7ZhMAAAAlAAAAZQAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAABAAAAAAAAAAEAAABQAAAAhbacS3FV1T8AAAAAAAAAAAAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAEAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAAAAAAAAeAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAABUAAAAIAAAAAgImABgAAAAJAAAAtAHyAJYqAAC7EgAATAYAAIwCAAAAAAAA"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvSpPr>
@@ -6857,7 +6864,7 @@
         <xdr:cNvSpPr>
           <a:extLst>
             <a:ext uri="smNativeData">
-              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_VYC7ZhMAAAAlAAAAZQAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAABAAAAAAAAAAEAAABQAAAAhbacS3FV1T8AAAAAAAAAAAAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAEAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAAAAAAAAeAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAABgAAAAIAAAASAMSABsAAAAJAAAAWAHrAIEqAACfFQAAUgYAADECAAAAAAAA"/>
+              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_h5G7ZhMAAAAlAAAAZQAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAABAAAAAAAAAAEAAABQAAAAhbacS3FV1T8AAAAAAAAAAAAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAEAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAAAAAAAAeAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAABgAAAAIAAAASAMSABsAAAAJAAAAWAHrAIEqAACfFQAAUgYAADECAAAAAAAA"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvSpPr>
@@ -6932,7 +6939,7 @@
         <xdr:cNvSpPr>
           <a:extLst>
             <a:ext uri="smNativeData">
-              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_VYC7ZhMAAAAlAAAAZQAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAABAAAAAAAAAAEAAABQAAAAhbacS3FV1T8AAAAAAAAAAAAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAEAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAAAEAAAAeAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAABsAAAAHAAAA2wP8Ax4AAAAJAAAA+QHiAGcqAABcGAAAVwYAADQCAAAAAAAA"/>
+              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_h5G7ZhMAAAAlAAAAZQAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAABAAAAAAAAAAEAAABQAAAAhbacS3FV1T8AAAAAAAAAAAAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAEAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAAAEAAAAeAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAABsAAAAHAAAA2wP8Ax4AAAAJAAAA+QHiAGcqAABcGAAAVwYAADQCAAAAAAAA"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvSpPr>
@@ -6968,7 +6975,7 @@
             <a:defRPr sz="1000"/>
           </a:pPr>
           <a:r>
-            <a:rPr lang="ru-ru" sz="800" b="0" i="0" u="none" strike="noStrike" kern="100" baseline="0">
+            <a:rPr lang="ru-ru" sz="900" b="0" i="0" u="none" strike="noStrike" kern="100" baseline="0">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
@@ -6976,18 +6983,7 @@
               <a:ea typeface="Arial" pitchFamily="2" charset="204"/>
               <a:cs typeface="Arial" pitchFamily="2" charset="204"/>
             </a:rPr>
-            <a:t>Задач</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="ru-ru" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="100" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Arial" pitchFamily="2" charset="204"/>
-              <a:ea typeface="SimSun" charset="0"/>
-              <a:cs typeface="Times New Roman" pitchFamily="1" charset="204"/>
-            </a:rPr>
-            <a:t>и</a:t>
+            <a:t>Задачи</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -7018,7 +7014,7 @@
         <xdr:cNvSpPr>
           <a:extLst>
             <a:ext uri="smNativeData">
-              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_VYC7ZhMAAAAlAAAAZQAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAABAAAAAAAAAAEAAABQAAAAhbacS3FV1T8AAAAAAAAAAAAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAEAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAAAAAAAAeAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAAA8AAAAJAAAAVAFEAhIAAAAKAAAA9QFbA9kzAABbDQAAiAcAAMACAAAAAAAA"/>
+              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_h5G7ZhMAAAAlAAAAZQAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAABAAAAAAAAAAEAAABQAAAAhbacS3FV1T8AAAAAAAAAAAAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAEAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAAAAAAAAeAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAAA8AAAAJAAAAVAFEAhIAAAAKAAAA9QFbA9kzAABbDQAAiAcAAMACAAAAAAAA"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvSpPr>
@@ -7088,7 +7084,7 @@
         <xdr:cNvSpPr>
           <a:extLst>
             <a:ext uri="smNativeData">
-              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_VYC7ZhMAAAAlAAAAZQAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAABAAAAAAAAAAEAAABQAAAAhbacS3FV1T8AAAAAAAAAAAAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAEAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAAAAAAAAeAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAABMAAAAJAAAAqAJDAhYAAAAKAAAA1wPdA9czAAAhEQAAFwgAAN8CAAAAAAAA"/>
+              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_h5G7ZhMAAAAlAAAAZQAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAABAAAAAAAAAAEAAABQAAAAhbacS3FV1T8AAAAAAAAAAAAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAEAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAAAAAAAAeAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAABMAAAAJAAAAqAJDAhYAAAAKAAAA1wPdA9czAAAhEQAAFwgAAN8CAAAAAAAA"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvSpPr>
@@ -7168,7 +7164,7 @@
         <xdr:cNvSpPr>
           <a:extLst>
             <a:ext uri="smNativeData">
-              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_VYC7ZhMAAAAlAAAAZQAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAABAAAAAAAAAAEAAABQAAAAhbacS3FV1T8AAAAAAAAAAAAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAEAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAAAAAAAAeAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAABgAAAAJAAAAFAFLAhsAAAAKAAAAawHNA+kzAAAkFQAA9AcAALACAAAAAAAA"/>
+              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_h5G7ZhMAAAAlAAAAZQAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAABAAAAAAAAAAEAAABQAAAAhbacS3FV1T8AAAAAAAAAAAAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAEAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAAAAAAAAeAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAABgAAAAJAAAAFAFLAhsAAAAKAAAAawHNA+kzAAAkFQAA9AcAALACAAAAAAAA"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvSpPr>
@@ -7248,7 +7244,7 @@
         <xdr:cNvSpPr>
           <a:extLst>
             <a:ext uri="smNativeData">
-              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_VYC7ZhMAAAAlAAAAZQAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAABAAAAAAAAAAEAAABQAAAAhbacS3FV1T8AAAAAAAAAAAAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAEAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAAAAAAAAeAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAAAoAAAAKAAAAEgB0AA0AAAALAAAAJwJtATw4AAC6CAAAZAUAABEDAAAAAAAA"/>
+              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_h5G7ZhMAAAAlAAAAZQAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAABAAAAAAAAAAEAAABQAAAAhbacS3FV1T8AAAAAAAAAAAAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAEAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAAAAAAAAeAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAAAoAAAAKAAAAEgB0AA0AAAALAAAAJwJtATw4AAC6CAAAZAUAABEDAAAAAAAA"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvSpPr>
@@ -7323,7 +7319,7 @@
         <xdr:cNvSpPr>
           <a:extLst>
             <a:ext uri="smNativeData">
-              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_VYC7ZhMAAAAlAAAAZQAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAABAAAAAAAAAAEAAABQAAAAhbacS3FV1T8AAAAAAAAAAAAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAEAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAAAAAAAAeAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAAAkAAAALAAAAoAPyAg0AAAAMAAAA9gLCA0U/AAChCAAAOAUAAFcDAAAAAAAA"/>
+              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_h5G7ZhMAAAAlAAAAZQAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAABAAAAAAAAAAEAAABQAAAAhbacS3FV1T8AAAAAAAAAAAAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAEAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAAAAAAAAeAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAAAkAAAALAAAAoAPyAg0AAAAMAAAA9gLCA0U/AAChCAAAOAUAAFcDAAAAAAAA"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvSpPr>
@@ -7398,7 +7394,7 @@
         <xdr:cNvSpPr>
           <a:extLst>
             <a:ext uri="smNativeData">
-              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_VYC7ZhMAAAAlAAAAZQAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAABAAAAAAAAAAEAAABQAAAAhbacS3FV1T8AAAAAAAAAAAAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAEAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAAAAAAAAeAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAAAoAAAANAAAA0wAQAQ0AAAAOAAAA8AFxAedFAADkCAAAZQUAANsCAAAAAAAA"/>
+              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_h5G7ZhMAAAAlAAAAZQAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAABAAAAAAAAAAEAAABQAAAAhbacS3FV1T8AAAAAAAAAAAAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAEAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAAAAAAAAeAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAAAoAAAANAAAA0wAQAQ0AAAAOAAAA8AFxAedFAADkCAAAZQUAANsCAAAAAAAA"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvSpPr>
@@ -7484,7 +7480,7 @@
         <xdr:cNvSpPr>
           <a:extLst>
             <a:ext uri="smNativeData">
-              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_VYC7ZhMAAAAlAAAAZQAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAABAAAAAAAAAAEAAABQAAAAhbacS3FV1T8AAAAAAAAAAAAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAEAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAAAAAAAAeAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAAAoAAAAPAAAAcwCMAQ0AAAAQAAAAVAEbAXRSAADPCAAA1AgAAM4CAAAAAAAA"/>
+              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_h5G7ZhMAAAAlAAAAZQAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAABAAAAAAAAAAEAAABQAAAAhbacS3FV1T8AAAAAAAAAAAAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAEAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAAAAAAAAeAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAAAoAAAAPAAAAcwCMAQ0AAAAQAAAAVAEbAXRSAADPCAAA1AgAAM4CAAAAAAAA"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvSpPr>
@@ -7559,7 +7555,7 @@
         <xdr:cNvSpPr>
           <a:extLst>
             <a:ext uri="smNativeData">
-              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_VYC7ZhMAAAAlAAAAZQAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAABAAAAAAAAAAEAAABQAAAAhbacS3FV1T8AAAAAAAAAAAAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAEAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAAAAAAAAeAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAAAoAAAAOAAAAcwDpAQ0AAAAPAAAA4gFYAQRMAADPCAAAAwYAAO0CAAAAAAAA"/>
+              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_h5G7ZhMAAAAlAAAAZQAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAABAAAAAAAAAAEAAABQAAAAhbacS3FV1T8AAAAAAAAAAAAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAEAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAAAAAAAAeAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAAAoAAAAOAAAAcwDpAQ0AAAAPAAAA4gFYAQRMAADPCAAAAwYAAO0CAAAAAAAA"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvSpPr>
@@ -7634,7 +7630,7 @@
         <xdr:cNvSpPr>
           <a:extLst>
             <a:ext uri="smNativeData">
-              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_VYC7ZhMAAAAlAAAAZQAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAABAAAAAAAAAAEAAABQAAAAhbacS3FV1T8AAAAAAAAAAAAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAEAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAAAAAAAAeAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAABQAAAAMAAAALgDYAhYAAAAOAAAAtQJtA39DAAB2EQAA2AoAAEsCAAAAAAAA"/>
+              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_h5G7ZhMAAAAlAAAAZQAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAABAAAAAAAAAAEAAABQAAAAhbacS3FV1T8AAAAAAAAAAAAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAEAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAAAAAAAAeAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAABQAAAAMAAAALgDYAhYAAAAOAAAAtQJtA39DAAB2EQAA2AoAAEsCAAAAAAAA"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvSpPr>
@@ -7720,7 +7716,7 @@
         <xdr:cNvSpPr>
           <a:extLst>
             <a:ext uri="smNativeData">
-              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_VYC7ZhMAAAAlAAAAZQAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAABAAAAAAAAAAEAAABQAAAAhbacS3FV1T8AAAAAAAAAAAAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAEAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAAAAAAAAeAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAABcAAAAMAAAAWwMEAxoAAAAOAAAA9gJSA69DAADEFAAAfgoAAIcCAAAAAAAA"/>
+              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_h5G7ZhMAAAAlAAAAZQAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAABAAAAAAAAAAEAAABQAAAAhbacS3FV1T8AAAAAAAAAAAAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAEAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAAAAAAAAeAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAABcAAAAMAAAAWwMEAxoAAAAOAAAA9gJSA69DAADEFAAAfgoAAIcCAAAAAAAA"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvSpPr>
@@ -7795,7 +7791,7 @@
         <xdr:cNvSpPr>
           <a:extLst>
             <a:ext uri="smNativeData">
-              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_VYC7ZhMAAAAlAAAAZQAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAABAAAAAAAAAAEAAABQAAAAhbacS3FV1T8AAAAAAAAAAAAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAEAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAAOR5hQweAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAAA8AAAAPAAAAWwO5AhIAAAAQAAAAhAOeAelUAADMDQAAFQgAAKYCAAAAAAAA"/>
+              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_h5G7ZhMAAAAlAAAAZQAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAABAAAAAAAAAAEAAABQAAAAhbacS3FV1T8AAAAAAAAAAAAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAEAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAAOR5hQweAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAAA8AAAAPAAAAWwO5AhIAAAAQAAAAhAOeAelUAADMDQAAFQgAAKYCAAAAAAAA"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvSpPr>
@@ -7870,7 +7866,7 @@
         <xdr:cNvSpPr>
           <a:extLst>
             <a:ext uri="smNativeData">
-              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_VYC7ZhMAAAAlAAAAZQAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAABAAAAAAAAAAEAAABQAAAAhbacS3FV1T8AAAAAAAAAAAAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAEAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAAAAAAAAeAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAABMAAAAPAAAAmwOvAhYAAAAQAAAA7AKTAdRUAABWEQAABQgAAHcCAAAAAAAA"/>
+              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_h5G7ZhMAAAAlAAAAZQAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAABAAAAAAAAAAEAAABQAAAAhbacS3FV1T8AAAAAAAAAAAAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAEAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAAAAAAAAeAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAABMAAAAPAAAAmwOvAhYAAAAQAAAA7AKTAdRUAABWEQAABQgAAHcCAAAAAAAA"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvSpPr>
@@ -7945,7 +7941,7 @@
         <xdr:cNvSpPr>
           <a:extLst>
             <a:ext uri="smNativeData">
-              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_VYC7ZhMAAAAlAAAAZQAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAABAAAAAAAAAAEAAABQAAAAhbacS3FV1T8AAAAAAAAAAAAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAEAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAAAEAAAAeAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAABcAAAAPAAAAvQG4AhsAAAAQAAAAHQGpAedUAABqFAAAPAgAAFkDAAAAAAAA"/>
+              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_h5G7ZhMAAAAlAAAAZQAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAABAAAAAAAAAAEAAABQAAAAhbacS3FV1T8AAAAAAAAAAAAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAEAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAAAEAAAAeAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAABcAAAAPAAAAvQG4AhsAAAAQAAAAHQGpAedUAABqFAAAPAgAAFkDAAAAAAAA"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvSpPr>
@@ -8047,7 +8043,7 @@
         <xdr:cNvSpPr>
           <a:extLst>
             <a:ext uri="smNativeData">
-              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_VYC7ZhMAAAAlAAAAZQAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAABAAAAAAAAAAEAAABQAAAAhbacS3FV1T8AAAAAAAAAAAAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAEAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAAAAAAAAeAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAAA4AAAAQAAAAewP7AxIAAAASAAAAFwCpAuVkAAD0DAAASQcAAL8CAAAAAAAA"/>
+              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_h5G7ZhMAAAAlAAAAZQAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAABAAAAAAAAAAEAAABQAAAAhbacS3FV1T8AAAAAAAAAAAAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAEAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAAAAAAAAeAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAAA4AAAAQAAAAewP7AxIAAAASAAAAFwCpAuVkAAD0DAAASQcAAL8CAAAAAAAA"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvSpPr>
@@ -8122,7 +8118,7 @@
         <xdr:cNvSpPr>
           <a:extLst>
             <a:ext uri="smNativeData">
-              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_VYC7ZhMAAAAlAAAAZQAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAABAAAAAAAAAAEAAABQAAAAhbacS3FV1T8AAAAAAAAAAAAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAEAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAAAAAAAAeAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAABcAAAARAAAARgEdABoAAAASAAAATALpAhVlAABQFAAAXwcAANYCAAAAAAAA"/>
+              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_h5G7ZhMAAAAlAAAAZQAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAABAAAAAAAAAAEAAABQAAAAhbacS3FV1T8AAAAAAAAAAAAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAEAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAAAAAAAAeAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAABcAAAARAAAARgEdABoAAAASAAAATALpAhVlAABQFAAAXwcAANYCAAAAAAAA"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvSpPr>
@@ -8202,7 +8198,7 @@
         <xdr:cNvSpPr>
           <a:extLst>
             <a:ext uri="smNativeData">
-              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_VYC7ZhMAAAAlAAAAZQAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAABAAAAAAAAAAEAAABQAAAAhbacS3FV1T8AAAAAAAAAAAAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAEAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAAAAAAAAeAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAAB4AAAAIAAAAmwMFACIAAAAJAAAA/gHjAHIqAADrGgAATwYAACIDAAAAAAAA"/>
+              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_h5G7ZhMAAAAlAAAAZQAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAABAAAAAAAAAAEAAABQAAAAhbacS3FV1T8AAAAAAAAAAAAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAEAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAAAAAAAAeAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAAB4AAAAIAAAAmwMFACIAAAAJAAAA/gHjAHIqAADrGgAATwYAACIDAAAAAAAA"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvSpPr>
@@ -8277,7 +8273,7 @@
         <xdr:cNvSpPr>
           <a:extLst>
             <a:ext uri="smNativeData">
-              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_VYC7ZhMAAAAlAAAAZQAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAABAAAAAAAAAAEAAABQAAAAhbacS3FV1T8AAAAAAAAAAAAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAEAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAAAAAAAAeAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAACIAAAAIAAAASAMQACUAAAAJAAAAcwPxAH4qAABVHgAAYgYAAMoCAAAAAAAA"/>
+              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_h5G7ZhMAAAAlAAAAZQAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAABAAAAAAAAAAEAAABQAAAAhbacS3FV1T8AAAAAAAAAAAAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAEAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAAAAAAAAeAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAACIAAAAIAAAASAMQACUAAAAJAAAAcwPxAH4qAABVHgAAYgYAAMoCAAAAAAAA"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvSpPr>
@@ -8352,7 +8348,7 @@
         <xdr:cNvSpPr>
           <a:extLst>
             <a:ext uri="smNativeData">
-              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_VYC7ZhMAAAAlAAAACgAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAAAAAAAAAAAAAEAAABQAAAAAAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAAAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAZAAAAAEAAABAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAAAAAAAAeAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAAA0AAAAJAAAA3wKlARoAAAAJAAAALgC9AXQyAADzCwAANgAAAL0KAAAAAAAA"/>
+              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_h5G7ZhMAAAAlAAAACgAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAAAAAAAAAAAAAEAAABQAAAAAAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAAAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAZAAAAAEAAABAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAAAAAAAAeAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAAA0AAAAJAAAA3wKlARoAAAAJAAAALgC9AXQyAADzCwAANgAAAL0KAAAAAAAA"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvSpPr>
@@ -8398,7 +8394,7 @@
         <xdr:cNvSpPr>
           <a:extLst>
             <a:ext uri="smNativeData">
-              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_VYC7ZhMAAAAlAAAAyAAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAAAAAAAAAAAAAEAAABQAAAAd3d3d3d3tz8AAAAAAAAAAAAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAEAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAAAAAAAAeAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAABQAAAAJAAAA+wO6ARUAAAAJAAAA4wJbAqMyAABKEgAAagEAAKIAAAAAAAAA"/>
+              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_h5G7ZhMAAAAlAAAAyAAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAAAAAAAAAAAAAEAAABQAAAAd3d3d3d3tz8AAAAAAAAAAAAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAEAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAAAAAAAAeAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAABQAAAAJAAAA+wO6ARUAAAAJAAAA4wJbAqMyAABKEgAAagEAAKIAAAAAAAAA"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvSpPr>
@@ -8449,7 +8445,7 @@
         <xdr:cNvSpPr>
           <a:extLst>
             <a:ext uri="smNativeData">
-              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_VYC7ZhMAAAAlAAAAyAAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAAAAAAAAAAAAAEAAABQAAAAd3d3d3d3tz8AAAAAAAAAAAAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAEAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAAAAAAAAeAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAABAAAAAJAAAAkQK4AREAAAAJAAAAeQFYAp8yAAB/DgAAZwEAAKIAAAAAAAAA"/>
+              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_h5G7ZhMAAAAlAAAAyAAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAAAAAAAAAAAAAEAAABQAAAAd3d3d3d3tz8AAAAAAAAAAAAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAEAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAAAAAAAAeAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAABAAAAAJAAAAkQK4AREAAAAJAAAAeQFYAp8yAAB/DgAAZwEAAKIAAAAAAAAA"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvSpPr>
@@ -8500,7 +8496,7 @@
         <xdr:cNvSpPr>
           <a:extLst>
             <a:ext uri="smNativeData">
-              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_VYC7ZhMAAAAlAAAAyAAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAAAAAAAAAAAAAEAAABQAAAAqsdjOVh3tz8AAAAAAAAAAAAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAEAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAAAAAAAAeAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAABkAAAAJAAAACAOwARoAAAAJAAAA5wFQAo0yAABwFgAAZwEAAKAAAAAAAAAA"/>
+              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_h5G7ZhMAAAAlAAAAyAAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAAAAAAAAAAAAAEAAABQAAAAqsdjOVh3tz8AAAAAAAAAAAAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAEAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAAAAAAAAeAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAABkAAAAJAAAACAOwARoAAAAJAAAA5wFQAo0yAABwFgAAZwEAAKAAAAAAAAAA"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvSpPr>
@@ -8551,7 +8547,7 @@
         <xdr:cNvSpPr>
           <a:extLst>
             <a:ext uri="smNativeData">
-              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_VYC7ZhMAAAAlAAAACgAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAAAAAAAAAAAAAEAAABQAAAAAAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAAAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAZAAAAAEAAABAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAAAAAAAAeAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAAA0AAAAHAAAAjwHTAiQAAAAHAAAAjgPsAsUoAACqCwAAIwAAAJoUAAAAAAAA"/>
+              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_h5G7ZhMAAAAlAAAACgAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAAAAAAAAAAAAAEAAABQAAAAAAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAAAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAZAAAAAEAAABAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAAAAAAAAeAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAAA0AAAAHAAAAjwHTAiQAAAAHAAAAjgPsAsUoAACqCwAAIwAAAJoUAAAAAAAA"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvSpPr>
@@ -8597,7 +8593,7 @@
         <xdr:cNvSpPr>
           <a:extLst>
             <a:ext uri="smNativeData">
-              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_VYC7ZhMAAAAlAAAAyAAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAAAAAAAAAAAAAEAAABQAAAAnWyQwGV3tz8AAAAAAAAAAAAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAEAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAAAAAAAAeAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAABAAAAAHAAAAIAD3AhAAAAAHAAAACAP1A/goAAD3DQAAZQEAAKIAAAAAAAAA"/>
+              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_h5G7ZhMAAAAlAAAAyAAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAAAAAAAAAAAAAEAAABQAAAAnWyQwGV3tz8AAAAAAAAAAAAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAEAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAAAAAAAAeAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAABAAAAAHAAAAIAD3AhAAAAAHAAAACAP1A/goAAD3DQAAZQEAAKIAAAAAAAAA"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvSpPr>
@@ -8648,7 +8644,7 @@
         <xdr:cNvSpPr>
           <a:extLst>
             <a:ext uri="smNativeData">
-              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_VYC7ZhMAAAAlAAAAyAAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAAAAAAAAAAAAAEAAABQAAAA+502PYd3tz8AAAAAAAAAAAAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAEAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAAAAAAAAeAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAABMAAAAHAAAAXQHoAhQAAAAHAAAARQDnA+IoAADZEAAAaAEAAKIAAAAAAAAA"/>
+              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_h5G7ZhMAAAAlAAAAyAAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAAAAAAAAAAAAAEAAABQAAAA+502PYd3tz8AAAAAAAAAAAAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAEAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAAAAAAAAeAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAABMAAAAHAAAAXQHoAhQAAAAHAAAARQDnA+IoAADZEAAAaAEAAKIAAAAAAAAA"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvSpPr>
@@ -8699,7 +8695,7 @@
         <xdr:cNvSpPr>
           <a:extLst>
             <a:ext uri="smNativeData">
-              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_VYC7ZhMAAAAlAAAAyAAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAAAAAAAAAAAAAEAAABQAAAAdh2uuIJ3tz8AAAAAAAAAAAAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAEAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAAAAAAAAeAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAABYAAAAHAAAA3wLsAhcAAAAHAAAAwgHuA+goAADKEwAAbAEAAKEAAAAAAAAA"/>
+              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_h5G7ZhMAAAAlAAAAyAAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAAAAAAAAAAAAAEAAABQAAAAdh2uuIJ3tz8AAAAAAAAAAAAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAEAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAAAAAAAAeAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAABYAAAAHAAAA3wLsAhcAAAAHAAAAwgHuA+goAADKEwAAbAEAAKEAAAAAAAAA"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvSpPr>
@@ -8750,7 +8746,7 @@
         <xdr:cNvSpPr>
           <a:extLst>
             <a:ext uri="smNativeData">
-              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_VYC7ZhMAAAAlAAAAyAAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAAAAAAAAAAAAAEAAABQAAAA7pvBynF3tz8AAAAAAAAAAAAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAEAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAAAAAAAAeAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAABkAAAAHAAAAdgP8AhoAAAAHAAAAVQL6A/8oAACIFgAAZgEAAKAAAAAAAAAA"/>
+              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_h5G7ZhMAAAAlAAAAyAAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAAAAAAAAAAAAAEAAABQAAAA7pvBynF3tz8AAAAAAAAAAAAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAEAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAAAAAAAAeAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAABkAAAAHAAAAdgP8AhoAAAAHAAAAVQL6A/8oAACIFgAAZgEAAKAAAAAAAAAA"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvSpPr>
@@ -8801,7 +8797,7 @@
         <xdr:cNvSpPr>
           <a:extLst>
             <a:ext uri="smNativeData">
-              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_VYC7ZhMAAAAlAAAAyAAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAAAAAAAAAAAAAEAAABQAAAA+502PYd3tz8AAAAAAAAAAAAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAEAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAAAAAAAAeAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAABwAAAAHAAAAZAPwAh0AAAAHAAAATALwA+4oAAAhGQAAaAEAAKIAAAAAAAAA"/>
+              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_h5G7ZhMAAAAlAAAAyAAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAAAAAAAAAAAAAEAAABQAAAA+502PYd3tz8AAAAAAAAAAAAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAEAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAAAAAAAAeAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAABwAAAAHAAAAZAPwAh0AAAAHAAAATALwA+4oAAAhGQAAaAEAAKIAAAAAAAAA"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvSpPr>
@@ -8852,7 +8848,7 @@
         <xdr:cNvSpPr>
           <a:extLst>
             <a:ext uri="smNativeData">
-              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_VYC7ZhMAAAAlAAAAyAAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAAAAAAAAAAAAAEAAABQAAAA5eEVHH13tz8AAAAAAAAAAAAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAEAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAADfLaSYeAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAACAAAAAHAAAAvwLwAiEAAAAHAAAAogHvA+4oAAB5HAAAZwEAAKEAAAAAAAAA"/>
+              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_h5G7ZhMAAAAlAAAAyAAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAAAAAAAAAAAAAEAAABQAAAA5eEVHH13tz8AAAAAAAAAAAAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAEAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAADfLaSYeAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAACAAAAAHAAAAvwLwAiEAAAAHAAAAogHvA+4oAAB5HAAAZwEAAKEAAAAAAAAA"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvSpPr>
@@ -8903,7 +8899,7 @@
         <xdr:cNvSpPr>
           <a:extLst>
             <a:ext uri="smNativeData">
-              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_VYC7ZhMAAAAlAAAAyAAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAAAAAAAAAAAAAEAAABQAAAAJIA3MJd3tz8AAAAAAAAAAAAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAEAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAAAAAAAAeAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAACQAAAAHAAAA7QDtAiQAAAAHAAAA0gPqA+koAACwHwAAZQEAAKMAAAAAAAAA"/>
+              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_h5G7ZhMAAAAlAAAAyAAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAAAAAAAAAAAAAEAAABQAAAAJIA3MJd3tz8AAAAAAAAAAAAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAEAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAAAAAAAAeAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAACQAAAAHAAAA7QDtAiQAAAAHAAAA0gPqA+koAACwHwAAZQEAAKMAAAAAAAAA"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvSpPr>
@@ -8954,7 +8950,7 @@
         <xdr:cNvSpPr>
           <a:extLst>
             <a:ext uri="smNativeData">
-              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_VYC7ZhMAAAAlAAAACgAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAAAAAAAAAAAAAEAAABQAAAAAAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAAAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAZAAAAAEAAABAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAAAAAAAAeAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAAA0AAAAGAAAAogHeAxoAAAAGAAAAGAH/A6UkAACuCwAAJAAAADULAAAAAAAA"/>
+              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_h5G7ZhMAAAAlAAAACgAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAAAAAAAAAAAAAEAAABQAAAAAAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAAAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAZAAAAAEAAABAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAAAAAAAAeAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAAA0AAAAGAAAAogHeAxoAAAAGAAAAGAH/A6UkAACuCwAAJAAAADULAAAAAAAA"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvSpPr>
@@ -9000,7 +8996,7 @@
         <xdr:cNvSpPr>
           <a:extLst>
             <a:ext uri="smNativeData">
-              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_VYC7ZhMAAAAlAAAAyAAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAAAAAAAAAAAAAEAAABQAAAA5eEVHH13tz8AAAAAAAAAAAAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAEAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAAAAAAAAeAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAABIAAAAGAAAA8AGSAhMAAAAGAAAA2ADeAz0jAAAaEAAAaAEAAKIAAAAAAAAA"/>
+              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_h5G7ZhMAAAAlAAAAyAAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAAAAAAAAAAAAAEAAABQAAAA5eEVHH13tz8AAAAAAAAAAAAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAEAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAAAAAAAAeAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAABIAAAAGAAAA8AGSAhMAAAAGAAAA2ADeAz0jAAAaEAAAaAEAAKIAAAAAAAAA"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvSpPr>
@@ -9051,7 +9047,7 @@
         <xdr:cNvSpPr>
           <a:extLst>
             <a:ext uri="smNativeData">
-              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_VYC7ZhMAAAAlAAAAyAAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAAAAAAAAAAAAAEAAABQAAAA5eEVHH13tz8AAAAAAAAAAAAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAEAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAAAAAAAAeAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAAA8AAAAGAAAA9QG4AhAAAAAHAAAA2AACAGYjAAB+DQAAZwEAAKEAAAAAAAAA"/>
+              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_h5G7ZhMAAAAlAAAAyAAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAAAAAAAAAAAAAEAAABQAAAA5eEVHH13tz8AAAAAAAAAAAAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAEAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAAAAAAAAeAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAAA8AAAAGAAAA9QG4AhAAAAAHAAAA2AACAGYjAAB+DQAAZwEAAKEAAAAAAAAA"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvSpPr>
@@ -9102,7 +9098,7 @@
         <xdr:cNvSpPr>
           <a:extLst>
             <a:ext uri="smNativeData">
-              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_VYC7ZhMAAAAlAAAAyAAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAAAAAAAAAAAAAEAAABQAAAA+502PYd3tz8AAAAAAAAAAAAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAEAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAADhdf60eAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAABUAAAAGAAAAGgOUAhYAAAAGAAAAAgLgAz8jAAD4EgAAaAEAAKIAAAAAAAAA"/>
+              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_h5G7ZhMAAAAlAAAAyAAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAAAAAAAAAAAAAEAAABQAAAA+502PYd3tz8AAAAAAAAAAAAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAEAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAADhdf60eAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAABUAAAAGAAAAGgOUAhYAAAAGAAAAAgLgAz8jAAD4EgAAaAEAAKIAAAAAAAAA"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvSpPr>
@@ -9153,7 +9149,7 @@
         <xdr:cNvSpPr>
           <a:extLst>
             <a:ext uri="smNativeData">
-              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_VYC7ZhMAAAAlAAAAyAAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAAAAAAAAAAAAAEAAABQAAAAdh2uuIJ3tz8AAAAAAAAAAAAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAEAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAAAAAAAAeAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAABkAAAAGAAAAogGfAhoAAAAGAAAAigDrA0sjAAAiFgAAaAEAAKIAAAAAAAAA"/>
+              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_h5G7ZhMAAAAlAAAAyAAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAAAAAAAAAAAAAEAAABQAAAAdh2uuIJ3tz8AAAAAAAAAAAAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAEAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAAAAAAAAeAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAABkAAAAGAAAAogGfAhoAAAAGAAAAigDrA0sjAAAiFgAAaAEAAKIAAAAAAAAA"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvSpPr>
@@ -9204,7 +9200,7 @@
         <xdr:cNvSpPr>
           <a:extLst>
             <a:ext uri="smNativeData">
-              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_VYC7ZhMAAAAlAAAACgAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAAAAAAAAAAAAAEAAABQAAAAAAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAAAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAZAAAAAEAAABAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAAAAAAAAeAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAAAgAAAADAAAAjQMiAwkAAAAJAAAAAABvAZQTAAC+BwAAZx4AABkAAAAAAAAA"/>
+              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_h5G7ZhMAAAAlAAAACgAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAAAAAAAAAAAAAEAAABQAAAAAAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAAAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAZAAAAAEAAABAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAAAAAAAAeAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAAAgAAAADAAAAjQMiAwkAAAAJAAAAAABvAZQTAAC+BwAAZx4AABkAAAAAAAAA"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvSpPr>
@@ -9250,7 +9246,7 @@
         <xdr:cNvSpPr>
           <a:extLst>
             <a:ext uri="smNativeData">
-              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_VYC7ZhMAAAAlAAAAywAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAAAAAAAAAAAAAEAAABQAAAAH/T8Ift5zj+SkbOwpx2uPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAEAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAAAAAAAAeAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAAAcAAAAFAAAAGgPBAwgAAAAGAAAAyQN9AAAgAADGBgAA+wAAAAUBAAAAAAAA"/>
+              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_h5G7ZhMAAAAlAAAAywAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAAAAAAAAAAAAAEAAABQAAAAH/T8Ift5zj+SkbOwpx2uPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAEAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAAAAAAAAeAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAAAcAAAAFAAAAGgPBAwgAAAAGAAAAyQN9AAAgAADGBgAA+wAAAAUBAAAAAAAA"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvSpPr>
@@ -9302,7 +9298,7 @@
           <a:stCxn id="104" idx="0"/>
           <a:extLst>
             <a:ext uri="smNativeData">
-              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_VYC7ZhMAAAAlAAAADQAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAAAAAAAAAAAAAEAAABQAAAAAAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAAAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAZAAAAAEAAABAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAAAAAAAAeAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAAA0AAAAEAAAAwwIZAhkAAAAEAAAAowIoAgUXAADtCwAAEAAAAG0KAAAAAAAA"/>
+              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_h5G7ZhMAAAAlAAAADQAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAAAAAAAAAAAAAEAAABQAAAAAAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAAAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAZAAAAAEAAABAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAAAAAAAAeAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAAA0AAAAEAAAAwwIZAhkAAAAEAAAAowIoAgUXAADtCwAAEAAAAG0KAAAAAAAA"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvCxnSpPr>
@@ -9348,7 +9344,7 @@
         <xdr:cNvSpPr>
           <a:extLst>
             <a:ext uri="smNativeData">
-              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_VYC7ZhMAAAAlAAAAyAAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAAAAAAAAAAAAAEAAABQAAAAGH6GRo13tz8AAAAAAAAAAAAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAEAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAAAAAAAAeAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAAA8AAAAEAAAA2wPjABAAAAAEAAAAugItArUVAADoDQAAZgEAAKAAAAAAAAAA"/>
+              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_h5G7ZhMAAAAlAAAAyAAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAAAAAAAAAAAAAEAAABQAAAAGH6GRo13tz8AAAAAAAAAAAAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAEAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAAAAAAAAeAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAAA8AAAAEAAAA2wPjABAAAAAEAAAAugItArUVAADoDQAAZgEAAKAAAAAAAAAA"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvSpPr>
@@ -9399,7 +9395,7 @@
         <xdr:cNvSpPr>
           <a:extLst>
             <a:ext uri="smNativeData">
-              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_VYC7ZhMAAAAlAAAAyAAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAAAAAAAAAAAAAEAAABQAAAA+502PYd3tz8AAAAAAAAAAAAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAEAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAAAAAAAAeAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAABIAAAAEAAAAsgO9ABMAAAAEAAAAlQIIAowVAAB8EAAAZwEAAKEAAAAAAAAA"/>
+              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_h5G7ZhMAAAAlAAAAyAAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAAAAAAAAAAAAAEAAABQAAAA+502PYd3tz8AAAAAAAAAAAAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAEAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAAAAAAAAeAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAABIAAAAEAAAAsgO9ABMAAAAEAAAAlQIIAowVAAB8EAAAZwEAAKEAAAAAAAAA"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvSpPr>
@@ -9450,7 +9446,7 @@
         <xdr:cNvSpPr>
           <a:extLst>
             <a:ext uri="smNativeData">
-              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_VYC7ZhMAAAAlAAAAyAAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAAAAAAAAAAAAAEAAABQAAAA+502PYd3tz8AAAAAAAAAAAAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAEAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAAAAAAAAeAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAABUAAAAEAAAAEQO1ABYAAAAEAAAA9QEBAoMVAAD2EgAAaAEAAKEAAAAAAAAA"/>
+              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_h5G7ZhMAAAAlAAAAyAAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAAAAAAAAAAAAAEAAABQAAAA+502PYd3tz8AAAAAAAAAAAAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAEAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAAAAAAAAeAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAABUAAAAEAAAAEQO1ABYAAAAEAAAA9QEBAoMVAAD2EgAAaAEAAKEAAAAAAAAA"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvSpPr>
@@ -9501,7 +9497,7 @@
         <xdr:cNvSpPr>
           <a:extLst>
             <a:ext uri="smNativeData">
-              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_VYC7ZhMAAAAlAAAAyAAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAAAAAAAAAAAAAEAAABQAAAAd3d3d3d3tz8AAAAAAAAAAAAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAEAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAAAAAAAAeAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAABgAAAAEAAAA1wOyABkAAAAEAAAAvwL7AYAVAAC+FQAAZQEAAKIAAAAAAAAA"/>
+              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_h5G7ZhMAAAAlAAAAyAAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAAAAAAAAAAAAAEAAABQAAAAd3d3d3d3tz8AAAAAAAAAAAAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAEAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAAAAAAAAeAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAABgAAAAEAAAA1wOyABkAAAAEAAAAvwL7AYAVAAC+FQAAZQEAAKIAAAAAAAAA"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvSpPr>
@@ -9553,7 +9549,7 @@
           <a:endCxn id="63" idx="0"/>
           <a:extLst>
             <a:ext uri="smNativeData">
-              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_VYC7ZhMAAAAlAAAADQAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAAAAAAAAAAAAAEAAABQAAAAAAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAAAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAZAAAAAEAAABAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAAAAAAAAeAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAAAgAAAAKAAAAoAN9AggAAAAMAAAAyQOcAXA6AADCBwAAuQcAAAkAAAAAAAAA"/>
+              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_h5G7ZhMAAAAlAAAADQAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAAAAAAAAAAAAAEAAABQAAAAAAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAAAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAZAAAAAEAAABAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAAAAAAAAeAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAAAgAAAAKAAAAoAN9AggAAAAMAAAAyQOcAXA6AADCBwAAuQcAAAkAAAAAAAAA"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvCxnSpPr>
@@ -9599,7 +9595,7 @@
         <xdr:cNvCxnSpPr>
           <a:extLst>
             <a:ext uri="smNativeData">
-              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_VYC7ZhMAAAAlAAAADQAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAAAAAAAAAAAAAEAAABQAAAAAAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAAAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAZAAAAAEAAABAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAAAAAAAAeAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAAAwAAAAPAAAANQJ6ABkAAAAPAAAA4AOFADdQAADvCgAAFwAAALALAAAAAAAA"/>
+              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_h5G7ZhMAAAAlAAAADQAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAAAAAAAAAAAAAEAAABQAAAAAAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAAAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAZAAAAAEAAABAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAAAAAAAAeAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAAAwAAAAPAAAANQJ6ABkAAAAPAAAA4AOFADdQAADvCgAAFwAAALALAAAAAAAA"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvCxnSpPr>
@@ -9645,7 +9641,7 @@
         <xdr:cNvSpPr>
           <a:extLst>
             <a:ext uri="smNativeData">
-              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_VYC7ZhMAAAAlAAAAyAAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAAAAAAAAAAAAAEAAABQAAAAAAAAAAAAAACy9KEL6lvuPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAEAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAAAAAAAAeAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAABQAAAAOAAAAOwOpAxUAAAAPAAAAJwJpALNOAAAgEgAAYQEAAKMAAAAAAAAA"/>
+              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_h5G7ZhMAAAAlAAAAyAAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAAAAAAAAAAAAAEAAABQAAAAAAAAAAAAAACy9KEL6lvuPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAEAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAAAAAAAAeAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAABQAAAAOAAAAOwOpAxUAAAAPAAAAJwJpALNOAAAgEgAAYQEAAKMAAAAAAAAA"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvSpPr>
@@ -9696,7 +9692,7 @@
         <xdr:cNvSpPr>
           <a:extLst>
             <a:ext uri="smNativeData">
-              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_VYC7ZhMAAAAlAAAAyAAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAAAAAAAAAAAAAEAAABQAAAAAAAAAAAAAACy9KEL6lvuPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAEAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAAAAAAAAeAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAABkAAAAOAAAAVAG0AxoAAAAPAAAAMwBxAMNOAAARFgAAYQEAAKAAAAAAAAAA"/>
+              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_h5G7ZhMAAAAlAAAAyAAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAAAAAAAAAAAAAEAAABQAAAAAAAAAAAAAACy9KEL6lvuPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAEAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAAAAAAAAeAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAABkAAAAOAAAAVAG0AxoAAAAPAAAAMwBxAMNOAAARFgAAYQEAAKAAAAAAAAAA"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvSpPr>
@@ -9748,7 +9744,7 @@
           <a:stCxn id="95" idx="0"/>
           <a:extLst>
             <a:ext uri="smNativeData">
-              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_VYC7ZhMAAAAlAAAADQAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAAAAAAAAAAAAAEAAABQAAAAAAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAAAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAZAAAAAEAAABAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAAAAAAAAeAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAAA0AAAAPAAAAIAD/ARoAAAAPAAAABwIVAmRTAABaCwAALgAAAL0LAAAAAAAA"/>
+              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_h5G7ZhMAAAAlAAAADQAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAAAAAAAAAAAAAEAAABQAAAAAAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAAAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAZAAAAAEAAABAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAAAAAAAAeAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAAA0AAAAPAAAAIAD/ARoAAAAPAAAABwIVAmRTAABaCwAALgAAAL0LAAAAAAAA"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvCxnSpPr>
@@ -9794,7 +9790,7 @@
         <xdr:cNvSpPr>
           <a:extLst>
             <a:ext uri="smNativeData">
-              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_VYC7ZhMAAAAlAAAAyAAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAAAAAAAAAAAAAEAAABQAAAAnWyQwGV3tz8AAAAAAAAAAAAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAEAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAAAAAAAAeAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAABAAAAAPAAAAcgMOAhEAAAAPAAAAVQK5AoRTAACwDgAAZQEAAKEAAAAAAAAA"/>
+              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_h5G7ZhMAAAAlAAAAyAAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAAAAAAAAAAAAAEAAABQAAAAnWyQwGV3tz8AAAAAAAAAAAAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAEAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAAAAAAAAeAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAABAAAAAPAAAAcgMOAhEAAAAPAAAAVQK5AoRTAACwDgAAZQEAAKEAAAAAAAAA"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvSpPr>
@@ -9845,7 +9841,7 @@
         <xdr:cNvSpPr>
           <a:extLst>
             <a:ext uri="smNativeData">
-              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_VYC7ZhMAAAAlAAAAyAAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAAAAAAAAAAAAAEAAABQAAAA5eEVHH13tz8AAAAAAAAAAAAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAEAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAAAAAAAAeAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAABQAAAAPAAAAMQMUAhUAAAAPAAAAFQK/ApBTAAAeEgAAZgEAAKEAAAAAAAAA"/>
+              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_h5G7ZhMAAAAlAAAAyAAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAAAAAAAAAAAAAEAAABQAAAA5eEVHH13tz8AAAAAAAAAAAAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAEAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAAAAAAAAeAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAABQAAAAPAAAAMQMUAhUAAAAPAAAAFQK/ApBTAAAeEgAAZgEAAKEAAAAAAAAA"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvSpPr>
@@ -9896,7 +9892,7 @@
         <xdr:cNvSpPr>
           <a:extLst>
             <a:ext uri="smNativeData">
-              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_VYC7ZhMAAAAlAAAAyAAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAAAAAAAAAAAAAEAAABQAAAAZ9viFWx3tz8AAAAAAAAAAAAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAEAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAAAAAAAAeAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAABoAAAAPAAAAAAABAhoAAAAPAAAA4wKrAmlTAACmFgAAYwEAAKEAAAAAAAAA"/>
+              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_h5G7ZhMAAAAlAAAAyAAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAAAAAAAAAAAAAEAAABQAAAAZ9viFWx3tz8AAAAAAAAAAAAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAEAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAAAAAAAAeAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAABoAAAAPAAAAAAABAhoAAAAPAAAA4wKrAmlTAACmFgAAYwEAAKEAAAAAAAAA"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvSpPr>
@@ -9947,7 +9943,7 @@
         <xdr:cNvCxnSpPr>
           <a:extLst>
             <a:ext uri="smNativeData">
-              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_VYC7ZhMAAAAlAAAADQAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAAAAAAAAAAAAAEAAABQAAAAAAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAAAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAZAAAAAEAAABAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAAAAAAAAeAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAAAgAAAANAAAAyQMABAkAAAAQAAAAEgAKABZJAADLBwAAoA4AABAAAAAAAAAA"/>
+              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_h5G7ZhMAAAAlAAAADQAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAAAAAAAAAAAAAEAAABQAAAAAAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAAAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAZAAAAAEAAABAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAAAAAAAAeAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAAAgAAAANAAAAyQMABAkAAAAQAAAAEgAKABZJAADLBwAAoA4AABAAAAAAAAAA"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvCxnSpPr>
@@ -9993,7 +9989,7 @@
         <xdr:cNvSpPr>
           <a:extLst>
             <a:ext uri="smNativeData">
-              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_VYC7ZhMAAAAlAAAAywAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAAAAAAAAAAAAAEAAABQAAAAH/T8Ift5zj+SkbOwpx2uPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAEAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAAGlkdGgeAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAAAIAAAANAAAArAJJAAMAAAANAAAAWwM0AQ9FAABTAgAA/wAAAAUBAAAAAAAA"/>
+              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_h5G7ZhMAAAAlAAAAywAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAAAAAAAAAAAAAEAAABQAAAAH/T8Ift5zj+SkbOwpx2uPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAEAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAAGlkdGgeAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAAAIAAAANAAAArAJJAAMAAAANAAAAWwM0AQ9FAABTAgAA/wAAAAUBAAAAAAAA"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvSpPr>
@@ -10044,7 +10040,7 @@
         <xdr:cNvSpPr>
           <a:extLst>
             <a:ext uri="smNativeData">
-              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_VYC7ZhMAAAAlAAAAywAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAAAAAAAAAAAAAEAAABQAAAALuC/X/N5zj+SkbOwpx2uPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAEAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAAHI9IkUeAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAAAMAAAAFAAAA6QOsAwUAAAAGAAAAnABcANkfAAB3AwAA/wAAAAYBAAAAAAAA"/>
+              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_h5G7ZhMAAAAlAAAAywAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAAAAAAAAAAAAAEAAABQAAAALuC/X/N5zj+SkbOwpx2uPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAEAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAAHI9IkUeAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAAAMAAAAFAAAA6QOsAwUAAAAGAAAAnABcANkfAAB3AwAA/wAAAAYBAAAAAAAA"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvSpPr>
@@ -10095,7 +10091,7 @@
         <xdr:cNvSpPr>
           <a:extLst>
             <a:ext uri="smNativeData">
-              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_VYC7ZhMAAAAlAAAAywAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAAAAAAAAAAAAAEAAABQAAAAH/T8Ift5zj+SkbOwpx2uPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAEAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAACI+PHYeAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAAAMAAAALAAAAtwNzAgUAAAALAAAAZQBfA7w+AABsAwAA/wAAAAUBAAAAAAAA"/>
+              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_h5G7ZhMAAAAlAAAAywAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAAAAAAAAAAAAAEAAABQAAAAH/T8Ift5zj+SkbOwpx2uPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAEAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAACI+PHYeAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAAAMAAAALAAAAtwNzAgUAAAALAAAAZQBfA7w+AABsAwAA/wAAAAUBAAAAAAAA"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvSpPr>
@@ -10146,7 +10142,7 @@
         <xdr:cNvSpPr>
           <a:extLst>
             <a:ext uri="smNativeData">
-              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_VYC7ZhMAAAAlAAAAywAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAAAAAAAAAAAAAEAAABQAAAApdSyzA56zj+SkbOwpx2uPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAEAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAAD0iQzYeAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAAAMAAAAOAAAA1wOHAwUAAAAPAAAAhQAfAH5OAABzAwAA+wAAAAUBAAAAAAAA"/>
+              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_h5G7ZhMAAAAlAAAAywAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAAAAAAAAAAAAAEAAABQAAAApdSyzA56zj+SkbOwpx2uPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAEAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAAD0iQzYeAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAAAMAAAAOAAAA1wOHAwUAAAAPAAAAhQAfAH5OAABzAwAA+wAAAAUBAAAAAAAA"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvSpPr>
@@ -10197,7 +10193,7 @@
         <xdr:cNvSpPr>
           <a:extLst>
             <a:ext uri="smNativeData">
-              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_VYC7ZhMAAAAlAAAAywAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAAAAAAAAAAAAAEAAABQAAAApdSyzA56zj+SkbOwpx2uPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAEAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAADRhYzoeAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAAAcAAAAOAAAA3ACQAwgAAAAPAAAAiwEmAIxOAABJBgAA+wAAAAUBAAAAAAAA"/>
+              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_h5G7ZhMAAAAlAAAAywAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAAAAAAAAAAAAAEAAABQAAAApdSyzA56zj+SkbOwpx2uPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAEAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAADRhYzoeAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAAAcAAAAOAAAA3ACQAwgAAAAPAAAAiwEmAIxOAABJBgAA+wAAAAUBAAAAAAAA"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvSpPr>
@@ -10248,7 +10244,7 @@
         <xdr:cNvSpPr>
           <a:extLst>
             <a:ext uri="smNativeData">
-              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_VYC7ZhMAAAAlAAAAywAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAAAAAAAAAAAAAEAAABQAAAAKv77W8R5zj+SkbOwpx2uPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAEAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAAD0iaHQeAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAAAcAAAALAAAAdgMQAgkAAAALAAAAIAD6AlA+AADaBgAA/gAAAAQBAAAAAAAA"/>
+              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_h5G7ZhMAAAAlAAAAywAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAAAAAAAAAAAAAEAAABQAAAAKv77W8R5zj+SkbOwpx2uPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAEAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAAD0iaHQeAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAAAcAAAALAAAAdgMQAgkAAAALAAAAIAD6AlA+AADaBgAA/gAAAAQBAAAAAAAA"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvSpPr>
@@ -10299,7 +10295,7 @@
         <xdr:cNvSpPr>
           <a:extLst>
             <a:ext uri="smNativeData">
-              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_VYC7ZhMAAAAlAAAAywAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAAAAAAAAAAAAAEAAABQAAAAYZo95/p5zj+SkbOwpx2uPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAEAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAAD0iRTEeAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAAA0AAAAGAAAAAABZAw4AAAAHAAAArgAyABUkAABTCwAA+wAAAAUBAAAAAAAA"/>
+              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_h5G7ZhMAAAAlAAAAywAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAAAAAAAAAAAAAEAAABQAAAAYZo95/p5zj+SkbOwpx2uPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAEAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAAD0iRTEeAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAAA0AAAAGAAAAAABZAw4AAAAHAAAArgAyABUkAABTCwAA+wAAAAUBAAAAAAAA"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvSpPr>
@@ -10350,7 +10346,7 @@
         <xdr:cNvSpPr>
           <a:extLst>
             <a:ext uri="smNativeData">
-              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_VYC7ZhMAAAAlAAAAywAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAAAAAAAAAAAAAEAAABQAAAA8PXYwN95zj+SkbOwpx2uPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAEAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAAD0iRTMeAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAAA0AAAAHAAAANAGLAg4AAAAHAAAA2QFAA18oAACWCwAA/wAAAAMBAAAAAAAA"/>
+              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_h5G7ZhMAAAAlAAAAywAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAAAAAAAAAAAAAEAAABQAAAA8PXYwN95zj+SkbOwpx2uPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAEAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAAD0iRTMeAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAAA0AAAAHAAAANAGLAg4AAAAHAAAA2QFAA18oAACWCwAA/wAAAAMBAAAAAAAA"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvSpPr>
@@ -10401,7 +10397,7 @@
         <xdr:cNvSpPr>
           <a:extLst>
             <a:ext uri="smNativeData">
-              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_VYC7ZhMAAAAlAAAAywAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAAAAAAAAAAAAAEAAABQAAAA3Xf5NNB5zj+SkbOwpx2uPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAEAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAAHM9IjIeAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAAA0AAAAJAAAAyQNwAQ8AAAAJAAAAbgDhAf0xAAAmDAAA/gAAAAMBAAAAAAAA"/>
+              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_h5G7ZhMAAAAlAAAAywAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAAAAAAAAAAAAAEAAABQAAAA3Xf5NNB5zj+SkbOwpx2uPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAEAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAAHM9IjIeAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAAA0AAAAJAAAAyQNwAQ8AAAAJAAAAbgDhAf0xAAAmDAAA/gAAAAMBAAAAAAAA"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvSpPr>
@@ -10452,7 +10448,7 @@
         <xdr:cNvSpPr>
           <a:extLst>
             <a:ext uri="smNativeData">
-              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_VYC7ZhMAAAAlAAAAywAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAAAAAAAAAAAAAEAAABQAAAAF1mBbO95zj+SkbOwpx2uPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAEAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAADYiIHQeAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAAA0AAAAEAAAAwwKkAQ4AAAAEAAAAbQOOAoYWAADtCwAA/gAAAAQBAAAAAAAA"/>
+              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_h5G7ZhMAAAAlAAAAywAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAAAAAAAAAAAAAEAAABQAAAAF1mBbO95zj+SkbOwpx2uPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAEAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAADYiIHQeAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAAA0AAAAEAAAAwwKkAQ4AAAAEAAAAbQOOAoYWAADtCwAA/gAAAAQBAAAAAAAA"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvSpPr>
@@ -10503,7 +10499,7 @@
         <xdr:cNvSpPr>
           <a:extLst>
             <a:ext uri="smNativeData">
-              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_VYC7ZhMAAAAlAAAAywAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAAAAAAAAAAAAAEAAABQAAAAF1mBbO95zj+SkbOwpx2uPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAEAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAAG50PSIeAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAAAgAAAADAAAAjQPqAgoAAAAEAAAANwCJAEkTAAC+BwAACwIAAAQBAAAAAAAA"/>
+              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_h5G7ZhMAAAAlAAAAywAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAAAAAAAAAAAAAEAAABQAAAAF1mBbO95zj+SkbOwpx2uPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAEAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAAG50PSIeAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAAAgAAAADAAAAjQPqAgoAAAAEAAAANwCJAEkTAAC+BwAACwIAAAQBAAAAAAAA"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvSpPr>
@@ -10554,7 +10550,7 @@
         <xdr:cNvSpPr>
           <a:extLst>
             <a:ext uri="smNativeData">
-              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_VYC7ZhMAAAAlAAAAywAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAAAAAAAAAAAAAEAAABQAAAAKv77W8R5zj+SkbOwpx2uPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAEAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAADx2PjIeAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAAAgAAAAFAAAAewNTAQoAAAAFAAAAJQDdAYYbAAC6BwAA/gAAAAQBAAAAAAAA"/>
+              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_h5G7ZhMAAAAlAAAAywAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAAAAAAAAAAAAAEAAABQAAAAKv77W8R5zj+SkbOwpx2uPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAEAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAADx2PjIeAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAAAgAAAAFAAAAewNTAQoAAAAFAAAAJQDdAYYbAAC6BwAA/gAAAAQBAAAAAAAA"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvSpPr>
@@ -10605,7 +10601,7 @@
         <xdr:cNvSpPr>
           <a:extLst>
             <a:ext uri="smNativeData">
-              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_VYC7ZhMAAAAlAAAAywAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAAAAAAAAAAAAAEAAABQAAAAgYOU8f55zj+SkbOwpx2uPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAEAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAAG93IHIeAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAAAgAAAAGAAAAoANXAgoAAAAGAAAATgBBA/0iAADCBwAA/gAAAAUBAAAAAAAA"/>
+              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_h5G7ZhMAAAAlAAAAywAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAAAAAAAAAAAAAEAAABQAAAAgYOU8f55zj+SkbOwpx2uPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAEAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAAG93IHIeAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAAAgAAAAGAAAAoANXAgoAAAAGAAAATgBBA/0iAADCBwAA/gAAAAUBAAAAAAAA"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvSpPr>
@@ -10656,7 +10652,7 @@
         <xdr:cNvSpPr>
           <a:extLst>
             <a:ext uri="smNativeData">
-              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_VYC7ZhMAAAAlAAAAywAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAAAAAAAAAAAAAEAAABQAAAAF1mBbO95zj+SkbOwpx2uPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAEAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAAG50PSIeAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAAAkAAAAHAAAAAACdAwoAAAAIAAAAqgBtAOEpAADXBwAAAgEAAAQBAAAAAAAA"/>
+              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_h5G7ZhMAAAAlAAAAywAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAAAAAAAAAAAAAEAAABQAAAAF1mBbO95zj+SkbOwpx2uPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAEAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAAG50PSIeAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAAAkAAAAHAAAAAACdAwoAAAAIAAAAqgBtAOEpAADXBwAAAgEAAAQBAAAAAAAA"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvSpPr>
@@ -10707,7 +10703,7 @@
         <xdr:cNvSpPr>
           <a:extLst>
             <a:ext uri="smNativeData">
-              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_VYC7ZhMAAAAlAAAAywAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAAAAAAAAAAAAAEAAABQAAAAKv77W8R5zj+SkbOwpx2uPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAEAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAAHY+PC8eAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAAAgAAAAJAAAA7gMqAQoAAAAJAAAAmACbAWAxAADTBwAA/gAAAAQBAAAAAAAA"/>
+              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_h5G7ZhMAAAAlAAAAywAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAAAAAAAAAAAAAEAAABQAAAAKv77W8R5zj+SkbOwpx2uPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAEAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAAHY+PC8eAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAAAgAAAAJAAAA7gMqAQoAAAAJAAAAmACbAWAxAADTBwAA/gAAAAQBAAAAAAAA"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvSpPr>
@@ -10758,7 +10754,7 @@
         <xdr:cNvSpPr>
           <a:extLst>
             <a:ext uri="smNativeData">
-              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_VYC7ZhMAAAAlAAAAywAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAAAAAAAAAAAAAEAAABQAAAAgYOU8f55zj+SkbOwpx2uPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAEAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAADxjIHIeAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAAAgAAAANAAAAoAOVAwoAAAAOAAAATgBaAKJIAADCBwAA/gAAAAUBAAAAAAAA"/>
+              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_h5G7ZhMAAAAlAAAAywAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAAAAAAAAAAAAAEAAABQAAAAgYOU8f55zj+SkbOwpx2uPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAEAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAADxjIHIeAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAAAgAAAANAAAAoAOVAwoAAAAOAAAATgBaAKJIAADCBwAA/gAAAAUBAAAAAAAA"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvSpPr>
@@ -10809,7 +10805,7 @@
         <xdr:cNvSpPr>
           <a:extLst>
             <a:ext uri="smNativeData">
-              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_VYC7ZhMAAAAlAAAAywAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAAAAAAAAAAAAAEAAABQAAAApdSyzA56zj+SkbOwpx2uPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAEAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAAHI9IkIeAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAAAgAAAAPAAAAfwMMAAoAAAAPAAAALgCEAFFPAAC7BwAA+wAAAAUBAAAAAAAA"/>
+              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_h5G7ZhMAAAAlAAAAywAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAAAAAAAAAAAAAEAAABQAAAApdSyzA56zj+SkbOwpx2uPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAEAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAAHI9IkIeAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAAAgAAAAPAAAAfwMMAAoAAAAPAAAALgCEAFFPAAC7BwAA+wAAAAUBAAAAAAAA"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvSpPr>
@@ -10860,7 +10856,7 @@
         <xdr:cNvSpPr>
           <a:extLst>
             <a:ext uri="smNativeData">
-              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_VYC7ZhMAAAAlAAAAywAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAAAAAAAAAAAAAEAAABQAAAAKv77W8R5zj+SkbOwpx2uPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAEAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAADx2PjIeAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAAAgAAAAPAAAAOwOuAwkAAAAQAAAA5AMZAOpWAACsBwAA/wAAAAQBAAAAAAAA"/>
+              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_h5G7ZhMAAAAlAAAAywAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAAAAAAAAAAAAAEAAABQAAAAKv77W8R5zj+SkbOwpx2uPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAEAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAADx2PjIeAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAAAgAAAAPAAAAOwOuAwkAAAAQAAAA5AMZAOpWAACsBwAA/wAAAAQBAAAAAAAA"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvSpPr>
@@ -10911,7 +10907,7 @@
         <xdr:cNvSpPr>
           <a:extLst>
             <a:ext uri="smNativeData">
-              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_VYC7ZhMAAAAlAAAAywAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAAAAAAAAAAAAAEAAABQAAAAH/T8Ift5zj+SkbOwpx2uPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAEAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAACB4MTQeAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAAA0AAAAPAAAAIADYAQ4AAAAPAAAA2ABSAhNTAABaCwAA/wAAAAcBAAAAAAAA"/>
+              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_h5G7ZhMAAAAlAAAAywAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAAAAAAAAAAAAAEAAABQAAAAH/T8Ift5zj+SkbOwpx2uPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAEAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAACB4MTQeAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAAA0AAAAPAAAAIADYAQ4AAAAPAAAA2ABSAhNTAABaCwAA/wAAAAcBAAAAAAAA"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvSpPr>
@@ -10962,7 +10958,7 @@
         <xdr:cNvSpPr>
           <a:extLst>
             <a:ext uri="smNativeData">
-              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_VYC7ZhMAAAAlAAAAywAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAAAAAAAAAAAAAEAAABQAAAADoX/1wZ6zj+SkbOwpx2uPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAEAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAACI2OCIeAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAAA0AAAAPAAAAuQEyAA4AAAAPAAAAbAKsAKFPAACzCwAA/wAAAAYBAAAAAAAA"/>
+              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_h5G7ZhMAAAAlAAAAywAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAAAAAAAAAAAAAEAAABQAAAADoX/1wZ6zj+SkbOwpx2uPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAEAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAACI2OCIeAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAAA0AAAAPAAAAuQEyAA4AAAAPAAAAbAKsAKFPAACzCwAA/wAAAAYBAAAAAAAA"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvSpPr>
@@ -11013,7 +11009,7 @@
         <xdr:cNvCxnSpPr>
           <a:extLst>
             <a:ext uri="smNativeData">
-              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_VYC7ZhMAAAAlAAAADQAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAAAAAAAAAAAAAEAAABQAAAAAAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAAAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAZAAAAAEAAABAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAAAAAAAAeAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAAAQAAAAQAAAAAAAaAgQAAAAXAAAAlAGpApxeAAB8AwAAQCMAAFgAAAAAAAAA"/>
+              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_h5G7ZhMAAAAlAAAADQAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAAAAAAAAAAAAAEAAABQAAAAAAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAAAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAZAAAAAEAAABAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAAAAAAAAeAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAAAQAAAAQAAAAAAAaAgQAAAAXAAAAlAGpApxeAAB8AwAAQCMAAFgAAAAAAAAA"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvCxnSpPr>
@@ -11059,7 +11055,7 @@
         <xdr:cNvSpPr>
           <a:extLst>
             <a:ext uri="smNativeData">
-              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_VYC7ZhMAAAAlAAAAZQAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAABAAAAAAAAAAEAAABQAAAAhbacS3FV1T8AAAAAAAAAAAAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAEAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAADQ0IiAeAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAABsAAAAQAAAAVwD+Ax8AAAASAAAA3gG5Au9kAACYFwAAUQcAANEDAAAAAAAA"/>
+              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_h5G7ZhMAAAAlAAAAZQAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAABAAAAAAAAAAEAAABQAAAAhbacS3FV1T8AAAAAAAAAAAAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAEAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAADQ0IiAeAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAABsAAAAQAAAAVwD+Ax8AAAASAAAA3gG5Au9kAACYFwAAUQcAANEDAAAAAAAA"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvSpPr>
@@ -11134,7 +11130,7 @@
         <xdr:cNvSpPr>
           <a:extLst>
             <a:ext uri="smNativeData">
-              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_VYC7ZhMAAAAlAAAAZQAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAABAAAAAAAAAAEAAABQAAAAhbacS3FV1T8AAAAAAAAAAAAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAEAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAACIgcz0eAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAACAAAAARAAAA2AARACMAAAASAAAABQEMAwhlAAAPHAAAkgcAAK8CAAAAAAAA"/>
+              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_h5G7ZhMAAAAlAAAAZQAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAABAAAAAAAAAAEAAABQAAAAhbacS3FV1T8AAAAAAAAAAAAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAEAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAACIgcz0eAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAACAAAAARAAAA2AARACMAAAASAAAABQEMAwhlAAAPHAAAkgcAAK8CAAAAAAAA"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvSpPr>
@@ -11214,7 +11210,7 @@
         <xdr:cNvSpPr>
           <a:extLst>
             <a:ext uri="smNativeData">
-              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_VYC7ZhMAAAAlAAAAZQAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAABAAAAAAAAAAEAAABQAAAAhbacS3FV1T8AAAAAAAAAAAAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAEAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAACIgdD0eAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAACQAAAARAAAAWQIPACcAAAASAAAAJQEKAwZlAAAAIAAAkQcAAHsCAAAAAAAA"/>
+              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_h5G7ZhMAAAAlAAAAZQAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAABAAAAAAAAAAEAAABQAAAAhbacS3FV1T8AAAAAAAAAAAAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAEAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAACIgdD0eAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAACQAAAARAAAAWQIPACcAAAASAAAAJQEKAwZlAAAAIAAAkQcAAHsCAAAAAAAA"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvSpPr>
@@ -11290,7 +11286,7 @@
           <a:endCxn id="49" idx="0"/>
           <a:extLst>
             <a:ext uri="smNativeData">
-              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_VYC7ZhMAAAAlAAAADQAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAAAAAAAAAAAAAEAAABQAAAAAAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAAAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAZAAAAAEAAABAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAAAAAAAAeAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAAA8AAAASAAAAwAP/AycAAAATAAAAQgM0AKFtAADiDQAAOQAAACcVAAAAAAAA"/>
+              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_h5G7ZhMAAAAlAAAADQAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAAAAAAAAAAAAAEAAABQAAAAAAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAAAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAZAAAAAEAAABAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAAAAAAAAeAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAAA8AAAASAAAAwAP/AycAAAATAAAAQgM0AKFtAADiDQAAOQAAACcVAAAAAAAA"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvCxnSpPr>
@@ -11336,7 +11332,7 @@
         <xdr:cNvSpPr>
           <a:extLst>
             <a:ext uri="smNativeData">
-              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_VYC7ZhMAAAAlAAAAyAAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAAAAAAAAAAAAAEAAABQAAAAnWyQwGV3tz8AAAAAAAAAAAAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAEAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAANCy0LUeAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAAA8AAAASAAAASwHdAxAAAAATAAAAMwApAXxtAABZDQAAaAEAAKIAAAAAAAAA"/>
+              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_h5G7ZhMAAAAlAAAAyAAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAAAAAAAAAAAAAEAAABQAAAAnWyQwGV3tz8AAAAAAAAAAAAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAEAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAANCy0LUeAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAAA8AAAASAAAASwHdAxAAAAATAAAAMwApAXxtAABZDQAAaAEAAKIAAAAAAAAA"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvSpPr>
@@ -11387,7 +11383,7 @@
         <xdr:cNvSpPr>
           <a:extLst>
             <a:ext uri="smNativeData">
-              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_VYC7ZhMAAAAlAAAAyAAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAAAAAAAAAAAAAEAAABQAAAAd3d3d3d3tz8AAAAAAAAAAAAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAEAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAAGVzZXIeAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAACMAAAASAAAAdgLqAyQAAAATAAAAOgE0AYptAAAaHwAAZgEAAKcAAAAAAAAA"/>
+              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_h5G7ZhMAAAAlAAAAyAAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAAAAAAAAAAAAAEAAABQAAAAd3d3d3d3tz8AAAAAAAAAAAAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAEAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAAGVzZXIeAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAACMAAAASAAAAdgLqAyQAAAATAAAAOgE0AYptAAAaHwAAZgEAAKcAAAAAAAAA"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvSpPr>
@@ -11438,7 +11434,7 @@
         <xdr:cNvSpPr>
           <a:extLst>
             <a:ext uri="smNativeData">
-              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_VYC7ZhMAAAAlAAAACgAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAAAAAAAAAAAAAEAAABQAAAAAAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAAAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAZAAAAAEAAABAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAABwdHh8eAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAAA4AAAAQAAAAVwCHAyUAAAAQAAAAhQOHA2FjAABFDAAAAAAAAN4UAAAAAAAA"/>
+              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_h5G7ZhMAAAAlAAAACgAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAAAAAAAAAAAAAEAAABQAAAAAAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAAAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAZAAAAAEAAABAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAABwdHh8eAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAAA4AAAAQAAAAVwCHAyUAAAAQAAAAhQOHA2FjAABFDAAAAAAAAN4UAAAAAAAA"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvSpPr>
@@ -11484,7 +11480,7 @@
         <xdr:cNvSpPr>
           <a:extLst>
             <a:ext uri="smNativeData">
-              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_VYC7ZhMAAAAlAAAAywAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAAAAAAAAAAAAAEAAABQAAAAgYOU8f55zj+SkbOwpx2uPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAEAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAALouIDweAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAAA0AAAAQAAAAEQNnAw4AAAAQAAAAuwOzA/ZiAAD+CwAA/gAAAAQBAAAAAAAA"/>
+              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_h5G7ZhMAAAAlAAAAywAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAAAAAAAAAAAAAEAAABQAAAAgYOU8f55zj+SkbOwpx2uPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAEAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAALouIDweAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAAA0AAAAQAAAAEQNnAw4AAAAQAAAAuwOzA/ZiAAD+CwAA/gAAAAQBAAAAAAAA"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvSpPr>
@@ -11535,7 +11531,7 @@
         <xdr:cNvSpPr>
           <a:extLst>
             <a:ext uri="smNativeData">
-              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_VYC7ZhMAAAAlAAAAyAAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAAAAAAAAAAAAAEAAABQAAAA7pvBynF3tz8AAAAAAAAAAAAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAEAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAALvQtSAeAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAABwAAAAQAAAA7AKHAx0AAAAQAAAA0AHyA2FjAAAHGQAAZgEAAKEAAAAAAAAA"/>
+              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_h5G7ZhMAAAAlAAAAyAAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAAAAAAAAAAAAAEAAABQAAAA7pvBynF3tz8AAAAAAAAAAAAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAEAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAALvQtSAeAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAABwAAAAQAAAA7AKHAx0AAAAQAAAA0AHyA2FjAAAHGQAAZgEAAKEAAAAAAAAA"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvSpPr>
@@ -11586,7 +11582,7 @@
         <xdr:cNvSpPr>
           <a:extLst>
             <a:ext uri="smNativeData">
-              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_VYC7ZhMAAAAlAAAAyAAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAAAAAAAAAAAAAEAAABQAAAA4pBSEW53tz8AAAAAAAAAAAAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAEAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAADxzaT4eAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAACEAAAAQAAAABgGOAyEAAAAQAAAA5AP5A3ljAAD4HAAAZgEAAKAAAAAAAAAA"/>
+              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_h5G7ZhMAAAAlAAAAyAAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAAAAAAAAAAAAAEAAABQAAAA4pBSEW53tz8AAAAAAAAAAAAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAEAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAADxzaT4eAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAACEAAAAQAAAABgGOAyEAAAAQAAAA5AP5A3ljAAD4HAAAZgEAAKAAAAAAAAAA"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvSpPr>
@@ -11637,7 +11633,7 @@
         <xdr:cNvSpPr>
           <a:extLst>
             <a:ext uri="smNativeData">
-              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_VYC7ZhMAAAAlAAAAyAAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAABAAAAAAAAAAEAAABQAAAAJIA3MJd3tz8AAAAAAAAAAAAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAEAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAAHhtbDoeAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAACUAAAAQAAAAEAKGAyYAAAAQAAAAVQHxA15jAADRIAAAZgEAAL0AAAAAAAAA"/>
+              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_h5G7ZhMAAAAlAAAAyAAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAABAAAAAAAAAAEAAABQAAAAJIA3MJd3tz8AAAAAAAAAAAAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAEAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAAHhtbDoeAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAACUAAAAQAAAAEAKGAyYAAAAQAAAAVQHxA15jAADRIAAAZgEAAL0AAAAAAAAA"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvSpPr>
@@ -11688,7 +11684,7 @@
         <xdr:cNvSpPr>
           <a:extLst>
             <a:ext uri="smNativeData">
-              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_VYC7ZhMAAAAlAAAAyAAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAAAAAAAAAAAAAEAAABQAAAAGH6GRo13tz8AAAAAAAAAAAAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAEAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAAC90PjweAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAABgAAAAQAAAAXQGSAxkAAAAQAAAANwD/A4ZjAAA0FQAAbQEAAJ8AAAAAAAAA"/>
+              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_h5G7ZhMAAAAlAAAAyAAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAAAAAAAAAAAAAEAAABQAAAAGH6GRo13tz8AAAAAAAAAAAAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAEAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAAC90PjweAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAABgAAAAQAAAAXQGSAxkAAAAQAAAANwD/A4ZjAAA0FQAAbQEAAJ8AAAAAAAAA"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvSpPr>
@@ -11739,7 +11735,7 @@
         <xdr:cNvSpPr>
           <a:extLst>
             <a:ext uri="smNativeData">
-              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_VYC7ZhMAAAAlAAAAyAAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAAAAAAAAAAAAAEAAABQAAAA5eEVHH13tz8AAAAAAAAAAAAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAEAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAAIPRgtEeAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAABMAAAAQAAAA7AKRAxQAAAAQAAAA2QH9A4NjAAAwEQAAaQEAAKMAAAAAAAAA"/>
+              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_h5G7ZhMAAAAlAAAAyAAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAAAAAAAAAAAAAEAAABQAAAA5eEVHH13tz8AAAAAAAAAAAAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAEAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAAIPRgtEeAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAABMAAAAQAAAA7AKRAxQAAAAQAAAA2QH9A4NjAAAwEQAAaQEAAKMAAAAAAAAA"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvSpPr>
@@ -11790,7 +11786,7 @@
         <xdr:cNvSpPr>
           <a:extLst>
             <a:ext uri="smNativeData">
-              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_VYC7ZhMAAAAlAAAAyAAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAAAAAAAAAAAAAEAAABQAAAAdh2uuIJ3tz8AAAAAAAAAAAAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAEAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAANC+0LIeAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAAA8AAAAQAAAAvACJAw8AAAAQAAAAqQP2A2hjAAA6DQAAbQEAAKMAAAAAAAAA"/>
+              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_h5G7ZhMAAAAlAAAAyAAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAAAAAAAAAAAAAEAAABQAAAAdh2uuIJ3tz8AAAAAAAAAAAAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAEAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAANC+0LIeAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAAA8AAAAQAAAAvACJAw8AAAAQAAAAqQP2A2hjAAA6DQAAbQEAAKMAAAAAAAAA"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvSpPr>
@@ -11841,7 +11837,7 @@
         <xdr:cNvSpPr>
           <a:extLst>
             <a:ext uri="smNativeData">
-              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_VYC7ZhMAAAAlAAAAZQAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAABAAAAAAAAAAEAAABQAAAAhbacS3FV1T8AAAAAAAAAAAAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAEAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAADU4NDweAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAAAoAAAAQAAAALwECAw0AAAARAAAAHwO7AqRhAAD4CAAASAYAAAkDAAAAAAAA"/>
+              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_h5G7ZhMAAAAlAAAAZQAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAABAAAAAAAAAAEAAABQAAAAhbacS3FV1T8AAAAAAAAAAAAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAEAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAADU4NDweAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAAAoAAAAQAAAALwECAw0AAAARAAAAHwO7AqRhAAD4CAAASAYAAAkDAAAAAAAA"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvSpPr>
@@ -11916,7 +11912,7 @@
         <xdr:cNvCxnSpPr>
           <a:extLst>
             <a:ext uri="smNativeData">
-              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_VYC7ZhMAAAAlAAAADQAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAAAAAAAAAAAAAEAAABQAAAAAAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAAAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAZAAAAAEAAABAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAALXQvCAeAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAAAwAAAAWAAAAVwB1ATEAAAAWAAAAqQKFATh8AACHCgAAEgAAADsiAAAAAAAA"/>
+              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_h5G7ZhMAAAAlAAAADQAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAAAAAAAAAAAAAEAAABQAAAAAAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAAAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAZAAAAAEAAABAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAALXQvCAeAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAAAwAAAAWAAAAVwB1ATEAAAAWAAAAqQKFATh8AACHCgAAEgAAADsiAAAAAAAA"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvCxnSpPr>
@@ -11962,7 +11958,7 @@
         <xdr:cNvSpPr>
           <a:extLst>
             <a:ext uri="smNativeData">
-              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_VYC7ZhMAAAAlAAAAywAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAAAAAAAAAAAAAEAAABQAAAAKv77W8R5zj+SkbOwpx2uPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAEAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAADwvYz4eAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAAA4AAAAWAAAAYwIRAQ8AAAAWAAAAEQP9Acx7AAC3DAAAAAEAAAUBAAAAAAAA"/>
+              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_h5G7ZhMAAAAlAAAAywAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAAAAAAAAAAAAAEAAABQAAAAKv77W8R5zj+SkbOwpx2uPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAEAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAADwvYz4eAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAAA4AAAAWAAAAYwIRAQ8AAAAWAAAAEQP9Acx7AAC3DAAAAAEAAAUBAAAAAAAA"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvSpPr>
@@ -12014,7 +12010,7 @@
           <a:stCxn id="74" idx="0"/>
           <a:extLst>
             <a:ext uri="smNativeData">
-              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_VYC7ZhMAAAAlAAAADQAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAAAAAAAAAAAAAEAAABQAAAAAAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAAAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAZAAAAAEAAABAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAACLQlNEeAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAAAgAAAAQAAAAJAPjAwkAAAAhAAAAgQD7A5VkAACnBwAAEkoAAEwAAAAAAAAA"/>
+              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_h5G7ZhMAAAAlAAAADQAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAAAAAAAAAAAAAEAAABQAAAAAAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAAAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAZAAAAAEAAABAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAACLQlNEeAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAAAgAAAAQAAAAJAPjAwkAAAAhAAAAgQD7A5VkAACnBwAAEkoAAEwAAAAAAAAA"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvCxnSpPr>
@@ -12060,7 +12056,7 @@
         <xdr:cNvSpPr>
           <a:extLst>
             <a:ext uri="smNativeData">
-              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_VYC7ZhMAAAAlAAAAywAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAAAAAAAAAAAAAEAAABQAAAAH/T8Ift5zj+SkbOwpx2uPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAEAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAADoxMCIeAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAAAkAAAAQAAAAgQC9AwoAAAARAAAALwEcABZkAADzBwAA/gAAAAUBAAAAAAAA"/>
+              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_h5G7ZhMAAAAlAAAAywAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAAAAAAAAAAAAAEAAABQAAAAH/T8Ift5zj+SkbOwpx2uPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAEAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAADoxMCIeAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAAAkAAAAQAAAAgQC9AwoAAAARAAAALwEcABZkAADzBwAA/gAAAAUBAAAAAAAA"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvSpPr>
@@ -12111,7 +12107,7 @@
         <xdr:cNvSpPr>
           <a:extLst>
             <a:ext uri="smNativeData">
-              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_VYC7ZhMAAAAlAAAAywAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAAAAAAAAAAAAAEAAABQAAAAKv77W8R5zj+SkbOwpx2uPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAEAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAAHQ9InMeAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAAAkAAAAcAAAAVAHHAgoAAAAcAAAA/gGzA6uXAAAhCAAAAAEAAAQBAAAAAAAA"/>
+              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_h5G7ZhMAAAAlAAAAywAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAAAAAAAAAAAAAEAAABQAAAAKv77W8R5zj+SkbOwpx2uPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAEAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAAHQ9InMeAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAAAkAAAAcAAAAVAHHAgoAAAAcAAAA/gGzA6uXAAAhCAAAAAEAAAQBAAAAAAAA"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvSpPr>
@@ -12162,7 +12158,7 @@
         <xdr:cNvSpPr>
           <a:extLst>
             <a:ext uri="smNativeData">
-              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_VYC7ZhMAAAAlAAAAywAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAAAAAAAAAAAAAEAAABQAAAAH/T8Ift5zj+SkbOwpx2uPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAEAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAAHQ9InMeAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAAAgAAAAhAAAA7gNwAwoAAAAiAAAAnABcABCuAADTBwAAAAEAAAUBAAAAAAAA"/>
+              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_h5G7ZhMAAAAlAAAAywAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAAAAAAAAAAAAAEAAABQAAAAH/T8Ift5zj+SkbOwpx2uPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAEAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAAHQ9InMeAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAAAgAAAAhAAAA7gNwAwoAAAAiAAAAnABcABCuAADTBwAAAAEAAAUBAAAAAAAA"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvSpPr>
@@ -12213,7 +12209,7 @@
         <xdr:cNvSpPr>
           <a:extLst>
             <a:ext uri="smNativeData">
-              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_VYC7ZhMAAAAlAAAAywAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAAAAAAAAAAAAAEAAABQAAAAtsuXJgN6zj+SkbOwpx2uPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAEAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAAHQ9InMeAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAAAkAAAAWAAAAuQF3AgoAAAAWAAAAYwJjA1B9AAA3CAAAAAEAAAQBAAAAAAAA"/>
+              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_h5G7ZhMAAAAlAAAAywAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAAAAAAAAAAAAAEAAABQAAAAtsuXJgN6zj+SkbOwpx2uPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAEAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAAHQ9InMeAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAAAkAAAAWAAAAuQF3AgoAAAAWAAAAYwJjA1B9AAA3CAAAAAEAAAQBAAAAAAAA"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvSpPr>
@@ -12264,7 +12260,7 @@
         <xdr:cNvSpPr>
           <a:extLst>
             <a:ext uri="smNativeData">
-              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_VYC7ZhMAAAAlAAAAywAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAAAAAAAAAAAAAEAAABQAAAAtsuXJgN6zj+SkbOwpx2uPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAEAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAAAAAAAAeAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAAAQAAAAXAAAAEgA0AgUAAAAXAAAAvAAfA12BAACAAwAA/wAAAAQBAAAAAAAA"/>
+              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_h5G7ZhMAAAAlAAAAywAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAAAAAAAAAAAAAEAAABQAAAAtsuXJgN6zj+SkbOwpx2uPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAEAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAAAAAAAAeAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAAAQAAAAXAAAAEgA0AgUAAAAXAAAAvAAfA12BAACAAwAA/wAAAAQBAAAAAAAA"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvSpPr>
@@ -12315,7 +12311,7 @@
         <xdr:cNvSpPr>
           <a:extLst>
             <a:ext uri="smNativeData">
-              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_VYC7ZhMAAAAlAAAAyAAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAAAAAAAAAAAAAEAAABQAAAAJIA3MJd3tz8AAAAAAAAAAAAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAEAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAAAAAAAAeAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAABAAAAAWAAAAbAJvAREAAAAWAAAAVAG4AjJ8AAB3DgAAZAEAAKIAAAAAAAAA"/>
+              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_h5G7ZhMAAAAlAAAAyAAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAAAAAAAAAAAAAEAAABQAAAAJIA3MJd3tz8AAAAAAAAAAAAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAEAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAAAAAAAAeAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAABAAAAAWAAAAbAJvAREAAAAWAAAAVAG4AjJ8AAB3DgAAZAEAAKIAAAAAAAAA"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvSpPr>
@@ -12366,7 +12362,7 @@
         <xdr:cNvSpPr>
           <a:extLst>
             <a:ext uri="smNativeData">
-              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_VYC7ZhMAAAAlAAAAyAAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAAAAAAAAAAAAAEAAABQAAAAJIA3MJd3tz8AAAAAAAAAAAAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAEAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAAAAAAAAeAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAABQAAAAWAAAA7wBmARQAAAAWAAAA1wOwAih8AACgEQAAZgEAAKIAAAAAAAAA"/>
+              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_h5G7ZhMAAAAlAAAAyAAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAAAAAAAAAAAAAEAAABQAAAAJIA3MJd3tz8AAAAAAAAAAAAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAEAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAAAAAAAAeAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAABQAAAAWAAAA7wBmARQAAAAWAAAA1wOwAih8AACgEQAAZgEAAKIAAAAAAAAA"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvSpPr>
@@ -12417,7 +12413,7 @@
         <xdr:cNvSpPr>
           <a:extLst>
             <a:ext uri="smNativeData">
-              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_VYC7ZhMAAAAlAAAAyAAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAAAAAAAAAAAAAEAAABQAAAAd3d3d3d3tz8AAAAAAAAAAAAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAEAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAAG4gcGEeAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAABgAAAAWAAAANQJRARkAAAAWAAAAFAGbAhF8AABjFQAAZgEAAKAAAAAAAAAA"/>
+              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_h5G7ZhMAAAAlAAAAyAAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAAAAAAAAAAAAAEAAABQAAAAd3d3d3d3tz8AAAAAAAAAAAAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAEAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAAG4gcGEeAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAABgAAAAWAAAANQJRARkAAAAWAAAAFAGbAhF8AABjFQAAZgEAAKAAAAAAAAAA"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvSpPr>
@@ -12468,7 +12464,7 @@
         <xdr:cNvSpPr>
           <a:extLst>
             <a:ext uri="smNativeData">
-              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_VYC7ZhMAAAAlAAAAyAAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAAAAAAAAAAAAAEAAABQAAAA5eEVHH13tz8AAAAAAAAAAAAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAEAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAAIXQvtEeAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAABwAAAAWAAAA4ANYAR0AAAAWAAAAyAKjAhl8AAA8GQAAZwEAAKIAAAAAAAAA"/>
+              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_h5G7ZhMAAAAlAAAAyAAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAAAAAAAAAAAAAEAAABQAAAA5eEVHH13tz8AAAAAAAAAAAAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAEAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAAIXQvtEeAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAABwAAAAWAAAA4ANYAR0AAAAWAAAAyAKjAhl8AAA8GQAAZwEAAKIAAAAAAAAA"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvSpPr>
@@ -12519,7 +12515,7 @@
         <xdr:cNvSpPr>
           <a:extLst>
             <a:ext uri="smNativeData">
-              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_VYC7ZhMAAAAlAAAAyAAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAAAAAAAAAAAAAEAAABQAAAAd3d3d3d3tz8AAAAAAAAAAAAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAEAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAAAAAAAAeAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAACIAAAAWAAAAgwJXASMAAAAWAAAAUQGfAhh8AAAqHgAAYwEAAKcAAAAAAAAA"/>
+              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_h5G7ZhMAAAAlAAAAyAAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAAAAAAAAAAAAAEAAABQAAAAd3d3d3d3tz8AAAAAAAAAAAAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAEAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAAAAAAAAeAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAACIAAAAWAAAAgwJXASMAAAAWAAAAUQGfAhh8AAAqHgAAYwEAAKcAAAAAAAAA"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvSpPr>
@@ -12570,7 +12566,7 @@
         <xdr:cNvSpPr>
           <a:extLst>
             <a:ext uri="smNativeData">
-              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_VYC7ZhMAAAAlAAAAywAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAAAAAAAAAAAAAEAAABQAAAAgYOU8f55zj+SkbOwpx2uPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAEAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAAAAAAAAeAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAAAgAAAAKAAAAoAMSAgoAAAAKAAAATgD9Av05AADCBwAA/gAAAAUBAAAAAAAA"/>
+              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_h5G7ZhMAAAAlAAAAywAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAAAAAAAAAAAAAEAAABQAAAAgYOU8f55zj+SkbOwpx2uPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAEAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAAAAAAAAeAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAAAgAAAAKAAAAoAMSAgoAAAAKAAAATgD9Av05AADCBwAA/gAAAAUBAAAAAAAA"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvSpPr>
@@ -12621,7 +12617,7 @@
         <xdr:cNvSpPr>
           <a:extLst>
             <a:ext uri="smNativeData">
-              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_VYC7ZhMAAAAlAAAAywAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAAAAAAAAAAAAAEAAABQAAAApdSyzA56zj+SkbOwpx2uPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAEAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAAAAAAAAeAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAAAgAAAAMAAAAoAMmAQoAAAAMAAAATgASAqlBAADCBwAAAAEAAAUBAAAAAAAA"/>
+              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_h5G7ZhMAAAAlAAAAywAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAAAAAAAAAAAAAEAAABQAAAApdSyzA56zj+SkbOwpx2uPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAEAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAAAAAAAAeAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAAAgAAAAMAAAAoAMmAQoAAAAMAAAATgASAqlBAADCBwAAAAEAAAUBAAAAAAAA"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvSpPr>
@@ -12672,7 +12668,7 @@
         <xdr:cNvSpPr>
           <a:extLst>
             <a:ext uri="smNativeData">
-              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_VYC7ZhMAAAAlAAAAZQAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAABAAAAAAAAAAEAAABQAAAAhbacS3FV1T8AAAAAAAAAAAAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAEAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAAP////8eAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAAAoAAAAVAAAA9gLPAw4AAAAXAAAAEgB4Am96AABbCQAAOAcAANsCAAAAAAAA"/>
+              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_h5G7ZhMAAAAlAAAAZQAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAABAAAAAAAAAAEAAABQAAAAhbacS3FV1T8AAAAAAAAAAAAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAEAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAAP////8eAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAAAoAAAAVAAAA9gLPAw4AAAAXAAAAEgB4Am96AABbCQAAOAcAANsCAAAAAAAA"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvSpPr>
@@ -12747,7 +12743,7 @@
         <xdr:cNvSpPr>
           <a:extLst>
             <a:ext uri="smNativeData">
-              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_VYC7ZhMAAAAlAAAAZQAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAABAAAAAAAAAAEAAABQAAAAhbacS3FV1T8AAAAAAAAAAAAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAEAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAAP////8eAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAAAoAAAAbAAAAdgPGAw4AAAAdAAAAkwBvAmmUAAB3CQAAOAcAANsCAAAAAAAA"/>
+              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_h5G7ZhMAAAAlAAAAZQAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAABAAAAAAAAAAEAAABQAAAAhbacS3FV1T8AAAAAAAAAAAAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAEAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAAP////8eAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAAAoAAAAbAAAAdgPGAw4AAAAdAAAAkwBvAmmUAAB3CQAAOAcAANsCAAAAAAAA"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvSpPr>
@@ -12827,7 +12823,7 @@
         <xdr:cNvSpPr>
           <a:extLst>
             <a:ext uri="smNativeData">
-              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_VYC7ZhMAAAAlAAAAZQAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAABAAAAAAAAAAEAAABQAAAAhbacS3FV1T8AAAAAAAAAAAAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAEAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAAAAAAAAeAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAAAoAAAAhAAAAggHUAA0AAAAiAAAAngJ7AzyrAAAKCQAANgcAANsCAAAAAAAA"/>
+              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_h5G7ZhMAAAAlAAAAZQAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAABAAAAAAAAAAEAAABQAAAAhbacS3FV1T8AAAAAAAAAAAAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAEAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAAAAAAAAeAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAAAoAAAAhAAAAggHUAA0AAAAiAAAAngJ7AzyrAAAKCQAANgcAANsCAAAAAAAA"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvSpPr>
@@ -12907,7 +12903,7 @@
         <xdr:cNvSpPr>
           <a:extLst>
             <a:ext uri="smNativeData">
-              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_VYC7ZhMAAAAlAAAAZQAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAABAAAAAAAAAAEAAABQAAAAhbacS3FV1T8AAAAAAAAAAAAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAEAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAAAAAAAAeAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAABIAAAARAAAAtwMLABYAAAASAAAAvAC5AgJlAAB9EAAAPgcAANYCAAAAAAAA"/>
+              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_h5G7ZhMAAAAlAAAAZQAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAABAAAAAAAAAAEAAABQAAAAhbacS3FV1T8AAAAAAAAAAAAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAEAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAAAAAAAAeAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAABIAAAARAAAAtwMLABYAAAASAAAAvAC5AgJlAAB9EAAAPgcAANYCAAAAAAAA"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvSpPr>
@@ -12982,7 +12978,7 @@
         <xdr:cNvSpPr>
           <a:extLst>
             <a:ext uri="smNativeData">
-              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_VYC7ZhMAAAAlAAAAZQAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAABAAAAAAAAAAEAAABQAAAAhbacS3FV1T8AAAAAAAAAAAAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAEAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAAAAAAAAeAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAAA4AAAATAAAAXwMvAREAAAAUAAAAxAPpA+puAADuDAAASwcAALMCAAAAAAAA"/>
+              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_h5G7ZhMAAAAlAAAAZQAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAABAAAAAAAAAAEAAABQAAAAhbacS3FV1T8AAAAAAAAAAAAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAEAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAAAAAAAAeAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAAA4AAAATAAAAXwMvAREAAAAUAAAAxAPpA+puAADuDAAASwcAALMCAAAAAAAA"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvSpPr>
@@ -13057,7 +13053,7 @@
         <xdr:cNvSpPr>
           <a:extLst>
             <a:ext uri="smNativeData">
-              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_VYC7ZhMAAAAlAAAAZQAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAABAAAAAAAAAAEAAABQAAAAhbacS3FV1T8AAAAAAAAAAAAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAEAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAAAAAAAAeAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAABMAAAATAAAAPABsARYAAAAUAAAAMQP+Ay1vAACaEAAAHwcAAEIDAAAAAAAA"/>
+              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_h5G7ZhMAAAAlAAAAZQAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAABAAAAAAAAAAEAAABQAAAAhbacS3FV1T8AAAAAAAAAAAAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAEAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAAAAAAAAeAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAABMAAAATAAAAPABsARYAAAAUAAAAMQP+Ay1vAACaEAAAHwcAAEIDAAAAAAAA"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvSpPr>
@@ -13132,7 +13128,7 @@
         <xdr:cNvSpPr>
           <a:extLst>
             <a:ext uri="smNativeData">
-              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_VYC7ZhMAAAAlAAAAZQAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAABAAAAAAAAAAEAAABQAAAAhbacS3FV1T8AAAAAAAAAAAAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAEAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAAAAAAAAeAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAABcAAAATAAAA/gGoARsAAAAVAAAARwIeAG5vAAB4FAAAAQcAAIwDAAAAAAAA"/>
+              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_h5G7ZhMAAAAlAAAAZQAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAABAAAAAAAAAAEAAABQAAAAhbacS3FV1T8AAAAAAAAAAAAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAEAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAAAAAAAAeAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAABcAAAATAAAA/gGoARsAAAAVAAAARwIeAG5vAAB4FAAAAQcAAIwDAAAAAAAA"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvSpPr>
@@ -13207,7 +13203,7 @@
         <xdr:cNvSpPr>
           <a:extLst>
             <a:ext uri="smNativeData">
-              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_VYC7ZhMAAAAlAAAAZQAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAABAAAAAAAAAAEAAABQAAAAhbacS3FV1T8AAAAAAAAAAAAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAEAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAAAAAAAAeAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAABwAAAATAAAA2gKCASEAAAAUAAAAcwDuA0RvAAADGQAA9gYAANUDAAAAAAAA"/>
+              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_h5G7ZhMAAAAlAAAAZQAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAABAAAAAAAAAAEAAABQAAAAhbacS3FV1T8AAAAAAAAAAAAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAEAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAAAAAAAAeAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAABwAAAATAAAA2gKCASEAAAAUAAAAcwDuA0RvAAADGQAA9gYAANUDAAAAAAAA"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvSpPr>
@@ -13282,7 +13278,7 @@
         <xdr:cNvSpPr>
           <a:extLst>
             <a:ext uri="smNativeData">
-              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_VYC7ZhMAAAAlAAAAZQAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAABAAAAAAAAAAEAAABQAAAAhbacS3FV1T8AAAAAAAAAAAAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAEAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAAAAAAAAeAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAACIAAAATAAAAIABkASYAAAAUAAAAkQHgAyRvAAClHQAABwcAAPcDAAAAAAAA"/>
+              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_h5G7ZhMAAAAlAAAAZQAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAABAAAAAAAAAAEAAABQAAAAhbacS3FV1T8AAAAAAAAAAAAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAEAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAAAAAAAAeAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAACIAAAATAAAAIABkASYAAAAUAAAAkQHgAyRvAAClHQAABwcAAPcDAAAAAAAA"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvSpPr>
@@ -13357,7 +13353,7 @@
         <xdr:cNvSpPr>
           <a:extLst>
             <a:ext uri="smNativeData">
-              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_VYC7ZhMAAAAlAAAAyAAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAAAAAAAAAAAAAEAAABQAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAEAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAAP////8eAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAABEAAAASAAAAQADjAhEAAAATAAAAJAMrAG1sAADdDgAAZAEAAKEAAAAAAAAA"/>
+              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_h5G7ZhMAAAAlAAAAyAAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAAAAAAAAAAAAAEAAABQAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAEAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAAP////8eAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAABEAAAASAAAAQADjAhEAAAATAAAAJAMrAG1sAADdDgAAZAEAAKEAAAAAAAAA"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvSpPr>
@@ -13408,7 +13404,7 @@
         <xdr:cNvSpPr>
           <a:extLst>
             <a:ext uri="smNativeData">
-              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_VYC7ZhMAAAAlAAAAyAAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAAAAAAAAAAAAAEAAABQAAAAnWyQwGV3tz8AAAAAAAAAAAAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAEAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAAAAAAAAeAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAABQAAAATAAAAEQMIABUAAAATAAAA+QFWAattAAAXEgAAagEAAKIAAAAAAAAA"/>
+              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_h5G7ZhMAAAAlAAAAyAAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAAAAAAAAAAAAAEAAABQAAAAnWyQwGV3tz8AAAAAAAAAAAAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAEAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAAAAAAAAeAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAABQAAAATAAAAEQMIABUAAAATAAAA+QFWAattAAAXEgAAagEAAKIAAAAAAAAA"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvSpPr>
@@ -13459,7 +13455,7 @@
         <xdr:cNvSpPr>
           <a:extLst>
             <a:ext uri="smNativeData">
-              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_VYC7ZhMAAAAlAAAAyAAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAAAAAAAAAAAAAEAAABQAAAAnWyQwGV3tz8AAAAAAAAAAAAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAEAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAAAAAAAAeAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAABkAAAATAAAAeQE0ABoAAAATAAAAXACBAdptAAAZFgAAaQEAAKEAAAAAAAAA"/>
+              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_h5G7ZhMAAAAlAAAAyAAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAAAAAAAAAAAAAEAAABQAAAAnWyQwGV3tz8AAAAAAAAAAAAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAEAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAAAAAAAAeAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAABkAAAATAAAAeQE0ABoAAAATAAAAXACBAdptAAAZFgAAaQEAAKEAAAAAAAAA"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvSpPr>
@@ -13510,7 +13506,7 @@
         <xdr:cNvSpPr>
           <a:extLst>
             <a:ext uri="smNativeData">
-              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_VYC7ZhMAAAAlAAAAyAAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAABAAAAAAAAAAEAAABQAAAAnWyQwGV3tz8AAAAAAAAAAAAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAEAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAAAAAAAAeAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAAB4AAAATAAAAPwMNAB8AAAATAAAAJwJaAbBtAADXGgAAaQEAAKIAAAAAAAAA"/>
+              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_h5G7ZhMAAAAlAAAAyAAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAABAAAAAAAAAAEAAABQAAAAnWyQwGV3tz8AAAAAAAAAAAAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAEAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAAAAAAAAeAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAAB4AAAATAAAAPwMNAB8AAAATAAAAJwJaAbBtAADXGgAAaQEAAKIAAAAAAAAA"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvSpPr>
@@ -13561,7 +13557,7 @@
         <xdr:cNvSpPr>
           <a:extLst>
             <a:ext uri="smNativeData">
-              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_VYC7ZhMAAAAlAAAAyAAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAAAAAAAAAAAAAEAAABQAAAAd3d3d3d3tz8AAAAAAAAAAAAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAEAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAAAAAAAAeAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAACcAAAATAAAAQgMVACgAAAATAAAAaAFfAbltAAAJIwAAZQEAAIEAAAAAAAAA"/>
+              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_h5G7ZhMAAAAlAAAAyAAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAAAAAAAAAAAAAEAAABQAAAAd3d3d3d3tz8AAAAAAAAAAAAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAEAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAAAAAAAAeAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAACcAAAATAAAAQgMVACgAAAATAAAAaAFfAbltAAAJIwAAZQEAAIEAAAAAAAAA"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvSpPr>
@@ -13612,7 +13608,7 @@
         <xdr:cNvSpPr>
           <a:extLst>
             <a:ext uri="smNativeData">
-              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_VYC7ZhMAAAAlAAAAZQAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAABAAAAAAAAAAEAAABQAAAAhbacS3FV1T8AAAAAAAAAAAAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAEAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAAAAAAAAeAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAACcAAAATAAAApACPASoAAAAVAAAAFgELAFNvAABZIgAABwcAAOECAAAAAAAA"/>
+              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_h5G7ZhMAAAAlAAAAZQAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAABAAAAAAAAAAEAAABQAAAAhbacS3FV1T8AAAAAAAAAAAAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAEAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAAAAAAAAeAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAACcAAAATAAAApACPASoAAAAVAAAAFgELAFNvAABZIgAABwcAAOECAAAAAAAA"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvSpPr>
@@ -13687,7 +13683,7 @@
         <xdr:cNvSpPr>
           <a:extLst>
             <a:ext uri="smNativeData">
-              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_VYC7ZhMAAAAlAAAAZQAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAABAAAAAAAAAAEAAABQAAAAhbacS3FV1T8AAAAAAAAAAAAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAEAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAAAAAAAAeAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAAA4AAAAWAAAAwwK0AhEAAAAYAAAAXwNuAZJ9AADMDAAASwcAAL8CAAAAAAAA"/>
+              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_h5G7ZhMAAAAlAAAAZQAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAABAAAAAAAAAAEAAABQAAAAhbacS3FV1T8AAAAAAAAAAAAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAEAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAAAAAAAAeAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAAA4AAAAWAAAAwwK0AhEAAAAYAAAAXwNuAZJ9AADMDAAASwcAAL8CAAAAAAAA"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvSpPr>
@@ -13762,7 +13758,7 @@
         <xdr:cNvSpPr>
           <a:extLst>
             <a:ext uri="smNativeData">
-              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_VYC7ZhMAAAAlAAAAZQAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAABAAAAAAAAAAEAAABQAAAAhbacS3FV1T8AAAAAAAAAAAAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAEAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAAA4AAAAeAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAABIAAAAWAAAA6QO/AhYAAAAYAAAAhQB5AZ59AACIEAAASwcAAL8CAAAAAAAA"/>
+              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_h5G7ZhMAAAAlAAAAZQAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAABAAAAAAAAAAEAAABQAAAAhbacS3FV1T8AAAAAAAAAAAAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAEAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAAA4AAAAeAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAABIAAAAWAAAA6QO/AhYAAAAYAAAAhQB5AZ59AACIEAAASwcAAL8CAAAAAAAA"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvSpPr>
@@ -13837,7 +13833,7 @@
         <xdr:cNvSpPr>
           <a:extLst>
             <a:ext uri="smNativeData">
-              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_VYC7ZhMAAAAlAAAAZQAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAABAAAAAAAAAAEAAABQAAAAhbacS3FV1T8AAAAAAAAAAAAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAEAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAAAAAAAAeAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAABcAAAAWAAAAYgGrAhoAAAAYAAAA/gFlAYh9AABWFAAASwcAAL8CAAAAAAAA"/>
+              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_h5G7ZhMAAAAlAAAAZQAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAABAAAAAAAAAAEAAABQAAAAhbacS3FV1T8AAAAAAAAAAAAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAEAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAAAAAAAAeAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAABcAAAAWAAAAYgGrAhoAAAAYAAAA/gFlAYh9AABWFAAASwcAAL8CAAAAAAAA"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvSpPr>
@@ -13912,7 +13908,7 @@
         <xdr:cNvSpPr>
           <a:extLst>
             <a:ext uri="smNativeData">
-              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_VYC7ZhMAAAAlAAAAZQAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAABAAAAAAAAAAEAAABQAAAAhbacS3FV1T8AAAAAAAAAAAAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAEAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAAAAAAAAeAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAAA4AAAAZAAAASAMSABEAAAAaAAAA5APMArqHAADpDAAASgcAAL8CAAAAAAAA"/>
+              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_h5G7ZhMAAAAlAAAAZQAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAABAAAAAAAAAAEAAABQAAAAhbacS3FV1T8AAAAAAAAAAAAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAEAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAAAAAAAAeAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAAA4AAAAZAAAASAMSABEAAAAaAAAA5APMArqHAADpDAAASgcAAL8CAAAAAAAA"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvSpPr>
@@ -13987,7 +13983,7 @@
         <xdr:cNvSpPr>
           <a:extLst>
             <a:ext uri="smNativeData">
-              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_VYC7ZhMAAAAlAAAAZQAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAABAAAAAAAAAAEAAABQAAAAhbacS3FV1T8AAAAAAAAAAAAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAEAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAAAAAAAAeAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAABIAAAAZAAAAhAMeABcAAAAaAAAAswDYAseHAAByEAAASgcAAL4DAAAAAAAA"/>
+              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_h5G7ZhMAAAAlAAAAZQAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAABAAAAAAAAAAEAAABQAAAAhbacS3FV1T8AAAAAAAAAAAAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAEAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAAAAAAAAeAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAABIAAAAZAAAAhAMeABcAAAAaAAAAswDYAseHAAByEAAASgcAAL4DAAAAAAAA"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvSpPr>
@@ -14062,7 +14058,7 @@
         <xdr:cNvSpPr>
           <a:extLst>
             <a:ext uri="smNativeData">
-              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_VYC7ZhMAAAAlAAAAZQAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAABAAAAAAAAAAEAAABQAAAAhbacS3FV1T8AAAAAAAAAAAAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAEAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAAAAAAAAeAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAABgAAAAYAAAAEgD4AxwAAAAaAAAAfwOyAp2HAADsFAAASwcAADsEAAAAAAAA"/>
+              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_h5G7ZhMAAAAlAAAAZQAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAABAAAAAAAAAAEAAABQAAAAhbacS3FV1T8AAAAAAAAAAAAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAEAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAAAAAAAAeAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAABgAAAAYAAAAEgD4AxwAAAAaAAAAfwOyAp2HAADsFAAASwcAADsEAAAAAAAA"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvSpPr>
@@ -14137,7 +14133,7 @@
         <xdr:cNvSpPr>
           <a:extLst>
             <a:ext uri="smNativeData">
-              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_VYC7ZhMAAAAlAAAAZQAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAABAAAAAAAAAAEAAABQAAAAhbacS3FV1T8AAAAAAAAAAAAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAEAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAAAAAAAAeAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAAB4AAAAZAAAAAAAjACIAAAAaAAAAbQPdAsyHAAAiGgAASwcAADsEAAAAAAAA"/>
+              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_h5G7ZhMAAAAlAAAAZQAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAABAAAAAAAAAAEAAABQAAAAhbacS3FV1T8AAAAAAAAAAAAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAEAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAAAAAAAAeAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAAB4AAAAZAAAAAAAjACIAAAAaAAAAbQPdAsyHAAAiGgAASwcAADsEAAAAAAAA"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvSpPr>
@@ -14212,7 +14208,7 @@
         <xdr:cNvSpPr>
           <a:extLst>
             <a:ext uri="smNativeData">
-              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_VYC7ZhMAAAAlAAAAZQAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAABAAAAAAAAAAEAAABQAAAAhbacS3FV1T8AAAAAAAAAAAAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAEAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAAP////8eAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAACMAAAAZAAAAJwMYACcAAAAaAAAAVgKTAsCHAABGHwAABgcAAIUDAAAAAAAA"/>
+              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_h5G7ZhMAAAAlAAAAZQAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAABAAAAAAAAAAEAAABQAAAAhbacS3FV1T8AAAAAAAAAAAAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAEAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAAP////8eAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAACMAAAAZAAAAJwMYACcAAAAaAAAAVgKTAsCHAABGHwAABgcAAIUDAAAAAAAA"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvSpPr>
@@ -14287,7 +14283,7 @@
         <xdr:cNvSpPr>
           <a:extLst>
             <a:ext uri="smNativeData">
-              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_VYC7ZhMAAAAlAAAAZQAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAABAAAAAAAAAAEAAABQAAAAhbacS3FV1T8AAAAAAAAAAAAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAEAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAAAAAAAAeAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAACgAAAAZAAAAjQAjACsAAAAaAAAAKwGfAsyHAABaIwAABwcAAMoCAAAAAAAA"/>
+              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_h5G7ZhMAAAAlAAAAZQAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAABAAAAAAAAAAEAAABQAAAAhbacS3FV1T8AAAAAAAAAAAAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAEAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAAAAAAAAeAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAACgAAAAZAAAAjQAjACsAAAAaAAAAKwGfAsyHAABaIwAABwcAAMoCAAAAAAAA"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvSpPr>
@@ -14362,7 +14358,7 @@
         <xdr:cNvSpPr>
           <a:extLst>
             <a:ext uri="smNativeData">
-              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_VYC7ZhMAAAAlAAAAZQAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAABAAAAAAAAAAEAAABQAAAAhbacS3FV1T8AAAAAAAAAAAAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAEAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAAKwaQAIeAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAACAAAAAWAAAARgG8AiQAAAAYAAAA7wJ7AZt9AAAnHAAAUAcAAPoDAAAAAAAA"/>
+              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_h5G7ZhMAAAAlAAAAZQAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAABAAAAAAAAAAEAAABQAAAAhbacS3FV1T8AAAAAAAAAAAAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAEAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAAKwaQAIeAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAACAAAAAWAAAARgG8AiQAAAAYAAAA7wJ7AZt9AAAnHAAAUAcAAPoDAAAAAAAA"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvSpPr>
@@ -14442,7 +14438,7 @@
         <xdr:cNvSpPr>
           <a:extLst>
             <a:ext uri="smNativeData">
-              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_VYC7ZhMAAAAlAAAAZQAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAABAAAAAAAAAAEAAABQAAAAhbacS3FV1T8AAAAAAAAAAAAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAEAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAAAAAAAAeAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAACUAAAAWAAAAgwHYAikAAAAYAAAABwKYAbl9AACyIAAAUQcAANwDAAAAAAAA"/>
+              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_h5G7ZhMAAAAlAAAAZQAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAABAAAAAAAAAAEAAABQAAAAhbacS3FV1T8AAAAAAAAAAAAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAEAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAAAAAAAAeAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAACUAAAAWAAAAgwHYAikAAAAYAAAABwKYAbl9AACyIAAAUQcAANwDAAAAAAAA"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvSpPr>
@@ -14522,7 +14518,7 @@
         <xdr:cNvSpPr>
           <a:extLst>
             <a:ext uri="smNativeData">
-              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_VYC7ZhMAAAAlAAAAZQAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAABAAAAAAAAAAEAAABQAAAAhbacS3FV1T8AAAAAAAAAAAAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAEAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAAAAAAAAeAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAADAAAAAWAAAA2AHzAjMAAAAYAAAArgHuAdZ9AAB+KwAAkQcAABwDAAAAAAAA"/>
+              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_h5G7ZhMAAAAlAAAAZQAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAABAAAAAAAAAAEAAABQAAAAhbacS3FV1T8AAAAAAAAAAAAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAEAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAAAAAAAAeAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAADAAAAAWAAAA2AHzAjMAAAAYAAAArgHuAdZ9AAB+KwAAkQcAABwDAAAAAAAA"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvSpPr>
@@ -14597,7 +14593,7 @@
         <xdr:cNvSpPr>
           <a:extLst>
             <a:ext uri="smNativeData">
-              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_VYC7ZhMAAAAlAAAAZQAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAABAAAAAAAAAAEAAABQAAAAhbacS3FV1T8AAAAAAAAAAAAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAEAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAAP////8eAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAABsAAAAWAAAAZQCyAh8AAAAYAAAAXgJyAZB9AACbFwAAUQcAAOoDAAAAAAAA"/>
+              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_h5G7ZhMAAAAlAAAAZQAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAABAAAAAAAAAAEAAABQAAAAhbacS3FV1T8AAAAAAAAAAAAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAEAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAAP////8eAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAABsAAAAWAAAAZQCyAh8AAAAYAAAAXgJyAZB9AACbFwAAUQcAAOoDAAAAAAAA"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvSpPr>
@@ -14677,7 +14673,7 @@
         <xdr:cNvSpPr>
           <a:extLst>
             <a:ext uri="smNativeData">
-              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_VYC7ZhMAAAAlAAAAZQAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAABAAAAAAAAAAEAAABQAAAAhbacS3FV1T8AAAAAAAAAAAAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAEAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAAAAAAAAeAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAAC0AAAAWAAAAhwIFAzAAAAAYAAAANQAAAup9AACFKAAAkQcAAIsCAAAAAAAA"/>
+              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_h5G7ZhMAAAAlAAAAZQAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAABAAAAAAAAAAEAAABQAAAAhbacS3FV1T8AAAAAAAAAAAAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAEAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAAAAAAAAeAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAAC0AAAAWAAAAhwIFAzAAAAAYAAAANQAAAup9AACFKAAAkQcAAIsCAAAAAAAA"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvSpPr>
@@ -14757,7 +14753,7 @@
         <xdr:cNvSpPr>
           <a:extLst>
             <a:ext uri="smNativeData">
-              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_VYC7ZhMAAAAlAAAAyAAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAAAAAAAAAAAAAEAAABQAAAAd3d3d3d3tz8AAAAAAAAAAAAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAEAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAAP////8eAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAACcAAAAWAAAA1AGCAScAAAAWAAAARQPLAkZ8AACpIgAAZQEAAGEAAAAAAAAA"/>
+              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_h5G7ZhMAAAAlAAAAyAAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAAAAAAAAAAAAAEAAABQAAAAd3d3d3d3tz8AAAAAAAAAAAAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAEAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAAP////8eAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAACcAAAAWAAAA1AGCAScAAAAWAAAARQPLAkZ8AACpIgAAZQEAAGEAAAAAAAAA"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvSpPr>
@@ -14808,7 +14804,7 @@
         <xdr:cNvSpPr>
           <a:extLst>
             <a:ext uri="smNativeData">
-              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_VYC7ZhMAAAAlAAAAyAAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAAAAAAAAAAAAAEAAABQAAAAd3d3d3d3tz8AAAAAAAAAAAAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAEAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAAP////8eAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAACsAAAAWAAAACQOdASwAAAAWAAAA7ADlAmR8AACUJgAAYwEAAHgAAAAAAAAA"/>
+              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_h5G7ZhMAAAAlAAAAyAAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAAAAAAAAAAAAAEAAABQAAAAd3d3d3d3tz8AAAAAAAAAAAAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAEAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAAP////8eAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAACsAAAAWAAAACQOdASwAAAAWAAAA7ADlAmR8AACUJgAAYwEAAHgAAAAAAAAA"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvSpPr>
@@ -14859,7 +14855,7 @@
         <xdr:cNvSpPr>
           <a:extLst>
             <a:ext uri="smNativeData">
-              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_VYC7ZhMAAAAlAAAAyAAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAAAAAAAAAAAAAEAAABQAAAAd3d3d3d3tz8AAAAAAAAAAAAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAEAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAAD48dj4eAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAAC4AAAAWAAAApwB3AS4AAAAWAAAAGQLAAjp8AAAUKQAAZQEAAGEAAAAAAAAA"/>
+              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_h5G7ZhMAAAAlAAAAyAAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAAAAAAAAAAAAAEAAABQAAAAd3d3d3d3tz8AAAAAAAAAAAAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAEAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAAD48dj4eAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAAC4AAAAWAAAApwB3AS4AAAAWAAAAGQLAAjp8AAAUKQAAZQEAAGEAAAAAAAAA"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvSpPr>
@@ -14910,7 +14906,7 @@
         <xdr:cNvCxnSpPr>
           <a:extLst>
             <a:ext uri="smNativeData">
-              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_VYC7ZhMAAAAlAAAADQAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAAAAAAAAAAAAAEAAABQAAAAAAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAAAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAZAAAAAEAAABAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAAF8AYAAeAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAABAAAAAYAAAAvAD6AikAAAAYAAAALwP6AoqGAAAZDgAAAAAAALYWAAAAAAAA"/>
+              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_h5G7ZhMAAAAlAAAADQAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAAAAAAAAAAAAAEAAABQAAAAAAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAAAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAZAAAAAEAAABAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAAF8AYAAeAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAABAAAAAYAAAAvAD6AikAAAAYAAAALwP6AoqGAAAZDgAAAAAAALYWAAAAAAAA"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvCxnSpPr>
@@ -14956,7 +14952,7 @@
         <xdr:cNvSpPr>
           <a:extLst>
             <a:ext uri="smNativeData">
-              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_VYC7ZhMAAAAlAAAAyAAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAAAAAAAAAAAAAEAAABQAAAAJIA3MJd3tz8AAAAAAAAAAAAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAEAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAACByPSIeAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAAA8AAAAYAAAA8QLfAhAAAAAZAAAA1AEoAG2GAAC1DQAAZAEAAKEAAAAAAAAA"/>
+              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_h5G7ZhMAAAAlAAAAyAAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAAAAAAAAAAAAAEAAABQAAAAJIA3MJd3tz8AAAAAAAAAAAAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAEAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAACByPSIeAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAAA8AAAAYAAAA8QLfAhAAAAAZAAAA1AEoAG2GAAC1DQAAZAEAAKEAAAAAAAAA"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvSpPr>
@@ -15007,7 +15003,7 @@
         <xdr:cNvSpPr>
           <a:extLst>
             <a:ext uri="smNativeData">
-              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_VYC7ZhMAAAAlAAAAyAAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAAAAAAAAAAAAAEAAABQAAAAJIA3MJd3tz8AAAAAAAAAAAAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAEAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAAHBhbnMeAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAABAAAAAYAAAAAgKJAREAAAAYAAAA6gDSAvqEAABgDgAAZQEAAKIAAAAAAAAA"/>
+              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_h5G7ZhMAAAAlAAAAyAAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAAAAAAAAAAAAAEAAABQAAAAJIA3MJd3tz8AAAAAAAAAAAAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAEAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAAHBhbnMeAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAABAAAAAYAAAAAgKJAREAAAAYAAAA6gDSAvqEAABgDgAAZQEAAKIAAAAAAAAA"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvSpPr>
@@ -15058,7 +15054,7 @@
         <xdr:cNvSpPr>
           <a:extLst>
             <a:ext uri="smNativeData">
-              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_VYC7ZhMAAAAlAAAAyAAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAAAAAAAAAAAAAEAAABQAAAAJIA3MJd3tz8AAAAAAAAAAAAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAEAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAAGM+PGMeAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAABQAAAAYAAAA8AH6AhUAAAAZAAAA2ABCAIqGAADYEQAAZAEAAKIAAAAAAAAA"/>
+              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_h5G7ZhMAAAAlAAAAyAAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAAAAAAAAAAAAAEAAABQAAAAJIA3MJd3tz8AAAAAAAAAAAAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAEAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAAGM+PGMeAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAABQAAAAYAAAA8AH6AhUAAAAZAAAA2ABCAIqGAADYEQAAZAEAAKIAAAAAAAAA"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvSpPr>
@@ -15109,7 +15105,7 @@
         <xdr:cNvSpPr>
           <a:extLst>
             <a:ext uri="smNativeData">
-              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_VYC7ZhMAAAAlAAAAyAAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAAAAAAAAAAAAAEAAABQAAAAJIA3MJd3tz8AAAAAAAAAAAAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAEAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAAP////8eAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAABoAAAAYAAAAQQEFAxsAAAAZAAAAKQBNAJaGAADsFgAAYwEAAKIAAAAAAAAA"/>
+              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_h5G7ZhMAAAAlAAAAyAAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAAAAAAAAAAAAAEAAABQAAAAJIA3MJd3tz8AAAAAAAAAAAAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAEAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAAP////8eAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAABoAAAAYAAAAQQEFAxsAAAAZAAAAKQBNAJaGAADsFgAAYwEAAKIAAAAAAAAA"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvSpPr>
@@ -15160,7 +15156,7 @@
         <xdr:cNvSpPr>
           <a:extLst>
             <a:ext uri="smNativeData">
-              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_VYC7ZhMAAAAlAAAAyAAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAAAAAAAAAAAAAEAAABQAAAAJIA3MJd3tz8AAAAAAAAAAAAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAEAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAAHI9IkEeAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAAB8AAAAYAAAAqQPvAiAAAAAZAAAAjAI3AH6GAADNGwAAZAEAAKEAAAAAAAAA"/>
+              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_h5G7ZhMAAAAlAAAAyAAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAAAAAAAAAAAAAEAAABQAAAAJIA3MJd3tz8AAAAAAAAAAAAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAEAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAAHI9IkEeAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAAB8AAAAYAAAAqQPvAiAAAAAZAAAAjAI3AH6GAADNGwAAZAEAAKEAAAAAAAAA"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvSpPr>
@@ -15211,7 +15207,7 @@
         <xdr:cNvSpPr>
           <a:extLst>
             <a:ext uri="smNativeData">
-              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_VYC7ZhMAAAAlAAAAyAAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAAAAAAAAAAAAAEAAABQAAAAJIA3MJd3tz8AAAAAAAAAAAAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAEAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAADEyPC8eAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAACUAAAAYAAAApgILAyYAAAAZAAAAbwFSAJyGAADyIAAAYwEAAKIAAAAAAAAA"/>
+              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_h5G7ZhMAAAAlAAAAyAAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAAAAAAAAAAAAAEAAABQAAAAJIA3MJd3tz8AAAAAAAAAAAAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAEAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAADEyPC8eAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAACUAAAAYAAAApgILAyYAAAAZAAAAbwFSAJyGAADyIAAAYwEAAKIAAAAAAAAA"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvSpPr>
@@ -15262,7 +15258,7 @@
         <xdr:cNvSpPr>
           <a:extLst>
             <a:ext uri="smNativeData">
-              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_VYC7ZhMAAAAlAAAAyAAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAAAAAAAAAAAAAEAAABQAAAAJIA3MJd3tz8AAAAAAAAAAAAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAEAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAAEI1OSIeAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAACkAAAAYAAAAowHlAioAAAAZAAAAjQAsAHOGAAB4JAAAYwEAAKQAAAAAAAAA"/>
+              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_h5G7ZhMAAAAlAAAAyAAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAAAAAAAAAAAAAEAAABQAAAAJIA3MJd3tz8AAAAAAAAAAAAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAEAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAAEI1OSIeAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAACkAAAAYAAAAowHlAioAAAAZAAAAjQAsAHOGAAB4JAAAYwEAAKQAAAAAAAAA"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvSpPr>
@@ -15313,7 +15309,7 @@
         <xdr:cNvSpPr>
           <a:extLst>
             <a:ext uri="smNativeData">
-              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_VYC7ZhMAAAAlAAAAZQAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAABAAAAAAAAAAEAAABQAAAAhbacS3FV1T8AAAAAAAAAAAAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAEAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAAEMxNjQeAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAACoAAAAWAAAAWwDAAi0AAAAYAAAAIQG7AZ99AAARJQAAkQcAABYDAAAAAAAA"/>
+              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_h5G7ZhMAAAAlAAAAZQAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAABAAAAAAAAAAEAAABQAAAAhbacS3FV1T8AAAAAAAAAAAAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAEAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAAEMxNjQeAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAACoAAAAWAAAAWwDAAi0AAAAYAAAAIQG7AZ99AAARJQAAkQcAABYDAAAAAAAA"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvSpPr>
@@ -15393,7 +15389,7 @@
         <xdr:cNvSpPr>
           <a:extLst>
             <a:ext uri="smNativeData">
-              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_VYC7ZhMAAAAlAAAAyAAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAAAAAAAAAAAAAEAAABQAAAAd3d3d3d3tz8AAAAAAAAAAAAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAEAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAAEExNzgeAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAADEAAAAWAAAADgGBATEAAAAWAAAAgwLLAkV8AABWLAAAZgEAAGIAAAAAAAAA"/>
+              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_h5G7ZhMAAAAlAAAAyAAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAAAAAAAAAAAAAEAAABQAAAAd3d3d3d3tz8AAAAAAAAAAAAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAEAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAAEExNzgeAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAADEAAAAWAAAADgGBATEAAAAWAAAAgwLLAkV8AABWLAAAZgEAAGIAAAAAAAAA"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvSpPr>
@@ -15444,7 +15440,7 @@
         <xdr:cNvSpPr>
           <a:extLst>
             <a:ext uri="smNativeData">
-              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_VYC7ZhMAAAAlAAAAywAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAABAAAAAAAAAAEAAABQAAAAtsuXJgN6zj+SkbOwpx2uPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAEAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAAHQ9IjAeAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAAAcAAAAXAAAAbAJ6AQgAAAAXAAAAFgNnApSAAACgBgAAAQEAAAQBAAAAAAAA"/>
+              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_h5G7ZhMAAAAlAAAAywAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAABAAAAAAAAAAEAAABQAAAAtsuXJgN6zj+SkbOwpx2uPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAEAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAAHQ9IjAeAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAAAcAAAAXAAAAbAJ6AQgAAAAXAAAAFgNnApSAAACgBgAAAQEAAAQBAAAAAAAA"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvSpPr>
@@ -15495,7 +15491,7 @@
         <xdr:cNvSpPr>
           <a:extLst>
             <a:ext uri="smNativeData">
-              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_VYC7ZhMAAAAlAAAAZQAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAABAAAAAAAAAAEAAABQAAAAhbacS3FV1T8AAAAAAAAAAAAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAEAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAAP////8eAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAAA0AAAAeAAAA8AEYAxAAAAAgAAAAhwKlAq+gAAC/CwAALwgAAL4CAAAAAAAA"/>
+              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_h5G7ZhMAAAAlAAAAZQAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAABAAAAAAAAAAEAAABQAAAAhbacS3FV1T8AAAAAAAAAAAAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAEAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAAP////8eAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAAA0AAAAeAAAA8AEYAxAAAAAgAAAAhwKlAq+gAAC/CwAALwgAAL4CAAAAAAAA"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvSpPr>
@@ -15570,7 +15566,7 @@
         <xdr:cNvSpPr>
           <a:extLst>
             <a:ext uri="smNativeData">
-              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_VYC7ZhMAAAAlAAAAZQAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAABAAAAAAAAAAEAAABQAAAAhbacS3FV1T8AAAAAAAAAAAAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAEAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAAAAAAAAeAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAABEAAAAeAAAA3gEzAxQAAAAgAAAARwK/AsygAAA3DwAALggAALQCAAAAAAAA"/>
+              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_h5G7ZhMAAAAlAAAAZQAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAABAAAAAAAAAAEAAABQAAAAhbacS3FV1T8AAAAAAAAAAAAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAEAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAAAAAAAAeAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAABEAAAAeAAAA3gEzAxQAAAAgAAAARwK/AsygAAA3DwAALggAALQCAAAAAAAA"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvSpPr>
@@ -15645,7 +15641,7 @@
         <xdr:cNvSpPr>
           <a:extLst>
             <a:ext uri="smNativeData">
-              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_VYC7ZhMAAAAlAAAAZQAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAABAAAAAAAAAAEAAABQAAAAhbacS3FV1T8AAAAAAAAAAAAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAEAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAADwvcm8eAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAAA4AAAAcAAAA4AOzARIAAAAeAAAAQwJ9AICWAAAKDQAAWwcAACIDAAAAAAAA"/>
+              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_h5G7ZhMAAAAlAAAAZQAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAABAAAAAAAAAAEAAABQAAAAhbacS3FV1T8AAAAAAAAAAAAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAEAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAADwvcm8eAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAAA4AAAAcAAAA4AOzARIAAAAeAAAAQwJ9AICWAAAKDQAAWwcAACIDAAAAAAAA"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvSpPr>
@@ -15730,7 +15726,7 @@
         <xdr:cNvSpPr>
           <a:extLst>
             <a:ext uri="smNativeData">
-              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_VYC7ZhMAAAAlAAAAZQAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAABAAAAAAAAAAEAAABQAAAAhbacS3FV1T8AAAAAAAAAAAAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAEAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAAP////8eAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAABMAAAAcAAAATALPARYAAAAeAAAANgOfAJ6WAAANEQAAYgcAANACAAAAAAAA"/>
+              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_h5G7ZhMAAAAlAAAAZQAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAABAAAAAAAAAAEAAABQAAAAhbacS3FV1T8AAAAAAAAAAAAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAEAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAAP////8eAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAABMAAAAcAAAATALPARYAAAAeAAAANgOfAJ6WAAANEQAAYgcAANACAAAAAAAA"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvSpPr>
@@ -15827,7 +15823,7 @@
           <a:endCxn id="12" idx="0"/>
           <a:extLst>
             <a:ext uri="smNativeData">
-              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_VYC7ZhMAAAAlAAAADQAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAAAAAAAAAAAAAEAAABQAAAAAAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAAAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAZAAAAAEAAABAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAADcyMzQeAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAAA4AAAAcAAAA5wF/ABQAAAAcAAAAZAOJADKVAACcDAAACwAAAI0FAAAAAAAA"/>
+              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_h5G7ZhMAAAAlAAAADQAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAAAAAAAAAAAAAEAAABQAAAAAAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAAAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAZAAAAAEAAABAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAADcyMzQeAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAAA4AAAAcAAAA5wF/ABQAAAAcAAAAZAOJADKVAACcDAAACwAAAI0FAAAAAAAA"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvCxnSpPr>
@@ -15873,7 +15869,7 @@
         <xdr:cNvSpPr>
           <a:extLst>
             <a:ext uri="smNativeData">
-              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_VYC7ZhMAAAAlAAAAywAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAAAAAAAAAAAAAEAAABQAAAAKv77W8R5zj+SkbOwpx2uPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAEAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAAHlsZT0eAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAAA4AAAAcAAAApQAHAA8AAAAcAAAATwHzALCUAABWDAAA/wAAAAQBAAAAAAAA"/>
+              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_h5G7ZhMAAAAlAAAAywAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAAAAAAAAAAAAAEAAABQAAAAKv77W8R5zj+SkbOwpx2uPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAEAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAAHlsZT0eAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAAA4AAAAcAAAApQAHAA8AAAAcAAAATwHzALCUAABWDAAA/wAAAAQBAAAAAAAA"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvSpPr>
@@ -15924,7 +15920,7 @@
         <xdr:cNvSpPr>
           <a:extLst>
             <a:ext uri="smNativeData">
-              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_VYC7ZhMAAAAlAAAAyAAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAAAAAAAAAAAAAEAAABQAAAAJIA3MJd3tz8AAAAAAAAAAAAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAEAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAACIvPjweAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAABAAAAAcAAAAEgBvABAAAAAcAAAA+gK3ASCVAAD0DQAAZAEAAKIAAAAAAAAA"/>
+              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_h5G7ZhMAAAAlAAAAyAAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAAAAAAAAAAAAAEAAABQAAAAJIA3MJd3tz8AAAAAAAAAAAAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAEAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAACIvPjweAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAABAAAAAcAAAAEgBvABAAAAAcAAAA+gK3ASCVAAD0DQAAZAEAAKIAAAAAAAAA"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvSpPr>
@@ -15975,7 +15971,7 @@
         <xdr:cNvSpPr>
           <a:extLst>
             <a:ext uri="smNativeData">
-              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_VYC7ZhMAAAAlAAAAyAAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAAAAAAAAAAAAAEAAABQAAAAJIA3MJd3tz8AAAAAAAAAAAAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAEAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAAP////8eAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAABQAAAAcAAAAZANrABUAAAAcAAAATAKyARyVAAApEgAAYgEAAKIAAAAAAAAA"/>
+              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_h5G7ZhMAAAAlAAAAyAAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAAAAAAAAAAAAAEAAABQAAAAJIA3MJd3tz8AAAAAAAAAAAAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAEAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAAP////8eAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAABQAAAAcAAAAZANrABUAAAAcAAAATAKyARyVAAApEgAAYgEAAKIAAAAAAAAA"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvSpPr>
@@ -16026,7 +16022,7 @@
         <xdr:cNvCxnSpPr>
           <a:extLst>
             <a:ext uri="smNativeData">
-              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_VYC7ZhMAAAAlAAAADQAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAAAAAAAAAAAAAEAAABQAAAAAAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAAAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAZAAAAAEAAABAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAADcyMzQeAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAAA4AAAAeAAAA2gL0ARMAAAAeAAAAqwEVAnKfAADRDAAAJAAAABkEAAAAAAAA"/>
+              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_h5G7ZhMAAAAlAAAADQAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAAAAAAAAAAAAAEAAABQAAAAAAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAAAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAZAAAAAEAAABAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAADcyMzQeAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAAA4AAAAeAAAA2gL0ARMAAAAeAAAAqwEVAnKfAADRDAAAJAAAABkEAAAAAAAA"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvCxnSpPr>
@@ -16072,7 +16068,7 @@
         <xdr:cNvSpPr>
           <a:extLst>
             <a:ext uri="smNativeData">
-              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_VYC7ZhMAAAAlAAAAyAAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAAAAAAAAAAAAAEAAABQAAAAJIA3MJd3tz8AAAAAAAAAAAAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAEAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAAD48dj4eAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAAA8AAAAeAAAAvwJ6ABAAAAAeAAAAogHBAdidAACqDQAAYwEAAKEAAAAAAAAA"/>
+              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_h5G7ZhMAAAAlAAAAyAAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAAAAAAAAAAAAAEAAABQAAAAJIA3MJd3tz8AAAAAAAAAAAAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAEAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAAD48dj4eAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAAA8AAAAeAAAAvwJ6ABAAAAAeAAAAogHBAdidAACqDQAAYwEAAKEAAAAAAAAA"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvSpPr>
@@ -16123,7 +16119,7 @@
         <xdr:cNvSpPr>
           <a:extLst>
             <a:ext uri="smNativeData">
-              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_VYC7ZhMAAAAlAAAAyAAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAABAAAAAAAAAAEAAABQAAAAJIA3MJd3tz8AAAAAAAAAAAAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAEAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAACI+PHYeAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAAA4AAAAeAAAAAgLZAQ8AAAAeAAAA6gAgA1WfAACiDAAAYgEAAKIAAAAAAAAA"/>
+              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_h5G7ZhMAAAAlAAAAyAAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAABAAAAAAAAAAEAAABQAAAAJIA3MJd3tz8AAAAAAAAAAAAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAEAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAACI+PHYeAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAAA4AAAAeAAAAAgLZAQ8AAAAeAAAA6gAgA1WfAACiDAAAYgEAAKIAAAAAAAAA"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvSpPr>
@@ -16174,7 +16170,7 @@
         <xdr:cNvSpPr>
           <a:extLst>
             <a:ext uri="smNativeData">
-              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_VYC7ZhMAAAAlAAAAyAAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAABAAAAAAAAAAEAAABQAAAAJIA3MJd3tz8AAAAAAAAAAAAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAEAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAAP////8eAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAABIAAAAeAAAA2gIFAhMAAAAeAAAAwgFMA4SfAABNEAAAYwEAAKIAAAAAAAAA"/>
+              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_h5G7ZhMAAAAlAAAAyAAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAABAAAAAAAAAAEAAABQAAAAJIA3MJd3tz8AAAAAAAAAAAAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAEAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAAP////8eAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAABIAAAAeAAAA2gIFAhMAAAAeAAAAwgFMA4SfAABNEAAAYwEAAKIAAAAAAAAA"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvSpPr>
@@ -16225,7 +16221,7 @@
         <xdr:cNvSpPr>
           <a:extLst>
             <a:ext uri="smNativeData">
-              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_VYC7ZhMAAAAlAAAAZQAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAABAAAAAAAAAAEAAABQAAAAhbacS3FV1T8AAAAAAAAAAAAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAEAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAAAAAAAAeAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAAA4AAAAhAAAAFwCDAxEAAAAjAAAAdQJOAiWuAAA3DAAAXQcAACEDAAAAAAAA"/>
+              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_h5G7ZhMAAAAlAAAAZQAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAABAAAAAAAAAAEAAABQAAAAhbacS3FV1T8AAAAAAAAAAAAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAEAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAAAAAAAAeAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAAA4AAAAhAAAAFwCDAxEAAAAjAAAAdQJOAiWuAAA3DAAAXQcAACEDAAAAAAAA"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvSpPr>
@@ -16310,7 +16306,7 @@
         <xdr:cNvSpPr>
           <a:extLst>
             <a:ext uri="smNativeData">
-              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_VYC7ZhMAAAAlAAAAZQAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAABAAAAAAAAAAEAAABQAAAAhbacS3FV1T8AAAAAAAAAAAAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAEAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAAG93PjweAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAABMAAAAhAAAAlAGvAxYAAAAjAAAAfgKAAlSuAADlEAAAZAcAANACAAAAAAAA"/>
+              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_h5G7ZhMAAAAlAAAAZQAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAABAAAAAAAAAAEAAABQAAAAhbacS3FV1T8AAAAAAAAAAAAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAEAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAAG93PjweAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAABMAAAAhAAAAlAGvAxYAAAAjAAAAfgKAAlSuAADlEAAAZAcAANACAAAAAAAA"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvSpPr>
@@ -16407,7 +16403,7 @@
           <a:endCxn id="2" idx="0"/>
           <a:extLst>
             <a:ext uri="smNativeData">
-              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_VYC7ZhMAAAAlAAAADQAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAAAAAAAAAAAAAEAAABQAAAAAAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAAAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAZAAAAAEAAABAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAAAAAAAAeAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAAA0AAAAhAAAAxAMlAhQAAAAhAAAArAJHAqmsAAAlDAAAJQAAANwFAAAAAAAA"/>
+              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_h5G7ZhMAAAAlAAAADQAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAAAAAAAAAAAAAEAAABQAAAAAAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAAAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAZAAAAAEAAABAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAAAAAAAAeAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAAA0AAAAhAAAAxAMlAhQAAAAhAAAArAJHAqmsAAAlDAAAJQAAANwFAAAAAAAA"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvCxnSpPr>
@@ -16453,7 +16449,7 @@
         <xdr:cNvSpPr>
           <a:extLst>
             <a:ext uri="smNativeData">
-              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_VYC7ZhMAAAAlAAAAywAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAAAAAAAAAAAAAEAAABQAAAAKv77W8R5zj+SkbOwpx2uPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAEAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAAP////8eAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAAA0AAAAhAAAAmwOoAQ8AAAAhAAAARQCTAiKsAAAcDAAA/gAAAAQBAAAAAAAA"/>
+              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_h5G7ZhMAAAAlAAAAywAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAAAAAAAAAAAAAEAAABQAAAAKv77W8R5zj+SkbOwpx2uPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAEAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAAP////8eAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAAA0AAAAhAAAAmwOoAQ8AAAAhAAAARQCTAiKsAAAcDAAA/gAAAAQBAAAAAAAA"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvSpPr>
@@ -16504,7 +16500,7 @@
         <xdr:cNvSpPr>
           <a:extLst>
             <a:ext uri="smNativeData">
-              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_VYC7ZhMAAAAlAAAAyAAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAABAAAAAAAAAAEAAABQAAAAJIA3MJd3tz8AAAAAAAAAAAAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAEAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAAP////8eAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAAA8AAAAhAAAA1gITAhAAAAAhAAAAuQFaA5asAACvDQAAYgEAAKEAAAAAAAAA"/>
+              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_h5G7ZhMAAAAlAAAAyAAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAABAAAAAAAAAAEAAABQAAAAJIA3MJd3tz8AAAAAAAAAAAAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAEAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAAP////8eAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAAA8AAAAhAAAA1gITAhAAAAAhAAAAuQFaA5asAACvDQAAYgEAAKEAAAAAAAAA"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvSpPr>
@@ -16555,7 +16551,7 @@
         <xdr:cNvSpPr>
           <a:extLst>
             <a:ext uri="smNativeData">
-              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_VYC7ZhMAAAAlAAAAyAAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAAAAAAAAAAAAAEAAABQAAAAJIA3MJd3tz8AAAAAAAAAAAAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAEAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAANC8INEeAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAABQAAAAhAAAArAIpAhUAAAAhAAAAlAFwA62sAAABEgAAYwEAAKIAAAAAAAAA"/>
+              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_h5G7ZhMAAAAlAAAAyAAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAAAAAAAAAAAAAEAAABQAAAAJIA3MJd3tz8AAAAAAAAAAAAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAEAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAANC8INEeAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAABQAAAAhAAAArAIpAhUAAAAhAAAAlAFwA62sAAABEgAAYwEAAKIAAAAAAAAA"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvSpPr>
@@ -16612,7 +16608,7 @@
           <a:spLocks noChangeAspect="1"/>
           <a:extLst>
             <a:ext uri="smNativeData">
-              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_VYC7ZhMAAAAlAAAAZAAAAKwAAAAAkAAAAEgAAACQAAAASAAAAAAAAAAAAAAAAAAAAAEAAABQAAAAAAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAEAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAPAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAADMANAAeAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAAAAAAAAAAAAAAAAAADkAAAALAAAAHwNaAQAAAAAAAAAAd1QAAAtEAAAAAAAA"/>
+              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_h5G7ZhMAAAAlAAAAZAAAAKwAAAAAkAAAAEgAAACQAAAASAAAAAAAAAAAAAAAAAAAAAEAAABQAAAAAAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAEAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAPAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAADMANAAeAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAAAAAAAAAAAAAAAAAADkAAAALAAAAHwNaAQAAAAAAAAAAd1QAAAtEAAAAAAAA"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvSpPr>
@@ -16660,7 +16656,7 @@
         <xdr:cNvPicPr>
           <a:extLst>
             <a:ext uri="smNativeData">
-              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_15_VYC7ZhMAAAAlAAAAEQAAAA8AAAAAkAAAAEgAAACQAAAASAAAAAAAAAAAAAAAAAAAAAEAAABQAAAAAAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAAAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAZAAAAAEAAABAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAAAAAAAAAAAAAAAAAAUAAAAAQAAABQAAAAUAAAAFAAAAAEAAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAAAcAAAA4AAAAAAAAAAAAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABkAAAAZAAAAAEAAAAjAAAABAAAAGQAAAAXAAAAFAAAAAAAAAAAAAAA/38AAP9/AAAAAAAACQAAAAQAAAAFAAAAHgAAAGgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABAnAAAQJwAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAUAAAAAAAAAMDA/wAAAAAAZAAAADIAAAAAAAAAZAAAAAAAAAB/f38ACgAAACIAAAAYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAJAAAACQAAAAAAAAABwAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAH9/fwAlAAAAWAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAPwAAAAAAAACghgEAAAAAAAAAAAAAAAAADAAAAAEAAAAAAAAAAAAAAAAAAAAhAAAAMAAAACwAAABDAAAAAQAAADkAKwBTAAAAAQAAADkACwNzCgAAyk0AACcZAADQEAAAAAAAAA=="/>
+              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_15_h5G7ZhMAAAAlAAAAEQAAAA8AAAAAkAAAAEgAAACQAAAASAAAAAAAAAAAAAAAAAAAAAEAAABQAAAAAAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAAAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAZAAAAAEAAABAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAAAAAAAAAAAAAAAAAAUAAAAAQAAABQAAAAUAAAAFAAAAAEAAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAAAcAAAA4AAAAAAAAAAAAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABkAAAAZAAAAAEAAAAjAAAABAAAAGQAAAAXAAAAFAAAAAAAAAAAAAAA/38AAP9/AAAAAAAACQAAAAQAAAAFAAAAHgAAAGgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABAnAAAQJwAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAUAAAAAAAAAMDA/wAAAAAAZAAAADIAAAAAAAAAZAAAAAAAAAB/f38ACgAAACIAAAAYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAJAAAACQAAAAAAAAABwAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAH9/fwAlAAAAWAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAPwAAAAAAAACghgEAAAAAAAAAAAAAAAAADAAAAAEAAAAAAAAAAAAAAAAAAAAhAAAAMAAAACwAAABDAAAAAQAAADkAKwBTAAAAAQAAADkACwNzCgAAyk0AACcZAADQEAAAAAAAAA=="/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPicPr>
@@ -17017,8 +17013,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <dimension ref="A33:W66"/>
   <sheetViews>
-    <sheetView view="normal" topLeftCell="S10" zoomScale="85" workbookViewId="0">
-      <selection activeCell="AA46" sqref="AA46"/>
+    <sheetView tabSelected="1" view="normal" topLeftCell="A7" zoomScale="85" workbookViewId="0">
+      <selection activeCell="J32" sqref="J32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="9" defaultColWidth="10.000000" defaultRowHeight="11.15"/>
@@ -17263,7 +17259,7 @@
   <printOptions>
     <extLst>
       <ext uri="smNativeData">
-        <pm:pageFlags xmlns:pm="smNativeData" id="1723564117" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
+        <pm:pageFlags xmlns:pm="smNativeData" id="1723568519" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
       </ext>
     </extLst>
   </printOptions>
@@ -17272,17 +17268,17 @@
   <headerFooter>
     <extLst>
       <ext uri="smNativeData">
-        <pm:header xmlns:pm="smNativeData" id="1723564117" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
-        <pm:footer xmlns:pm="smNativeData" id="1723564117" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1723564117" Id="0" type="0" value="0"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1723564117" Id="1" type="0" value="0"/>
+        <pm:header xmlns:pm="smNativeData" id="1723568519" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
+        <pm:footer xmlns:pm="smNativeData" id="1723568519" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1723568519" Id="0" type="0" value="0"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1723568519" Id="1" type="0" value="0"/>
       </ext>
     </extLst>
   </headerFooter>
   <drawing r:id="rId1"/>
   <extLst>
     <ext uri="smNativeData">
-      <pm:sheetPrefs xmlns:pm="smNativeData" day="1723564117" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
+      <pm:sheetPrefs xmlns:pm="smNativeData" day="1723568519" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
         <pm:shade id="0" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
         <pm:shade id="1" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
       </pm:sheetPrefs>
@@ -17565,7 +17561,7 @@
   <printOptions>
     <extLst>
       <ext uri="smNativeData">
-        <pm:pageFlags xmlns:pm="smNativeData" id="1723564117" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
+        <pm:pageFlags xmlns:pm="smNativeData" id="1723568519" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
       </ext>
     </extLst>
   </printOptions>
@@ -17574,16 +17570,16 @@
   <headerFooter>
     <extLst>
       <ext uri="smNativeData">
-        <pm:header xmlns:pm="smNativeData" id="1723564117" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
-        <pm:footer xmlns:pm="smNativeData" id="1723564117" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1723564117" Id="0" type="0" value="0"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1723564117" Id="1" type="0" value="0"/>
+        <pm:header xmlns:pm="smNativeData" id="1723568519" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
+        <pm:footer xmlns:pm="smNativeData" id="1723568519" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1723568519" Id="0" type="0" value="0"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1723568519" Id="1" type="0" value="0"/>
       </ext>
     </extLst>
   </headerFooter>
   <extLst>
     <ext uri="smNativeData">
-      <pm:sheetPrefs xmlns:pm="smNativeData" day="1723564117" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
+      <pm:sheetPrefs xmlns:pm="smNativeData" day="1723568519" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
         <pm:shade id="0" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
         <pm:shade id="1" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
       </pm:sheetPrefs>
@@ -17898,7 +17894,7 @@
   <printOptions>
     <extLst>
       <ext uri="smNativeData">
-        <pm:pageFlags xmlns:pm="smNativeData" id="1723564117" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
+        <pm:pageFlags xmlns:pm="smNativeData" id="1723568519" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
       </ext>
     </extLst>
   </printOptions>
@@ -17907,16 +17903,16 @@
   <headerFooter>
     <extLst>
       <ext uri="smNativeData">
-        <pm:header xmlns:pm="smNativeData" id="1723564117" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
-        <pm:footer xmlns:pm="smNativeData" id="1723564117" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1723564117" Id="0" type="0" value="0"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1723564117" Id="1" type="0" value="0"/>
+        <pm:header xmlns:pm="smNativeData" id="1723568519" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
+        <pm:footer xmlns:pm="smNativeData" id="1723568519" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1723568519" Id="0" type="0" value="0"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1723568519" Id="1" type="0" value="0"/>
       </ext>
     </extLst>
   </headerFooter>
   <extLst>
     <ext uri="smNativeData">
-      <pm:sheetPrefs xmlns:pm="smNativeData" day="1723564117" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
+      <pm:sheetPrefs xmlns:pm="smNativeData" day="1723568519" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
         <pm:shade id="0" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
         <pm:shade id="1" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
       </pm:sheetPrefs>
@@ -20439,7 +20435,7 @@
   <printOptions>
     <extLst>
       <ext uri="smNativeData">
-        <pm:pageFlags xmlns:pm="smNativeData" id="1723564117" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
+        <pm:pageFlags xmlns:pm="smNativeData" id="1723568519" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
       </ext>
     </extLst>
   </printOptions>
@@ -20448,16 +20444,16 @@
   <headerFooter>
     <extLst>
       <ext uri="smNativeData">
-        <pm:header xmlns:pm="smNativeData" id="1723564117" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
-        <pm:footer xmlns:pm="smNativeData" id="1723564117" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1723564117" Id="0" type="0" value="0"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1723564117" Id="1" type="0" value="0"/>
+        <pm:header xmlns:pm="smNativeData" id="1723568519" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
+        <pm:footer xmlns:pm="smNativeData" id="1723568519" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1723568519" Id="0" type="0" value="0"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1723568519" Id="1" type="0" value="0"/>
       </ext>
     </extLst>
   </headerFooter>
   <extLst>
     <ext uri="smNativeData">
-      <pm:sheetPrefs xmlns:pm="smNativeData" day="1723564117" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
+      <pm:sheetPrefs xmlns:pm="smNativeData" day="1723568519" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
         <pm:shade id="0" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
         <pm:shade id="1" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
       </pm:sheetPrefs>
@@ -20822,7 +20818,7 @@
   <printOptions>
     <extLst>
       <ext uri="smNativeData">
-        <pm:pageFlags xmlns:pm="smNativeData" id="1723564117" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
+        <pm:pageFlags xmlns:pm="smNativeData" id="1723568519" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
       </ext>
     </extLst>
   </printOptions>
@@ -20831,16 +20827,16 @@
   <headerFooter>
     <extLst>
       <ext uri="smNativeData">
-        <pm:header xmlns:pm="smNativeData" id="1723564117" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
-        <pm:footer xmlns:pm="smNativeData" id="1723564117" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1723564117" Id="0" type="0" value="0"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1723564117" Id="1" type="0" value="0"/>
+        <pm:header xmlns:pm="smNativeData" id="1723568519" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
+        <pm:footer xmlns:pm="smNativeData" id="1723568519" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1723568519" Id="0" type="0" value="0"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1723568519" Id="1" type="0" value="0"/>
       </ext>
     </extLst>
   </headerFooter>
   <extLst>
     <ext uri="smNativeData">
-      <pm:sheetPrefs xmlns:pm="smNativeData" day="1723564117" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
+      <pm:sheetPrefs xmlns:pm="smNativeData" day="1723568519" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
         <pm:shade id="0" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
         <pm:shade id="1" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
       </pm:sheetPrefs>
@@ -20854,7 +20850,7 @@
   <dimension ref="A1:S24"/>
   <sheetViews>
     <sheetView view="normal" workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="9" defaultColWidth="10.000000" defaultRowHeight="13.45"/>
@@ -21301,7 +21297,7 @@
   <printOptions>
     <extLst>
       <ext uri="smNativeData">
-        <pm:pageFlags xmlns:pm="smNativeData" id="1723564117" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
+        <pm:pageFlags xmlns:pm="smNativeData" id="1723568519" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
       </ext>
     </extLst>
   </printOptions>
@@ -21310,16 +21306,16 @@
   <headerFooter>
     <extLst>
       <ext uri="smNativeData">
-        <pm:header xmlns:pm="smNativeData" id="1723564117" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
-        <pm:footer xmlns:pm="smNativeData" id="1723564117" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1723564117" Id="0" type="0" value="0"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1723564117" Id="1" type="0" value="0"/>
+        <pm:header xmlns:pm="smNativeData" id="1723568519" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
+        <pm:footer xmlns:pm="smNativeData" id="1723568519" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1723568519" Id="0" type="0" value="0"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1723568519" Id="1" type="0" value="0"/>
       </ext>
     </extLst>
   </headerFooter>
   <extLst>
     <ext uri="smNativeData">
-      <pm:sheetPrefs xmlns:pm="smNativeData" day="1723564117" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
+      <pm:sheetPrefs xmlns:pm="smNativeData" day="1723568519" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
         <pm:shade id="0" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
         <pm:shade id="1" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
       </pm:sheetPrefs>
@@ -21332,8 +21328,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <dimension ref="A2:C100"/>
   <sheetViews>
-    <sheetView view="normal" topLeftCell="A82" workbookViewId="0">
-      <selection activeCell="B97" sqref="B97"/>
+    <sheetView view="normal" topLeftCell="A83" workbookViewId="0">
+      <selection activeCell="B54" sqref="B54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="9" defaultColWidth="10.000000" defaultRowHeight="13.45"/>
@@ -21907,7 +21903,7 @@
   <printOptions>
     <extLst>
       <ext uri="smNativeData">
-        <pm:pageFlags xmlns:pm="smNativeData" id="1723564117" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
+        <pm:pageFlags xmlns:pm="smNativeData" id="1723568519" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
       </ext>
     </extLst>
   </printOptions>
@@ -21916,17 +21912,17 @@
   <headerFooter>
     <extLst>
       <ext uri="smNativeData">
-        <pm:header xmlns:pm="smNativeData" id="1723564117" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
-        <pm:footer xmlns:pm="smNativeData" id="1723564117" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1723564117" Id="0" type="0" value="0"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1723564117" Id="1" type="0" value="0"/>
+        <pm:header xmlns:pm="smNativeData" id="1723568519" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
+        <pm:footer xmlns:pm="smNativeData" id="1723568519" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1723568519" Id="0" type="0" value="0"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1723568519" Id="1" type="0" value="0"/>
       </ext>
     </extLst>
   </headerFooter>
   <drawing r:id="rId5"/>
   <extLst>
     <ext uri="smNativeData">
-      <pm:sheetPrefs xmlns:pm="smNativeData" day="1723564117" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
+      <pm:sheetPrefs xmlns:pm="smNativeData" day="1723568519" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
         <pm:shade id="0" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
         <pm:shade id="1" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
       </pm:sheetPrefs>
@@ -21939,8 +21935,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <dimension ref="A1:J49"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="normal" workbookViewId="0">
-      <selection activeCell="H36" sqref="H36"/>
+    <sheetView view="normal" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="9" defaultColWidth="10.000000" defaultRowHeight="13.45"/>
@@ -22442,7 +22438,7 @@
   <printOptions>
     <extLst>
       <ext uri="smNativeData">
-        <pm:pageFlags xmlns:pm="smNativeData" id="1723564117" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
+        <pm:pageFlags xmlns:pm="smNativeData" id="1723568519" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
       </ext>
     </extLst>
   </printOptions>
@@ -22451,17 +22447,17 @@
   <headerFooter>
     <extLst>
       <ext uri="smNativeData">
-        <pm:header xmlns:pm="smNativeData" id="1723564117" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
-        <pm:footer xmlns:pm="smNativeData" id="1723564117" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1723564117" Id="0" type="0" value="0"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1723564117" Id="1" type="0" value="0"/>
+        <pm:header xmlns:pm="smNativeData" id="1723568519" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
+        <pm:footer xmlns:pm="smNativeData" id="1723568519" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1723568519" Id="0" type="0" value="0"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1723568519" Id="1" type="0" value="0"/>
       </ext>
     </extLst>
   </headerFooter>
   <drawing r:id="rId2"/>
   <extLst>
     <ext uri="smNativeData">
-      <pm:sheetPrefs xmlns:pm="smNativeData" day="1723564117" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
+      <pm:sheetPrefs xmlns:pm="smNativeData" day="1723568519" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
         <pm:shade id="0" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
         <pm:shade id="1" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
       </pm:sheetPrefs>

--- a/Google Calendar.xlsx
+++ b/Google Calendar.xlsx
@@ -20,10 +20,10 @@
   <calcPr/>
   <extLst>
     <ext uri="smNativeData">
-      <pm:revision xmlns:pm="smNativeData" day="1723568519" val="1068" rev="124" revOS="4" revMin="124" revMax="0"/>
-      <pm:docPrefs xmlns:pm="smNativeData" id="1723568519" fixedDigits="0" showNotice="1" showFrameBounds="1" autoChart="1" recalcOnPrint="1" recalcOnCopy="1" finalRounding="1" compatTextArt="1" tab="567" useDefinedPrintRange="1" printArea="currentSheet"/>
-      <pm:compatibility xmlns:pm="smNativeData" id="1723568519" overlapCells="1"/>
-      <pm:defCurrency xmlns:pm="smNativeData" id="1723568519"/>
+      <pm:revision xmlns:pm="smNativeData" day="1723614560" val="1068" rev="124" revOS="4" revMin="124" revMax="0"/>
+      <pm:docPrefs xmlns:pm="smNativeData" id="1723614560" fixedDigits="0" showNotice="1" showFrameBounds="1" autoChart="1" recalcOnPrint="1" recalcOnCopy="1" finalRounding="1" compatTextArt="1" tab="567" useDefinedPrintRange="1" printArea="currentSheet"/>
+      <pm:compatibility xmlns:pm="smNativeData" id="1723614560" overlapCells="1"/>
+      <pm:defCurrency xmlns:pm="smNativeData" id="1723614560"/>
     </ext>
   </extLst>
 </workbook>
@@ -1487,7 +1487,7 @@
       <sz val="10"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1723568519" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1723614560" ulstyle="none" kern="1">
             <pm:latin face="Arial" sz="200" lang="default"/>
             <pm:cs face="Times New Roman" sz="200" lang="default"/>
             <pm:ea face="SimSun" sz="200" lang="default"/>
@@ -1504,7 +1504,7 @@
       <sz val="10"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1723568519" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1723614560" ulstyle="none" kern="1">
             <pm:latin face="Arial" sz="200" lang="default" weight="bold"/>
             <pm:cs face="Times New Roman" sz="200" lang="default" weight="bold"/>
             <pm:ea face="SimSun" sz="200" lang="default" weight="bold"/>
@@ -1520,7 +1520,7 @@
       <sz val="20"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1723568519" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1723614560" ulstyle="none" kern="1">
             <pm:latin face="Calibri" sz="400" lang="default"/>
             <pm:cs face="Times New Roman" sz="400" lang="default"/>
             <pm:ea face="SimSun" sz="400" lang="default"/>
@@ -1536,7 +1536,7 @@
       <sz val="20"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1723568519" fgClr="E26B0A" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1723614560" fgClr="E26B0A" ulstyle="none" kern="1">
             <pm:latin face="Calibri" sz="400" lang="default"/>
             <pm:cs face="Times New Roman" sz="400" lang="default"/>
             <pm:ea face="SimSun" sz="400" lang="default"/>
@@ -1552,7 +1552,7 @@
       <sz val="20"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1723568519" fgClr="FFFFFF" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1723614560" fgClr="FFFFFF" ulstyle="none" kern="1">
             <pm:latin face="Calibri" sz="400" lang="default"/>
             <pm:cs face="Times New Roman" sz="400" lang="default"/>
             <pm:ea face="SimSun" sz="400" lang="default"/>
@@ -1570,7 +1570,7 @@
       <sz val="14"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1723568519" fgClr="FFFFFF" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1723614560" fgClr="FFFFFF" ulstyle="none" kern="1">
             <pm:latin face="Calibri" sz="280" lang="default" weight="bold" i="1"/>
             <pm:cs face="Times New Roman" sz="280" lang="default" weight="bold" i="1"/>
             <pm:ea face="SimSun" sz="280" lang="default" weight="bold" i="1"/>
@@ -1586,7 +1586,7 @@
       <sz val="12"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1723568519" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1723614560" ulstyle="none" kern="1">
             <pm:latin face="Arial" sz="240" lang="default"/>
             <pm:cs face="Times New Roman" sz="240" lang="default"/>
             <pm:ea face="SimSun" sz="240" lang="default"/>
@@ -1603,7 +1603,7 @@
       <sz val="10"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1723568519" fgClr="00007F" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1723614560" fgClr="00007F" ulstyle="none" kern="1">
             <pm:latin face="Arial" sz="200" lang="default" weight="bold"/>
             <pm:cs face="Times New Roman" sz="200" lang="default" weight="bold"/>
             <pm:ea face="SimSun" sz="200" lang="default" weight="bold"/>
@@ -1619,7 +1619,7 @@
       <sz val="8"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1723568519" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1723614560" ulstyle="none" kern="1">
             <pm:latin face="Arial" sz="160" lang="default"/>
             <pm:cs face="Times New Roman" sz="160" lang="default"/>
             <pm:ea face="SimSun" sz="160" lang="default"/>
@@ -1635,7 +1635,7 @@
       <sz val="10"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1723568519" fgClr="00007F" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1723614560" fgClr="00007F" ulstyle="none" kern="1">
             <pm:latin face="Arial" sz="200" lang="default"/>
             <pm:cs face="Times New Roman" sz="200" lang="default"/>
             <pm:ea face="SimSun" sz="200" lang="default"/>
@@ -1652,7 +1652,7 @@
       <u val="single"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1723568519" fgClr="0000FF" ulstyle="single" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1723614560" fgClr="0000FF" ulstyle="single" kern="1">
             <pm:latin face="Arial" sz="200" lang="default"/>
             <pm:cs face="Times New Roman" sz="200" lang="default"/>
             <pm:ea face="SimSun" sz="200" lang="default"/>
@@ -1669,7 +1669,7 @@
       <sz val="8"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1723568519" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1723614560" ulstyle="none" kern="1">
             <pm:latin face="Arial" sz="160" lang="default" weight="bold"/>
             <pm:cs face="Times New Roman" sz="160" lang="default" weight="bold"/>
             <pm:ea face="SimSun" sz="160" lang="default" weight="bold"/>
@@ -1685,7 +1685,7 @@
       <sz val="8"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1723568519" fgClr="974706" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1723614560" fgClr="974706" ulstyle="none" kern="1">
             <pm:latin face="Arial" sz="160" lang="default"/>
             <pm:cs face="Times New Roman" sz="160" lang="default"/>
             <pm:ea face="SimSun" sz="160" lang="default"/>
@@ -1701,7 +1701,7 @@
       <sz val="10"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1723568519" fgClr="FF0000" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1723614560" fgClr="FF0000" ulstyle="none" kern="1">
             <pm:latin face="Arial" sz="200" lang="default"/>
             <pm:cs face="Times New Roman" sz="200" lang="default"/>
             <pm:ea face="SimSun" sz="200" lang="default"/>
@@ -1717,7 +1717,7 @@
       <sz val="10"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1723568519" fgClr="0070C0" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1723614560" fgClr="0070C0" ulstyle="none" kern="1">
             <pm:latin face="Arial" sz="200" lang="default"/>
             <pm:cs face="Times New Roman" sz="200" lang="default"/>
             <pm:ea face="SimSun" sz="200" lang="default"/>
@@ -1733,7 +1733,7 @@
       <sz val="10"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1723568519" fgClr="00B050" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1723614560" fgClr="00B050" ulstyle="none" kern="1">
             <pm:latin face="Arial" sz="200" lang="default"/>
             <pm:cs face="Times New Roman" sz="200" lang="default"/>
             <pm:ea face="SimSun" sz="200" lang="default"/>
@@ -1750,7 +1750,7 @@
       <u val="single"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1723568519" fgClr="0000FF" ulstyle="single" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1723614560" fgClr="0000FF" ulstyle="single" kern="1">
             <pm:latin face="Arial" sz="200" lang="default"/>
             <pm:cs face="Times New Roman" sz="200" lang="default"/>
             <pm:ea face="SimSun" sz="200" lang="default"/>
@@ -1768,7 +1768,7 @@
       <u val="single"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1723568519" fgClr="0000FF" ulstyle="single" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1723614560" fgClr="0000FF" ulstyle="single" kern="1">
             <pm:latin face="Arial" sz="200" lang="default"/>
             <pm:cs face="Times New Roman" sz="200" lang="default"/>
             <pm:ea face="SimSun" sz="200" lang="default"/>
@@ -1786,7 +1786,7 @@
       <u val="single"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1723568519" fgClr="0000FF" ulstyle="single" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1723614560" fgClr="0000FF" ulstyle="single" kern="1">
             <pm:latin face="Arial" sz="200" lang="default"/>
             <pm:cs face="Times New Roman" sz="200" lang="default"/>
             <pm:ea face="SimSun" sz="200" lang="default"/>
@@ -1804,7 +1804,7 @@
       <u val="single"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1723568519" fgClr="0000FF" ulstyle="single" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1723614560" fgClr="0000FF" ulstyle="single" kern="1">
             <pm:latin face="Arial" sz="200" lang="default"/>
             <pm:cs face="Times New Roman" sz="200" lang="default"/>
             <pm:ea face="SimSun" sz="200" lang="default"/>
@@ -1821,7 +1821,7 @@
       <sz val="10"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1723568519" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1723614560" ulstyle="none" kern="1">
             <pm:latin face="Arial" sz="200" lang="default"/>
             <pm:cs face="Arial" sz="200" lang="default"/>
             <pm:ea face="Arial" sz="200" lang="default"/>
@@ -1838,7 +1838,7 @@
       <u val="single"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1723568519" fgClr="0000FF" ulstyle="single" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1723614560" fgClr="0000FF" ulstyle="single" kern="1">
             <pm:latin face="Arial" sz="200" lang="default"/>
             <pm:cs face="Times New Roman" sz="200" lang="default"/>
             <pm:ea face="SimSun" sz="200" lang="default"/>
@@ -1856,7 +1856,7 @@
       <u val="single"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1723568519" fgClr="0000FF" ulstyle="single" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1723614560" fgClr="0000FF" ulstyle="single" kern="1">
             <pm:latin face="Arial" sz="200" lang="default"/>
             <pm:cs face="Times New Roman" sz="200" lang="default"/>
             <pm:ea face="SimSun" sz="200" lang="default"/>
@@ -1874,7 +1874,7 @@
       <u val="single"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1723568519" fgClr="0000FF" ulstyle="single" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1723614560" fgClr="0000FF" ulstyle="single" kern="1">
             <pm:latin face="Arial" sz="200" lang="default"/>
             <pm:cs face="Times New Roman" sz="200" lang="default"/>
             <pm:ea face="SimSun" sz="200" lang="default"/>
@@ -1892,7 +1892,7 @@
       <sz val="10"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1723568519" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1723614560" ulstyle="none" kern="1">
             <pm:latin face="Arial" sz="200" lang="default" weight="bold"/>
             <pm:cs face="Arial" sz="200" lang="default" weight="bold"/>
             <pm:ea face="Arial" sz="200" lang="default" weight="bold"/>
@@ -1909,7 +1909,7 @@
       <sz val="10"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1723568519" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1723614560" ulstyle="none" kern="1">
             <pm:latin face="Arial" sz="200" lang="default" weight="bold"/>
             <pm:cs face="Times New Roman" sz="200" lang="default"/>
             <pm:ea face="SimSun" sz="200" lang="default"/>
@@ -1926,7 +1926,7 @@
       <u val="single"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1723568519" fgClr="0000FF" ulstyle="single" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1723614560" fgClr="0000FF" ulstyle="single" kern="1">
             <pm:latin face="Arial" sz="200" lang="default"/>
             <pm:cs face="Times New Roman" sz="200" lang="default"/>
             <pm:ea face="SimSun" sz="200" lang="default"/>
@@ -1944,7 +1944,7 @@
       <u val="single"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1723568519" fgClr="0000FF" ulstyle="single" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1723614560" fgClr="0000FF" ulstyle="single" kern="1">
             <pm:latin face="Arial" sz="200" lang="default"/>
             <pm:cs face="Times New Roman" sz="200" lang="default"/>
             <pm:ea face="SimSun" sz="200" lang="default"/>
@@ -1962,7 +1962,7 @@
       <sz val="11"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1723568519" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1723614560" ulstyle="none" kern="1">
             <pm:latin face="Arial" sz="220" lang="default" weight="bold"/>
             <pm:cs face="Times New Roman" sz="200" lang="default"/>
             <pm:ea face="SimSun" sz="200" lang="default"/>
@@ -1978,7 +1978,7 @@
       <sz val="11"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1723568519" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1723614560" ulstyle="none" kern="1">
             <pm:latin face="Arial" sz="220" lang="default"/>
             <pm:cs face="Times New Roman" sz="200" lang="default"/>
             <pm:ea face="SimSun" sz="200" lang="default"/>
@@ -1995,7 +1995,7 @@
       <sz val="10"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1723568519" fgClr="FF0000" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1723614560" fgClr="FF0000" ulstyle="none" kern="1">
             <pm:latin face="Arial" sz="200" lang="default" weight="bold"/>
             <pm:cs face="Times New Roman" sz="200" lang="default"/>
             <pm:ea face="SimSun" sz="200" lang="default"/>
@@ -2008,13 +2008,13 @@
       <charset val="204"/>
       <family val="2"/>
       <color rgb="FF000000"/>
-      <sz val="9"/>
+      <sz val="8"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1723568519" ulstyle="none" kern="1">
-            <pm:latin face="Arial" sz="180" lang="default"/>
-            <pm:cs face="Arial" sz="180" lang="default"/>
-            <pm:ea face="Arial" sz="180" lang="default"/>
+          <pm:charSpec xmlns:pm="smNativeData" id="1723614560" ulstyle="none" kern="1">
+            <pm:latin face="Arial" sz="160" lang="default"/>
+            <pm:cs face="Arial" sz="160" lang="default"/>
+            <pm:ea face="Arial" sz="160" lang="default"/>
           </pm:charSpec>
         </ext>
       </extLst>
@@ -2033,7 +2033,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1723568519" type="1" fgLvl="100" fgClr="009E9E9E" bgLvl="0" bgClr="00FFFFFF"/>
+            <pm:shade xmlns:pm="smNativeData" id="1723614560" type="1" fgLvl="100" fgClr="009E9E9E" bgLvl="0" bgClr="00FFFFFF"/>
           </ext>
         </extLst>
       </patternFill>
@@ -2044,7 +2044,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1723568519" type="1" fgLvl="100" fgClr="009E9E9E" bgLvl="0" bgClr="00FFFFFF"/>
+            <pm:shade xmlns:pm="smNativeData" id="1723614560" type="1" fgLvl="100" fgClr="009E9E9E" bgLvl="0" bgClr="00FFFFFF"/>
           </ext>
         </extLst>
       </patternFill>
@@ -2055,7 +2055,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1723568519" type="1" fgLvl="100" fgClr="009E9E9E" bgLvl="0" bgClr="00FFFFFF"/>
+            <pm:shade xmlns:pm="smNativeData" id="1723614560" type="1" fgLvl="100" fgClr="009E9E9E" bgLvl="0" bgClr="00FFFFFF"/>
           </ext>
         </extLst>
       </patternFill>
@@ -2066,7 +2066,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1723568519" type="1" fgLvl="100" fgClr="009E9E9E" bgLvl="0" bgClr="00FFFFFF"/>
+            <pm:shade xmlns:pm="smNativeData" id="1723614560" type="1" fgLvl="100" fgClr="009E9E9E" bgLvl="0" bgClr="00FFFFFF"/>
           </ext>
         </extLst>
       </patternFill>
@@ -2077,7 +2077,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1723568519" type="1" fgLvl="100" fgClr="009E9E9E" bgLvl="0" bgClr="00FFFFFF"/>
+            <pm:shade xmlns:pm="smNativeData" id="1723614560" type="1" fgLvl="100" fgClr="009E9E9E" bgLvl="0" bgClr="00FFFFFF"/>
           </ext>
         </extLst>
       </patternFill>
@@ -2088,7 +2088,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1723568519" type="1" fgLvl="100" fgClr="009E9E9E" bgLvl="0" bgClr="00FFFFFF"/>
+            <pm:shade xmlns:pm="smNativeData" id="1723614560" type="1" fgLvl="100" fgClr="009E9E9E" bgLvl="0" bgClr="00FFFFFF"/>
           </ext>
         </extLst>
       </patternFill>
@@ -2099,7 +2099,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1723568519" type="1" fgLvl="100" fgClr="009E9E9E" bgLvl="0" bgClr="00FFFFFF"/>
+            <pm:shade xmlns:pm="smNativeData" id="1723614560" type="1" fgLvl="100" fgClr="009E9E9E" bgLvl="0" bgClr="00FFFFFF"/>
           </ext>
         </extLst>
       </patternFill>
@@ -2110,7 +2110,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1723568519" type="1" fgLvl="100" fgClr="009E9E9E" bgLvl="0" bgClr="00FFFFFF"/>
+            <pm:shade xmlns:pm="smNativeData" id="1723614560" type="1" fgLvl="100" fgClr="009E9E9E" bgLvl="0" bgClr="00FFFFFF"/>
           </ext>
         </extLst>
       </patternFill>
@@ -2130,7 +2130,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1723568519" type="1" fgLvl="100" fgClr="0000FB00" bgLvl="0" bgClr="00FFFFFF"/>
+            <pm:shade xmlns:pm="smNativeData" id="1723614560" type="1" fgLvl="100" fgClr="0000FB00" bgLvl="0" bgClr="00FFFFFF"/>
           </ext>
         </extLst>
       </patternFill>
@@ -2141,7 +2141,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1723568519" type="1" fgLvl="100" fgClr="00E6E6E6" bgLvl="0" bgClr="00FFFFFF"/>
+            <pm:shade xmlns:pm="smNativeData" id="1723614560" type="1" fgLvl="100" fgClr="00E6E6E6" bgLvl="0" bgClr="00FFFFFF"/>
           </ext>
         </extLst>
       </patternFill>
@@ -2152,7 +2152,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1723568519" type="1" fgLvl="100" fgClr="00FABE8D" bgLvl="0" bgClr="00FFFFFF"/>
+            <pm:shade xmlns:pm="smNativeData" id="1723614560" type="1" fgLvl="100" fgClr="00FABE8D" bgLvl="0" bgClr="00FFFFFF"/>
           </ext>
         </extLst>
       </patternFill>
@@ -2163,7 +2163,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1723568519" type="1" fgLvl="100" fgClr="00F1AA54" bgLvl="0" bgClr="00FFFFFF"/>
+            <pm:shade xmlns:pm="smNativeData" id="1723614560" type="1" fgLvl="100" fgClr="00F1AA54" bgLvl="0" bgClr="00FFFFFF"/>
           </ext>
         </extLst>
       </patternFill>
@@ -2174,7 +2174,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1723568519" type="1" fgLvl="100" fgClr="00FFFF00" bgLvl="0" bgClr="00FFFFFF"/>
+            <pm:shade xmlns:pm="smNativeData" id="1723614560" type="1" fgLvl="100" fgClr="00FFFF00" bgLvl="0" bgClr="00FFFFFF"/>
           </ext>
         </extLst>
       </patternFill>
@@ -2185,7 +2185,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1723568519" type="1" fgLvl="100" fgClr="00FF6600" bgLvl="0" bgClr="00FFFFFF"/>
+            <pm:shade xmlns:pm="smNativeData" id="1723614560" type="1" fgLvl="100" fgClr="00FF6600" bgLvl="0" bgClr="00FFFFFF"/>
           </ext>
         </extLst>
       </patternFill>
@@ -2196,7 +2196,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1723568519" type="1" fgLvl="100" fgClr="00FF0000" bgLvl="0" bgClr="00FFFFFF"/>
+            <pm:shade xmlns:pm="smNativeData" id="1723614560" type="1" fgLvl="100" fgClr="00FF0000" bgLvl="0" bgClr="00FFFFFF"/>
           </ext>
         </extLst>
       </patternFill>
@@ -2207,7 +2207,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1723568519" type="1" fgLvl="100" fgClr="004D4D4D" bgLvl="0" bgClr="00FFFFFF"/>
+            <pm:shade xmlns:pm="smNativeData" id="1723614560" type="1" fgLvl="100" fgClr="004D4D4D" bgLvl="0" bgClr="00FFFFFF"/>
           </ext>
         </extLst>
       </patternFill>
@@ -2218,7 +2218,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1723568519" type="1" fgLvl="100" fgClr="00661E75" bgLvl="0" bgClr="00FFFFFF"/>
+            <pm:shade xmlns:pm="smNativeData" id="1723614560" type="1" fgLvl="100" fgClr="00661E75" bgLvl="0" bgClr="00FFFFFF"/>
           </ext>
         </extLst>
       </patternFill>
@@ -2229,7 +2229,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1723568519" type="1" fgLvl="100" fgClr="0000FFFF" bgLvl="0" bgClr="00FFFFFF"/>
+            <pm:shade xmlns:pm="smNativeData" id="1723614560" type="1" fgLvl="100" fgClr="0000FFFF" bgLvl="0" bgClr="00FFFFFF"/>
           </ext>
         </extLst>
       </patternFill>
@@ -2240,7 +2240,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1723568519" type="1" fgLvl="100" fgClr="004D4D4D" bgLvl="0" bgClr="00FFFFFF"/>
+            <pm:shade xmlns:pm="smNativeData" id="1723614560" type="1" fgLvl="100" fgClr="004D4D4D" bgLvl="0" bgClr="00FFFFFF"/>
           </ext>
         </extLst>
       </patternFill>
@@ -2251,7 +2251,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1723568519" type="1" fgLvl="100" fgClr="007F7F7F" bgLvl="0" bgClr="00FFFFFF"/>
+            <pm:shade xmlns:pm="smNativeData" id="1723614560" type="1" fgLvl="100" fgClr="007F7F7F" bgLvl="0" bgClr="00FFFFFF"/>
           </ext>
         </extLst>
       </patternFill>
@@ -2262,7 +2262,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1723568519" type="1" fgLvl="100" fgClr="00E26B0A" bgLvl="0" bgClr="00FFFFFF"/>
+            <pm:shade xmlns:pm="smNativeData" id="1723614560" type="1" fgLvl="100" fgClr="00E26B0A" bgLvl="0" bgClr="00FFFFFF"/>
           </ext>
         </extLst>
       </patternFill>
@@ -2273,7 +2273,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1723568519" type="1" fgLvl="100" fgClr="00E26B0A" bgLvl="0" bgClr="00FFFFFF"/>
+            <pm:shade xmlns:pm="smNativeData" id="1723614560" type="1" fgLvl="100" fgClr="00E26B0A" bgLvl="0" bgClr="00FFFFFF"/>
           </ext>
         </extLst>
       </patternFill>
@@ -2284,7 +2284,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1723568519" type="1" fgLvl="100" fgClr="00E26B0A" bgLvl="0" bgClr="00FFFFFF"/>
+            <pm:shade xmlns:pm="smNativeData" id="1723614560" type="1" fgLvl="100" fgClr="00E26B0A" bgLvl="0" bgClr="00FFFFFF"/>
           </ext>
         </extLst>
       </patternFill>
@@ -2295,7 +2295,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1723568519" type="1" fgLvl="100" fgClr="00E26B0A" bgLvl="0" bgClr="00FFFFFF"/>
+            <pm:shade xmlns:pm="smNativeData" id="1723614560" type="1" fgLvl="100" fgClr="00E26B0A" bgLvl="0" bgClr="00FFFFFF"/>
           </ext>
         </extLst>
       </patternFill>
@@ -2366,7 +2366,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1723568519" type="1" fgLvl="38" fgClr="00000000" bgLvl="100" bgClr="00FFFFFF"/>
+            <pm:shade xmlns:pm="smNativeData" id="1723614560" type="1" fgLvl="38" fgClr="00000000" bgLvl="100" bgClr="00FFFFFF"/>
           </ext>
         </extLst>
       </patternFill>
@@ -2377,7 +2377,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1723568519" type="1" fgLvl="38" fgClr="00000000" bgLvl="100" bgClr="00FFFFFF"/>
+            <pm:shade xmlns:pm="smNativeData" id="1723614560" type="1" fgLvl="38" fgClr="00000000" bgLvl="100" bgClr="00FFFFFF"/>
           </ext>
         </extLst>
       </patternFill>
@@ -2388,7 +2388,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1723568519" type="1" fgLvl="38" fgClr="00000000" bgLvl="100" bgClr="00FFFFFF"/>
+            <pm:shade xmlns:pm="smNativeData" id="1723614560" type="1" fgLvl="38" fgClr="00000000" bgLvl="100" bgClr="00FFFFFF"/>
           </ext>
         </extLst>
       </patternFill>
@@ -2399,7 +2399,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1723568519" type="1" fgLvl="100" fgClr="007679F1" bgLvl="100" bgClr="00FFFFFF"/>
+            <pm:shade xmlns:pm="smNativeData" id="1723614560" type="1" fgLvl="100" fgClr="007679F1" bgLvl="100" bgClr="00FFFFFF"/>
           </ext>
         </extLst>
       </patternFill>
@@ -2419,7 +2419,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1723568519" type="1" fgLvl="38" fgClr="00000000" bgLvl="100" bgClr="00FFFFFF"/>
+            <pm:shade xmlns:pm="smNativeData" id="1723614560" type="1" fgLvl="38" fgClr="00000000" bgLvl="100" bgClr="00FFFFFF"/>
           </ext>
         </extLst>
       </patternFill>
@@ -2430,7 +2430,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1723568519" type="1" fgLvl="13" fgClr="00000000" bgLvl="100" bgClr="00FFFFFF"/>
+            <pm:shade xmlns:pm="smNativeData" id="1723614560" type="1" fgLvl="13" fgClr="00000000" bgLvl="100" bgClr="00FFFFFF"/>
           </ext>
         </extLst>
       </patternFill>
@@ -2441,7 +2441,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1723568519" type="1" fgLvl="38" fgClr="00000000" bgLvl="100" bgClr="00FFFFFF"/>
+            <pm:shade xmlns:pm="smNativeData" id="1723614560" type="1" fgLvl="38" fgClr="00000000" bgLvl="100" bgClr="00FFFFFF"/>
           </ext>
         </extLst>
       </patternFill>
@@ -2452,7 +2452,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1723568519" type="1" fgLvl="38" fgClr="00000000" bgLvl="100" bgClr="00FFFFFF"/>
+            <pm:shade xmlns:pm="smNativeData" id="1723614560" type="1" fgLvl="38" fgClr="00000000" bgLvl="100" bgClr="00FFFFFF"/>
           </ext>
         </extLst>
       </patternFill>
@@ -2463,7 +2463,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1723568519" type="1" fgLvl="38" fgClr="00000000" bgLvl="100" bgClr="00FFFFFF"/>
+            <pm:shade xmlns:pm="smNativeData" id="1723614560" type="1" fgLvl="38" fgClr="00000000" bgLvl="100" bgClr="00FFFFFF"/>
           </ext>
         </extLst>
       </patternFill>
@@ -2483,7 +2483,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1723568519" type="1" fgLvl="100" fgClr="00F1AA54" bgLvl="0" bgClr="00FFFFFF"/>
+            <pm:shade xmlns:pm="smNativeData" id="1723614560" type="1" fgLvl="100" fgClr="00F1AA54" bgLvl="0" bgClr="00FFFFFF"/>
           </ext>
         </extLst>
       </patternFill>
@@ -2494,7 +2494,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1723568519" type="1" fgLvl="100" fgClr="00F1AA54" bgLvl="0" bgClr="00FFFFFF"/>
+            <pm:shade xmlns:pm="smNativeData" id="1723614560" type="1" fgLvl="100" fgClr="00F1AA54" bgLvl="0" bgClr="00FFFFFF"/>
           </ext>
         </extLst>
       </patternFill>
@@ -2505,7 +2505,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1723568519" type="1" fgLvl="100" fgClr="00FABE8D" bgLvl="0" bgClr="00FFFFFF"/>
+            <pm:shade xmlns:pm="smNativeData" id="1723614560" type="1" fgLvl="100" fgClr="00FABE8D" bgLvl="0" bgClr="00FFFFFF"/>
           </ext>
         </extLst>
       </patternFill>
@@ -2516,7 +2516,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1723568519" type="1" fgLvl="100" fgClr="00FFFF00" bgLvl="0" bgClr="00FFFFFF"/>
+            <pm:shade xmlns:pm="smNativeData" id="1723614560" type="1" fgLvl="100" fgClr="00FFFF00" bgLvl="0" bgClr="00FFFFFF"/>
           </ext>
         </extLst>
       </patternFill>
@@ -2527,7 +2527,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1723568519" type="1" fgLvl="100" fgClr="00007F00" bgLvl="100" bgClr="00FFFFFF"/>
+            <pm:shade xmlns:pm="smNativeData" id="1723614560" type="1" fgLvl="100" fgClr="00007F00" bgLvl="100" bgClr="00FFFFFF"/>
           </ext>
         </extLst>
       </patternFill>
@@ -2538,7 +2538,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1723568519" type="1" fgLvl="88" fgClr="00FABE8D" bgLvl="0" bgClr="00FFFFFF"/>
+            <pm:shade xmlns:pm="smNativeData" id="1723614560" type="1" fgLvl="88" fgClr="00FABE8D" bgLvl="0" bgClr="00FFFFFF"/>
           </ext>
         </extLst>
       </patternFill>
@@ -2549,7 +2549,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1723568519" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="100" bgClr="00000000"/>
+            <pm:shade xmlns:pm="smNativeData" id="1723614560" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="100" bgClr="00000000"/>
           </ext>
         </extLst>
       </patternFill>
@@ -2571,7 +2571,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1723568519"/>
+          <pm:border xmlns:pm="smNativeData" id="1723614560"/>
         </ext>
       </extLst>
     </border>
@@ -2590,7 +2590,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1723568519">
+          <pm:border xmlns:pm="smNativeData" id="1723614560">
             <pm:line position="top" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
           </pm:border>
         </ext>
@@ -2611,7 +2611,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1723568519">
+          <pm:border xmlns:pm="smNativeData" id="1723614560">
             <pm:line position="top" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="right" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
           </pm:border>
@@ -2633,7 +2633,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1723568519">
+          <pm:border xmlns:pm="smNativeData" id="1723614560">
             <pm:line position="left" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
           </pm:border>
         </ext>
@@ -2654,7 +2654,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1723568519"/>
+          <pm:border xmlns:pm="smNativeData" id="1723614560"/>
         </ext>
       </extLst>
     </border>
@@ -2673,7 +2673,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1723568519">
+          <pm:border xmlns:pm="smNativeData" id="1723614560">
             <pm:line position="right" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
           </pm:border>
         </ext>
@@ -2694,7 +2694,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1723568519">
+          <pm:border xmlns:pm="smNativeData" id="1723614560">
             <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
           </pm:border>
         </ext>
@@ -2715,7 +2715,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1723568519">
+          <pm:border xmlns:pm="smNativeData" id="1723614560">
             <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="right" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
           </pm:border>
@@ -2737,7 +2737,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1723568519">
+          <pm:border xmlns:pm="smNativeData" id="1723614560">
             <pm:line position="top" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="left" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
           </pm:border>
@@ -2759,7 +2759,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1723568519">
+          <pm:border xmlns:pm="smNativeData" id="1723614560">
             <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
           </pm:border>
         </ext>
@@ -2780,7 +2780,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1723568519">
+          <pm:border xmlns:pm="smNativeData" id="1723614560">
             <pm:line position="left" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="right" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
           </pm:border>
@@ -2802,7 +2802,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1723568519">
+          <pm:border xmlns:pm="smNativeData" id="1723614560">
             <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="left" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="right" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
@@ -2825,7 +2825,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1723568519"/>
+          <pm:border xmlns:pm="smNativeData" id="1723614560"/>
         </ext>
       </extLst>
     </border>
@@ -2844,7 +2844,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1723568519">
+          <pm:border xmlns:pm="smNativeData" id="1723614560">
             <pm:line position="left" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="right" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
           </pm:border>
@@ -2866,7 +2866,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1723568519">
+          <pm:border xmlns:pm="smNativeData" id="1723614560">
             <pm:line position="left" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="right" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
           </pm:border>
@@ -2888,7 +2888,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1723568519">
+          <pm:border xmlns:pm="smNativeData" id="1723614560">
             <pm:line position="left" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="right" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
           </pm:border>
@@ -2910,7 +2910,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1723568519">
+          <pm:border xmlns:pm="smNativeData" id="1723614560">
             <pm:line position="left" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="right" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
           </pm:border>
@@ -2932,7 +2932,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1723568519">
+          <pm:border xmlns:pm="smNativeData" id="1723614560">
             <pm:line position="left" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="right" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
           </pm:border>
@@ -2954,7 +2954,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1723568519">
+          <pm:border xmlns:pm="smNativeData" id="1723614560">
             <pm:line position="left" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="right" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
           </pm:border>
@@ -2976,7 +2976,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1723568519">
+          <pm:border xmlns:pm="smNativeData" id="1723614560">
             <pm:line position="left" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="right" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
           </pm:border>
@@ -2998,7 +2998,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1723568519">
+          <pm:border xmlns:pm="smNativeData" id="1723614560">
             <pm:line position="left" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="right" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
           </pm:border>
@@ -3020,7 +3020,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1723568519">
+          <pm:border xmlns:pm="smNativeData" id="1723614560">
             <pm:line position="left" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="right" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
           </pm:border>
@@ -3042,7 +3042,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1723568519"/>
+          <pm:border xmlns:pm="smNativeData" id="1723614560"/>
         </ext>
       </extLst>
     </border>
@@ -3061,7 +3061,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1723568519"/>
+          <pm:border xmlns:pm="smNativeData" id="1723614560"/>
         </ext>
       </extLst>
     </border>
@@ -3080,7 +3080,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1723568519">
+          <pm:border xmlns:pm="smNativeData" id="1723614560">
             <pm:line position="top" type="1" style="0" width="30" dist="20" width2="20" rgb="000000"/>
             <pm:line position="bottom" type="1" style="0" width="30" dist="20" width2="20" rgb="000000"/>
             <pm:line position="left" type="1" style="0" width="30" dist="20" width2="20" rgb="000000"/>
@@ -3103,7 +3103,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1723568519">
+          <pm:border xmlns:pm="smNativeData" id="1723614560">
             <pm:line position="top" type="1" style="0" width="30" dist="20" width2="20" rgb="000000"/>
             <pm:line position="bottom" type="1" style="0" width="30" dist="20" width2="20" rgb="000000"/>
           </pm:border>
@@ -3125,7 +3125,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1723568519">
+          <pm:border xmlns:pm="smNativeData" id="1723614560">
             <pm:line position="top" type="1" style="0" width="30" dist="20" width2="20" rgb="000000"/>
             <pm:line position="bottom" type="1" style="0" width="30" dist="20" width2="20" rgb="000000"/>
             <pm:line position="right" type="1" style="0" width="30" dist="20" width2="20" rgb="000000"/>
@@ -3148,7 +3148,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1723568519"/>
+          <pm:border xmlns:pm="smNativeData" id="1723614560"/>
         </ext>
       </extLst>
     </border>
@@ -3167,7 +3167,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1723568519">
+          <pm:border xmlns:pm="smNativeData" id="1723614560">
             <pm:line position="top" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="left" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
@@ -3190,7 +3190,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1723568519">
+          <pm:border xmlns:pm="smNativeData" id="1723614560">
             <pm:line position="top" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
           </pm:border>
@@ -3212,7 +3212,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1723568519">
+          <pm:border xmlns:pm="smNativeData" id="1723614560">
             <pm:line position="top" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="right" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
@@ -3235,7 +3235,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1723568519">
+          <pm:border xmlns:pm="smNativeData" id="1723614560">
             <pm:line position="top" type="1" style="0" width="30" dist="20" width2="20" rgb="000000"/>
             <pm:line position="bottom" type="1" style="0" width="30" dist="20" width2="20" rgb="000000"/>
             <pm:line position="left" type="1" style="0" width="30" dist="20" width2="20" rgb="000000"/>
@@ -3258,7 +3258,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1723568519">
+          <pm:border xmlns:pm="smNativeData" id="1723614560">
             <pm:line position="top" type="1" style="0" width="30" dist="20" width2="20" rgb="000000"/>
             <pm:line position="bottom" type="1" style="0" width="30" dist="20" width2="20" rgb="000000"/>
           </pm:border>
@@ -3280,7 +3280,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1723568519">
+          <pm:border xmlns:pm="smNativeData" id="1723614560">
             <pm:line position="top" type="1" style="0" width="30" dist="20" width2="20" rgb="000000"/>
             <pm:line position="bottom" type="1" style="0" width="30" dist="20" width2="20" rgb="000000"/>
             <pm:line position="right" type="1" style="0" width="30" dist="20" width2="20" rgb="000000"/>
@@ -3303,7 +3303,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1723568519">
+          <pm:border xmlns:pm="smNativeData" id="1723614560">
             <pm:line position="top" type="1" style="0" width="30" dist="20" width2="20" rgb="000000"/>
             <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
           </pm:border>
@@ -3325,7 +3325,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1723568519">
+          <pm:border xmlns:pm="smNativeData" id="1723614560">
             <pm:line position="left" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
           </pm:border>
         </ext>
@@ -3346,7 +3346,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1723568519">
+          <pm:border xmlns:pm="smNativeData" id="1723614560">
             <pm:line position="top" type="1" style="0" width="30" dist="20" width2="20" rgb="000000"/>
             <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="right" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
@@ -3369,7 +3369,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1723568519">
+          <pm:border xmlns:pm="smNativeData" id="1723614560">
             <pm:line position="top" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="left" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
           </pm:border>
@@ -3391,7 +3391,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1723568519">
+          <pm:border xmlns:pm="smNativeData" id="1723614560">
             <pm:line position="top" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
           </pm:border>
         </ext>
@@ -3412,7 +3412,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1723568519">
+          <pm:border xmlns:pm="smNativeData" id="1723614560">
             <pm:line position="right" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
           </pm:border>
         </ext>
@@ -3433,7 +3433,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1723568519">
+          <pm:border xmlns:pm="smNativeData" id="1723614560">
             <pm:line position="top" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="bottom" type="1" style="0" width="40" dist="20" width2="20" rgb="000000"/>
           </pm:border>
@@ -3455,7 +3455,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1723568519">
+          <pm:border xmlns:pm="smNativeData" id="1723614560">
             <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="left" type="1" style="1" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="right" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
@@ -3478,7 +3478,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1723568519">
+          <pm:border xmlns:pm="smNativeData" id="1723614560">
             <pm:line position="bottom" type="1" style="0" width="40" dist="20" width2="20" rgb="000000"/>
             <pm:line position="left" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
           </pm:border>
@@ -3500,7 +3500,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1723568519">
+          <pm:border xmlns:pm="smNativeData" id="1723614560">
             <pm:line position="bottom" type="1" style="0" width="40" dist="20" width2="20" rgb="000000"/>
           </pm:border>
         </ext>
@@ -3521,7 +3521,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1723568519">
+          <pm:border xmlns:pm="smNativeData" id="1723614560">
             <pm:line position="top" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="left" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
@@ -3545,7 +3545,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1723568519">
+          <pm:border xmlns:pm="smNativeData" id="1723614560">
             <pm:line position="top" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="bottom" type="1" style="0" width="40" dist="20" width2="20" rgb="000000"/>
             <pm:line position="left" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
@@ -3569,7 +3569,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1723568519">
+          <pm:border xmlns:pm="smNativeData" id="1723614560">
             <pm:line position="top" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="left" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="right" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
@@ -3592,7 +3592,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1723568519">
+          <pm:border xmlns:pm="smNativeData" id="1723614560">
             <pm:line position="bottom" type="1" style="0" width="40" dist="20" width2="20" rgb="000000"/>
             <pm:line position="left" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="right" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
@@ -3615,7 +3615,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1723568519">
+          <pm:border xmlns:pm="smNativeData" id="1723614560">
             <pm:line position="bottom" type="1" style="0" width="40" dist="20" width2="20" rgb="000000"/>
             <pm:line position="right" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
           </pm:border>
@@ -3637,7 +3637,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1723568519">
+          <pm:border xmlns:pm="smNativeData" id="1723614560">
             <pm:line position="bottom" type="1" style="0" width="40" dist="20" width2="20" rgb="000000"/>
             <pm:line position="left" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="right" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
@@ -3660,7 +3660,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1723568519">
+          <pm:border xmlns:pm="smNativeData" id="1723614560">
             <pm:line position="bottom" type="1" style="0" width="40" dist="20" width2="20" rgb="000000"/>
             <pm:line position="left" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
           </pm:border>
@@ -3682,7 +3682,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1723568519">
+          <pm:border xmlns:pm="smNativeData" id="1723614560">
             <pm:line position="top" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="left" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
@@ -3706,7 +3706,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1723568519">
+          <pm:border xmlns:pm="smNativeData" id="1723614560">
             <pm:line position="top" type="1" style="0" width="40" dist="20" width2="20" rgb="000000"/>
             <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="left" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
@@ -3729,7 +3729,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1723568519">
+          <pm:border xmlns:pm="smNativeData" id="1723614560">
             <pm:line position="top" type="1" style="0" width="40" dist="20" width2="20" rgb="000000"/>
             <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
           </pm:border>
@@ -3751,7 +3751,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1723568519">
+          <pm:border xmlns:pm="smNativeData" id="1723614560">
             <pm:line position="top" type="1" style="0" width="40" dist="20" width2="20" rgb="000000"/>
             <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="right" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
@@ -3774,7 +3774,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1723568519"/>
+          <pm:border xmlns:pm="smNativeData" id="1723614560"/>
         </ext>
       </extLst>
     </border>
@@ -3793,7 +3793,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1723568519">
+          <pm:border xmlns:pm="smNativeData" id="1723614560">
             <pm:line position="top" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="left" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
@@ -3817,7 +3817,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1723568519">
+          <pm:border xmlns:pm="smNativeData" id="1723614560">
             <pm:line position="top" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="left" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
           </pm:border>
@@ -3839,7 +3839,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1723568519">
+          <pm:border xmlns:pm="smNativeData" id="1723614560">
             <pm:line position="top" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
           </pm:border>
         </ext>
@@ -3860,7 +3860,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1723568519">
+          <pm:border xmlns:pm="smNativeData" id="1723614560">
             <pm:line position="top" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="right" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
           </pm:border>
@@ -3882,7 +3882,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1723568519">
+          <pm:border xmlns:pm="smNativeData" id="1723614560">
             <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="left" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
           </pm:border>
@@ -3904,7 +3904,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1723568519">
+          <pm:border xmlns:pm="smNativeData" id="1723614560">
             <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="right" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
           </pm:border>
@@ -3926,7 +3926,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1723568519">
+          <pm:border xmlns:pm="smNativeData" id="1723614560">
             <pm:line position="top" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="right" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
           </pm:border>
@@ -3948,7 +3948,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1723568519">
+          <pm:border xmlns:pm="smNativeData" id="1723614560">
             <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="left" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="right" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
@@ -3971,7 +3971,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1723568519">
+          <pm:border xmlns:pm="smNativeData" id="1723614560">
             <pm:line position="top" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="left" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
@@ -3995,7 +3995,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1723568519">
+          <pm:border xmlns:pm="smNativeData" id="1723614560">
             <pm:line position="top" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="left" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
@@ -4019,7 +4019,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1723568519">
+          <pm:border xmlns:pm="smNativeData" id="1723614560">
             <pm:line position="top" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="left" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
@@ -4043,7 +4043,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1723568519">
+          <pm:border xmlns:pm="smNativeData" id="1723614560">
             <pm:line position="top" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="left" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
@@ -4067,7 +4067,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1723568519">
+          <pm:border xmlns:pm="smNativeData" id="1723614560">
             <pm:line position="top" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="left" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
@@ -4091,7 +4091,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1723568519"/>
+          <pm:border xmlns:pm="smNativeData" id="1723614560"/>
         </ext>
       </extLst>
     </border>
@@ -4435,10 +4435,10 @@
   <tableStyles count="0"/>
   <extLst>
     <ext uri="smNativeData">
-      <pm:charStyles xmlns:pm="smNativeData" id="1723568519" count="1">
+      <pm:charStyles xmlns:pm="smNativeData" id="1723614560" count="1">
         <pm:charStyle name="Обычный" fontId="0" Id="1"/>
       </pm:charStyles>
-      <pm:colors xmlns:pm="smNativeData" id="1723568519" count="18">
+      <pm:colors xmlns:pm="smNativeData" id="1723614560" count="18">
         <pm:color name="Цвет 24" rgb="E26B0A"/>
         <pm:color name="Цвет 25" rgb="974706"/>
         <pm:color name="Цвет 26" rgb="0070C0"/>
@@ -4673,15 +4673,6 @@
           <a:noFill/>
         </a:ln>
       </c:spPr>
-      <c:txPr>
-        <a:bodyPr anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr/>
-          </a:pPr>
-        </a:p>
-      </c:txPr>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
@@ -4709,7 +4700,7 @@
   </c:txPr>
   <c:extLst>
     <c:ext xmlns:sm="smo" uri="smo">
-      <sm:colorScheme xmlns:sm="smo" id="1723568519" val="7"/>
+      <sm:colorScheme xmlns:sm="smo" id="1723614560" val="7"/>
     </c:ext>
   </c:extLst>
 </c:chartSpace>
@@ -5065,7 +5056,7 @@
   </c:txPr>
   <c:extLst>
     <c:ext xmlns:sm="smo" uri="smo">
-      <sm:colorScheme xmlns:sm="smo" id="1723568519" val="7"/>
+      <sm:colorScheme xmlns:sm="smo" id="1723614560" val="7"/>
     </c:ext>
   </c:extLst>
 </c:chartSpace>
@@ -5092,7 +5083,7 @@
         <xdr:cNvSpPr>
           <a:extLst>
             <a:ext uri="smNativeData">
-              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_h5G7ZhMAAAAlAAAAZQAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAABAAAAAAAAAAEAAABQAAAAhbacS3FV1T8AAAAAAAAAAAAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAEAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAAAAAAAAeAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAAAAAAAALAAAAnAB3AwIAAAAOAAAAVQIUA9U/AAAiAAAA+Q0AAB4CAAAAAAAA"/>
+              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_YEW8ZhMAAAAlAAAAZQAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAABAAAAAAAAAAEAAABQAAAAhbacS3FV1T8AAAAAAAAAAAAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAEAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAAAAAAAAeAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAAAAAAAALAAAAnAB3AwIAAAAOAAAAVQIUA9U/AAAiAAAA+Q0AAB4CAAAAAAAA"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvSpPr>
@@ -5178,7 +5169,7 @@
         <xdr:cNvSpPr>
           <a:extLst>
             <a:ext uri="smNativeData">
-              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_h5G7ZhMAAAAlAAAAZQAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAABAAAAAAAAAAEAAABQAAAAhbacS3FV1T8AAAAAAAAAAAAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAEAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAAAAAAAAeAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAAAUAAAAOAAAA6gDJAQcAAAAPAAAANAFmAdNLAACOBAAAUgYAAM4BAAAAAAAA"/>
+              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_YEW8ZhMAAAAlAAAAZQAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAABAAAAAAAAAAEAAABQAAAAhbacS3FV1T8AAAAAAAAAAAAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAEAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAAAAAAAAeAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAAAUAAAAOAAAA6gDJAQcAAAAPAAAANAFmAdNLAACOBAAAUgYAAM4BAAAAAAAA"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvSpPr>
@@ -5253,7 +5244,7 @@
         <xdr:cNvSpPr>
           <a:extLst>
             <a:ext uri="smNativeData">
-              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_h5G7ZhMAAAAlAAAAZQAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAABAAAAAAAAAAEAAABQAAAAhbacS3FV1T8AAAAAAAAAAAAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAEAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAADcANgAeAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAAAUAAAAKAAAAVwD2AwgAAAAMAAAAOQLPAQk8AABuBAAAVwYAAAYDAAAAAAAA"/>
+              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_YEW8ZhMAAAAlAAAAZQAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAABAAAAAAAAAAEAAABQAAAAhbacS3FV1T8AAAAAAAAAAAAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAEAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAADcANgAeAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAAAUAAAAKAAAAVwD2AwgAAAAMAAAAOQLPAQk8AABuBAAAVwYAAAYDAAAAAAAA"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvSpPr>
@@ -5339,7 +5330,7 @@
         <xdr:cNvSpPr>
           <a:extLst>
             <a:ext uri="smNativeData">
-              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_h5G7ZhMAAAAlAAAAZQAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAABAAAAAAAAAAEAAABQAAAAhbacS3FV1T8AAAAAAAAAAAAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAEAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAAJeXl/8eAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAAAUAAAAFAAAApQAAAQgAAAAHAAAARQAfAe0aAAB/BAAAcQsAAIgCAAAAAAAA"/>
+              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_YEW8ZhMAAAAlAAAAZQAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAABAAAAAAAAAAEAAABQAAAAhbacS3FV1T8AAAAAAAAAAAAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAEAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAAJeXl/8eAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAAAUAAAAFAAAApQAAAQgAAAAHAAAARQAfAe0aAAB/BAAAcQsAAIgCAAAAAAAA"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvSpPr>
@@ -5419,7 +5410,7 @@
         <xdr:cNvSpPr>
           <a:extLst>
             <a:ext uri="smNativeData">
-              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_h5G7ZhMAAAAlAAAAZQAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAABAAAAAAAAAAEAAABQAAAAhbacS3FV1T8AAAAAAAAAAAAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAEAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAAAAAAAAeAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAAAUAAAAWAAAABgEmAwcAAAAYAAAA6wH8AA5+AACUBAAAUwYAAPABAAAAAAAA"/>
+              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_YEW8ZhMAAAAlAAAAZQAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAABAAAAAAAAAAEAAABQAAAAhbacS3FV1T8AAAAAAAAAAAAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAEAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAAAAAAAAeAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAAAUAAAAWAAAABgEmAwcAAAAYAAAA6wH8AA5+AACUBAAAUwYAAPABAAAAAAAA"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvSpPr>
@@ -5509,7 +5500,7 @@
         <xdr:cNvCxnSpPr>
           <a:extLst>
             <a:ext uri="smNativeData">
-              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_h5G7ZhMAAAAlAAAADQAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAAAAAAAAAAAAAEAAABQAAAAAAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAAAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAZAAAAAEAAABAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAAAAAAAAeAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAAAQAAAAFAAAAAADqAwQAAAAQAAAARQAsAksgAAB8AwAAjj4AAA8AAAAAAAAA"/>
+              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_YEW8ZhMAAAAlAAAADQAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAAAAAAAAAAAAAEAAABQAAAAAAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAAAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAZAAAAAEAAABAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAAAAAAAAeAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAAAQAAAAFAAAAAADqAwQAAAAQAAAARQAsAksgAAB8AwAAjj4AAA8AAAAAAAAA"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvCxnSpPr>
@@ -5555,7 +5546,7 @@
         <xdr:cNvSpPr>
           <a:extLst>
             <a:ext uri="smNativeData">
-              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_h5G7ZhMAAAAlAAAAZQAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAABAAAAAAAAAAEAAABQAAAAhbacS3FV1T8AAAAAAAAAAAAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAEAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAAObotv8eAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAAAoAAAAJAAAA5gA2AA0AAAAJAAAA2gKUAjwvAADoCAAAUQUAAAoDAAAAAAAA"/>
+              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_YEW8ZhMAAAAlAAAAZQAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAABAAAAAAAAAAEAAABQAAAAhbacS3FV1T8AAAAAAAAAAAAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAEAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAAObotv8eAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAAAoAAAAJAAAA5gA2AA0AAAAJAAAA2gKUAjwvAADoCAAAUQUAAAoDAAAAAAAA"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvSpPr>
@@ -5651,7 +5642,7 @@
         <xdr:cNvSpPr>
           <a:extLst>
             <a:ext uri="smNativeData">
-              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_h5G7ZhMAAAAlAAAAZQAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAABAAAAAAAAAAEAAABQAAAAhbacS3FV1T8AAAAAAAAAAAAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAEAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAAAAAAAAeAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAAAoAAAAHAAAA0wD7AQ0AAAAIAAAATwFZApQnAADkCAAAZAUAALgCAAAAAAAA"/>
+              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_YEW8ZhMAAAAlAAAAZQAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAABAAAAAAAAAAEAAABQAAAAhbacS3FV1T8AAAAAAAAAAAAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAEAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAAAAAAAAeAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAAAoAAAAHAAAA0wD7AQ0AAAAIAAAATwFZApQnAADkCAAAZAUAALgCAAAAAAAA"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvSpPr>
@@ -5726,7 +5717,7 @@
         <xdr:cNvSpPr>
           <a:extLst>
             <a:ext uri="smNativeData">
-              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_h5G7ZhMAAAAlAAAAZQAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAABAAAAAAAAAAEAAABQAAAAhbacS3FV1T8AAAAAAAAAAAAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAEAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAAAAAAAAeAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAAAkAAAAGAAAA+wNXAA0AAAAHAAAAFAEDAdIgAAC1CAAAZQUAANoCAAAAAAAA"/>
+              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_YEW8ZhMAAAAlAAAAZQAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAABAAAAAAAAAAEAAABQAAAAhbacS3FV1T8AAAAAAAAAAAAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAEAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAAAAAAAAeAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAAAkAAAAGAAAA+wNXAA0AAAAHAAAAFAEDAdIgAAC1CAAAZQUAANoCAAAAAAAA"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvSpPr>
@@ -5823,7 +5814,7 @@
         <xdr:cNvSpPr>
           <a:extLst>
             <a:ext uri="smNativeData">
-              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_h5G7ZhMAAAAlAAAAZQAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAABAAAAAAAAAAEAAABQAAAAhbacS3FV1T8AAAAAAAAAAAAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAEAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAAAAAAAAeAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAAAoAAAAFAAAAcwBIAA0AAAAFAAAAFAE1A5oZAADPCAAAZAUAAMACAAAAAAAA"/>
+              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_YEW8ZhMAAAAlAAAAZQAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAABAAAAAAAAAAEAAABQAAAAhbacS3FV1T8AAAAAAAAAAAAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAEAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAAAAAAAAeAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAAAoAAAAFAAAAcwBIAA0AAAAFAAAAFAE1A5oZAADPCAAAZAUAAMACAAAAAAAA"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvSpPr>
@@ -5898,7 +5889,7 @@
         <xdr:cNvSpPr>
           <a:extLst>
             <a:ext uri="smNativeData">
-              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_h5G7ZhMAAAAlAAAAZQAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAABAAAAAAAAAAEAAABQAAAAhbacS3FV1T8AAAAAAAAAAAAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAEAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAAAAAAAAeAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAAAoAAAADAAAAJQDvAQ0AAAAEAAAAegJiA/cRAAC+CAAAcwYAAB8DAAAAAAAA"/>
+              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_YEW8ZhMAAAAlAAAAZQAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAABAAAAAAAAAAEAAABQAAAAhbacS3FV1T8AAAAAAAAAAAAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAEAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAAAAAAAAeAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAAAoAAAADAAAAJQDvAQ0AAAAEAAAAegJiA/cRAAC+CAAAcwYAAB8DAAAAAAAA"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvSpPr>
@@ -5957,15 +5948,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>428625</xdr:colOff>
+      <xdr:colOff>737870</xdr:colOff>
       <xdr:row>24</xdr:row>
       <xdr:rowOff>49530</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>144780</xdr:colOff>
+      <xdr:colOff>76200</xdr:colOff>
       <xdr:row>26</xdr:row>
-      <xdr:rowOff>41275</xdr:rowOff>
+      <xdr:rowOff>16510</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" fLocksText="0">
       <xdr:nvSpPr>
@@ -5973,15 +5964,15 @@
         <xdr:cNvSpPr>
           <a:extLst>
             <a:ext uri="smNativeData">
-              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_h5G7ZhMAAAAlAAAAZQAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAABAAAAAAAAAAEAAABQAAAAhbacS3FV1T8AAAAAAAAAAAAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAEAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAAAAAAAAeAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAABgAAAACAAAAZgGUARoAAAAEAAAAKgHSAE8LAAA2FQAAVAoAALEBAAAAAAAA"/>
+              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_YEW8ZhMAAAAlAAAAZQAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAABAAAAAAAAAAEAAABQAAAAhbacS3FV1T8AAAAAAAAAAAAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAEAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAAAAAAAAeAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAABgAAAACAAAAZgG3AhoAAAAEAAAAeQBvADYNAAA2FQAAAQgAAIoBAAAAAAAA"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvSpPr>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1838325" y="3448050"/>
-          <a:ext cx="1678940" cy="274955"/>
+          <a:off x="2147570" y="3448050"/>
+          <a:ext cx="1301115" cy="250190"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -6043,7 +6034,7 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>375920</xdr:colOff>
+      <xdr:colOff>739140</xdr:colOff>
       <xdr:row>14</xdr:row>
       <xdr:rowOff>110490</xdr:rowOff>
     </xdr:from>
@@ -6051,7 +6042,7 @@
       <xdr:col>4</xdr:col>
       <xdr:colOff>125730</xdr:colOff>
       <xdr:row>16</xdr:row>
-      <xdr:rowOff>103505</xdr:rowOff>
+      <xdr:rowOff>123190</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" fLocksText="0">
       <xdr:nvSpPr>
@@ -6059,15 +6050,15 @@
         <xdr:cNvSpPr>
           <a:extLst>
             <a:ext uri="smNativeData">
-              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_h5G7ZhMAAAAlAAAAZQAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAABAAAAAAAAAAEAAABQAAAAhbacS3FV1T8AAAAAAAAAAAAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAEAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAAAAAAAAeAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAAA4AAAACAAAAHwNiARAAAAAEAAAA7AK3APwKAADgDAAAiQoAALMBAAAAAAAA"/>
+              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_YEW8ZhMAAAAlAAAAZQAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAABAAAAAAAAAAEAAABQAAAAhbacS3FV1T8AAAAAAAAAAAAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAEAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAAAAAAAAeAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAAA4AAAACAAAAIAO4AhAAAAAEAAAAegO3ADgNAADgDAAATQgAANIBAAAAAAAA"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvSpPr>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1785620" y="2092960"/>
-          <a:ext cx="1712595" cy="276225"/>
+          <a:off x="2148840" y="2092960"/>
+          <a:ext cx="1349375" cy="295910"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -6129,15 +6120,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>377190</xdr:colOff>
+      <xdr:colOff>761365</xdr:colOff>
       <xdr:row>17</xdr:row>
-      <xdr:rowOff>103505</xdr:rowOff>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>141605</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>12700</xdr:rowOff>
+      <xdr:colOff>107950</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>124460</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" fLocksText="0">
       <xdr:nvSpPr>
@@ -6145,15 +6136,15 @@
         <xdr:cNvSpPr>
           <a:extLst>
             <a:ext uri="smNativeData">
-              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_h5G7ZhMAAAAlAAAAZQAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAABAAAAAAAAAAEAAABQAAAAhbacS3FV1T8AAAAAAAAAAAAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAEAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAAAAAAAAeAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAABEAAAACAAAA7AJjARQAAAAEAAAAXADOAP4KAAByDwAAoAoAAA4CAAAAAAAA"/>
+              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_YEW8ZhMAAAAlAAAAZQAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAABAAAAAAAAAAEAAABQAAAAhbacS3FV1T8AAAAAAAAAAAAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAEAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAAAAAAAAeAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAABEAAAACAAAAOwPNAhMAAAAEAAAAgwOdAFsNAACDDwAADggAAM4BAAAAAAAA"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvSpPr>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1786890" y="2510790"/>
-          <a:ext cx="1727200" cy="334010"/>
+          <a:off x="2171065" y="2521585"/>
+          <a:ext cx="1309370" cy="293370"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -6215,15 +6206,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>396875</xdr:colOff>
+      <xdr:colOff>761365</xdr:colOff>
       <xdr:row>21</xdr:row>
       <xdr:rowOff>2540</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>141605</xdr:colOff>
+      <xdr:colOff>99695</xdr:colOff>
       <xdr:row>22</xdr:row>
-      <xdr:rowOff>136525</xdr:rowOff>
+      <xdr:rowOff>135255</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" fLocksText="0">
       <xdr:nvSpPr>
@@ -6231,15 +6222,15 @@
         <xdr:cNvSpPr>
           <a:extLst>
             <a:ext uri="smNativeData">
-              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_h5G7ZhMAAAAlAAAAZQAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAABAAAAAAAAAAEAAABQAAAAhbacS3FV1T8AAAAAAAAAAAAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAEAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAAAAAAAAeAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAABUAAAACAAAAEgB2ARYAAAAEAAAA2wPOAB0LAABPEgAAgQoAALIBAAAAAAAA"/>
+              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_YEW8ZhMAAAAlAAAAZQAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAABAAAAAAAAAAEAAABQAAAAhbacS3FV1T8AAAAAAAAAAAAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAEAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAAAAAAAAeAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAABUAAAACAAAAEgDNAhYAAAAEAAAA0wORAFsNAABPEgAAAQgAALABAAAAAAAA"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvSpPr>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1806575" y="2976245"/>
-          <a:ext cx="1707515" cy="275590"/>
+          <a:off x="2171065" y="2976245"/>
+          <a:ext cx="1301115" cy="274320"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -6317,7 +6308,7 @@
         <xdr:cNvSpPr>
           <a:extLst>
             <a:ext uri="smNativeData">
-              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_h5G7ZhMAAAAlAAAAZQAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAABAAAAAAAAAAEAAABQAAAAhbacS3FV1T8AAAAAAAAAAAAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAEAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAAAAAAAAeAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAAA4AAAAFAAAANwD8ABAAAAAGAAAA9QGxAuUaAAA+DAAAeggAAB8CAAAAAAAA"/>
+              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_YEW8ZhMAAAAlAAAAZQAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAABAAAAAAAAAAEAAABQAAAAhbacS3FV1T8AAAAAAAAAAAAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAEAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAAAAAAAAeAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAAA4AAAAFAAAANwD8ABAAAAAGAAAA9QGxAuUaAAA+DAAAeggAAB8CAAAAAAAA"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvSpPr>
@@ -6387,7 +6378,7 @@
         <xdr:cNvSpPr>
           <a:extLst>
             <a:ext uri="smNativeData">
-              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_h5G7ZhMAAAAlAAAAZQAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAABAAAAAAAAAAEAAABQAAAAhbacS3FV1T8AAAAAAAAAAAAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAEAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAAAAAAAAeAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAABEAAAAFAAAA6gDeABMAAAAGAAAA0gNhAq4aAAACDwAAWggAAGACAAAAAAAA"/>
+              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_YEW8ZhMAAAAlAAAAZQAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAABAAAAAAAAAAEAAABQAAAAhbacS3FV1T8AAAAAAAAAAAAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAEAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAAAAAAAAeAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAABEAAAAFAAAA6gDeABMAAAAGAAAA0gNhAq4aAAACDwAAWggAAGACAAAAAAAA"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvSpPr>
@@ -6462,7 +6453,7 @@
         <xdr:cNvSpPr>
           <a:extLst>
             <a:ext uri="smNativeData">
-              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_h5G7ZhMAAAAlAAAAZQAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAABAAAAAAAAAAEAAABQAAAAhbacS3FV1T8AAAAAAAAAAAAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAEAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAAAEAAAAeAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAABQAAAAFAAAAMQMCARcAAAAGAAAAtAGIAvAaAAAeEgAAQggAAEoCAAAAAAAA"/>
+              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_YEW8ZhMAAAAlAAAAZQAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAABAAAAAAAAAAEAAABQAAAAhbacS3FV1T8AAAAAAAAAAAAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAEAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAAAEAAAAeAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAABQAAAAFAAAAMQMCARcAAAAGAAAAtAGIAvAaAAAeEgAAQggAAEoCAAAAAAAA"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvSpPr>
@@ -6537,7 +6528,7 @@
         <xdr:cNvSpPr>
           <a:extLst>
             <a:ext uri="smNativeData">
-              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_h5G7ZhMAAAAlAAAAZQAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAABAAAAAAAAAAEAAABQAAAAhbacS3FV1T8AAAAAAAAAAAAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAEAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAAAUAAAAeAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAABgAAAAFAAAALgDlABsAAAAGAAAAzwBoArsaAADyFAAAVQgAAMACAAAAAAAA"/>
+              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_YEW8ZhMAAAAlAAAAZQAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAABAAAAAAAAAAEAAABQAAAAhbacS3FV1T8AAAAAAAAAAAAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAEAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAAAUAAAAeAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAABgAAAAFAAAALgDlABsAAAAGAAAAzwBoArsaAADyFAAAVQgAAMACAAAAAAAA"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvSpPr>
@@ -6572,22 +6563,6 @@
           <a:pPr algn="ctr" defTabSz="360045" rtl="0">
             <a:defRPr sz="1000"/>
           </a:pPr>
-        </a:p>
-        <a:p>
-          <a:pPr algn="ctr" defTabSz="360045" rtl="0">
-            <a:defRPr sz="1000"/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="ru-ru" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="100" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
-              </a:solidFill>
-              <a:latin typeface="Arial" pitchFamily="2" charset="204"/>
-              <a:ea typeface="SimSun" charset="0"/>
-              <a:cs typeface="Times New Roman" pitchFamily="1" charset="204"/>
-            </a:rPr>
-            <a:t>П</a:t>
-          </a:r>
           <a:r>
             <a:rPr lang="ru-ru" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="100" baseline="0">
               <a:solidFill>
@@ -6597,7 +6572,7 @@
               <a:ea typeface="SimSun" charset="0"/>
               <a:cs typeface="Times New Roman" pitchFamily="1" charset="204"/>
             </a:rPr>
-            <a:t>раздники</a:t>
+            <a:t>Праздники</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -6628,7 +6603,7 @@
         <xdr:cNvSpPr>
           <a:extLst>
             <a:ext uri="smNativeData">
-              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_h5G7ZhMAAAAlAAAAZQAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAABAAAAAAAAAAEAAABQAAAAhbacS3FV1T8AAAAAAAAAAAAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAEAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAAAAAAAAeAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAAA4AAAAIAAAA7gMSABEAAAAJAAAAywHkAIEqAAANDQAAQgYAACYCAAAAAAAA"/>
+              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_YEW8ZhMAAAAlAAAAZQAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAABAAAAAAAAAAEAAABQAAAAhbacS3FV1T8AAAAAAAAAAAAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAEAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAAAAAAAAeAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAAA4AAAAIAAAA7gMSABEAAAAJAAAAywHkAIEqAAANDQAAQgYAACYCAAAAAAAA"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvSpPr>
@@ -6714,7 +6689,7 @@
         <xdr:cNvSpPr>
           <a:extLst>
             <a:ext uri="smNativeData">
-              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_h5G7ZhMAAAAlAAAAZQAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAABAAAAAAAAAAEAAABQAAAAhbacS3FV1T8AAAAAAAAAAAAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAEAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAAAAAAAAeAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAABEAAAAHAAAAsgP4AxQAAAAJAAAA6QP7AGIqAACdDwAAlQYAAKkCAAAAAAAA"/>
+              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_YEW8ZhMAAAAlAAAAZQAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAABAAAAAAAAAAEAAABQAAAAhbacS3FV1T8AAAAAAAAAAAAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAEAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAAAAAAAAeAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAABEAAAAHAAAAsgP4AxQAAAAJAAAA6QP7AGIqAACdDwAAlQYAAKkCAAAAAAAA"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvSpPr>
@@ -6789,7 +6764,7 @@
         <xdr:cNvSpPr>
           <a:extLst>
             <a:ext uri="smNativeData">
-              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_h5G7ZhMAAAAlAAAAZQAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAABAAAAAAAAAAEAAABQAAAAhbacS3FV1T8AAAAAAAAAAAAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAEAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAAAAAAAAeAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAABUAAAAIAAAAAgImABgAAAAJAAAAtAHyAJYqAAC7EgAATAYAAIwCAAAAAAAA"/>
+              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_YEW8ZhMAAAAlAAAAZQAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAABAAAAAAAAAAEAAABQAAAAhbacS3FV1T8AAAAAAAAAAAAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAEAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAAAAAAAAeAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAABUAAAAIAAAAAgImABgAAAAJAAAAtAHyAJYqAAC7EgAATAYAAIwCAAAAAAAA"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvSpPr>
@@ -6864,7 +6839,7 @@
         <xdr:cNvSpPr>
           <a:extLst>
             <a:ext uri="smNativeData">
-              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_h5G7ZhMAAAAlAAAAZQAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAABAAAAAAAAAAEAAABQAAAAhbacS3FV1T8AAAAAAAAAAAAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAEAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAAAAAAAAeAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAABgAAAAIAAAASAMSABsAAAAJAAAAWAHrAIEqAACfFQAAUgYAADECAAAAAAAA"/>
+              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_YEW8ZhMAAAAlAAAAZQAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAABAAAAAAAAAAEAAABQAAAAhbacS3FV1T8AAAAAAAAAAAAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAEAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAAAAAAAAeAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAABgAAAAIAAAASAMSABsAAAAJAAAAWAHrAIEqAACfFQAAUgYAADECAAAAAAAA"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvSpPr>
@@ -6939,7 +6914,7 @@
         <xdr:cNvSpPr>
           <a:extLst>
             <a:ext uri="smNativeData">
-              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_h5G7ZhMAAAAlAAAAZQAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAABAAAAAAAAAAEAAABQAAAAhbacS3FV1T8AAAAAAAAAAAAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAEAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAAAEAAAAeAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAABsAAAAHAAAA2wP8Ax4AAAAJAAAA+QHiAGcqAABcGAAAVwYAADQCAAAAAAAA"/>
+              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_YEW8ZhMAAAAlAAAAZQAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAABAAAAAAAAAAEAAABQAAAAhbacS3FV1T8AAAAAAAAAAAAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAEAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAAAEAAAAeAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAABsAAAAHAAAA2wP8Ax4AAAAJAAAA+QHiAGcqAABcGAAAVwYAADQCAAAAAAAA"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvSpPr>
@@ -7014,7 +6989,7 @@
         <xdr:cNvSpPr>
           <a:extLst>
             <a:ext uri="smNativeData">
-              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_h5G7ZhMAAAAlAAAAZQAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAABAAAAAAAAAAEAAABQAAAAhbacS3FV1T8AAAAAAAAAAAAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAEAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAAAAAAAAeAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAAA8AAAAJAAAAVAFEAhIAAAAKAAAA9QFbA9kzAABbDQAAiAcAAMACAAAAAAAA"/>
+              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_YEW8ZhMAAAAlAAAAZQAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAABAAAAAAAAAAEAAABQAAAAhbacS3FV1T8AAAAAAAAAAAAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAEAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAAAAAAAAeAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAAA8AAAAJAAAAVAFEAhIAAAAKAAAA9QFbA9kzAABbDQAAiAcAAMACAAAAAAAA"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvSpPr>
@@ -7084,7 +7059,7 @@
         <xdr:cNvSpPr>
           <a:extLst>
             <a:ext uri="smNativeData">
-              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_h5G7ZhMAAAAlAAAAZQAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAABAAAAAAAAAAEAAABQAAAAhbacS3FV1T8AAAAAAAAAAAAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAEAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAAAAAAAAeAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAABMAAAAJAAAAqAJDAhYAAAAKAAAA1wPdA9czAAAhEQAAFwgAAN8CAAAAAAAA"/>
+              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_YEW8ZhMAAAAlAAAAZQAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAABAAAAAAAAAAEAAABQAAAAhbacS3FV1T8AAAAAAAAAAAAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAEAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAAAAAAAAeAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAABMAAAAJAAAAqAJDAhYAAAAKAAAA1wPdA9czAAAhEQAAFwgAAN8CAAAAAAAA"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvSpPr>
@@ -7164,7 +7139,7 @@
         <xdr:cNvSpPr>
           <a:extLst>
             <a:ext uri="smNativeData">
-              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_h5G7ZhMAAAAlAAAAZQAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAABAAAAAAAAAAEAAABQAAAAhbacS3FV1T8AAAAAAAAAAAAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAEAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAAAAAAAAeAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAABgAAAAJAAAAFAFLAhsAAAAKAAAAawHNA+kzAAAkFQAA9AcAALACAAAAAAAA"/>
+              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_YEW8ZhMAAAAlAAAAZQAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAABAAAAAAAAAAEAAABQAAAAhbacS3FV1T8AAAAAAAAAAAAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAEAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAAAAAAAAeAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAABgAAAAJAAAAFAFLAhsAAAAKAAAAawHNA+kzAAAkFQAA9AcAALACAAAAAAAA"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvSpPr>
@@ -7244,7 +7219,7 @@
         <xdr:cNvSpPr>
           <a:extLst>
             <a:ext uri="smNativeData">
-              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_h5G7ZhMAAAAlAAAAZQAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAABAAAAAAAAAAEAAABQAAAAhbacS3FV1T8AAAAAAAAAAAAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAEAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAAAAAAAAeAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAAAoAAAAKAAAAEgB0AA0AAAALAAAAJwJtATw4AAC6CAAAZAUAABEDAAAAAAAA"/>
+              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_YEW8ZhMAAAAlAAAAZQAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAABAAAAAAAAAAEAAABQAAAAhbacS3FV1T8AAAAAAAAAAAAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAEAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAAAAAAAAeAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAAAoAAAAKAAAAEgB0AA0AAAALAAAAJwJtATw4AAC6CAAAZAUAABEDAAAAAAAA"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvSpPr>
@@ -7319,7 +7294,7 @@
         <xdr:cNvSpPr>
           <a:extLst>
             <a:ext uri="smNativeData">
-              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_h5G7ZhMAAAAlAAAAZQAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAABAAAAAAAAAAEAAABQAAAAhbacS3FV1T8AAAAAAAAAAAAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAEAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAAAAAAAAeAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAAAkAAAALAAAAoAPyAg0AAAAMAAAA9gLCA0U/AAChCAAAOAUAAFcDAAAAAAAA"/>
+              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_YEW8ZhMAAAAlAAAAZQAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAABAAAAAAAAAAEAAABQAAAAhbacS3FV1T8AAAAAAAAAAAAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAEAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAAAAAAAAeAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAAAkAAAALAAAAoAPyAg0AAAAMAAAA9gLCA0U/AAChCAAAOAUAAFcDAAAAAAAA"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvSpPr>
@@ -7394,7 +7369,7 @@
         <xdr:cNvSpPr>
           <a:extLst>
             <a:ext uri="smNativeData">
-              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_h5G7ZhMAAAAlAAAAZQAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAABAAAAAAAAAAEAAABQAAAAhbacS3FV1T8AAAAAAAAAAAAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAEAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAAAAAAAAeAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAAAoAAAANAAAA0wAQAQ0AAAAOAAAA8AFxAedFAADkCAAAZQUAANsCAAAAAAAA"/>
+              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_YEW8ZhMAAAAlAAAAZQAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAABAAAAAAAAAAEAAABQAAAAhbacS3FV1T8AAAAAAAAAAAAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAEAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAAAAAAAAeAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAAAoAAAANAAAA0wAQAQ0AAAAOAAAA8AFxAedFAADkCAAAZQUAANsCAAAAAAAA"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvSpPr>
@@ -7432,24 +7407,13 @@
           <a:r>
             <a:rPr lang="ru-ru" sz="800" b="0" i="0" u="none" strike="noStrike" kern="100" baseline="0">
               <a:solidFill>
-                <a:srgbClr val="FF0000"/>
-              </a:solidFill>
-              <a:latin typeface="Arial" pitchFamily="2" charset="204"/>
-              <a:ea typeface="Arial" pitchFamily="2" charset="204"/>
-              <a:cs typeface="Arial" pitchFamily="2" charset="204"/>
-            </a:rPr>
-            <a:t>П</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="ru-ru" sz="800" b="0" i="0" u="none" strike="noStrike" kern="100" baseline="0">
-              <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
               <a:latin typeface="Arial" pitchFamily="2" charset="204"/>
               <a:ea typeface="Arial" pitchFamily="2" charset="204"/>
               <a:cs typeface="Arial" pitchFamily="2" charset="204"/>
             </a:rPr>
-            <a:t>оиск</a:t>
+            <a:t>Поиск</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -7480,7 +7444,7 @@
         <xdr:cNvSpPr>
           <a:extLst>
             <a:ext uri="smNativeData">
-              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_h5G7ZhMAAAAlAAAAZQAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAABAAAAAAAAAAEAAABQAAAAhbacS3FV1T8AAAAAAAAAAAAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAEAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAAAAAAAAeAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAAAoAAAAPAAAAcwCMAQ0AAAAQAAAAVAEbAXRSAADPCAAA1AgAAM4CAAAAAAAA"/>
+              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_YEW8ZhMAAAAlAAAAZQAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAABAAAAAAAAAAEAAABQAAAAhbacS3FV1T8AAAAAAAAAAAAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAEAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAAAAAAAAeAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAAAoAAAAPAAAAcwCMAQ0AAAAQAAAAVAEbAXRSAADPCAAA1AgAAM4CAAAAAAAA"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvSpPr>
@@ -7555,7 +7519,7 @@
         <xdr:cNvSpPr>
           <a:extLst>
             <a:ext uri="smNativeData">
-              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_h5G7ZhMAAAAlAAAAZQAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAABAAAAAAAAAAEAAABQAAAAhbacS3FV1T8AAAAAAAAAAAAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAEAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAAAAAAAAeAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAAAoAAAAOAAAAcwDpAQ0AAAAPAAAA4gFYAQRMAADPCAAAAwYAAO0CAAAAAAAA"/>
+              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_YEW8ZhMAAAAlAAAAZQAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAABAAAAAAAAAAEAAABQAAAAhbacS3FV1T8AAAAAAAAAAAAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAEAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAAAAAAAAeAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAAAoAAAAOAAAAcwDpAQ0AAAAPAAAA4gFYAQRMAADPCAAAAwYAAO0CAAAAAAAA"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvSpPr>
@@ -7614,7 +7578,7 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>501015</xdr:colOff>
+      <xdr:colOff>681990</xdr:colOff>
       <xdr:row>20</xdr:row>
       <xdr:rowOff>6350</xdr:rowOff>
     </xdr:from>
@@ -7622,7 +7586,7 @@
       <xdr:col>14</xdr:col>
       <xdr:colOff>854075</xdr:colOff>
       <xdr:row>22</xdr:row>
-      <xdr:rowOff>95885</xdr:rowOff>
+      <xdr:rowOff>80645</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" fLocksText="0">
       <xdr:nvSpPr>
@@ -7630,15 +7594,15 @@
         <xdr:cNvSpPr>
           <a:extLst>
             <a:ext uri="smNativeData">
-              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_h5G7ZhMAAAAlAAAAZQAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAABAAAAAAAAAAEAAABQAAAAhbacS3FV1T8AAAAAAAAAAAAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAEAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAAAAAAAAeAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAABQAAAAMAAAALgDYAhYAAAAOAAAAtQJtA39DAAB2EQAA2AoAAEsCAAAAAAAA"/>
+              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_YEW8ZhMAAAAlAAAAZQAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAABAAAAAAAAAAEAAABQAAAAhbacS3FV1T8AAAAAAAAAAAAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAEAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAAAAAAAAeAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAABQAAAAMAAAALQDfAxYAAAAOAAAARQJtA5xEAAB2EQAAuwkAADMCAAAAAAAA"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvSpPr>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10972165" y="2838450"/>
-          <a:ext cx="1762760" cy="372745"/>
+          <a:off x="11153140" y="2838450"/>
+          <a:ext cx="1581785" cy="357505"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -7674,18 +7638,7 @@
               <a:ea typeface="Arial" pitchFamily="2" charset="204"/>
               <a:cs typeface="Arial" pitchFamily="2" charset="204"/>
             </a:rPr>
-            <a:t>Выбор </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="ru-ru" sz="800" b="0" i="0" u="none" strike="noStrike" kern="100" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
-              </a:solidFill>
-              <a:latin typeface="Arial" pitchFamily="2" charset="204"/>
-              <a:ea typeface="Arial" pitchFamily="2" charset="204"/>
-              <a:cs typeface="Arial" pitchFamily="2" charset="204"/>
-            </a:rPr>
-            <a:t>даты</a:t>
+            <a:t>Выбор даты</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -7700,7 +7653,7 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>531495</xdr:colOff>
+      <xdr:colOff>693420</xdr:colOff>
       <xdr:row>23</xdr:row>
       <xdr:rowOff>118745</xdr:rowOff>
     </xdr:from>
@@ -7708,7 +7661,7 @@
       <xdr:col>14</xdr:col>
       <xdr:colOff>827405</xdr:colOff>
       <xdr:row>26</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
+      <xdr:rowOff>15875</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" fLocksText="0">
       <xdr:nvSpPr>
@@ -7716,15 +7669,15 @@
         <xdr:cNvSpPr>
           <a:extLst>
             <a:ext uri="smNativeData">
-              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_h5G7ZhMAAAAlAAAAZQAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAABAAAAAAAAAAEAAABQAAAAhbacS3FV1T8AAAAAAAAAAAAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAEAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAAAAAAAAeAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAABcAAAAMAAAAWwMEAxoAAAAOAAAA9gJSA69DAADEFAAAfgoAAIcCAAAAAAAA"/>
+              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_YEW8ZhMAAAAlAAAAZQAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAABAAAAAAAAAAEAAABQAAAAhbacS3FV1T8AAAAAAAAAAAAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAEAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAAAAAAAAeAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAABcAAAAMAAAAWwPvAxoAAAAOAAAAdABSA65EAADEFAAAfwkAAPsBAAAAAAAA"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvSpPr>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11002645" y="3375660"/>
-          <a:ext cx="1705610" cy="410845"/>
+          <a:off x="11164570" y="3375660"/>
+          <a:ext cx="1543685" cy="321945"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -7791,7 +7744,7 @@
         <xdr:cNvSpPr>
           <a:extLst>
             <a:ext uri="smNativeData">
-              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_h5G7ZhMAAAAlAAAAZQAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAABAAAAAAAAAAEAAABQAAAAhbacS3FV1T8AAAAAAAAAAAAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAEAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAAOR5hQweAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAAA8AAAAPAAAAWwO5AhIAAAAQAAAAhAOeAelUAADMDQAAFQgAAKYCAAAAAAAA"/>
+              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_YEW8ZhMAAAAlAAAAZQAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAABAAAAAAAAAAEAAABQAAAAhbacS3FV1T8AAAAAAAAAAAAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAEAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAAOR5hQweAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAAA8AAAAPAAAAWwO5AhIAAAAQAAAAhAOeAelUAADMDQAAFQgAAKYCAAAAAAAA"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvSpPr>
@@ -7866,7 +7819,7 @@
         <xdr:cNvSpPr>
           <a:extLst>
             <a:ext uri="smNativeData">
-              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_h5G7ZhMAAAAlAAAAZQAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAABAAAAAAAAAAEAAABQAAAAhbacS3FV1T8AAAAAAAAAAAAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAEAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAAAAAAAAeAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAABMAAAAPAAAAmwOvAhYAAAAQAAAA7AKTAdRUAABWEQAABQgAAHcCAAAAAAAA"/>
+              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_YEW8ZhMAAAAlAAAAZQAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAABAAAAAAAAAAEAAABQAAAAhbacS3FV1T8AAAAAAAAAAAAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAEAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAAAAAAAAeAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAABMAAAAPAAAAmwOvAhYAAAAQAAAA7AKTAdRUAABWEQAABQgAAHcCAAAAAAAA"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvSpPr>
@@ -7941,7 +7894,7 @@
         <xdr:cNvSpPr>
           <a:extLst>
             <a:ext uri="smNativeData">
-              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_h5G7ZhMAAAAlAAAAZQAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAABAAAAAAAAAAEAAABQAAAAhbacS3FV1T8AAAAAAAAAAAAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAEAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAAAEAAAAeAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAABcAAAAPAAAAvQG4AhsAAAAQAAAAHQGpAedUAABqFAAAPAgAAFkDAAAAAAAA"/>
+              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_YEW8ZhMAAAAlAAAAZQAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAABAAAAAAAAAAEAAABQAAAAhbacS3FV1T8AAAAAAAAAAAAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAEAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAAAEAAAAeAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAABcAAAAPAAAAvQG4AhsAAAAQAAAAHQGpAedUAABqFAAAPAgAAFkDAAAAAAAA"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvSpPr>
@@ -8043,7 +7996,7 @@
         <xdr:cNvSpPr>
           <a:extLst>
             <a:ext uri="smNativeData">
-              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_h5G7ZhMAAAAlAAAAZQAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAABAAAAAAAAAAEAAABQAAAAhbacS3FV1T8AAAAAAAAAAAAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAEAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAAAAAAAAeAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAAA4AAAAQAAAAewP7AxIAAAASAAAAFwCpAuVkAAD0DAAASQcAAL8CAAAAAAAA"/>
+              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_YEW8ZhMAAAAlAAAAZQAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAABAAAAAAAAAAEAAABQAAAAhbacS3FV1T8AAAAAAAAAAAAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAEAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAAAAAAAAeAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAAA4AAAAQAAAAewP7AxIAAAASAAAAFwCpAuVkAAD0DAAASQcAAL8CAAAAAAAA"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvSpPr>
@@ -8118,7 +8071,7 @@
         <xdr:cNvSpPr>
           <a:extLst>
             <a:ext uri="smNativeData">
-              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_h5G7ZhMAAAAlAAAAZQAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAABAAAAAAAAAAEAAABQAAAAhbacS3FV1T8AAAAAAAAAAAAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAEAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAAAAAAAAeAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAABcAAAARAAAARgEdABoAAAASAAAATALpAhVlAABQFAAAXwcAANYCAAAAAAAA"/>
+              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_YEW8ZhMAAAAlAAAAZQAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAABAAAAAAAAAAEAAABQAAAAhbacS3FV1T8AAAAAAAAAAAAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAEAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAAAAAAAAeAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAABcAAAARAAAARgEdABoAAAASAAAATALpAhVlAABQFAAAXwcAANYCAAAAAAAA"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvSpPr>
@@ -8198,7 +8151,7 @@
         <xdr:cNvSpPr>
           <a:extLst>
             <a:ext uri="smNativeData">
-              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_h5G7ZhMAAAAlAAAAZQAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAABAAAAAAAAAAEAAABQAAAAhbacS3FV1T8AAAAAAAAAAAAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAEAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAAAAAAAAeAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAAB4AAAAIAAAAmwMFACIAAAAJAAAA/gHjAHIqAADrGgAATwYAACIDAAAAAAAA"/>
+              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_YEW8ZhMAAAAlAAAAZQAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAABAAAAAAAAAAEAAABQAAAAhbacS3FV1T8AAAAAAAAAAAAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAEAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAAAAAAAAeAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAAB4AAAAIAAAAmwMFACIAAAAJAAAA/gHjAHIqAADrGgAATwYAACIDAAAAAAAA"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvSpPr>
@@ -8273,7 +8226,7 @@
         <xdr:cNvSpPr>
           <a:extLst>
             <a:ext uri="smNativeData">
-              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_h5G7ZhMAAAAlAAAAZQAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAABAAAAAAAAAAEAAABQAAAAhbacS3FV1T8AAAAAAAAAAAAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAEAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAAAAAAAAeAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAACIAAAAIAAAASAMQACUAAAAJAAAAcwPxAH4qAABVHgAAYgYAAMoCAAAAAAAA"/>
+              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_YEW8ZhMAAAAlAAAAZQAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAABAAAAAAAAAAEAAABQAAAAhbacS3FV1T8AAAAAAAAAAAAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAEAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAAAAAAAAeAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAACIAAAAIAAAASAMQACUAAAAJAAAAcwPxAH4qAABVHgAAYgYAAMoCAAAAAAAA"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvSpPr>
@@ -8348,7 +8301,7 @@
         <xdr:cNvSpPr>
           <a:extLst>
             <a:ext uri="smNativeData">
-              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_h5G7ZhMAAAAlAAAACgAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAAAAAAAAAAAAAEAAABQAAAAAAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAAAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAZAAAAAEAAABAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAAAAAAAAeAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAAA0AAAAJAAAA3wKlARoAAAAJAAAALgC9AXQyAADzCwAANgAAAL0KAAAAAAAA"/>
+              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_YEW8ZhMAAAAlAAAACgAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAAAAAAAAAAAAAEAAABQAAAAAAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAAAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAZAAAAAEAAABAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAAAAAAAAeAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAAA0AAAAJAAAA3wKlARoAAAAJAAAALgC9AXQyAADzCwAANgAAAL0KAAAAAAAA"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvSpPr>
@@ -8394,7 +8347,7 @@
         <xdr:cNvSpPr>
           <a:extLst>
             <a:ext uri="smNativeData">
-              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_h5G7ZhMAAAAlAAAAyAAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAAAAAAAAAAAAAEAAABQAAAAd3d3d3d3tz8AAAAAAAAAAAAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAEAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAAAAAAAAeAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAABQAAAAJAAAA+wO6ARUAAAAJAAAA4wJbAqMyAABKEgAAagEAAKIAAAAAAAAA"/>
+              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_YEW8ZhMAAAAlAAAAyAAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAAAAAAAAAAAAAEAAABQAAAAd3d3d3d3tz8AAAAAAAAAAAAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAEAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAAAAAAAAeAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAABQAAAAJAAAA+wO6ARUAAAAJAAAA4wJbAqMyAABKEgAAagEAAKIAAAAAAAAA"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvSpPr>
@@ -8445,7 +8398,7 @@
         <xdr:cNvSpPr>
           <a:extLst>
             <a:ext uri="smNativeData">
-              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_h5G7ZhMAAAAlAAAAyAAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAAAAAAAAAAAAAEAAABQAAAAd3d3d3d3tz8AAAAAAAAAAAAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAEAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAAAAAAAAeAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAABAAAAAJAAAAkQK4AREAAAAJAAAAeQFYAp8yAAB/DgAAZwEAAKIAAAAAAAAA"/>
+              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_YEW8ZhMAAAAlAAAAyAAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAAAAAAAAAAAAAEAAABQAAAAd3d3d3d3tz8AAAAAAAAAAAAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAEAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAAAAAAAAeAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAABAAAAAJAAAAkQK4AREAAAAJAAAAeQFYAp8yAAB/DgAAZwEAAKIAAAAAAAAA"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvSpPr>
@@ -8496,7 +8449,7 @@
         <xdr:cNvSpPr>
           <a:extLst>
             <a:ext uri="smNativeData">
-              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_h5G7ZhMAAAAlAAAAyAAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAAAAAAAAAAAAAEAAABQAAAAqsdjOVh3tz8AAAAAAAAAAAAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAEAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAAAAAAAAeAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAABkAAAAJAAAACAOwARoAAAAJAAAA5wFQAo0yAABwFgAAZwEAAKAAAAAAAAAA"/>
+              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_YEW8ZhMAAAAlAAAAyAAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAAAAAAAAAAAAAEAAABQAAAAqsdjOVh3tz8AAAAAAAAAAAAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAEAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAAAAAAAAeAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAABkAAAAJAAAACAOwARoAAAAJAAAA5wFQAo0yAABwFgAAZwEAAKAAAAAAAAAA"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvSpPr>
@@ -8547,7 +8500,7 @@
         <xdr:cNvSpPr>
           <a:extLst>
             <a:ext uri="smNativeData">
-              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_h5G7ZhMAAAAlAAAACgAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAAAAAAAAAAAAAEAAABQAAAAAAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAAAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAZAAAAAEAAABAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAAAAAAAAeAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAAA0AAAAHAAAAjwHTAiQAAAAHAAAAjgPsAsUoAACqCwAAIwAAAJoUAAAAAAAA"/>
+              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_YEW8ZhMAAAAlAAAACgAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAAAAAAAAAAAAAEAAABQAAAAAAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAAAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAZAAAAAEAAABAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAAAAAAAAeAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAAA0AAAAHAAAAjwHTAiQAAAAHAAAAjgPsAsUoAACqCwAAIwAAAJoUAAAAAAAA"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvSpPr>
@@ -8593,7 +8546,7 @@
         <xdr:cNvSpPr>
           <a:extLst>
             <a:ext uri="smNativeData">
-              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_h5G7ZhMAAAAlAAAAyAAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAAAAAAAAAAAAAEAAABQAAAAnWyQwGV3tz8AAAAAAAAAAAAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAEAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAAAAAAAAeAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAABAAAAAHAAAAIAD3AhAAAAAHAAAACAP1A/goAAD3DQAAZQEAAKIAAAAAAAAA"/>
+              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_YEW8ZhMAAAAlAAAAyAAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAAAAAAAAAAAAAEAAABQAAAAnWyQwGV3tz8AAAAAAAAAAAAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAEAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAAAAAAAAeAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAABAAAAAHAAAAIAD3AhAAAAAHAAAACAP1A/goAAD3DQAAZQEAAKIAAAAAAAAA"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvSpPr>
@@ -8644,7 +8597,7 @@
         <xdr:cNvSpPr>
           <a:extLst>
             <a:ext uri="smNativeData">
-              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_h5G7ZhMAAAAlAAAAyAAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAAAAAAAAAAAAAEAAABQAAAA+502PYd3tz8AAAAAAAAAAAAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAEAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAAAAAAAAeAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAABMAAAAHAAAAXQHoAhQAAAAHAAAARQDnA+IoAADZEAAAaAEAAKIAAAAAAAAA"/>
+              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_YEW8ZhMAAAAlAAAAyAAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAAAAAAAAAAAAAEAAABQAAAA+502PYd3tz8AAAAAAAAAAAAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAEAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAAAAAAAAeAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAABMAAAAHAAAAXQHoAhQAAAAHAAAARQDnA+IoAADZEAAAaAEAAKIAAAAAAAAA"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvSpPr>
@@ -8695,7 +8648,7 @@
         <xdr:cNvSpPr>
           <a:extLst>
             <a:ext uri="smNativeData">
-              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_h5G7ZhMAAAAlAAAAyAAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAAAAAAAAAAAAAEAAABQAAAAdh2uuIJ3tz8AAAAAAAAAAAAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAEAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAAAAAAAAeAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAABYAAAAHAAAA3wLsAhcAAAAHAAAAwgHuA+goAADKEwAAbAEAAKEAAAAAAAAA"/>
+              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_YEW8ZhMAAAAlAAAAyAAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAAAAAAAAAAAAAEAAABQAAAAdh2uuIJ3tz8AAAAAAAAAAAAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAEAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAAAAAAAAeAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAABYAAAAHAAAA3wLsAhcAAAAHAAAAwgHuA+goAADKEwAAbAEAAKEAAAAAAAAA"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvSpPr>
@@ -8746,7 +8699,7 @@
         <xdr:cNvSpPr>
           <a:extLst>
             <a:ext uri="smNativeData">
-              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_h5G7ZhMAAAAlAAAAyAAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAAAAAAAAAAAAAEAAABQAAAA7pvBynF3tz8AAAAAAAAAAAAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAEAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAAAAAAAAeAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAABkAAAAHAAAAdgP8AhoAAAAHAAAAVQL6A/8oAACIFgAAZgEAAKAAAAAAAAAA"/>
+              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_YEW8ZhMAAAAlAAAAyAAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAAAAAAAAAAAAAEAAABQAAAA7pvBynF3tz8AAAAAAAAAAAAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAEAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAAAAAAAAeAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAABkAAAAHAAAAdgP8AhoAAAAHAAAAVQL6A/8oAACIFgAAZgEAAKAAAAAAAAAA"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvSpPr>
@@ -8797,7 +8750,7 @@
         <xdr:cNvSpPr>
           <a:extLst>
             <a:ext uri="smNativeData">
-              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_h5G7ZhMAAAAlAAAAyAAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAAAAAAAAAAAAAEAAABQAAAA+502PYd3tz8AAAAAAAAAAAAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAEAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAAAAAAAAeAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAABwAAAAHAAAAZAPwAh0AAAAHAAAATALwA+4oAAAhGQAAaAEAAKIAAAAAAAAA"/>
+              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_YEW8ZhMAAAAlAAAAyAAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAAAAAAAAAAAAAEAAABQAAAA+502PYd3tz8AAAAAAAAAAAAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAEAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAAAAAAAAeAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAABwAAAAHAAAAZAPwAh0AAAAHAAAATALwA+4oAAAhGQAAaAEAAKIAAAAAAAAA"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvSpPr>
@@ -8848,7 +8801,7 @@
         <xdr:cNvSpPr>
           <a:extLst>
             <a:ext uri="smNativeData">
-              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_h5G7ZhMAAAAlAAAAyAAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAAAAAAAAAAAAAEAAABQAAAA5eEVHH13tz8AAAAAAAAAAAAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAEAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAADfLaSYeAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAACAAAAAHAAAAvwLwAiEAAAAHAAAAogHvA+4oAAB5HAAAZwEAAKEAAAAAAAAA"/>
+              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_YEW8ZhMAAAAlAAAAyAAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAAAAAAAAAAAAAEAAABQAAAA5eEVHH13tz8AAAAAAAAAAAAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAEAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAADfLaSYeAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAACAAAAAHAAAAvwLwAiEAAAAHAAAAogHvA+4oAAB5HAAAZwEAAKEAAAAAAAAA"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvSpPr>
@@ -8899,7 +8852,7 @@
         <xdr:cNvSpPr>
           <a:extLst>
             <a:ext uri="smNativeData">
-              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_h5G7ZhMAAAAlAAAAyAAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAAAAAAAAAAAAAEAAABQAAAAJIA3MJd3tz8AAAAAAAAAAAAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAEAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAAAAAAAAeAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAACQAAAAHAAAA7QDtAiQAAAAHAAAA0gPqA+koAACwHwAAZQEAAKMAAAAAAAAA"/>
+              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_YEW8ZhMAAAAlAAAAyAAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAAAAAAAAAAAAAEAAABQAAAAJIA3MJd3tz8AAAAAAAAAAAAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAEAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAAAAAAAAeAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAACQAAAAHAAAA7QDtAiQAAAAHAAAA0gPqA+koAACwHwAAZQEAAKMAAAAAAAAA"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvSpPr>
@@ -8950,7 +8903,7 @@
         <xdr:cNvSpPr>
           <a:extLst>
             <a:ext uri="smNativeData">
-              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_h5G7ZhMAAAAlAAAACgAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAAAAAAAAAAAAAEAAABQAAAAAAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAAAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAZAAAAAEAAABAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAAAAAAAAeAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAAA0AAAAGAAAAogHeAxoAAAAGAAAAGAH/A6UkAACuCwAAJAAAADULAAAAAAAA"/>
+              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_YEW8ZhMAAAAlAAAACgAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAAAAAAAAAAAAAEAAABQAAAAAAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAAAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAZAAAAAEAAABAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAAAAAAAAeAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAAA0AAAAGAAAAogHeAxoAAAAGAAAAGAH/A6UkAACuCwAAJAAAADULAAAAAAAA"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvSpPr>
@@ -8996,7 +8949,7 @@
         <xdr:cNvSpPr>
           <a:extLst>
             <a:ext uri="smNativeData">
-              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_h5G7ZhMAAAAlAAAAyAAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAAAAAAAAAAAAAEAAABQAAAA5eEVHH13tz8AAAAAAAAAAAAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAEAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAAAAAAAAeAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAABIAAAAGAAAA8AGSAhMAAAAGAAAA2ADeAz0jAAAaEAAAaAEAAKIAAAAAAAAA"/>
+              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_YEW8ZhMAAAAlAAAAyAAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAAAAAAAAAAAAAEAAABQAAAA5eEVHH13tz8AAAAAAAAAAAAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAEAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAAAAAAAAeAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAABIAAAAGAAAA8AGSAhMAAAAGAAAA2ADeAz0jAAAaEAAAaAEAAKIAAAAAAAAA"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvSpPr>
@@ -9047,7 +9000,7 @@
         <xdr:cNvSpPr>
           <a:extLst>
             <a:ext uri="smNativeData">
-              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_h5G7ZhMAAAAlAAAAyAAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAAAAAAAAAAAAAEAAABQAAAA5eEVHH13tz8AAAAAAAAAAAAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAEAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAAAAAAAAeAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAAA8AAAAGAAAA9QG4AhAAAAAHAAAA2AACAGYjAAB+DQAAZwEAAKEAAAAAAAAA"/>
+              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_YEW8ZhMAAAAlAAAAyAAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAAAAAAAAAAAAAEAAABQAAAA5eEVHH13tz8AAAAAAAAAAAAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAEAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAAAAAAAAeAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAAA8AAAAGAAAA9QG4AhAAAAAHAAAA2AACAGYjAAB+DQAAZwEAAKEAAAAAAAAA"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvSpPr>
@@ -9098,7 +9051,7 @@
         <xdr:cNvSpPr>
           <a:extLst>
             <a:ext uri="smNativeData">
-              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_h5G7ZhMAAAAlAAAAyAAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAAAAAAAAAAAAAEAAABQAAAA+502PYd3tz8AAAAAAAAAAAAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAEAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAADhdf60eAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAABUAAAAGAAAAGgOUAhYAAAAGAAAAAgLgAz8jAAD4EgAAaAEAAKIAAAAAAAAA"/>
+              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_YEW8ZhMAAAAlAAAAyAAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAAAAAAAAAAAAAEAAABQAAAA+502PYd3tz8AAAAAAAAAAAAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAEAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAADhdf60eAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAABUAAAAGAAAAGgOUAhYAAAAGAAAAAgLgAz8jAAD4EgAAaAEAAKIAAAAAAAAA"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvSpPr>
@@ -9149,7 +9102,7 @@
         <xdr:cNvSpPr>
           <a:extLst>
             <a:ext uri="smNativeData">
-              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_h5G7ZhMAAAAlAAAAyAAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAAAAAAAAAAAAAEAAABQAAAAdh2uuIJ3tz8AAAAAAAAAAAAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAEAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAAAAAAAAeAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAABkAAAAGAAAAogGfAhoAAAAGAAAAigDrA0sjAAAiFgAAaAEAAKIAAAAAAAAA"/>
+              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_YEW8ZhMAAAAlAAAAyAAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAAAAAAAAAAAAAEAAABQAAAAdh2uuIJ3tz8AAAAAAAAAAAAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAEAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAAAAAAAAeAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAABkAAAAGAAAAogGfAhoAAAAGAAAAigDrA0sjAAAiFgAAaAEAAKIAAAAAAAAA"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvSpPr>
@@ -9200,7 +9153,7 @@
         <xdr:cNvSpPr>
           <a:extLst>
             <a:ext uri="smNativeData">
-              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_h5G7ZhMAAAAlAAAACgAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAAAAAAAAAAAAAEAAABQAAAAAAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAAAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAZAAAAAEAAABAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAAAAAAAAeAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAAAgAAAADAAAAjQMiAwkAAAAJAAAAAABvAZQTAAC+BwAAZx4AABkAAAAAAAAA"/>
+              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_YEW8ZhMAAAAlAAAACgAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAAAAAAAAAAAAAEAAABQAAAAAAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAAAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAZAAAAAEAAABAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAAAAAAAAeAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAAAgAAAADAAAAjQMiAwkAAAAJAAAAAABvAZQTAAC+BwAAZx4AABkAAAAAAAAA"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvSpPr>
@@ -9246,7 +9199,7 @@
         <xdr:cNvSpPr>
           <a:extLst>
             <a:ext uri="smNativeData">
-              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_h5G7ZhMAAAAlAAAAywAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAAAAAAAAAAAAAEAAABQAAAAH/T8Ift5zj+SkbOwpx2uPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAEAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAAAAAAAAeAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAAAcAAAAFAAAAGgPBAwgAAAAGAAAAyQN9AAAgAADGBgAA+wAAAAUBAAAAAAAA"/>
+              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_YEW8ZhMAAAAlAAAAywAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAAAAAAAAAAAAAEAAABQAAAAH/T8Ift5zj+SkbOwpx2uPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAEAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAAAAAAAAeAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAAAcAAAAFAAAAGgPBAwgAAAAGAAAAyQN9AAAgAADGBgAA+wAAAAUBAAAAAAAA"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvSpPr>
@@ -9298,7 +9251,7 @@
           <a:stCxn id="104" idx="0"/>
           <a:extLst>
             <a:ext uri="smNativeData">
-              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_h5G7ZhMAAAAlAAAADQAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAAAAAAAAAAAAAEAAABQAAAAAAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAAAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAZAAAAAEAAABAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAAAAAAAAeAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAAA0AAAAEAAAAwwIZAhkAAAAEAAAAowIoAgUXAADtCwAAEAAAAG0KAAAAAAAA"/>
+              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_YEW8ZhMAAAAlAAAADQAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAAAAAAAAAAAAAEAAABQAAAAAAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAAAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAZAAAAAEAAABAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAAAAAAAAeAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAAA0AAAAEAAAAwwIZAhkAAAAEAAAAowIoAgUXAADtCwAAEAAAAG0KAAAAAAAA"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvCxnSpPr>
@@ -9344,7 +9297,7 @@
         <xdr:cNvSpPr>
           <a:extLst>
             <a:ext uri="smNativeData">
-              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_h5G7ZhMAAAAlAAAAyAAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAAAAAAAAAAAAAEAAABQAAAAGH6GRo13tz8AAAAAAAAAAAAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAEAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAAAAAAAAeAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAAA8AAAAEAAAA2wPjABAAAAAEAAAAugItArUVAADoDQAAZgEAAKAAAAAAAAAA"/>
+              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_YEW8ZhMAAAAlAAAAyAAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAAAAAAAAAAAAAEAAABQAAAAGH6GRo13tz8AAAAAAAAAAAAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAEAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAAAAAAAAeAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAAA8AAAAEAAAA2wPjABAAAAAEAAAAugItArUVAADoDQAAZgEAAKAAAAAAAAAA"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvSpPr>
@@ -9395,7 +9348,7 @@
         <xdr:cNvSpPr>
           <a:extLst>
             <a:ext uri="smNativeData">
-              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_h5G7ZhMAAAAlAAAAyAAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAAAAAAAAAAAAAEAAABQAAAA+502PYd3tz8AAAAAAAAAAAAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAEAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAAAAAAAAeAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAABIAAAAEAAAAsgO9ABMAAAAEAAAAlQIIAowVAAB8EAAAZwEAAKEAAAAAAAAA"/>
+              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_YEW8ZhMAAAAlAAAAyAAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAAAAAAAAAAAAAEAAABQAAAA+502PYd3tz8AAAAAAAAAAAAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAEAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAAAAAAAAeAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAABIAAAAEAAAAsgO9ABMAAAAEAAAAlQIIAowVAAB8EAAAZwEAAKEAAAAAAAAA"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvSpPr>
@@ -9446,7 +9399,7 @@
         <xdr:cNvSpPr>
           <a:extLst>
             <a:ext uri="smNativeData">
-              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_h5G7ZhMAAAAlAAAAyAAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAAAAAAAAAAAAAEAAABQAAAA+502PYd3tz8AAAAAAAAAAAAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAEAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAAAAAAAAeAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAABUAAAAEAAAAEQO1ABYAAAAEAAAA9QEBAoMVAAD2EgAAaAEAAKEAAAAAAAAA"/>
+              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_YEW8ZhMAAAAlAAAAyAAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAAAAAAAAAAAAAEAAABQAAAA+502PYd3tz8AAAAAAAAAAAAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAEAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAAAAAAAAeAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAABUAAAAEAAAAEQO1ABYAAAAEAAAA9QEBAoMVAAD2EgAAaAEAAKEAAAAAAAAA"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvSpPr>
@@ -9497,7 +9450,7 @@
         <xdr:cNvSpPr>
           <a:extLst>
             <a:ext uri="smNativeData">
-              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_h5G7ZhMAAAAlAAAAyAAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAAAAAAAAAAAAAEAAABQAAAAd3d3d3d3tz8AAAAAAAAAAAAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAEAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAAAAAAAAeAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAABgAAAAEAAAA1wOyABkAAAAEAAAAvwL7AYAVAAC+FQAAZQEAAKIAAAAAAAAA"/>
+              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_YEW8ZhMAAAAlAAAAyAAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAAAAAAAAAAAAAEAAABQAAAAd3d3d3d3tz8AAAAAAAAAAAAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAEAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAAAAAAAAeAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAABgAAAAEAAAA1wOyABkAAAAEAAAAvwL7AYAVAAC+FQAAZQEAAKIAAAAAAAAA"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvSpPr>
@@ -9549,7 +9502,7 @@
           <a:endCxn id="63" idx="0"/>
           <a:extLst>
             <a:ext uri="smNativeData">
-              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_h5G7ZhMAAAAlAAAADQAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAAAAAAAAAAAAAEAAABQAAAAAAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAAAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAZAAAAAEAAABAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAAAAAAAAeAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAAAgAAAAKAAAAoAN9AggAAAAMAAAAyQOcAXA6AADCBwAAuQcAAAkAAAAAAAAA"/>
+              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_YEW8ZhMAAAAlAAAADQAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAAAAAAAAAAAAAEAAABQAAAAAAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAAAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAZAAAAAEAAABAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAAAAAAAAeAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAAAgAAAAKAAAAoAN9AggAAAAMAAAAyQOcAXA6AADCBwAAuQcAAAkAAAAAAAAA"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvCxnSpPr>
@@ -9579,31 +9532,32 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>161925</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>78105</xdr:rowOff>
+      <xdr:colOff>132715</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>45720</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>176530</xdr:colOff>
+      <xdr:colOff>140970</xdr:colOff>
       <xdr:row>25</xdr:row>
-      <xdr:rowOff>137160</xdr:rowOff>
+      <xdr:rowOff>50165</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
         <xdr:cNvPr id="121" name="Соединительная линия6"/>
         <xdr:cNvCxnSpPr>
+          <a:endCxn id="119" idx="0"/>
           <a:extLst>
             <a:ext uri="smNativeData">
-              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_h5G7ZhMAAAAlAAAADQAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAAAAAAAAAAAAAEAAABQAAAAAAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAAAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAZAAAAAEAAABAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAAAAAAAAeAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAAAwAAAAPAAAANQJ6ABkAAAAPAAAA4AOFADdQAADvCgAAFwAAALALAAAAAAAA"/>
+              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_YEW8ZhMAAAAlAAAADQAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAAAAAAAAAAAAAEAAABQAAAAAAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAAAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAZAAAAAEAAABAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAAAAAAAAeAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAAA4AAAAPAAAASwFkABkAAAAPAAAAagFqAAlQAAB6DAAADQAAAJwJAAAAAAAA"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm rot="16200000" flipH="1">
-          <a:off x="13039725" y="1777365"/>
-          <a:ext cx="14605" cy="1899920"/>
+          <a:off x="13010515" y="2028190"/>
+          <a:ext cx="8255" cy="1562100"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -9625,15 +9579,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>912495</xdr:colOff>
+      <xdr:colOff>902335</xdr:colOff>
       <xdr:row>20</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:rowOff>92710</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>139700</xdr:colOff>
+      <xdr:colOff>130175</xdr:colOff>
       <xdr:row>21</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:rowOff>54610</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" fLocksText="0">
       <xdr:nvSpPr>
@@ -9641,20 +9595,20 @@
         <xdr:cNvSpPr>
           <a:extLst>
             <a:ext uri="smNativeData">
-              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_h5G7ZhMAAAAlAAAAyAAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAAAAAAAAAAAAAEAAABQAAAAAAAAAAAAAACy9KEL6lvuPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAEAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAAAAAAAAeAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAABQAAAAOAAAAOwOpAxUAAAAPAAAAJwJpALNOAAAgEgAAYQEAAKMAAAAAAAAA"/>
+              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_YEW8ZhMAAAAlAAAAyAAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAAAAAAAAAAAAAEAAABQAAAAAAAAAAAAAACy9KEL6lvuPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAEAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAAAAAAAAeAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAABQAAAAOAAAAnwKfAxUAAAAPAAAAigFiAKNOAAD+EQAAYgEAAKMAAAAAAAAA"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvSpPr>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm rot="10800000">
-          <a:off x="12793345" y="2946400"/>
-          <a:ext cx="224155" cy="103505"/>
+          <a:off x="12783185" y="2924810"/>
+          <a:ext cx="224790" cy="103505"/>
         </a:xfrm>
         <a:prstGeom prst="rightArrow">
           <a:avLst>
             <a:gd name="adj1" fmla="val 94872"/>
-            <a:gd name="adj2" fmla="val 216564"/>
+            <a:gd name="adj2" fmla="val 217178"/>
           </a:avLst>
         </a:prstGeom>
         <a:solidFill>
@@ -9676,15 +9630,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>922655</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>46990</xdr:rowOff>
+      <xdr:colOff>912495</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>90170</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>149860</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>6985</xdr:rowOff>
+      <xdr:colOff>140970</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>50165</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" fLocksText="0">
       <xdr:nvSpPr>
@@ -9692,20 +9646,20 @@
         <xdr:cNvSpPr>
           <a:extLst>
             <a:ext uri="smNativeData">
-              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_h5G7ZhMAAAAlAAAAyAAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAAAAAAAAAAAAAEAAABQAAAAAAAAAAAAAACy9KEL6lvuPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAEAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAAAAAAAAeAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAABkAAAAOAAAAVAG0AxoAAAAPAAAAMwBxAMNOAAARFgAAYQEAAKAAAAAAAAAA"/>
+              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_YEW8ZhMAAAAlAAAAyAAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAAAAAAAAAAAAAEAAABQAAAAAAAAAAAAAACy9KEL6lvuPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAEAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAAAAAAAAeAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAABgAAAAOAAAAjQKpAxkAAAAPAAAAagFqALNOAAB2FQAAYwEAAKAAAAAAAAAA"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvSpPr>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm rot="10800000">
-          <a:off x="12803505" y="3587115"/>
-          <a:ext cx="224155" cy="101600"/>
+          <a:off x="12793345" y="3488690"/>
+          <a:ext cx="225425" cy="101600"/>
         </a:xfrm>
         <a:prstGeom prst="rightArrow">
           <a:avLst>
             <a:gd name="adj1" fmla="val 94872"/>
-            <a:gd name="adj2" fmla="val 220625"/>
+            <a:gd name="adj2" fmla="val 221875"/>
           </a:avLst>
         </a:prstGeom>
         <a:solidFill>
@@ -9729,11 +9683,11 @@
       <xdr:col>15</xdr:col>
       <xdr:colOff>678180</xdr:colOff>
       <xdr:row>13</xdr:row>
-      <xdr:rowOff>4445</xdr:rowOff>
+      <xdr:rowOff>69850</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>707390</xdr:colOff>
+      <xdr:colOff>697230</xdr:colOff>
       <xdr:row>26</xdr:row>
       <xdr:rowOff>71755</xdr:rowOff>
     </xdr:to>
@@ -9744,15 +9698,15 @@
           <a:stCxn id="95" idx="0"/>
           <a:extLst>
             <a:ext uri="smNativeData">
-              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_h5G7ZhMAAAAlAAAADQAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAAAAAAAAAAAAAEAAABQAAAAAAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAAAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAZAAAAAEAAABAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAAAAAAAAeAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAAA0AAAAPAAAAIAD/ARoAAAAPAAAABwIVAmRTAABaCwAALgAAAL0LAAAAAAAA"/>
+              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_YEW8ZhMAAAAlAAAADQAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAAAAAAAAAAAAAEAAABQAAAAAAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAAAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAZAAAAAEAAABAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAAAAAAAAeAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAAA0AAAAPAAAA+QH/ARoAAAAPAAAABwINAmRTAADBCwAAHgAAAFYLAAAAAAAA"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm rot="5400000">
-          <a:off x="13555980" y="1845310"/>
-          <a:ext cx="29210" cy="1908175"/>
+          <a:off x="13555980" y="1910715"/>
+          <a:ext cx="19050" cy="1842770"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -9790,7 +9744,7 @@
         <xdr:cNvSpPr>
           <a:extLst>
             <a:ext uri="smNativeData">
-              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_h5G7ZhMAAAAlAAAAyAAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAAAAAAAAAAAAAEAAABQAAAAnWyQwGV3tz8AAAAAAAAAAAAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAEAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAAAAAAAAeAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAABAAAAAPAAAAcgMOAhEAAAAPAAAAVQK5AoRTAACwDgAAZQEAAKEAAAAAAAAA"/>
+              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_YEW8ZhMAAAAlAAAAyAAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAAAAAAAAAAAAAEAAABQAAAAnWyQwGV3tz8AAAAAAAAAAAAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAEAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAAAAAAAAeAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAABAAAAAPAAAAcgMOAhEAAAAPAAAAVQK5AoRTAACwDgAAZQEAAKEAAAAAAAAA"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvSpPr>
@@ -9841,7 +9795,7 @@
         <xdr:cNvSpPr>
           <a:extLst>
             <a:ext uri="smNativeData">
-              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_h5G7ZhMAAAAlAAAAyAAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAAAAAAAAAAAAAEAAABQAAAA5eEVHH13tz8AAAAAAAAAAAAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAEAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAAAAAAAAeAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAABQAAAAPAAAAMQMUAhUAAAAPAAAAFQK/ApBTAAAeEgAAZgEAAKEAAAAAAAAA"/>
+              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_YEW8ZhMAAAAlAAAAyAAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAAAAAAAAAAAAAEAAABQAAAA5eEVHH13tz8AAAAAAAAAAAAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAEAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAAAAAAAAeAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAABQAAAAPAAAAMQMUAhUAAAAPAAAAFQK/ApBTAAAeEgAAZgEAAKEAAAAAAAAA"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvSpPr>
@@ -9892,7 +9846,7 @@
         <xdr:cNvSpPr>
           <a:extLst>
             <a:ext uri="smNativeData">
-              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_h5G7ZhMAAAAlAAAAyAAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAAAAAAAAAAAAAEAAABQAAAAZ9viFWx3tz8AAAAAAAAAAAAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAEAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAAAAAAAAeAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAABoAAAAPAAAAAAABAhoAAAAPAAAA4wKrAmlTAACmFgAAYwEAAKEAAAAAAAAA"/>
+              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_YEW8ZhMAAAAlAAAAyAAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAAAAAAAAAAAAAEAAABQAAAAZ9viFWx3tz8AAAAAAAAAAAAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAEAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAAAAAAAAeAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAABoAAAAPAAAAAAABAhoAAAAPAAAA4wKrAmlTAACmFgAAYwEAAKEAAAAAAAAA"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvSpPr>
@@ -9943,7 +9897,7 @@
         <xdr:cNvCxnSpPr>
           <a:extLst>
             <a:ext uri="smNativeData">
-              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_h5G7ZhMAAAAlAAAADQAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAAAAAAAAAAAAAEAAABQAAAAAAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAAAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAZAAAAAEAAABAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAAAAAAAAeAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAAAgAAAANAAAAyQMABAkAAAAQAAAAEgAKABZJAADLBwAAoA4AABAAAAAAAAAA"/>
+              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_YEW8ZhMAAAAlAAAADQAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAAAAAAAAAAAAAEAAABQAAAAAAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAAAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAZAAAAAEAAABAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAAAAAAAAeAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAAAgAAAANAAAAyQMABAkAAAAQAAAAEgAKABZJAADLBwAAoA4AABAAAAAAAAAA"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvCxnSpPr>
@@ -9989,7 +9943,7 @@
         <xdr:cNvSpPr>
           <a:extLst>
             <a:ext uri="smNativeData">
-              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_h5G7ZhMAAAAlAAAAywAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAAAAAAAAAAAAAEAAABQAAAAH/T8Ift5zj+SkbOwpx2uPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAEAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAAGlkdGgeAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAAAIAAAANAAAArAJJAAMAAAANAAAAWwM0AQ9FAABTAgAA/wAAAAUBAAAAAAAA"/>
+              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_YEW8ZhMAAAAlAAAAywAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAAAAAAAAAAAAAEAAABQAAAAH/T8Ift5zj+SkbOwpx2uPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAEAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAAGlkdGgeAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAAAIAAAANAAAArAJJAAMAAAANAAAAWwM0AQ9FAABTAgAA/wAAAAUBAAAAAAAA"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvSpPr>
@@ -10040,7 +9994,7 @@
         <xdr:cNvSpPr>
           <a:extLst>
             <a:ext uri="smNativeData">
-              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_h5G7ZhMAAAAlAAAAywAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAAAAAAAAAAAAAEAAABQAAAALuC/X/N5zj+SkbOwpx2uPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAEAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAAHI9IkUeAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAAAMAAAAFAAAA6QOsAwUAAAAGAAAAnABcANkfAAB3AwAA/wAAAAYBAAAAAAAA"/>
+              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_YEW8ZhMAAAAlAAAAywAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAAAAAAAAAAAAAEAAABQAAAALuC/X/N5zj+SkbOwpx2uPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAEAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAAHI9IkUeAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAAAMAAAAFAAAA6QOsAwUAAAAGAAAAnABcANkfAAB3AwAA/wAAAAYBAAAAAAAA"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvSpPr>
@@ -10091,7 +10045,7 @@
         <xdr:cNvSpPr>
           <a:extLst>
             <a:ext uri="smNativeData">
-              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_h5G7ZhMAAAAlAAAAywAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAAAAAAAAAAAAAEAAABQAAAAH/T8Ift5zj+SkbOwpx2uPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAEAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAACI+PHYeAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAAAMAAAALAAAAtwNzAgUAAAALAAAAZQBfA7w+AABsAwAA/wAAAAUBAAAAAAAA"/>
+              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_YEW8ZhMAAAAlAAAAywAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAAAAAAAAAAAAAEAAABQAAAAH/T8Ift5zj+SkbOwpx2uPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAEAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAACI+PHYeAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAAAMAAAALAAAAtwNzAgUAAAALAAAAZQBfA7w+AABsAwAA/wAAAAUBAAAAAAAA"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvSpPr>
@@ -10142,7 +10096,7 @@
         <xdr:cNvSpPr>
           <a:extLst>
             <a:ext uri="smNativeData">
-              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_h5G7ZhMAAAAlAAAAywAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAAAAAAAAAAAAAEAAABQAAAApdSyzA56zj+SkbOwpx2uPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAEAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAAD0iQzYeAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAAAMAAAAOAAAA1wOHAwUAAAAPAAAAhQAfAH5OAABzAwAA+wAAAAUBAAAAAAAA"/>
+              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_YEW8ZhMAAAAlAAAAywAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAAAAAAAAAAAAAEAAABQAAAApdSyzA56zj+SkbOwpx2uPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAEAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAAD0iQzYeAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAAAMAAAAOAAAA1wOHAwUAAAAPAAAAhQAfAH5OAABzAwAA+wAAAAUBAAAAAAAA"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvSpPr>
@@ -10193,7 +10147,7 @@
         <xdr:cNvSpPr>
           <a:extLst>
             <a:ext uri="smNativeData">
-              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_h5G7ZhMAAAAlAAAAywAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAAAAAAAAAAAAAEAAABQAAAApdSyzA56zj+SkbOwpx2uPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAEAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAADRhYzoeAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAAAcAAAAOAAAA3ACQAwgAAAAPAAAAiwEmAIxOAABJBgAA+wAAAAUBAAAAAAAA"/>
+              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_YEW8ZhMAAAAlAAAAywAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAAAAAAAAAAAAAEAAABQAAAApdSyzA56zj+SkbOwpx2uPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAEAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAADRhYzoeAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAAAcAAAAOAAAA3ACQAwgAAAAPAAAAiwEmAIxOAABJBgAA+wAAAAUBAAAAAAAA"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvSpPr>
@@ -10244,7 +10198,7 @@
         <xdr:cNvSpPr>
           <a:extLst>
             <a:ext uri="smNativeData">
-              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_h5G7ZhMAAAAlAAAAywAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAAAAAAAAAAAAAEAAABQAAAAKv77W8R5zj+SkbOwpx2uPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAEAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAAD0iaHQeAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAAAcAAAALAAAAdgMQAgkAAAALAAAAIAD6AlA+AADaBgAA/gAAAAQBAAAAAAAA"/>
+              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_YEW8ZhMAAAAlAAAAywAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAAAAAAAAAAAAAEAAABQAAAAKv77W8R5zj+SkbOwpx2uPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAEAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAAD0iaHQeAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAAAcAAAALAAAAdgMQAgkAAAALAAAAIAD6AlA+AADaBgAA/gAAAAQBAAAAAAAA"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvSpPr>
@@ -10295,7 +10249,7 @@
         <xdr:cNvSpPr>
           <a:extLst>
             <a:ext uri="smNativeData">
-              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_h5G7ZhMAAAAlAAAAywAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAAAAAAAAAAAAAEAAABQAAAAYZo95/p5zj+SkbOwpx2uPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAEAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAAD0iRTEeAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAAA0AAAAGAAAAAABZAw4AAAAHAAAArgAyABUkAABTCwAA+wAAAAUBAAAAAAAA"/>
+              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_YEW8ZhMAAAAlAAAAywAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAAAAAAAAAAAAAEAAABQAAAAYZo95/p5zj+SkbOwpx2uPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAEAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAAD0iRTEeAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAAA0AAAAGAAAAAABZAw4AAAAHAAAArgAyABUkAABTCwAA+wAAAAUBAAAAAAAA"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvSpPr>
@@ -10346,7 +10300,7 @@
         <xdr:cNvSpPr>
           <a:extLst>
             <a:ext uri="smNativeData">
-              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_h5G7ZhMAAAAlAAAAywAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAAAAAAAAAAAAAEAAABQAAAA8PXYwN95zj+SkbOwpx2uPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAEAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAAD0iRTMeAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAAA0AAAAHAAAANAGLAg4AAAAHAAAA2QFAA18oAACWCwAA/wAAAAMBAAAAAAAA"/>
+              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_YEW8ZhMAAAAlAAAAywAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAAAAAAAAAAAAAEAAABQAAAA8PXYwN95zj+SkbOwpx2uPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAEAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAAD0iRTMeAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAAA0AAAAHAAAANAGLAg4AAAAHAAAA2QFAA18oAACWCwAA/wAAAAMBAAAAAAAA"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvSpPr>
@@ -10397,7 +10351,7 @@
         <xdr:cNvSpPr>
           <a:extLst>
             <a:ext uri="smNativeData">
-              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_h5G7ZhMAAAAlAAAAywAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAAAAAAAAAAAAAEAAABQAAAA3Xf5NNB5zj+SkbOwpx2uPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAEAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAAHM9IjIeAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAAA0AAAAJAAAAyQNwAQ8AAAAJAAAAbgDhAf0xAAAmDAAA/gAAAAMBAAAAAAAA"/>
+              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_YEW8ZhMAAAAlAAAAywAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAAAAAAAAAAAAAEAAABQAAAA3Xf5NNB5zj+SkbOwpx2uPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAEAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAAHM9IjIeAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAAA0AAAAJAAAAyQNwAQ8AAAAJAAAAbgDhAf0xAAAmDAAA/gAAAAMBAAAAAAAA"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvSpPr>
@@ -10448,7 +10402,7 @@
         <xdr:cNvSpPr>
           <a:extLst>
             <a:ext uri="smNativeData">
-              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_h5G7ZhMAAAAlAAAAywAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAAAAAAAAAAAAAEAAABQAAAAF1mBbO95zj+SkbOwpx2uPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAEAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAADYiIHQeAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAAA0AAAAEAAAAwwKkAQ4AAAAEAAAAbQOOAoYWAADtCwAA/gAAAAQBAAAAAAAA"/>
+              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_YEW8ZhMAAAAlAAAAywAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAAAAAAAAAAAAAEAAABQAAAAF1mBbO95zj+SkbOwpx2uPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAEAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAADYiIHQeAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAAA0AAAAEAAAAwwKkAQ4AAAAEAAAAbQOOAoYWAADtCwAA/gAAAAQBAAAAAAAA"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvSpPr>
@@ -10499,7 +10453,7 @@
         <xdr:cNvSpPr>
           <a:extLst>
             <a:ext uri="smNativeData">
-              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_h5G7ZhMAAAAlAAAAywAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAAAAAAAAAAAAAEAAABQAAAAF1mBbO95zj+SkbOwpx2uPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAEAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAAG50PSIeAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAAAgAAAADAAAAjQPqAgoAAAAEAAAANwCJAEkTAAC+BwAACwIAAAQBAAAAAAAA"/>
+              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_YEW8ZhMAAAAlAAAAywAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAAAAAAAAAAAAAEAAABQAAAAF1mBbO95zj+SkbOwpx2uPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAEAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAAG50PSIeAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAAAgAAAADAAAAjQPqAgoAAAAEAAAANwCJAEkTAAC+BwAACwIAAAQBAAAAAAAA"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvSpPr>
@@ -10550,7 +10504,7 @@
         <xdr:cNvSpPr>
           <a:extLst>
             <a:ext uri="smNativeData">
-              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_h5G7ZhMAAAAlAAAAywAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAAAAAAAAAAAAAEAAABQAAAAKv77W8R5zj+SkbOwpx2uPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAEAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAADx2PjIeAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAAAgAAAAFAAAAewNTAQoAAAAFAAAAJQDdAYYbAAC6BwAA/gAAAAQBAAAAAAAA"/>
+              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_YEW8ZhMAAAAlAAAAywAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAAAAAAAAAAAAAEAAABQAAAAKv77W8R5zj+SkbOwpx2uPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAEAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAADx2PjIeAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAAAgAAAAFAAAAewNTAQoAAAAFAAAAJQDdAYYbAAC6BwAA/gAAAAQBAAAAAAAA"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvSpPr>
@@ -10601,7 +10555,7 @@
         <xdr:cNvSpPr>
           <a:extLst>
             <a:ext uri="smNativeData">
-              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_h5G7ZhMAAAAlAAAAywAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAAAAAAAAAAAAAEAAABQAAAAgYOU8f55zj+SkbOwpx2uPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAEAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAAG93IHIeAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAAAgAAAAGAAAAoANXAgoAAAAGAAAATgBBA/0iAADCBwAA/gAAAAUBAAAAAAAA"/>
+              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_YEW8ZhMAAAAlAAAAywAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAAAAAAAAAAAAAEAAABQAAAAgYOU8f55zj+SkbOwpx2uPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAEAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAAG93IHIeAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAAAgAAAAGAAAAoANXAgoAAAAGAAAATgBBA/0iAADCBwAA/gAAAAUBAAAAAAAA"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvSpPr>
@@ -10652,7 +10606,7 @@
         <xdr:cNvSpPr>
           <a:extLst>
             <a:ext uri="smNativeData">
-              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_h5G7ZhMAAAAlAAAAywAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAAAAAAAAAAAAAEAAABQAAAAF1mBbO95zj+SkbOwpx2uPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAEAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAAG50PSIeAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAAAkAAAAHAAAAAACdAwoAAAAIAAAAqgBtAOEpAADXBwAAAgEAAAQBAAAAAAAA"/>
+              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_YEW8ZhMAAAAlAAAAywAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAAAAAAAAAAAAAEAAABQAAAAF1mBbO95zj+SkbOwpx2uPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAEAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAAG50PSIeAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAAAkAAAAHAAAAAACdAwoAAAAIAAAAqgBtAOEpAADXBwAAAgEAAAQBAAAAAAAA"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvSpPr>
@@ -10703,7 +10657,7 @@
         <xdr:cNvSpPr>
           <a:extLst>
             <a:ext uri="smNativeData">
-              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_h5G7ZhMAAAAlAAAAywAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAAAAAAAAAAAAAEAAABQAAAAKv77W8R5zj+SkbOwpx2uPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAEAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAAHY+PC8eAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAAAgAAAAJAAAA7gMqAQoAAAAJAAAAmACbAWAxAADTBwAA/gAAAAQBAAAAAAAA"/>
+              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_YEW8ZhMAAAAlAAAAywAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAAAAAAAAAAAAAEAAABQAAAAKv77W8R5zj+SkbOwpx2uPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAEAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAAHY+PC8eAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAAAgAAAAJAAAA7gMqAQoAAAAJAAAAmACbAWAxAADTBwAA/gAAAAQBAAAAAAAA"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvSpPr>
@@ -10754,7 +10708,7 @@
         <xdr:cNvSpPr>
           <a:extLst>
             <a:ext uri="smNativeData">
-              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_h5G7ZhMAAAAlAAAAywAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAAAAAAAAAAAAAEAAABQAAAAgYOU8f55zj+SkbOwpx2uPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAEAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAADxjIHIeAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAAAgAAAANAAAAoAOVAwoAAAAOAAAATgBaAKJIAADCBwAA/gAAAAUBAAAAAAAA"/>
+              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_YEW8ZhMAAAAlAAAAywAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAAAAAAAAAAAAAEAAABQAAAAgYOU8f55zj+SkbOwpx2uPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAEAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAADxjIHIeAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAAAgAAAANAAAAoAOVAwoAAAAOAAAATgBaAKJIAADCBwAA/gAAAAUBAAAAAAAA"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvSpPr>
@@ -10805,7 +10759,7 @@
         <xdr:cNvSpPr>
           <a:extLst>
             <a:ext uri="smNativeData">
-              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_h5G7ZhMAAAAlAAAAywAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAAAAAAAAAAAAAEAAABQAAAApdSyzA56zj+SkbOwpx2uPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAEAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAAHI9IkIeAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAAAgAAAAPAAAAfwMMAAoAAAAPAAAALgCEAFFPAAC7BwAA+wAAAAUBAAAAAAAA"/>
+              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_YEW8ZhMAAAAlAAAAywAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAAAAAAAAAAAAAEAAABQAAAApdSyzA56zj+SkbOwpx2uPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAEAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAAHI9IkIeAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAAAgAAAAPAAAAfwMMAAoAAAAPAAAALgCEAFFPAAC7BwAA+wAAAAUBAAAAAAAA"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvSpPr>
@@ -10856,7 +10810,7 @@
         <xdr:cNvSpPr>
           <a:extLst>
             <a:ext uri="smNativeData">
-              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_h5G7ZhMAAAAlAAAAywAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAAAAAAAAAAAAAEAAABQAAAAKv77W8R5zj+SkbOwpx2uPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAEAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAADx2PjIeAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAAAgAAAAPAAAAOwOuAwkAAAAQAAAA5AMZAOpWAACsBwAA/wAAAAQBAAAAAAAA"/>
+              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_YEW8ZhMAAAAlAAAAywAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAAAAAAAAAAAAAEAAABQAAAAKv77W8R5zj+SkbOwpx2uPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAEAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAADx2PjIeAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAAAgAAAAPAAAAOwOuAwkAAAAQAAAA5AMZAOpWAACsBwAA/wAAAAQBAAAAAAAA"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvSpPr>
@@ -10891,15 +10845,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>626745</xdr:colOff>
+      <xdr:colOff>615950</xdr:colOff>
       <xdr:row>13</xdr:row>
-      <xdr:rowOff>4445</xdr:rowOff>
+      <xdr:rowOff>69850</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>788670</xdr:colOff>
+      <xdr:colOff>777875</xdr:colOff>
       <xdr:row>14</xdr:row>
-      <xdr:rowOff>29845</xdr:rowOff>
+      <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" fLocksText="0">
       <xdr:nvSpPr>
@@ -10907,14 +10861,14 @@
         <xdr:cNvSpPr>
           <a:extLst>
             <a:ext uri="smNativeData">
-              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_h5G7ZhMAAAAlAAAAywAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAAAAAAAAAAAAAEAAABQAAAAH/T8Ift5zj+SkbOwpx2uPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAEAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAACB4MTQeAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAAA0AAAAPAAAAIADYAQ4AAAAPAAAA2ABSAhNTAABaCwAA/wAAAAcBAAAAAAAA"/>
+              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_YEW8ZhMAAAAlAAAAywAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAAAAAAAAAAAAAEAAABQAAAAH/T8Ift5zj+SkbOwpx2uPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAEAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAACB4MTQeAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAAA0AAAAPAAAA+QHQAQ4AAAAPAAAAsQJKAgJTAADBCwAA/wAAAAcBAAAAAAAA"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvSpPr>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="13504545" y="1845310"/>
+          <a:off x="13493750" y="1910715"/>
           <a:ext cx="161925" cy="167005"/>
         </a:xfrm>
         <a:prstGeom prst="downArrow">
@@ -10942,15 +10896,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>66675</xdr:colOff>
+      <xdr:colOff>43815</xdr:colOff>
       <xdr:row>13</xdr:row>
-      <xdr:rowOff>60960</xdr:rowOff>
+      <xdr:rowOff>61595</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>228600</xdr:colOff>
+      <xdr:colOff>205740</xdr:colOff>
       <xdr:row>14</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
+      <xdr:rowOff>86360</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" fLocksText="0">
       <xdr:nvSpPr>
@@ -10958,14 +10912,14 @@
         <xdr:cNvSpPr>
           <a:extLst>
             <a:ext uri="smNativeData">
-              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_h5G7ZhMAAAAlAAAAywAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAAAAAAAAAAAAAEAAABQAAAADoX/1wZ6zj+SkbOwpx2uPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAEAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAACI2OCIeAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAAA0AAAAPAAAAuQEyAA4AAAAPAAAAbAKsAKFPAACzCwAA/wAAAAYBAAAAAAAA"/>
+              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_YEW8ZhMAAAAlAAAAywAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAAAAAAAAAAAAAEAAABQAAAADoX/1wZ6zj+SkbOwpx2uPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAEAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAACI2OCIeAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAAA0AAAAPAAAAvwEhAA4AAAAPAAAAcgKbAH1PAAC0CwAA/wAAAAYBAAAAAAAA"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvSpPr>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="12944475" y="1901825"/>
+          <a:off x="12921615" y="1902460"/>
           <a:ext cx="161925" cy="166370"/>
         </a:xfrm>
         <a:prstGeom prst="downArrow">
@@ -11009,7 +10963,7 @@
         <xdr:cNvCxnSpPr>
           <a:extLst>
             <a:ext uri="smNativeData">
-              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_h5G7ZhMAAAAlAAAADQAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAAAAAAAAAAAAAEAAABQAAAAAAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAAAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAZAAAAAEAAABAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAAAAAAAAeAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAAAQAAAAQAAAAAAAaAgQAAAAXAAAAlAGpApxeAAB8AwAAQCMAAFgAAAAAAAAA"/>
+              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_YEW8ZhMAAAAlAAAADQAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAAAAAAAAAAAAAEAAABQAAAAAAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAAAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAZAAAAAEAAABAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAAAAAAAAeAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAAAQAAAAQAAAAAAAaAgQAAAAXAAAAlAGpApxeAAB8AwAAQCMAAFgAAAAAAAAA"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvCxnSpPr>
@@ -11055,7 +11009,7 @@
         <xdr:cNvSpPr>
           <a:extLst>
             <a:ext uri="smNativeData">
-              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_h5G7ZhMAAAAlAAAAZQAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAABAAAAAAAAAAEAAABQAAAAhbacS3FV1T8AAAAAAAAAAAAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAEAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAADQ0IiAeAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAABsAAAAQAAAAVwD+Ax8AAAASAAAA3gG5Au9kAACYFwAAUQcAANEDAAAAAAAA"/>
+              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_YEW8ZhMAAAAlAAAAZQAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAABAAAAAAAAAAEAAABQAAAAhbacS3FV1T8AAAAAAAAAAAAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAEAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAADQ0IiAeAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAABsAAAAQAAAAVwD+Ax8AAAASAAAA3gG5Au9kAACYFwAAUQcAANEDAAAAAAAA"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvSpPr>
@@ -11130,7 +11084,7 @@
         <xdr:cNvSpPr>
           <a:extLst>
             <a:ext uri="smNativeData">
-              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_h5G7ZhMAAAAlAAAAZQAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAABAAAAAAAAAAEAAABQAAAAhbacS3FV1T8AAAAAAAAAAAAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAEAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAACIgcz0eAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAACAAAAARAAAA2AARACMAAAASAAAABQEMAwhlAAAPHAAAkgcAAK8CAAAAAAAA"/>
+              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_YEW8ZhMAAAAlAAAAZQAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAABAAAAAAAAAAEAAABQAAAAhbacS3FV1T8AAAAAAAAAAAAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAEAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAACIgcz0eAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAACAAAAARAAAA2AARACMAAAASAAAABQEMAwhlAAAPHAAAkgcAAK8CAAAAAAAA"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvSpPr>
@@ -11210,7 +11164,7 @@
         <xdr:cNvSpPr>
           <a:extLst>
             <a:ext uri="smNativeData">
-              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_h5G7ZhMAAAAlAAAAZQAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAABAAAAAAAAAAEAAABQAAAAhbacS3FV1T8AAAAAAAAAAAAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAEAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAACIgdD0eAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAACQAAAARAAAAWQIPACcAAAASAAAAJQEKAwZlAAAAIAAAkQcAAHsCAAAAAAAA"/>
+              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_YEW8ZhMAAAAlAAAAZQAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAABAAAAAAAAAAEAAABQAAAAhbacS3FV1T8AAAAAAAAAAAAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAEAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAACIgdD0eAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAACQAAAARAAAAWQIPACcAAAASAAAAJQEKAwZlAAAAIAAAkQcAAHsCAAAAAAAA"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvSpPr>
@@ -11286,7 +11240,7 @@
           <a:endCxn id="49" idx="0"/>
           <a:extLst>
             <a:ext uri="smNativeData">
-              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_h5G7ZhMAAAAlAAAADQAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAAAAAAAAAAAAAEAAABQAAAAAAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAAAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAZAAAAAEAAABAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAAAAAAAAeAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAAA8AAAASAAAAwAP/AycAAAATAAAAQgM0AKFtAADiDQAAOQAAACcVAAAAAAAA"/>
+              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_YEW8ZhMAAAAlAAAADQAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAAAAAAAAAAAAAEAAABQAAAAAAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAAAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAZAAAAAEAAABAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAAAAAAAAeAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAAA8AAAASAAAAwAP/AycAAAATAAAAQgM0AKFtAADiDQAAOQAAACcVAAAAAAAA"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvCxnSpPr>
@@ -11332,7 +11286,7 @@
         <xdr:cNvSpPr>
           <a:extLst>
             <a:ext uri="smNativeData">
-              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_h5G7ZhMAAAAlAAAAyAAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAAAAAAAAAAAAAEAAABQAAAAnWyQwGV3tz8AAAAAAAAAAAAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAEAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAANCy0LUeAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAAA8AAAASAAAASwHdAxAAAAATAAAAMwApAXxtAABZDQAAaAEAAKIAAAAAAAAA"/>
+              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_YEW8ZhMAAAAlAAAAyAAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAAAAAAAAAAAAAEAAABQAAAAnWyQwGV3tz8AAAAAAAAAAAAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAEAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAANCy0LUeAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAAA8AAAASAAAASwHdAxAAAAATAAAAMwApAXxtAABZDQAAaAEAAKIAAAAAAAAA"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvSpPr>
@@ -11383,7 +11337,7 @@
         <xdr:cNvSpPr>
           <a:extLst>
             <a:ext uri="smNativeData">
-              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_h5G7ZhMAAAAlAAAAyAAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAAAAAAAAAAAAAEAAABQAAAAd3d3d3d3tz8AAAAAAAAAAAAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAEAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAAGVzZXIeAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAACMAAAASAAAAdgLqAyQAAAATAAAAOgE0AYptAAAaHwAAZgEAAKcAAAAAAAAA"/>
+              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_YEW8ZhMAAAAlAAAAyAAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAAAAAAAAAAAAAEAAABQAAAAd3d3d3d3tz8AAAAAAAAAAAAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAEAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAAGVzZXIeAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAACMAAAASAAAAdgLqAyQAAAATAAAAOgE0AYptAAAaHwAAZgEAAKcAAAAAAAAA"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvSpPr>
@@ -11434,7 +11388,7 @@
         <xdr:cNvSpPr>
           <a:extLst>
             <a:ext uri="smNativeData">
-              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_h5G7ZhMAAAAlAAAACgAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAAAAAAAAAAAAAEAAABQAAAAAAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAAAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAZAAAAAEAAABAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAABwdHh8eAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAAA4AAAAQAAAAVwCHAyUAAAAQAAAAhQOHA2FjAABFDAAAAAAAAN4UAAAAAAAA"/>
+              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_YEW8ZhMAAAAlAAAACgAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAAAAAAAAAAAAAEAAABQAAAAAAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAAAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAZAAAAAEAAABAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAABwdHh8eAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAAA4AAAAQAAAAVwCHAyUAAAAQAAAAhQOHA2FjAABFDAAAAAAAAN4UAAAAAAAA"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvSpPr>
@@ -11480,7 +11434,7 @@
         <xdr:cNvSpPr>
           <a:extLst>
             <a:ext uri="smNativeData">
-              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_h5G7ZhMAAAAlAAAAywAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAAAAAAAAAAAAAEAAABQAAAAgYOU8f55zj+SkbOwpx2uPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAEAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAALouIDweAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAAA0AAAAQAAAAEQNnAw4AAAAQAAAAuwOzA/ZiAAD+CwAA/gAAAAQBAAAAAAAA"/>
+              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_YEW8ZhMAAAAlAAAAywAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAAAAAAAAAAAAAEAAABQAAAAgYOU8f55zj+SkbOwpx2uPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAEAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAALouIDweAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAAA0AAAAQAAAAEQNnAw4AAAAQAAAAuwOzA/ZiAAD+CwAA/gAAAAQBAAAAAAAA"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvSpPr>
@@ -11531,7 +11485,7 @@
         <xdr:cNvSpPr>
           <a:extLst>
             <a:ext uri="smNativeData">
-              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_h5G7ZhMAAAAlAAAAyAAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAAAAAAAAAAAAAEAAABQAAAA7pvBynF3tz8AAAAAAAAAAAAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAEAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAALvQtSAeAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAABwAAAAQAAAA7AKHAx0AAAAQAAAA0AHyA2FjAAAHGQAAZgEAAKEAAAAAAAAA"/>
+              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_YEW8ZhMAAAAlAAAAyAAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAAAAAAAAAAAAAEAAABQAAAA7pvBynF3tz8AAAAAAAAAAAAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAEAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAALvQtSAeAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAABwAAAAQAAAA7AKHAx0AAAAQAAAA0AHyA2FjAAAHGQAAZgEAAKEAAAAAAAAA"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvSpPr>
@@ -11582,7 +11536,7 @@
         <xdr:cNvSpPr>
           <a:extLst>
             <a:ext uri="smNativeData">
-              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_h5G7ZhMAAAAlAAAAyAAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAAAAAAAAAAAAAEAAABQAAAA4pBSEW53tz8AAAAAAAAAAAAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAEAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAADxzaT4eAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAACEAAAAQAAAABgGOAyEAAAAQAAAA5AP5A3ljAAD4HAAAZgEAAKAAAAAAAAAA"/>
+              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_YEW8ZhMAAAAlAAAAyAAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAAAAAAAAAAAAAEAAABQAAAA4pBSEW53tz8AAAAAAAAAAAAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAEAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAADxzaT4eAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAACEAAAAQAAAABgGOAyEAAAAQAAAA5AP5A3ljAAD4HAAAZgEAAKAAAAAAAAAA"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvSpPr>
@@ -11633,7 +11587,7 @@
         <xdr:cNvSpPr>
           <a:extLst>
             <a:ext uri="smNativeData">
-              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_h5G7ZhMAAAAlAAAAyAAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAABAAAAAAAAAAEAAABQAAAAJIA3MJd3tz8AAAAAAAAAAAAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAEAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAAHhtbDoeAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAACUAAAAQAAAAEAKGAyYAAAAQAAAAVQHxA15jAADRIAAAZgEAAL0AAAAAAAAA"/>
+              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_YEW8ZhMAAAAlAAAAyAAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAABAAAAAAAAAAEAAABQAAAAJIA3MJd3tz8AAAAAAAAAAAAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAEAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAAHhtbDoeAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAACUAAAAQAAAAEAKGAyYAAAAQAAAAVQHxA15jAADRIAAAZgEAAL0AAAAAAAAA"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvSpPr>
@@ -11684,7 +11638,7 @@
         <xdr:cNvSpPr>
           <a:extLst>
             <a:ext uri="smNativeData">
-              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_h5G7ZhMAAAAlAAAAyAAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAAAAAAAAAAAAAEAAABQAAAAGH6GRo13tz8AAAAAAAAAAAAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAEAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAAC90PjweAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAABgAAAAQAAAAXQGSAxkAAAAQAAAANwD/A4ZjAAA0FQAAbQEAAJ8AAAAAAAAA"/>
+              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_YEW8ZhMAAAAlAAAAyAAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAAAAAAAAAAAAAEAAABQAAAAGH6GRo13tz8AAAAAAAAAAAAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAEAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAAC90PjweAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAABgAAAAQAAAAXQGSAxkAAAAQAAAANwD/A4ZjAAA0FQAAbQEAAJ8AAAAAAAAA"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvSpPr>
@@ -11735,7 +11689,7 @@
         <xdr:cNvSpPr>
           <a:extLst>
             <a:ext uri="smNativeData">
-              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_h5G7ZhMAAAAlAAAAyAAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAAAAAAAAAAAAAEAAABQAAAA5eEVHH13tz8AAAAAAAAAAAAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAEAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAAIPRgtEeAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAABMAAAAQAAAA7AKRAxQAAAAQAAAA2QH9A4NjAAAwEQAAaQEAAKMAAAAAAAAA"/>
+              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_YEW8ZhMAAAAlAAAAyAAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAAAAAAAAAAAAAEAAABQAAAA5eEVHH13tz8AAAAAAAAAAAAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAEAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAAIPRgtEeAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAABMAAAAQAAAA7AKRAxQAAAAQAAAA2QH9A4NjAAAwEQAAaQEAAKMAAAAAAAAA"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvSpPr>
@@ -11786,7 +11740,7 @@
         <xdr:cNvSpPr>
           <a:extLst>
             <a:ext uri="smNativeData">
-              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_h5G7ZhMAAAAlAAAAyAAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAAAAAAAAAAAAAEAAABQAAAAdh2uuIJ3tz8AAAAAAAAAAAAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAEAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAANC+0LIeAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAAA8AAAAQAAAAvACJAw8AAAAQAAAAqQP2A2hjAAA6DQAAbQEAAKMAAAAAAAAA"/>
+              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_YEW8ZhMAAAAlAAAAyAAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAAAAAAAAAAAAAEAAABQAAAAdh2uuIJ3tz8AAAAAAAAAAAAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAEAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAANC+0LIeAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAAA8AAAAQAAAAvACJAw8AAAAQAAAAqQP2A2hjAAA6DQAAbQEAAKMAAAAAAAAA"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvSpPr>
@@ -11837,7 +11791,7 @@
         <xdr:cNvSpPr>
           <a:extLst>
             <a:ext uri="smNativeData">
-              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_h5G7ZhMAAAAlAAAAZQAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAABAAAAAAAAAAEAAABQAAAAhbacS3FV1T8AAAAAAAAAAAAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAEAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAADU4NDweAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAAAoAAAAQAAAALwECAw0AAAARAAAAHwO7AqRhAAD4CAAASAYAAAkDAAAAAAAA"/>
+              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_YEW8ZhMAAAAlAAAAZQAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAABAAAAAAAAAAEAAABQAAAAhbacS3FV1T8AAAAAAAAAAAAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAEAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAADU4NDweAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAAAoAAAAQAAAALwECAw0AAAARAAAAHwO7AqRhAAD4CAAASAYAAAkDAAAAAAAA"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvSpPr>
@@ -11896,15 +11850,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>22</xdr:col>
-      <xdr:colOff>256540</xdr:colOff>
+      <xdr:colOff>255905</xdr:colOff>
       <xdr:row>12</xdr:row>
       <xdr:rowOff>12065</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>22</xdr:col>
-      <xdr:colOff>267970</xdr:colOff>
-      <xdr:row>49</xdr:row>
-      <xdr:rowOff>113665</xdr:rowOff>
+      <xdr:colOff>256540</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>161290</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -11912,15 +11866,15 @@
         <xdr:cNvCxnSpPr>
           <a:extLst>
             <a:ext uri="smNativeData">
-              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_h5G7ZhMAAAAlAAAADQAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAAAAAAAAAAAAAEAAABQAAAAAAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAAAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAZAAAAAEAAABAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAALXQvCAeAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAAAwAAAAWAAAAVwB1ATEAAAAWAAAAqQKFATh8AACHCgAAEgAAADsiAAAAAAAA"/>
+              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_YEW8ZhMAAAAlAAAADQAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAAAAAAAAAAAAAEAAABQAAAAAAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAAAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAZAAAAAEAAABAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAALXQvCAeAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAAAwAAAAWAAAAVQB0ATIAAAAWAAAAxgN1ATd8AACHCgAAAQAAAJMjAAAAAAAA"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm rot="16200000" flipH="1">
-          <a:off x="20193000" y="1711325"/>
-          <a:ext cx="11430" cy="5564505"/>
+        <a:xfrm rot="5400000">
+          <a:off x="20192365" y="1711325"/>
+          <a:ext cx="635" cy="5782945"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -11942,15 +11896,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>22</xdr:col>
-      <xdr:colOff>187960</xdr:colOff>
+      <xdr:colOff>176530</xdr:colOff>
       <xdr:row>14</xdr:row>
-      <xdr:rowOff>84455</xdr:rowOff>
+      <xdr:rowOff>8890</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>22</xdr:col>
-      <xdr:colOff>350520</xdr:colOff>
+      <xdr:colOff>339090</xdr:colOff>
       <xdr:row>15</xdr:row>
-      <xdr:rowOff>108585</xdr:rowOff>
+      <xdr:rowOff>33020</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" fLocksText="0">
       <xdr:nvSpPr>
@@ -11958,14 +11912,14 @@
         <xdr:cNvSpPr>
           <a:extLst>
             <a:ext uri="smNativeData">
-              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_h5G7ZhMAAAAlAAAAywAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAAAAAAAAAAAAAEAAABQAAAAKv77W8R5zj+SkbOwpx2uPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAEAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAADwvYz4eAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAAA4AAAAWAAAAYwIRAQ8AAAAWAAAAEQP9Acx7AAC3DAAAAAEAAAUBAAAAAAAA"/>
+              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_YEW8ZhMAAAAlAAAAywAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAAAAAAAAAAAAAEAAABQAAAAKv77W8R5zj+SkbOwpx2uPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAEAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAADwvYz4eAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAAA4AAAAWAAAAPwAAAQ8AAAAWAAAA7QDtAbp7AABADAAAAAEAAAUBAAAAAAAA"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvSpPr>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="20124420" y="2066925"/>
+          <a:off x="20112990" y="1991360"/>
           <a:ext cx="162560" cy="165735"/>
         </a:xfrm>
         <a:prstGeom prst="downArrow">
@@ -12010,7 +11964,7 @@
           <a:stCxn id="74" idx="0"/>
           <a:extLst>
             <a:ext uri="smNativeData">
-              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_h5G7ZhMAAAAlAAAADQAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAAAAAAAAAAAAAEAAABQAAAAAAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAAAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAZAAAAAEAAABAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAACLQlNEeAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAAAgAAAAQAAAAJAPjAwkAAAAhAAAAgQD7A5VkAACnBwAAEkoAAEwAAAAAAAAA"/>
+              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_YEW8ZhMAAAAlAAAADQAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAAAAAAAAAAAAAEAAABQAAAAAAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAAAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAZAAAAAEAAABAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAACLQlNEeAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAAAgAAAAQAAAAJAPjAwkAAAAhAAAAgQD7A5VkAACnBwAAEkoAAEwAAAAAAAAA"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvCxnSpPr>
@@ -12056,7 +12010,7 @@
         <xdr:cNvSpPr>
           <a:extLst>
             <a:ext uri="smNativeData">
-              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_h5G7ZhMAAAAlAAAAywAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAAAAAAAAAAAAAEAAABQAAAAH/T8Ift5zj+SkbOwpx2uPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAEAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAADoxMCIeAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAAAkAAAAQAAAAgQC9AwoAAAARAAAALwEcABZkAADzBwAA/gAAAAUBAAAAAAAA"/>
+              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_YEW8ZhMAAAAlAAAAywAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAAAAAAAAAAAAAEAAABQAAAAH/T8Ift5zj+SkbOwpx2uPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAEAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAADoxMCIeAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAAAkAAAAQAAAAgQC9AwoAAAARAAAALwEcABZkAADzBwAA/gAAAAUBAAAAAAAA"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvSpPr>
@@ -12107,7 +12061,7 @@
         <xdr:cNvSpPr>
           <a:extLst>
             <a:ext uri="smNativeData">
-              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_h5G7ZhMAAAAlAAAAywAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAAAAAAAAAAAAAEAAABQAAAAKv77W8R5zj+SkbOwpx2uPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAEAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAAHQ9InMeAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAAAkAAAAcAAAAVAHHAgoAAAAcAAAA/gGzA6uXAAAhCAAAAAEAAAQBAAAAAAAA"/>
+              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_YEW8ZhMAAAAlAAAAywAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAAAAAAAAAAAAAEAAABQAAAAKv77W8R5zj+SkbOwpx2uPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAEAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAAHQ9InMeAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAAAkAAAAcAAAAVAHHAgoAAAAcAAAA/gGzA6uXAAAhCAAAAAEAAAQBAAAAAAAA"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvSpPr>
@@ -12158,7 +12112,7 @@
         <xdr:cNvSpPr>
           <a:extLst>
             <a:ext uri="smNativeData">
-              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_h5G7ZhMAAAAlAAAAywAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAAAAAAAAAAAAAEAAABQAAAAH/T8Ift5zj+SkbOwpx2uPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAEAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAAHQ9InMeAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAAAgAAAAhAAAA7gNwAwoAAAAiAAAAnABcABCuAADTBwAAAAEAAAUBAAAAAAAA"/>
+              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_YEW8ZhMAAAAlAAAAywAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAAAAAAAAAAAAAEAAABQAAAAH/T8Ift5zj+SkbOwpx2uPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAEAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAAHQ9InMeAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAAAgAAAAhAAAA7gNwAwoAAAAiAAAAnABcABCuAADTBwAAAAEAAAUBAAAAAAAA"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvSpPr>
@@ -12193,15 +12147,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>22</xdr:col>
-      <xdr:colOff>434340</xdr:colOff>
+      <xdr:colOff>422910</xdr:colOff>
       <xdr:row>9</xdr:row>
-      <xdr:rowOff>60960</xdr:rowOff>
+      <xdr:rowOff>38735</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>22</xdr:col>
-      <xdr:colOff>596900</xdr:colOff>
+      <xdr:colOff>585470</xdr:colOff>
       <xdr:row>10</xdr:row>
-      <xdr:rowOff>84455</xdr:rowOff>
+      <xdr:rowOff>62230</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" fLocksText="0">
       <xdr:nvSpPr>
@@ -12209,14 +12163,14 @@
         <xdr:cNvSpPr>
           <a:extLst>
             <a:ext uri="smNativeData">
-              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_h5G7ZhMAAAAlAAAAywAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAAAAAAAAAAAAAEAAABQAAAAtsuXJgN6zj+SkbOwpx2uPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAEAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAAHQ9InMeAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAAAkAAAAWAAAAuQF3AgoAAAAWAAAAYwJjA1B9AAA3CAAAAAEAAAQBAAAAAAAA"/>
+              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_YEW8ZhMAAAAlAAAAywAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAAAAAAAAAAAAAEAAABQAAAAtsuXJgN6zj+SkbOwpx2uPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAEAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAAHQ9InMeAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAAAkAAAAWAAAAGgFmAgoAAAAWAAAAxAFTAz59AAAUCAAAAAEAAAQBAAAAAAAA"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvSpPr>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="20370800" y="1335405"/>
+          <a:off x="20359370" y="1313180"/>
           <a:ext cx="162560" cy="165100"/>
         </a:xfrm>
         <a:prstGeom prst="downArrow">
@@ -12260,7 +12214,7 @@
         <xdr:cNvSpPr>
           <a:extLst>
             <a:ext uri="smNativeData">
-              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_h5G7ZhMAAAAlAAAAywAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAAAAAAAAAAAAAEAAABQAAAAtsuXJgN6zj+SkbOwpx2uPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAEAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAAAAAAAAeAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAAAQAAAAXAAAAEgA0AgUAAAAXAAAAvAAfA12BAACAAwAA/wAAAAQBAAAAAAAA"/>
+              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_YEW8ZhMAAAAlAAAAywAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAAAAAAAAAAAAAEAAABQAAAAtsuXJgN6zj+SkbOwpx2uPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAEAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAAAAAAAAeAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAAAQAAAAXAAAAEgA0AgUAAAAXAAAAvAAfA12BAACAAwAA/wAAAAQBAAAAAAAA"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvSpPr>
@@ -12311,7 +12265,7 @@
         <xdr:cNvSpPr>
           <a:extLst>
             <a:ext uri="smNativeData">
-              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_h5G7ZhMAAAAlAAAAyAAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAAAAAAAAAAAAAEAAABQAAAAJIA3MJd3tz8AAAAAAAAAAAAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAEAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAAAAAAAAeAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAABAAAAAWAAAAbAJvAREAAAAWAAAAVAG4AjJ8AAB3DgAAZAEAAKIAAAAAAAAA"/>
+              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_YEW8ZhMAAAAlAAAAyAAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAAAAAAAAAAAAAEAAABQAAAAJIA3MJd3tz8AAAAAAAAAAAAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAEAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAAAAAAAAeAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAABAAAAAWAAAAbAJvAREAAAAWAAAAVAG4AjJ8AAB3DgAAZAEAAKIAAAAAAAAA"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvSpPr>
@@ -12362,7 +12316,7 @@
         <xdr:cNvSpPr>
           <a:extLst>
             <a:ext uri="smNativeData">
-              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_h5G7ZhMAAAAlAAAAyAAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAAAAAAAAAAAAAEAAABQAAAAJIA3MJd3tz8AAAAAAAAAAAAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAEAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAAAAAAAAeAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAABQAAAAWAAAA7wBmARQAAAAWAAAA1wOwAih8AACgEQAAZgEAAKIAAAAAAAAA"/>
+              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_YEW8ZhMAAAAlAAAAyAAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAAAAAAAAAAAAAEAAABQAAAAJIA3MJd3tz8AAAAAAAAAAAAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAEAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAAAAAAAAeAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAABQAAAAWAAAA7wBmARQAAAAWAAAA1wOwAih8AACgEQAAZgEAAKIAAAAAAAAA"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvSpPr>
@@ -12413,7 +12367,7 @@
         <xdr:cNvSpPr>
           <a:extLst>
             <a:ext uri="smNativeData">
-              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_h5G7ZhMAAAAlAAAAyAAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAAAAAAAAAAAAAEAAABQAAAAd3d3d3d3tz8AAAAAAAAAAAAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAEAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAAG4gcGEeAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAABgAAAAWAAAANQJRARkAAAAWAAAAFAGbAhF8AABjFQAAZgEAAKAAAAAAAAAA"/>
+              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_YEW8ZhMAAAAlAAAAyAAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAAAAAAAAAAAAAEAAABQAAAAd3d3d3d3tz8AAAAAAAAAAAAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAEAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAAG4gcGEeAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAABgAAAAWAAAANQJRARkAAAAWAAAAFAGbAhF8AABjFQAAZgEAAKAAAAAAAAAA"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvSpPr>
@@ -12464,7 +12418,7 @@
         <xdr:cNvSpPr>
           <a:extLst>
             <a:ext uri="smNativeData">
-              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_h5G7ZhMAAAAlAAAAyAAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAAAAAAAAAAAAAEAAABQAAAA5eEVHH13tz8AAAAAAAAAAAAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAEAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAAIXQvtEeAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAABwAAAAWAAAA4ANYAR0AAAAWAAAAyAKjAhl8AAA8GQAAZwEAAKIAAAAAAAAA"/>
+              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_YEW8ZhMAAAAlAAAAyAAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAAAAAAAAAAAAAEAAABQAAAA5eEVHH13tz8AAAAAAAAAAAAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAEAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAAIXQvtEeAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAABwAAAAWAAAA4ANYAR0AAAAWAAAAyAKjAhl8AAA8GQAAZwEAAKIAAAAAAAAA"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvSpPr>
@@ -12515,7 +12469,7 @@
         <xdr:cNvSpPr>
           <a:extLst>
             <a:ext uri="smNativeData">
-              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_h5G7ZhMAAAAlAAAAyAAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAAAAAAAAAAAAAEAAABQAAAAd3d3d3d3tz8AAAAAAAAAAAAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAEAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAAAAAAAAeAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAACIAAAAWAAAAgwJXASMAAAAWAAAAUQGfAhh8AAAqHgAAYwEAAKcAAAAAAAAA"/>
+              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_YEW8ZhMAAAAlAAAAyAAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAAAAAAAAAAAAAEAAABQAAAAd3d3d3d3tz8AAAAAAAAAAAAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAEAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAAAAAAAAeAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAACIAAAAWAAAAgwJXASMAAAAWAAAAUQGfAhh8AAAqHgAAYwEAAKcAAAAAAAAA"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvSpPr>
@@ -12566,7 +12520,7 @@
         <xdr:cNvSpPr>
           <a:extLst>
             <a:ext uri="smNativeData">
-              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_h5G7ZhMAAAAlAAAAywAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAAAAAAAAAAAAAEAAABQAAAAgYOU8f55zj+SkbOwpx2uPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAEAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAAAAAAAAeAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAAAgAAAAKAAAAoAMSAgoAAAAKAAAATgD9Av05AADCBwAA/gAAAAUBAAAAAAAA"/>
+              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_YEW8ZhMAAAAlAAAAywAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAAAAAAAAAAAAAEAAABQAAAAgYOU8f55zj+SkbOwpx2uPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAEAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAAAAAAAAeAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAAAgAAAAKAAAAoAMSAgoAAAAKAAAATgD9Av05AADCBwAA/gAAAAUBAAAAAAAA"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvSpPr>
@@ -12617,7 +12571,7 @@
         <xdr:cNvSpPr>
           <a:extLst>
             <a:ext uri="smNativeData">
-              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_h5G7ZhMAAAAlAAAAywAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAAAAAAAAAAAAAEAAABQAAAApdSyzA56zj+SkbOwpx2uPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAEAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAAAAAAAAeAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAAAgAAAAMAAAAoAMmAQoAAAAMAAAATgASAqlBAADCBwAAAAEAAAUBAAAAAAAA"/>
+              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_YEW8ZhMAAAAlAAAAywAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAAAAAAAAAAAAAEAAABQAAAApdSyzA56zj+SkbOwpx2uPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAEAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAAAAAAAAeAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAAAgAAAAMAAAAoAMmAQoAAAAMAAAATgASAqlBAADCBwAAAAEAAAUBAAAAAAAA"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvSpPr>
@@ -12652,15 +12606,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>21</xdr:col>
-      <xdr:colOff>671195</xdr:colOff>
+      <xdr:colOff>648335</xdr:colOff>
       <xdr:row>10</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
+      <xdr:rowOff>72390</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>23</xdr:col>
-      <xdr:colOff>434975</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>2540</xdr:rowOff>
+      <xdr:colOff>412115</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>111125</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" fLocksText="0">
       <xdr:nvSpPr>
@@ -12668,15 +12622,15 @@
         <xdr:cNvSpPr>
           <a:extLst>
             <a:ext uri="smNativeData">
-              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_h5G7ZhMAAAAlAAAAZQAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAABAAAAAAAAAAEAAABQAAAAhbacS3FV1T8AAAAAAAAAAAAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAEAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAAP////8eAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAAAoAAAAVAAAA9gLPAw4AAAAXAAAAEgB4Am96AABbCQAAOAcAANsCAAAAAAAA"/>
+              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_YEW8ZhMAAAAlAAAAZQAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAABAAAAAAAAAAEAAABQAAAAhbacS3FV1T8AAAAAAAAAAAAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAEAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAAP////8eAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAAAoAAAAVAAAACwKuAw0AAAAXAAAAJQNXAkt6AAAoCQAAOAcAANoCAAAAAAAA"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvSpPr>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="19902805" y="1520825"/>
-          <a:ext cx="1173480" cy="464185"/>
+          <a:off x="19879945" y="1488440"/>
+          <a:ext cx="1173480" cy="463550"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -12727,15 +12681,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>27</xdr:col>
-      <xdr:colOff>664845</xdr:colOff>
+      <xdr:colOff>631190</xdr:colOff>
       <xdr:row>10</xdr:row>
-      <xdr:rowOff>122555</xdr:rowOff>
+      <xdr:rowOff>67945</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>29</xdr:col>
-      <xdr:colOff>428625</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>20320</xdr:rowOff>
+      <xdr:colOff>395605</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>107315</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" fLocksText="0">
       <xdr:nvSpPr>
@@ -12743,15 +12697,15 @@
         <xdr:cNvSpPr>
           <a:extLst>
             <a:ext uri="smNativeData">
-              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_h5G7ZhMAAAAlAAAAZQAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAABAAAAAAAAAAEAAABQAAAAhbacS3FV1T8AAAAAAAAAAAAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAEAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAAP////8eAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAAAoAAAAbAAAAdgPGAw4AAAAdAAAAkwBvAmmUAAB3CQAAOAcAANsCAAAAAAAA"/>
+              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_YEW8ZhMAAAAlAAAAZQAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAABAAAAAAAAAAEAAABQAAAAhbacS3FV1T8AAAAAAAAAAAAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAEAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAAP////8eAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAAAoAAAAbAAAA7AGVAw0AAAAdAAAACgM/AjSUAAAhCQAAOQcAANsCAAAAAAAA"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvSpPr>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="24125555" y="1538605"/>
-          <a:ext cx="1173480" cy="464185"/>
+          <a:off x="24091900" y="1483995"/>
+          <a:ext cx="1174115" cy="464185"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -12823,7 +12777,7 @@
         <xdr:cNvSpPr>
           <a:extLst>
             <a:ext uri="smNativeData">
-              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_h5G7ZhMAAAAlAAAAZQAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAABAAAAAAAAAAEAAABQAAAAhbacS3FV1T8AAAAAAAAAAAAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAEAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAAAAAAAAeAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAAAoAAAAhAAAAggHUAA0AAAAiAAAAngJ7AzyrAAAKCQAANgcAANsCAAAAAAAA"/>
+              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_YEW8ZhMAAAAlAAAAZQAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAABAAAAAAAAAAEAAABQAAAAhbacS3FV1T8AAAAAAAAAAAAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAEAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAAAAAAAAeAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAAAoAAAAhAAAAggHUAA0AAAAiAAAAngJ7AzyrAAAKCQAANgcAANsCAAAAAAAA"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvSpPr>
@@ -12903,7 +12857,7 @@
         <xdr:cNvSpPr>
           <a:extLst>
             <a:ext uri="smNativeData">
-              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_h5G7ZhMAAAAlAAAAZQAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAABAAAAAAAAAAEAAABQAAAAhbacS3FV1T8AAAAAAAAAAAAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAEAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAAAAAAAAeAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAABIAAAARAAAAtwMLABYAAAASAAAAvAC5AgJlAAB9EAAAPgcAANYCAAAAAAAA"/>
+              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_YEW8ZhMAAAAlAAAAZQAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAABAAAAAAAAAAEAAABQAAAAhbacS3FV1T8AAAAAAAAAAAAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAEAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAAAAAAAAeAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAABIAAAARAAAAtwMLABYAAAASAAAAvAC5AgJlAAB9EAAAPgcAANYCAAAAAAAA"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvSpPr>
@@ -12978,7 +12932,7 @@
         <xdr:cNvSpPr>
           <a:extLst>
             <a:ext uri="smNativeData">
-              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_h5G7ZhMAAAAlAAAAZQAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAABAAAAAAAAAAEAAABQAAAAhbacS3FV1T8AAAAAAAAAAAAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAEAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAAAAAAAAeAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAAA4AAAATAAAAXwMvAREAAAAUAAAAxAPpA+puAADuDAAASwcAALMCAAAAAAAA"/>
+              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_YEW8ZhMAAAAlAAAAZQAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAABAAAAAAAAAAEAAABQAAAAhbacS3FV1T8AAAAAAAAAAAAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAEAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAAAAAAAAeAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAAA4AAAATAAAAXwMvAREAAAAUAAAAxAPpA+puAADuDAAASwcAALMCAAAAAAAA"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvSpPr>
@@ -13053,7 +13007,7 @@
         <xdr:cNvSpPr>
           <a:extLst>
             <a:ext uri="smNativeData">
-              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_h5G7ZhMAAAAlAAAAZQAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAABAAAAAAAAAAEAAABQAAAAhbacS3FV1T8AAAAAAAAAAAAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAEAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAAAAAAAAeAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAABMAAAATAAAAPABsARYAAAAUAAAAMQP+Ay1vAACaEAAAHwcAAEIDAAAAAAAA"/>
+              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_YEW8ZhMAAAAlAAAAZQAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAABAAAAAAAAAAEAAABQAAAAhbacS3FV1T8AAAAAAAAAAAAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAEAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAAAAAAAAeAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAABMAAAATAAAAPABsARYAAAAUAAAAMQP+Ay1vAACaEAAAHwcAAEIDAAAAAAAA"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvSpPr>
@@ -13128,7 +13082,7 @@
         <xdr:cNvSpPr>
           <a:extLst>
             <a:ext uri="smNativeData">
-              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_h5G7ZhMAAAAlAAAAZQAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAABAAAAAAAAAAEAAABQAAAAhbacS3FV1T8AAAAAAAAAAAAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAEAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAAAAAAAAeAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAABcAAAATAAAA/gGoARsAAAAVAAAARwIeAG5vAAB4FAAAAQcAAIwDAAAAAAAA"/>
+              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_YEW8ZhMAAAAlAAAAZQAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAABAAAAAAAAAAEAAABQAAAAhbacS3FV1T8AAAAAAAAAAAAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAEAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAAAAAAAAeAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAABcAAAATAAAA/gGoARsAAAAVAAAARwIeAG5vAAB4FAAAAQcAAIwDAAAAAAAA"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvSpPr>
@@ -13203,7 +13157,7 @@
         <xdr:cNvSpPr>
           <a:extLst>
             <a:ext uri="smNativeData">
-              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_h5G7ZhMAAAAlAAAAZQAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAABAAAAAAAAAAEAAABQAAAAhbacS3FV1T8AAAAAAAAAAAAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAEAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAAAAAAAAeAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAABwAAAATAAAA2gKCASEAAAAUAAAAcwDuA0RvAAADGQAA9gYAANUDAAAAAAAA"/>
+              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_YEW8ZhMAAAAlAAAAZQAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAABAAAAAAAAAAEAAABQAAAAhbacS3FV1T8AAAAAAAAAAAAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAEAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAAAAAAAAeAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAABwAAAATAAAA2gKCASEAAAAUAAAAcwDuA0RvAAADGQAA9gYAANUDAAAAAAAA"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvSpPr>
@@ -13278,7 +13232,7 @@
         <xdr:cNvSpPr>
           <a:extLst>
             <a:ext uri="smNativeData">
-              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_h5G7ZhMAAAAlAAAAZQAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAABAAAAAAAAAAEAAABQAAAAhbacS3FV1T8AAAAAAAAAAAAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAEAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAAAAAAAAeAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAACIAAAATAAAAIABkASYAAAAUAAAAkQHgAyRvAAClHQAABwcAAPcDAAAAAAAA"/>
+              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_YEW8ZhMAAAAlAAAAZQAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAABAAAAAAAAAAEAAABQAAAAhbacS3FV1T8AAAAAAAAAAAAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAEAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAAAAAAAAeAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAACIAAAATAAAAIABkASYAAAAUAAAAkQHgAyRvAAClHQAABwcAAPcDAAAAAAAA"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvSpPr>
@@ -13353,7 +13307,7 @@
         <xdr:cNvSpPr>
           <a:extLst>
             <a:ext uri="smNativeData">
-              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_h5G7ZhMAAAAlAAAAyAAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAAAAAAAAAAAAAEAAABQAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAEAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAAP////8eAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAABEAAAASAAAAQADjAhEAAAATAAAAJAMrAG1sAADdDgAAZAEAAKEAAAAAAAAA"/>
+              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_YEW8ZhMAAAAlAAAAyAAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAAAAAAAAAAAAAEAAABQAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAEAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAAP////8eAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAABEAAAASAAAAQADjAhEAAAATAAAAJAMrAG1sAADdDgAAZAEAAKEAAAAAAAAA"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvSpPr>
@@ -13404,7 +13358,7 @@
         <xdr:cNvSpPr>
           <a:extLst>
             <a:ext uri="smNativeData">
-              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_h5G7ZhMAAAAlAAAAyAAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAAAAAAAAAAAAAEAAABQAAAAnWyQwGV3tz8AAAAAAAAAAAAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAEAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAAAAAAAAeAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAABQAAAATAAAAEQMIABUAAAATAAAA+QFWAattAAAXEgAAagEAAKIAAAAAAAAA"/>
+              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_YEW8ZhMAAAAlAAAAyAAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAAAAAAAAAAAAAEAAABQAAAAnWyQwGV3tz8AAAAAAAAAAAAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAEAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAAAAAAAAeAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAABQAAAATAAAAEQMIABUAAAATAAAA+QFWAattAAAXEgAAagEAAKIAAAAAAAAA"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvSpPr>
@@ -13455,7 +13409,7 @@
         <xdr:cNvSpPr>
           <a:extLst>
             <a:ext uri="smNativeData">
-              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_h5G7ZhMAAAAlAAAAyAAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAAAAAAAAAAAAAEAAABQAAAAnWyQwGV3tz8AAAAAAAAAAAAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAEAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAAAAAAAAeAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAABkAAAATAAAAeQE0ABoAAAATAAAAXACBAdptAAAZFgAAaQEAAKEAAAAAAAAA"/>
+              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_YEW8ZhMAAAAlAAAAyAAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAAAAAAAAAAAAAEAAABQAAAAnWyQwGV3tz8AAAAAAAAAAAAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAEAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAAAAAAAAeAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAABkAAAATAAAAeQE0ABoAAAATAAAAXACBAdptAAAZFgAAaQEAAKEAAAAAAAAA"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvSpPr>
@@ -13506,7 +13460,7 @@
         <xdr:cNvSpPr>
           <a:extLst>
             <a:ext uri="smNativeData">
-              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_h5G7ZhMAAAAlAAAAyAAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAABAAAAAAAAAAEAAABQAAAAnWyQwGV3tz8AAAAAAAAAAAAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAEAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAAAAAAAAeAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAAB4AAAATAAAAPwMNAB8AAAATAAAAJwJaAbBtAADXGgAAaQEAAKIAAAAAAAAA"/>
+              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_YEW8ZhMAAAAlAAAAyAAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAABAAAAAAAAAAEAAABQAAAAnWyQwGV3tz8AAAAAAAAAAAAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAEAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAAAAAAAAeAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAAB4AAAATAAAAPwMNAB8AAAATAAAAJwJaAbBtAADXGgAAaQEAAKIAAAAAAAAA"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvSpPr>
@@ -13557,7 +13511,7 @@
         <xdr:cNvSpPr>
           <a:extLst>
             <a:ext uri="smNativeData">
-              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_h5G7ZhMAAAAlAAAAyAAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAAAAAAAAAAAAAEAAABQAAAAd3d3d3d3tz8AAAAAAAAAAAAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAEAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAAAAAAAAeAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAACcAAAATAAAAQgMVACgAAAATAAAAaAFfAbltAAAJIwAAZQEAAIEAAAAAAAAA"/>
+              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_YEW8ZhMAAAAlAAAAyAAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAAAAAAAAAAAAAEAAABQAAAAd3d3d3d3tz8AAAAAAAAAAAAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAEAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAAAAAAAAeAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAACcAAAATAAAAQgMVACgAAAATAAAAaAFfAbltAAAJIwAAZQEAAIEAAAAAAAAA"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvSpPr>
@@ -13608,7 +13562,7 @@
         <xdr:cNvSpPr>
           <a:extLst>
             <a:ext uri="smNativeData">
-              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_h5G7ZhMAAAAlAAAAZQAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAABAAAAAAAAAAEAAABQAAAAhbacS3FV1T8AAAAAAAAAAAAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAEAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAAAAAAAAeAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAACcAAAATAAAApACPASoAAAAVAAAAFgELAFNvAABZIgAABwcAAOECAAAAAAAA"/>
+              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_YEW8ZhMAAAAlAAAAZQAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAABAAAAAAAAAAEAAABQAAAAhbacS3FV1T8AAAAAAAAAAAAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAEAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAAAAAAAAeAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAACcAAAATAAAApACPASoAAAAVAAAAFgELAFNvAABZIgAABwcAAOECAAAAAAAA"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvSpPr>
@@ -13683,7 +13637,7 @@
         <xdr:cNvSpPr>
           <a:extLst>
             <a:ext uri="smNativeData">
-              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_h5G7ZhMAAAAlAAAAZQAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAABAAAAAAAAAAEAAABQAAAAhbacS3FV1T8AAAAAAAAAAAAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAEAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAAAAAAAAeAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAAA4AAAAWAAAAwwK0AhEAAAAYAAAAXwNuAZJ9AADMDAAASwcAAL8CAAAAAAAA"/>
+              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_YEW8ZhMAAAAlAAAAZQAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAABAAAAAAAAAAEAAABQAAAAhbacS3FV1T8AAAAAAAAAAAAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAEAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAAAAAAAAeAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAAA4AAAAWAAAAwwK0AhEAAAAYAAAAXwNuAZJ9AADMDAAASwcAAL8CAAAAAAAA"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvSpPr>
@@ -13758,7 +13712,7 @@
         <xdr:cNvSpPr>
           <a:extLst>
             <a:ext uri="smNativeData">
-              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_h5G7ZhMAAAAlAAAAZQAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAABAAAAAAAAAAEAAABQAAAAhbacS3FV1T8AAAAAAAAAAAAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAEAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAAA4AAAAeAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAABIAAAAWAAAA6QO/AhYAAAAYAAAAhQB5AZ59AACIEAAASwcAAL8CAAAAAAAA"/>
+              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_YEW8ZhMAAAAlAAAAZQAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAABAAAAAAAAAAEAAABQAAAAhbacS3FV1T8AAAAAAAAAAAAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAEAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAAA4AAAAeAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAABIAAAAWAAAA6QO/AhYAAAAYAAAAhQB5AZ59AACIEAAASwcAAL8CAAAAAAAA"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvSpPr>
@@ -13833,7 +13787,7 @@
         <xdr:cNvSpPr>
           <a:extLst>
             <a:ext uri="smNativeData">
-              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_h5G7ZhMAAAAlAAAAZQAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAABAAAAAAAAAAEAAABQAAAAhbacS3FV1T8AAAAAAAAAAAAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAEAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAAAAAAAAeAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAABcAAAAWAAAAYgGrAhoAAAAYAAAA/gFlAYh9AABWFAAASwcAAL8CAAAAAAAA"/>
+              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_YEW8ZhMAAAAlAAAAZQAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAABAAAAAAAAAAEAAABQAAAAhbacS3FV1T8AAAAAAAAAAAAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAEAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAAAAAAAAeAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAABcAAAAWAAAAYgGrAhoAAAAYAAAA/gFlAYh9AABWFAAASwcAAL8CAAAAAAAA"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvSpPr>
@@ -13908,7 +13862,7 @@
         <xdr:cNvSpPr>
           <a:extLst>
             <a:ext uri="smNativeData">
-              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_h5G7ZhMAAAAlAAAAZQAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAABAAAAAAAAAAEAAABQAAAAhbacS3FV1T8AAAAAAAAAAAAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAEAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAAAAAAAAeAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAAA4AAAAZAAAASAMSABEAAAAaAAAA5APMArqHAADpDAAASgcAAL8CAAAAAAAA"/>
+              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_YEW8ZhMAAAAlAAAAZQAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAABAAAAAAAAAAEAAABQAAAAhbacS3FV1T8AAAAAAAAAAAAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAEAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAAAAAAAAeAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAAA4AAAAZAAAASAMSABEAAAAaAAAA5APMArqHAADpDAAASgcAAL8CAAAAAAAA"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvSpPr>
@@ -13983,7 +13937,7 @@
         <xdr:cNvSpPr>
           <a:extLst>
             <a:ext uri="smNativeData">
-              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_h5G7ZhMAAAAlAAAAZQAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAABAAAAAAAAAAEAAABQAAAAhbacS3FV1T8AAAAAAAAAAAAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAEAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAAAAAAAAeAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAABIAAAAZAAAAhAMeABcAAAAaAAAAswDYAseHAAByEAAASgcAAL4DAAAAAAAA"/>
+              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_YEW8ZhMAAAAlAAAAZQAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAABAAAAAAAAAAEAAABQAAAAhbacS3FV1T8AAAAAAAAAAAAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAEAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAAAAAAAAeAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAABIAAAAZAAAAhAMeABcAAAAaAAAAswDYAseHAAByEAAASgcAAL4DAAAAAAAA"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvSpPr>
@@ -14058,7 +14012,7 @@
         <xdr:cNvSpPr>
           <a:extLst>
             <a:ext uri="smNativeData">
-              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_h5G7ZhMAAAAlAAAAZQAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAABAAAAAAAAAAEAAABQAAAAhbacS3FV1T8AAAAAAAAAAAAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAEAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAAAAAAAAeAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAABgAAAAYAAAAEgD4AxwAAAAaAAAAfwOyAp2HAADsFAAASwcAADsEAAAAAAAA"/>
+              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_YEW8ZhMAAAAlAAAAZQAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAABAAAAAAAAAAEAAABQAAAAhbacS3FV1T8AAAAAAAAAAAAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAEAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAAAAAAAAeAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAABgAAAAYAAAAEgD4AxwAAAAaAAAAfwOyAp2HAADsFAAASwcAADsEAAAAAAAA"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvSpPr>
@@ -14133,7 +14087,7 @@
         <xdr:cNvSpPr>
           <a:extLst>
             <a:ext uri="smNativeData">
-              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_h5G7ZhMAAAAlAAAAZQAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAABAAAAAAAAAAEAAABQAAAAhbacS3FV1T8AAAAAAAAAAAAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAEAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAAAAAAAAeAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAAB4AAAAZAAAAAAAjACIAAAAaAAAAbQPdAsyHAAAiGgAASwcAADsEAAAAAAAA"/>
+              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_YEW8ZhMAAAAlAAAAZQAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAABAAAAAAAAAAEAAABQAAAAhbacS3FV1T8AAAAAAAAAAAAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAEAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAAAAAAAAeAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAAB4AAAAZAAAAAAAjACIAAAAaAAAAbQPdAsyHAAAiGgAASwcAADsEAAAAAAAA"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvSpPr>
@@ -14208,7 +14162,7 @@
         <xdr:cNvSpPr>
           <a:extLst>
             <a:ext uri="smNativeData">
-              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_h5G7ZhMAAAAlAAAAZQAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAABAAAAAAAAAAEAAABQAAAAhbacS3FV1T8AAAAAAAAAAAAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAEAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAAP////8eAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAACMAAAAZAAAAJwMYACcAAAAaAAAAVgKTAsCHAABGHwAABgcAAIUDAAAAAAAA"/>
+              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_YEW8ZhMAAAAlAAAAZQAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAABAAAAAAAAAAEAAABQAAAAhbacS3FV1T8AAAAAAAAAAAAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAEAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAAP////8eAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAACMAAAAZAAAAJwMYACcAAAAaAAAAVgKTAsCHAABGHwAABgcAAIUDAAAAAAAA"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvSpPr>
@@ -14283,7 +14237,7 @@
         <xdr:cNvSpPr>
           <a:extLst>
             <a:ext uri="smNativeData">
-              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_h5G7ZhMAAAAlAAAAZQAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAABAAAAAAAAAAEAAABQAAAAhbacS3FV1T8AAAAAAAAAAAAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAEAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAAAAAAAAeAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAACgAAAAZAAAAjQAjACsAAAAaAAAAKwGfAsyHAABaIwAABwcAAMoCAAAAAAAA"/>
+              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_YEW8ZhMAAAAlAAAAZQAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAABAAAAAAAAAAEAAABQAAAAhbacS3FV1T8AAAAAAAAAAAAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAEAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAAAAAAAAeAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAACgAAAAZAAAAjQAjACsAAAAaAAAAKwGfAsyHAABaIwAABwcAAMoCAAAAAAAA"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvSpPr>
@@ -14358,7 +14312,7 @@
         <xdr:cNvSpPr>
           <a:extLst>
             <a:ext uri="smNativeData">
-              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_h5G7ZhMAAAAlAAAAZQAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAABAAAAAAAAAAEAAABQAAAAhbacS3FV1T8AAAAAAAAAAAAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAEAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAAKwaQAIeAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAACAAAAAWAAAARgG8AiQAAAAYAAAA7wJ7AZt9AAAnHAAAUAcAAPoDAAAAAAAA"/>
+              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_YEW8ZhMAAAAlAAAAZQAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAABAAAAAAAAAAEAAABQAAAAhbacS3FV1T8AAAAAAAAAAAAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAEAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAAKwaQAIeAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAACAAAAAWAAAARgG8AiQAAAAYAAAA7wJ7AZt9AAAnHAAAUAcAAPoDAAAAAAAA"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvSpPr>
@@ -14438,7 +14392,7 @@
         <xdr:cNvSpPr>
           <a:extLst>
             <a:ext uri="smNativeData">
-              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_h5G7ZhMAAAAlAAAAZQAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAABAAAAAAAAAAEAAABQAAAAhbacS3FV1T8AAAAAAAAAAAAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAEAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAAAAAAAAeAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAACUAAAAWAAAAgwHYAikAAAAYAAAABwKYAbl9AACyIAAAUQcAANwDAAAAAAAA"/>
+              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_YEW8ZhMAAAAlAAAAZQAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAABAAAAAAAAAAEAAABQAAAAhbacS3FV1T8AAAAAAAAAAAAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAEAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAAAAAAAAeAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAACUAAAAWAAAAgwHYAikAAAAYAAAABwKYAbl9AACyIAAAUQcAANwDAAAAAAAA"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvSpPr>
@@ -14502,15 +14456,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>22</xdr:col>
-      <xdr:colOff>519430</xdr:colOff>
-      <xdr:row>48</xdr:row>
-      <xdr:rowOff>78740</xdr:rowOff>
+      <xdr:colOff>497840</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>10160</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>24</xdr:col>
-      <xdr:colOff>339725</xdr:colOff>
-      <xdr:row>51</xdr:row>
-      <xdr:rowOff>71755</xdr:rowOff>
+      <xdr:colOff>317500</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>3175</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" fLocksText="0">
       <xdr:nvSpPr>
@@ -14518,15 +14472,15 @@
         <xdr:cNvSpPr>
           <a:extLst>
             <a:ext uri="smNativeData">
-              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_h5G7ZhMAAAAlAAAAZQAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAABAAAAAAAAAAEAAABQAAAAhbacS3FV1T8AAAAAAAAAAAAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAEAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAAAAAAAAeAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAADAAAAAWAAAA2AHzAjMAAAAYAAAArgHuAdZ9AAB+KwAAkQcAABwDAAAAAAAA"/>
+              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_YEW8ZhMAAAAlAAAAZQAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAABAAAAAAAAAAEAAABQAAAAhbacS3FV1T8AAAAAAAAAAAAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAEAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAAAAAAAAeAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAADEAAAAWAAAAPgDTAjQAAAAYAAAAEwDNAbR9AAAfLAAAkAcAABwDAAAAAAAA"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvSpPr>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="20455890" y="7070090"/>
-          <a:ext cx="1229995" cy="505460"/>
+          <a:off x="20434300" y="7172325"/>
+          <a:ext cx="1229360" cy="505460"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -14593,7 +14547,7 @@
         <xdr:cNvSpPr>
           <a:extLst>
             <a:ext uri="smNativeData">
-              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_h5G7ZhMAAAAlAAAAZQAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAABAAAAAAAAAAEAAABQAAAAhbacS3FV1T8AAAAAAAAAAAAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAEAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAAP////8eAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAABsAAAAWAAAAZQCyAh8AAAAYAAAAXgJyAZB9AACbFwAAUQcAAOoDAAAAAAAA"/>
+              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_YEW8ZhMAAAAlAAAAZQAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAABAAAAAAAAAAEAAABQAAAAhbacS3FV1T8AAAAAAAAAAAAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAEAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAAP////8eAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAABsAAAAWAAAAZQCyAh8AAAAYAAAAXgJyAZB9AACbFwAAUQcAAOoDAAAAAAAA"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvSpPr>
@@ -14657,15 +14611,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>22</xdr:col>
-      <xdr:colOff>532130</xdr:colOff>
-      <xdr:row>45</xdr:row>
-      <xdr:rowOff>107950</xdr:rowOff>
+      <xdr:colOff>487045</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>16510</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>24</xdr:col>
-      <xdr:colOff>352425</xdr:colOff>
+      <xdr:colOff>308610</xdr:colOff>
       <xdr:row>48</xdr:row>
-      <xdr:rowOff>8890</xdr:rowOff>
+      <xdr:rowOff>88900</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" fLocksText="0">
       <xdr:nvSpPr>
@@ -14673,15 +14627,15 @@
         <xdr:cNvSpPr>
           <a:extLst>
             <a:ext uri="smNativeData">
-              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_h5G7ZhMAAAAlAAAAZQAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAABAAAAAAAAAAEAAABQAAAAhbacS3FV1T8AAAAAAAAAAAAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAEAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAAAAAAAAeAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAAC0AAAAWAAAAhwIFAzAAAAAYAAAANQAAAup9AACFKAAAkQcAAIsCAAAAAAAA"/>
+              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_YEW8ZhMAAAAlAAAAZQAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAABAAAAAAAAAAEAAABQAAAAhbacS3FV1T8AAAAAAAAAAAAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAEAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAAAAAAAAeAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAAC4AAAAWAAAAZADEAjAAAAAYAAAAFQLAAaN9AAACKQAAkwcAAIwCAAAAAAAA"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvSpPr>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="20468590" y="6586855"/>
-          <a:ext cx="1229995" cy="413385"/>
+          <a:off x="20423505" y="6666230"/>
+          <a:ext cx="1231265" cy="414020"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -14736,159 +14690,6 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>265430</xdr:colOff>
-      <xdr:row>39</xdr:row>
-      <xdr:rowOff>78105</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>492125</xdr:colOff>
-      <xdr:row>39</xdr:row>
-      <xdr:rowOff>139700</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" fLocksText="0">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="33" name="Автофигура125"/>
-        <xdr:cNvSpPr>
-          <a:extLst>
-            <a:ext uri="smNativeData">
-              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_h5G7ZhMAAAAlAAAAyAAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAAAAAAAAAAAAAEAAABQAAAAd3d3d3d3tz8AAAAAAAAAAAAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAEAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAAP////8eAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAACcAAAAWAAAA1AGCAScAAAAWAAAARQPLAkZ8AACpIgAAZQEAAGEAAAAAAAAA"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="20201890" y="5634355"/>
-          <a:ext cx="226695" cy="61595"/>
-        </a:xfrm>
-        <a:prstGeom prst="rightArrow">
-          <a:avLst>
-            <a:gd name="adj1" fmla="val 0"/>
-            <a:gd name="adj2" fmla="val 334304"/>
-          </a:avLst>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="FFFFFF"/>
-        </a:solidFill>
-        <a:ln w="12700" cap="flat">
-          <a:solidFill>
-            <a:srgbClr val="000000"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:headEnd type="none" w="med" len="med"/>
-          <a:tailEnd type="none" w="med" len="med"/>
-        </a:ln>
-        <a:effectLst/>
-      </xdr:spPr>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>284480</xdr:colOff>
-      <xdr:row>43</xdr:row>
-      <xdr:rowOff>115570</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>509905</xdr:colOff>
-      <xdr:row>44</xdr:row>
-      <xdr:rowOff>39370</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" fLocksText="0">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="32" name="Автофигура126"/>
-        <xdr:cNvSpPr>
-          <a:extLst>
-            <a:ext uri="smNativeData">
-              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_h5G7ZhMAAAAlAAAAyAAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAAAAAAAAAAAAAEAAABQAAAAd3d3d3d3tz8AAAAAAAAAAAAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAEAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAAP////8eAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAACsAAAAWAAAACQOdASwAAAAWAAAA7ADlAmR8AACUJgAAYwEAAHgAAAAAAAAA"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="20220940" y="6271260"/>
-          <a:ext cx="225425" cy="76200"/>
-        </a:xfrm>
-        <a:prstGeom prst="rightArrow">
-          <a:avLst>
-            <a:gd name="adj1" fmla="val 0"/>
-            <a:gd name="adj2" fmla="val 268715"/>
-          </a:avLst>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="FFFFFF"/>
-        </a:solidFill>
-        <a:ln w="12700" cap="flat">
-          <a:solidFill>
-            <a:srgbClr val="000000"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:headEnd type="none" w="med" len="med"/>
-          <a:tailEnd type="none" w="med" len="med"/>
-        </a:ln>
-        <a:effectLst/>
-      </xdr:spPr>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>257810</xdr:colOff>
-      <xdr:row>46</xdr:row>
-      <xdr:rowOff>27940</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>484505</xdr:colOff>
-      <xdr:row>46</xdr:row>
-      <xdr:rowOff>89535</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" fLocksText="0">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="31" name="Автофигура127"/>
-        <xdr:cNvSpPr>
-          <a:extLst>
-            <a:ext uri="smNativeData">
-              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_h5G7ZhMAAAAlAAAAyAAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAAAAAAAAAAAAAEAAABQAAAAd3d3d3d3tz8AAAAAAAAAAAAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAEAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAAD48dj4eAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAAC4AAAAWAAAApwB3AS4AAAAWAAAAGQLAAjp8AAAUKQAAZQEAAGEAAAAAAAAA"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="20194270" y="6677660"/>
-          <a:ext cx="226695" cy="61595"/>
-        </a:xfrm>
-        <a:prstGeom prst="rightArrow">
-          <a:avLst>
-            <a:gd name="adj1" fmla="val 0"/>
-            <a:gd name="adj2" fmla="val 334304"/>
-          </a:avLst>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="FFFFFF"/>
-        </a:solidFill>
-        <a:ln w="12700" cap="flat">
-          <a:solidFill>
-            <a:srgbClr val="000000"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:headEnd type="none" w="med" len="med"/>
-          <a:tailEnd type="none" w="med" len="med"/>
-        </a:ln>
-        <a:effectLst/>
-      </xdr:spPr>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
       <xdr:col>24</xdr:col>
       <xdr:colOff>524510</xdr:colOff>
       <xdr:row>16</xdr:row>
@@ -14902,11 +14703,11 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="30" name="Соединительная линия3"/>
+        <xdr:cNvPr id="33" name="Соединительная линия3"/>
         <xdr:cNvCxnSpPr>
           <a:extLst>
             <a:ext uri="smNativeData">
-              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_h5G7ZhMAAAAlAAAADQAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAAAAAAAAAAAAAEAAABQAAAAAAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAAAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAZAAAAAEAAABAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAAF8AYAAeAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAABAAAAAYAAAAvAD6AikAAAAYAAAALwP6AoqGAAAZDgAAAAAAALYWAAAAAAAA"/>
+              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_YEW8ZhMAAAAlAAAADQAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAAAAAAAAAAAAAEAAABQAAAAAAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAAAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAZAAAAAEAAABAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAAF8AYAAeAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAABAAAAAYAAAAvAD6AikAAAAYAAAALwP6AoqGAAAZDgAAAAAAALYWAAAAAAAA"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvCxnSpPr>
@@ -14948,11 +14749,11 @@
     </xdr:to>
     <xdr:sp macro="" fLocksText="0">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="29" name="Автофигура128"/>
+        <xdr:cNvPr id="32" name="Автофигура128"/>
         <xdr:cNvSpPr>
           <a:extLst>
             <a:ext uri="smNativeData">
-              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_h5G7ZhMAAAAlAAAAyAAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAAAAAAAAAAAAAEAAABQAAAAJIA3MJd3tz8AAAAAAAAAAAAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAEAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAACByPSIeAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAAA8AAAAYAAAA8QLfAhAAAAAZAAAA1AEoAG2GAAC1DQAAZAEAAKEAAAAAAAAA"/>
+              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_YEW8ZhMAAAAlAAAAyAAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAAAAAAAAAAAAAEAAABQAAAAJIA3MJd3tz8AAAAAAAAAAAAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAEAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAACByPSIeAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAAA8AAAAYAAAA8QLfAhAAAAAZAAAA1AEoAG2GAAC1DQAAZAEAAKEAAAAAAAAA"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvSpPr>
@@ -14999,11 +14800,11 @@
     </xdr:to>
     <xdr:sp macro="" fLocksText="0">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="28" name="Автофигура129"/>
+        <xdr:cNvPr id="31" name="Автофигура129"/>
         <xdr:cNvSpPr>
           <a:extLst>
             <a:ext uri="smNativeData">
-              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_h5G7ZhMAAAAlAAAAyAAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAAAAAAAAAAAAAEAAABQAAAAJIA3MJd3tz8AAAAAAAAAAAAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAEAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAAHBhbnMeAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAABAAAAAYAAAAAgKJAREAAAAYAAAA6gDSAvqEAABgDgAAZQEAAKIAAAAAAAAA"/>
+              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_YEW8ZhMAAAAlAAAAyAAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAAAAAAAAAAAAAEAAABQAAAAJIA3MJd3tz8AAAAAAAAAAAAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAEAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAAHBhbnMeAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAABAAAAAYAAAAAgKJAREAAAAYAAAA6gDSAvqEAABgDgAAZQEAAKIAAAAAAAAA"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvSpPr>
@@ -15050,11 +14851,11 @@
     </xdr:to>
     <xdr:sp macro="" fLocksText="0">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="27" name="Автофигура130"/>
+        <xdr:cNvPr id="30" name="Автофигура130"/>
         <xdr:cNvSpPr>
           <a:extLst>
             <a:ext uri="smNativeData">
-              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_h5G7ZhMAAAAlAAAAyAAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAAAAAAAAAAAAAEAAABQAAAAJIA3MJd3tz8AAAAAAAAAAAAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAEAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAAGM+PGMeAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAABQAAAAYAAAA8AH6AhUAAAAZAAAA2ABCAIqGAADYEQAAZAEAAKIAAAAAAAAA"/>
+              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_YEW8ZhMAAAAlAAAAyAAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAAAAAAAAAAAAAEAAABQAAAAJIA3MJd3tz8AAAAAAAAAAAAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAEAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAAGM+PGMeAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAABQAAAAYAAAA8AH6AhUAAAAZAAAA2ABCAIqGAADYEQAAZAEAAKIAAAAAAAAA"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvSpPr>
@@ -15101,11 +14902,11 @@
     </xdr:to>
     <xdr:sp macro="" fLocksText="0">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="26" name="Автофигура133"/>
+        <xdr:cNvPr id="29" name="Автофигура133"/>
         <xdr:cNvSpPr>
           <a:extLst>
             <a:ext uri="smNativeData">
-              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_h5G7ZhMAAAAlAAAAyAAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAAAAAAAAAAAAAEAAABQAAAAJIA3MJd3tz8AAAAAAAAAAAAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAEAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAAP////8eAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAABoAAAAYAAAAQQEFAxsAAAAZAAAAKQBNAJaGAADsFgAAYwEAAKIAAAAAAAAA"/>
+              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_YEW8ZhMAAAAlAAAAyAAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAAAAAAAAAAAAAEAAABQAAAAJIA3MJd3tz8AAAAAAAAAAAAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAEAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAAP////8eAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAABoAAAAYAAAAQQEFAxsAAAAZAAAAKQBNAJaGAADsFgAAYwEAAKIAAAAAAAAA"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvSpPr>
@@ -15152,11 +14953,11 @@
     </xdr:to>
     <xdr:sp macro="" fLocksText="0">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="25" name="Автофигура135"/>
+        <xdr:cNvPr id="28" name="Автофигура135"/>
         <xdr:cNvSpPr>
           <a:extLst>
             <a:ext uri="smNativeData">
-              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_h5G7ZhMAAAAlAAAAyAAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAAAAAAAAAAAAAEAAABQAAAAJIA3MJd3tz8AAAAAAAAAAAAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAEAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAAHI9IkEeAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAAB8AAAAYAAAAqQPvAiAAAAAZAAAAjAI3AH6GAADNGwAAZAEAAKEAAAAAAAAA"/>
+              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_YEW8ZhMAAAAlAAAAyAAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAAAAAAAAAAAAAEAAABQAAAAJIA3MJd3tz8AAAAAAAAAAAAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAEAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAAHI9IkEeAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAAB8AAAAYAAAAqQPvAiAAAAAZAAAAjAI3AH6GAADNGwAAZAEAAKEAAAAAAAAA"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvSpPr>
@@ -15203,11 +15004,11 @@
     </xdr:to>
     <xdr:sp macro="" fLocksText="0">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="24" name="Автофигура136"/>
+        <xdr:cNvPr id="27" name="Автофигура136"/>
         <xdr:cNvSpPr>
           <a:extLst>
             <a:ext uri="smNativeData">
-              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_h5G7ZhMAAAAlAAAAyAAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAAAAAAAAAAAAAEAAABQAAAAJIA3MJd3tz8AAAAAAAAAAAAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAEAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAADEyPC8eAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAACUAAAAYAAAApgILAyYAAAAZAAAAbwFSAJyGAADyIAAAYwEAAKIAAAAAAAAA"/>
+              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_YEW8ZhMAAAAlAAAAyAAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAAAAAAAAAAAAAEAAABQAAAAJIA3MJd3tz8AAAAAAAAAAAAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAEAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAADEyPC8eAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAACUAAAAYAAAApgILAyYAAAAZAAAAbwFSAJyGAADyIAAAYwEAAKIAAAAAAAAA"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvSpPr>
@@ -15254,11 +15055,11 @@
     </xdr:to>
     <xdr:sp macro="" fLocksText="0">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="23" name="Автофигура137"/>
+        <xdr:cNvPr id="26" name="Автофигура137"/>
         <xdr:cNvSpPr>
           <a:extLst>
             <a:ext uri="smNativeData">
-              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_h5G7ZhMAAAAlAAAAyAAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAAAAAAAAAAAAAEAAABQAAAAJIA3MJd3tz8AAAAAAAAAAAAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAEAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAAEI1OSIeAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAACkAAAAYAAAAowHlAioAAAAZAAAAjQAsAHOGAAB4JAAAYwEAAKQAAAAAAAAA"/>
+              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_YEW8ZhMAAAAlAAAAyAAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAAAAAAAAAAAAAEAAABQAAAAJIA3MJd3tz8AAAAAAAAAAAAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAEAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAAEI1OSIeAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAACkAAAAYAAAAowHlAioAAAAZAAAAjQAsAHOGAAB4JAAAYwEAAKQAAAAAAAAA"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvSpPr>
@@ -15295,29 +15096,29 @@
       <xdr:col>22</xdr:col>
       <xdr:colOff>484505</xdr:colOff>
       <xdr:row>42</xdr:row>
-      <xdr:rowOff>12700</xdr:rowOff>
+      <xdr:rowOff>56515</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>24</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
       <xdr:row>45</xdr:row>
-      <xdr:rowOff>48260</xdr:rowOff>
+      <xdr:rowOff>93980</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" fLocksText="0">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="22" name="Автофигура138"/>
+        <xdr:cNvPr id="25" name="Автофигура138"/>
         <xdr:cNvSpPr>
           <a:extLst>
             <a:ext uri="smNativeData">
-              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_h5G7ZhMAAAAlAAAAZQAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAABAAAAAAAAAAEAAABQAAAAhbacS3FV1T8AAAAAAAAAAAAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAEAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAAEMxNjQeAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAACoAAAAWAAAAWwDAAi0AAAAYAAAAIQG7AZ99AAARJQAAkQcAABYDAAAAAAAA"/>
+              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_YEW8ZhMAAAAlAAAAZQAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAABAAAAAAAAAAEAAABQAAAAhbacS3FV1T8AAAAAAAAAAAAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAEAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAAEMxNjQeAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAACoAAAAWAAAAlwHAAi0AAAAYAAAANAK7AZ99AABWJQAAkQcAABkDAAAAAAAA"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvSpPr>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="20420965" y="6025515"/>
-          <a:ext cx="1229995" cy="501650"/>
+          <a:off x="20420965" y="6069330"/>
+          <a:ext cx="1229995" cy="503555"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -15372,57 +15173,6 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>264795</xdr:colOff>
-      <xdr:row>49</xdr:row>
-      <xdr:rowOff>45085</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>492125</xdr:colOff>
-      <xdr:row>49</xdr:row>
-      <xdr:rowOff>107315</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" fLocksText="0">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="21" name="Автофигура139"/>
-        <xdr:cNvSpPr>
-          <a:extLst>
-            <a:ext uri="smNativeData">
-              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_h5G7ZhMAAAAlAAAAyAAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAAAAAAAAAAAAAEAAABQAAAAd3d3d3d3tz8AAAAAAAAAAAAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAEAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAAEExNzgeAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAADEAAAAWAAAADgGBATEAAAAWAAAAgwLLAkV8AABWLAAAZgEAAGIAAAAAAAAA"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="20201255" y="7207250"/>
-          <a:ext cx="227330" cy="62230"/>
-        </a:xfrm>
-        <a:prstGeom prst="rightArrow">
-          <a:avLst>
-            <a:gd name="adj1" fmla="val 0"/>
-            <a:gd name="adj2" fmla="val 331820"/>
-          </a:avLst>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="FFFFFF"/>
-        </a:solidFill>
-        <a:ln w="12700" cap="flat">
-          <a:solidFill>
-            <a:srgbClr val="000000"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:headEnd type="none" w="med" len="med"/>
-          <a:tailEnd type="none" w="med" len="med"/>
-        </a:ln>
-        <a:effectLst/>
-      </xdr:spPr>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
       <xdr:col>23</xdr:col>
       <xdr:colOff>260350</xdr:colOff>
       <xdr:row>7</xdr:row>
@@ -15436,11 +15186,11 @@
     </xdr:to>
     <xdr:sp macro="" fLocksText="0">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="20" name="Автофигура141"/>
+        <xdr:cNvPr id="24" name="Автофигура141"/>
         <xdr:cNvSpPr>
           <a:extLst>
             <a:ext uri="smNativeData">
-              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_h5G7ZhMAAAAlAAAAywAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAABAAAAAAAAAAEAAABQAAAAtsuXJgN6zj+SkbOwpx2uPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAEAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAAHQ9IjAeAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAAAcAAAAXAAAAbAJ6AQgAAAAXAAAAFgNnApSAAACgBgAAAQEAAAQBAAAAAAAA"/>
+              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_YEW8ZhMAAAAlAAAAywAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAABAAAAAAAAAAEAAABQAAAAtsuXJgN6zj+SkbOwpx2uPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAEAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAAHQ9IjAeAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAAAcAAAAXAAAAbAJ6AQgAAAAXAAAAFgNnApSAAACgBgAAAQEAAAQBAAAAAAAA"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvSpPr>
@@ -15487,11 +15237,11 @@
     </xdr:to>
     <xdr:sp macro="" fLocksText="0">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="19" name="Автофигура142"/>
+        <xdr:cNvPr id="23" name="Автофигура142"/>
         <xdr:cNvSpPr>
           <a:extLst>
             <a:ext uri="smNativeData">
-              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_h5G7ZhMAAAAlAAAAZQAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAABAAAAAAAAAAEAAABQAAAAhbacS3FV1T8AAAAAAAAAAAAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAEAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAAP////8eAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAAA0AAAAeAAAA8AEYAxAAAAAgAAAAhwKlAq+gAAC/CwAALwgAAL4CAAAAAAAA"/>
+              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_YEW8ZhMAAAAlAAAAZQAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAABAAAAAAAAAAEAAABQAAAAhbacS3FV1T8AAAAAAAAAAAAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAEAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAAP////8eAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAAA0AAAAeAAAA8AEYAxAAAAAgAAAAhwKlAq+gAAC/CwAALwgAAL4CAAAAAAAA"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvSpPr>
@@ -15562,11 +15312,11 @@
     </xdr:to>
     <xdr:sp macro="" fLocksText="0">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="18" name="Автофигура143"/>
+        <xdr:cNvPr id="22" name="Автофигура143"/>
         <xdr:cNvSpPr>
           <a:extLst>
             <a:ext uri="smNativeData">
-              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_h5G7ZhMAAAAlAAAAZQAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAABAAAAAAAAAAEAAABQAAAAhbacS3FV1T8AAAAAAAAAAAAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAEAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAAAAAAAAeAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAABEAAAAeAAAA3gEzAxQAAAAgAAAARwK/AsygAAA3DwAALggAALQCAAAAAAAA"/>
+              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_YEW8ZhMAAAAlAAAAZQAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAABAAAAAAAAAAEAAABQAAAAhbacS3FV1T8AAAAAAAAAAAAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAEAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAAAAAAAAeAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAABEAAAAeAAAA3gEzAxQAAAAgAAAARwK/AsygAAA3DwAALggAALQCAAAAAAAA"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvSpPr>
@@ -15637,11 +15387,11 @@
     </xdr:to>
     <xdr:sp macro="" fLocksText="0">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="17" name="Автофигура144"/>
+        <xdr:cNvPr id="21" name="Автофигура144"/>
         <xdr:cNvSpPr>
           <a:extLst>
             <a:ext uri="smNativeData">
-              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_h5G7ZhMAAAAlAAAAZQAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAABAAAAAAAAAAEAAABQAAAAhbacS3FV1T8AAAAAAAAAAAAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAEAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAADwvcm8eAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAAA4AAAAcAAAA4AOzARIAAAAeAAAAQwJ9AICWAAAKDQAAWwcAACIDAAAAAAAA"/>
+              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_YEW8ZhMAAAAlAAAAZQAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAABAAAAAAAAAAEAAABQAAAAhbacS3FV1T8AAAAAAAAAAAAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAEAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAADwvcm8eAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAAA4AAAAcAAAA4AOzARIAAAAeAAAAQwJ9AICWAAAKDQAAWwcAACIDAAAAAAAA"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvSpPr>
@@ -15722,11 +15472,11 @@
     </xdr:to>
     <xdr:sp macro="" fLocksText="0">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="16" name="Автофигура145"/>
+        <xdr:cNvPr id="20" name="Автофигура145"/>
         <xdr:cNvSpPr>
           <a:extLst>
             <a:ext uri="smNativeData">
-              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_h5G7ZhMAAAAlAAAAZQAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAABAAAAAAAAAAEAAABQAAAAhbacS3FV1T8AAAAAAAAAAAAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAEAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAAP////8eAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAABMAAAAcAAAATALPARYAAAAeAAAANgOfAJ6WAAANEQAAYgcAANACAAAAAAAA"/>
+              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_YEW8ZhMAAAAlAAAAZQAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAABAAAAAAAAAAEAAABQAAAAhbacS3FV1T8AAAAAAAAAAAAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAEAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAAP////8eAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAABMAAAAcAAAATALPARYAAAAeAAAANgOfAJ6WAAANEQAAYgcAANACAAAAAAAA"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvSpPr>
@@ -15818,12 +15568,12 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="15" name="Соединительная линия10"/>
+        <xdr:cNvPr id="19" name="Соединительная линия10"/>
         <xdr:cNvCxnSpPr>
-          <a:endCxn id="12" idx="0"/>
+          <a:endCxn id="16" idx="0"/>
           <a:extLst>
             <a:ext uri="smNativeData">
-              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_h5G7ZhMAAAAlAAAADQAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAAAAAAAAAAAAAEAAABQAAAAAAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAAAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAZAAAAAEAAABAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAADcyMzQeAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAAA4AAAAcAAAA5wF/ABQAAAAcAAAAZAOJADKVAACcDAAACwAAAI0FAAAAAAAA"/>
+              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_YEW8ZhMAAAAlAAAADQAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAAAAAAAAAAAAAEAAABQAAAAAAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAAAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAZAAAAAEAAABAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAADcyMzQeAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAAA4AAAAcAAAA5wF/ABQAAAAcAAAAZAOJADKVAACcDAAACwAAAI0FAAAAAAAA"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvCxnSpPr>
@@ -15853,30 +15603,30 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>28</xdr:col>
-      <xdr:colOff>5080</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>22860</xdr:rowOff>
+      <xdr:colOff>5715</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>77470</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>28</xdr:col>
-      <xdr:colOff>167005</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>46355</xdr:rowOff>
+      <xdr:colOff>167640</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>100965</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" fLocksText="0">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="14" name="Автофигура146"/>
+        <xdr:cNvPr id="18" name="Автофигура146"/>
         <xdr:cNvSpPr>
           <a:extLst>
             <a:ext uri="smNativeData">
-              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_h5G7ZhMAAAAlAAAAywAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAAAAAAAAAAAAAEAAABQAAAAKv77W8R5zj+SkbOwpx2uPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAEAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAAHlsZT0eAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAAA4AAAAcAAAApQAHAA8AAAAcAAAATwHzALCUAABWDAAA/wAAAAQBAAAAAAAA"/>
+              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_YEW8ZhMAAAAlAAAAywAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAAAAAAAAAAAAAEAAABQAAAAKv77W8R5zj+SkbOwpx2uPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAEAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAAHlsZT0eAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAAA0AAAAcAAAALwIIAA4AAAAcAAAA2QL0ALGUAADNCwAA/wAAAAQBAAAAAAAA"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvSpPr>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="24170640" y="2005330"/>
+          <a:off x="24171275" y="1918335"/>
           <a:ext cx="161925" cy="165100"/>
         </a:xfrm>
         <a:prstGeom prst="downArrow">
@@ -15916,11 +15666,11 @@
     </xdr:to>
     <xdr:sp macro="" fLocksText="0">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="13" name="Автофигура147"/>
+        <xdr:cNvPr id="17" name="Автофигура147"/>
         <xdr:cNvSpPr>
           <a:extLst>
             <a:ext uri="smNativeData">
-              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_h5G7ZhMAAAAlAAAAyAAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAAAAAAAAAAAAAEAAABQAAAAJIA3MJd3tz8AAAAAAAAAAAAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAEAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAACIvPjweAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAABAAAAAcAAAAEgBvABAAAAAcAAAA+gK3ASCVAAD0DQAAZAEAAKIAAAAAAAAA"/>
+              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_YEW8ZhMAAAAlAAAAyAAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAAAAAAAAAAAAAEAAABQAAAAJIA3MJd3tz8AAAAAAAAAAAAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAEAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAACIvPjweAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAABAAAAAcAAAAEgBvABAAAAAcAAAA+gK3ASCVAAD0DQAAZAEAAKIAAAAAAAAA"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvSpPr>
@@ -15967,11 +15717,11 @@
     </xdr:to>
     <xdr:sp macro="" fLocksText="0">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="12" name="Автофигура148"/>
+        <xdr:cNvPr id="16" name="Автофигура148"/>
         <xdr:cNvSpPr>
           <a:extLst>
             <a:ext uri="smNativeData">
-              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_h5G7ZhMAAAAlAAAAyAAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAAAAAAAAAAAAAEAAABQAAAAJIA3MJd3tz8AAAAAAAAAAAAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAEAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAAP////8eAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAABQAAAAcAAAAZANrABUAAAAcAAAATAKyARyVAAApEgAAYgEAAKIAAAAAAAAA"/>
+              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_YEW8ZhMAAAAlAAAAyAAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAAAAAAAAAAAAAEAAABQAAAAJIA3MJd3tz8AAAAAAAAAAAAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAEAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAAP////8eAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAABQAAAAcAAAAZANrABUAAAAcAAAATAKyARyVAAApEgAAYgEAAKIAAAAAAAAA"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvSpPr>
@@ -16018,11 +15768,11 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="11" name="Соединительная линия11"/>
+        <xdr:cNvPr id="15" name="Соединительная линия11"/>
         <xdr:cNvCxnSpPr>
           <a:extLst>
             <a:ext uri="smNativeData">
-              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_h5G7ZhMAAAAlAAAADQAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAAAAAAAAAAAAAEAAABQAAAAAAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAAAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAZAAAAAEAAABAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAADcyMzQeAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAAA4AAAAeAAAA2gL0ARMAAAAeAAAAqwEVAnKfAADRDAAAJAAAABkEAAAAAAAA"/>
+              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_YEW8ZhMAAAAlAAAADQAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAAAAAAAAAAAAAEAAABQAAAAAAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAAAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAZAAAAAEAAABAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAADcyMzQeAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAAA4AAAAeAAAA2gL0ARMAAAAeAAAAqwEVAnKfAADRDAAAJAAAABkEAAAAAAAA"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvCxnSpPr>
@@ -16064,11 +15814,11 @@
     </xdr:to>
     <xdr:sp macro="" fLocksText="0">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="10" name="Автофигура149"/>
+        <xdr:cNvPr id="14" name="Автофигура149"/>
         <xdr:cNvSpPr>
           <a:extLst>
             <a:ext uri="smNativeData">
-              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_h5G7ZhMAAAAlAAAAyAAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAAAAAAAAAAAAAEAAABQAAAAJIA3MJd3tz8AAAAAAAAAAAAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAEAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAAD48dj4eAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAAA8AAAAeAAAAvwJ6ABAAAAAeAAAAogHBAdidAACqDQAAYwEAAKEAAAAAAAAA"/>
+              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_YEW8ZhMAAAAlAAAAyAAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAAAAAAAAAAAAAEAAABQAAAAJIA3MJd3tz8AAAAAAAAAAAAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAEAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAAD48dj4eAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAAA8AAAAeAAAAvwJ6ABAAAAAeAAAAogHBAdidAACqDQAAYwEAAKEAAAAAAAAA"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvSpPr>
@@ -16115,11 +15865,11 @@
     </xdr:to>
     <xdr:sp macro="" fLocksText="0">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="9" name="Автофигура150"/>
+        <xdr:cNvPr id="13" name="Автофигура150"/>
         <xdr:cNvSpPr>
           <a:extLst>
             <a:ext uri="smNativeData">
-              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_h5G7ZhMAAAAlAAAAyAAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAABAAAAAAAAAAEAAABQAAAAJIA3MJd3tz8AAAAAAAAAAAAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAEAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAACI+PHYeAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAAA4AAAAeAAAAAgLZAQ8AAAAeAAAA6gAgA1WfAACiDAAAYgEAAKIAAAAAAAAA"/>
+              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_YEW8ZhMAAAAlAAAAyAAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAABAAAAAAAAAAEAAABQAAAAJIA3MJd3tz8AAAAAAAAAAAAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAEAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAACI+PHYeAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAAA4AAAAeAAAAAgLZAQ8AAAAeAAAA6gAgA1WfAACiDAAAYgEAAKIAAAAAAAAA"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvSpPr>
@@ -16166,11 +15916,11 @@
     </xdr:to>
     <xdr:sp macro="" fLocksText="0">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="8" name="Автофигура151"/>
+        <xdr:cNvPr id="12" name="Автофигура151"/>
         <xdr:cNvSpPr>
           <a:extLst>
             <a:ext uri="smNativeData">
-              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_h5G7ZhMAAAAlAAAAyAAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAABAAAAAAAAAAEAAABQAAAAJIA3MJd3tz8AAAAAAAAAAAAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAEAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAAP////8eAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAABIAAAAeAAAA2gIFAhMAAAAeAAAAwgFMA4SfAABNEAAAYwEAAKIAAAAAAAAA"/>
+              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_YEW8ZhMAAAAlAAAAyAAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAABAAAAAAAAAAEAAABQAAAAJIA3MJd3tz8AAAAAAAAAAAAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAEAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAAP////8eAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAABIAAAAeAAAA2gIFAhMAAAAeAAAAwgFMA4SfAABNEAAAYwEAAKIAAAAAAAAA"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvSpPr>
@@ -16205,30 +15955,30 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>33</xdr:col>
-      <xdr:colOff>619125</xdr:colOff>
+      <xdr:colOff>652780</xdr:colOff>
       <xdr:row>14</xdr:row>
-      <xdr:rowOff>3175</xdr:rowOff>
+      <xdr:rowOff>79375</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>35</xdr:col>
-      <xdr:colOff>406400</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>86995</xdr:rowOff>
+      <xdr:colOff>440055</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>21590</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" fLocksText="0">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="7" name="Автофигура152"/>
+        <xdr:cNvPr id="11" name="Автофигура152"/>
         <xdr:cNvSpPr>
           <a:extLst>
             <a:ext uri="smNativeData">
-              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_h5G7ZhMAAAAlAAAAZQAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAABAAAAAAAAAAEAAABQAAAAhbacS3FV1T8AAAAAAAAAAAAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAEAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAAAAAAAAeAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAAA4AAAAhAAAAFwCDAxEAAAAjAAAAdQJOAiWuAAA3DAAAXQcAACEDAAAAAAAA"/>
+              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_YEW8ZhMAAAAlAAAAZQAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAABAAAAAAAAAAEAAABQAAAAhbacS3FV1T8AAAAAAAAAAAAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAEAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAAAAAAAAeAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAAA4AAAAhAAAAPAK0AxIAAAAjAAAAnQB/AlquAACvDAAAXQcAACEDAAAAAAAA"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvSpPr>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="28308935" y="1985645"/>
+          <a:off x="28342590" y="2061845"/>
           <a:ext cx="1196975" cy="508635"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
@@ -16302,11 +16052,11 @@
     </xdr:to>
     <xdr:sp macro="" fLocksText="0">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="6" name="Автофигура153"/>
+        <xdr:cNvPr id="10" name="Автофигура153"/>
         <xdr:cNvSpPr>
           <a:extLst>
             <a:ext uri="smNativeData">
-              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_h5G7ZhMAAAAlAAAAZQAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAABAAAAAAAAAAEAAABQAAAAhbacS3FV1T8AAAAAAAAAAAAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAEAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAAG93PjweAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAABMAAAAhAAAAlAGvAxYAAAAjAAAAfgKAAlSuAADlEAAAZAcAANACAAAAAAAA"/>
+              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_YEW8ZhMAAAAlAAAAZQAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAABAAAAAAAAAAEAAABQAAAAhbacS3FV1T8AAAAAAAAAAAAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAEAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAAG93PjweAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAABMAAAAhAAAAlAGvAxYAAAAjAAAAfgKAAlSuAADlEAAAZAcAANACAAAAAAAA"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvSpPr>
@@ -16398,12 +16148,12 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="5" name="Соединительная линия12"/>
+        <xdr:cNvPr id="9" name="Соединительная линия12"/>
         <xdr:cNvCxnSpPr>
-          <a:endCxn id="2" idx="0"/>
+          <a:endCxn id="6" idx="0"/>
           <a:extLst>
             <a:ext uri="smNativeData">
-              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_h5G7ZhMAAAAlAAAADQAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAAAAAAAAAAAAAEAAABQAAAAAAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAAAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAZAAAAAEAAABAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAAAAAAAAeAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAAA0AAAAhAAAAxAMlAhQAAAAhAAAArAJHAqmsAAAlDAAAJQAAANwFAAAAAAAA"/>
+              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_YEW8ZhMAAAAlAAAADQAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAAAAAAAAAAAAAEAAABQAAAAAAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAAAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAZAAAAAEAAABAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAAAAAAAAeAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAAA0AAAAhAAAAxAMlAhQAAAAhAAAArAJHAqmsAAAlDAAAJQAAANwFAAAAAAAA"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvCxnSpPr>
@@ -16445,11 +16195,11 @@
     </xdr:to>
     <xdr:sp macro="" fLocksText="0">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="4" name="Автофигура154"/>
+        <xdr:cNvPr id="8" name="Автофигура154"/>
         <xdr:cNvSpPr>
           <a:extLst>
             <a:ext uri="smNativeData">
-              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_h5G7ZhMAAAAlAAAAywAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAAAAAAAAAAAAAEAAABQAAAAKv77W8R5zj+SkbOwpx2uPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAEAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAAP////8eAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAAA0AAAAhAAAAmwOoAQ8AAAAhAAAARQCTAiKsAAAcDAAA/gAAAAQBAAAAAAAA"/>
+              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_YEW8ZhMAAAAlAAAAywAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAAAAAAAAAAAAAEAAABQAAAAKv77W8R5zj+SkbOwpx2uPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAEAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAAP////8eAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAAA0AAAAhAAAAmwOoAQ8AAAAhAAAARQCTAiKsAAAcDAAA/gAAAAQBAAAAAAAA"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvSpPr>
@@ -16484,36 +16234,36 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>33</xdr:col>
-      <xdr:colOff>365760</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>100330</xdr:rowOff>
+      <xdr:colOff>400050</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>45720</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>33</xdr:col>
-      <xdr:colOff>590550</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>60960</xdr:rowOff>
+      <xdr:colOff>624205</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>6985</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" fLocksText="0">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="Автофигура155"/>
+        <xdr:cNvPr id="7" name="Автофигура155"/>
         <xdr:cNvSpPr>
           <a:extLst>
             <a:ext uri="smNativeData">
-              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_h5G7ZhMAAAAlAAAAyAAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAABAAAAAAAAAAEAAABQAAAAJIA3MJd3tz8AAAAAAAAAAAAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAEAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAAP////8eAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAAA8AAAAhAAAA1gITAhAAAAAhAAAAuQFaA5asAACvDQAAYgEAAKEAAAAAAAAA"/>
+              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_YEW8ZhMAAAAlAAAAyAAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAABAAAAAAAAAAEAAABQAAAAJIA3MJd3tz8AAAAAAAAAAAAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAEAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAAP////8eAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAABAAAAAhAAAASwFFAhEAAAAhAAAAMQCLA8ysAAA4DgAAYQEAAKIAAAAAAAAA"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvSpPr>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="28055570" y="2224405"/>
-          <a:ext cx="224790" cy="102235"/>
+          <a:off x="28089860" y="2311400"/>
+          <a:ext cx="224155" cy="102870"/>
         </a:xfrm>
         <a:prstGeom prst="rightArrow">
           <a:avLst>
             <a:gd name="adj1" fmla="val 0"/>
-            <a:gd name="adj2" fmla="val 199720"/>
+            <a:gd name="adj2" fmla="val 197926"/>
           </a:avLst>
         </a:prstGeom>
         <a:solidFill>
@@ -16547,11 +16297,11 @@
     </xdr:to>
     <xdr:sp macro="" fLocksText="0">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="Автофигура156"/>
+        <xdr:cNvPr id="6" name="Автофигура156"/>
         <xdr:cNvSpPr>
           <a:extLst>
             <a:ext uri="smNativeData">
-              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_h5G7ZhMAAAAlAAAAyAAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAAAAAAAAAAAAAEAAABQAAAAJIA3MJd3tz8AAAAAAAAAAAAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAEAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAANC8INEeAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAABQAAAAhAAAArAIpAhUAAAAhAAAAlAFwA62sAAABEgAAYwEAAKIAAAAAAAAA"/>
+              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_YEW8ZhMAAAAlAAAAyAAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAAAAAAAAAAAAAEAAABQAAAAJIA3MJd3tz8AAAAAAAAAAAAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAEAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAANC8INEeAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAABQAAAAhAAAArAIpAhUAAAAhAAAAlAFwA62sAAABEgAAYwEAAKIAAAAAAAAA"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvSpPr>
@@ -16565,6 +16315,210 @@
           <a:avLst>
             <a:gd name="adj1" fmla="val 0"/>
             <a:gd name="adj2" fmla="val 199048"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="12700" cap="flat">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>255905</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>60960</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>484505</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>168275</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" fLocksText="0">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="Автофигура139"/>
+        <xdr:cNvSpPr>
+          <a:extLst>
+            <a:ext uri="smNativeData">
+              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_YEW8ZhMAAAAlAAAAyAAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAAAAAAAAAAAAAEAAABQAAAA5eEVHH13tz8AAAAAAAAAAAAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAEAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAAAAAAAAeAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAADIAAAAWAAAAbwF0ATIAAAAWAAAA8QPAAjd8AAB8LQAAaAEAAKkAAAAAAAAA"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="20192365" y="7393940"/>
+          <a:ext cx="228600" cy="107315"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightArrow">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 0"/>
+            <a:gd name="adj2" fmla="val 193491"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="12700" cap="flat">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>240665</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>1270</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>469265</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>107950</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" fLocksText="0">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="Автофигура127"/>
+        <xdr:cNvSpPr>
+          <a:extLst>
+            <a:ext uri="smNativeData">
+              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_YEW8ZhMAAAAlAAAAyAAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAAAAAAAAAAAAAEAAABQAAAA5eEVHH13tz8AAAAAAAAAAAAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAEAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAAD0iMCIeAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAAC8AAAAWAAAACABeAS8AAAAWAAAAiQKqAh98AAD3KQAAaAEAAKgAAAAAAAAA"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="20177125" y="6821805"/>
+          <a:ext cx="228600" cy="106680"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightArrow">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 0"/>
+            <a:gd name="adj2" fmla="val 194643"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="12700" cap="flat">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>252730</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>481330</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>40640</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" fLocksText="0">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="Автофигура126"/>
+        <xdr:cNvSpPr>
+          <a:extLst>
+            <a:ext uri="smNativeData">
+              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_YEW8ZhMAAAAlAAAAyAAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAAAAAAAAAAAAAEAAABQAAAA5eEVHH13tz8AAAAAAAAAAAAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAEAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAAJeXl/8eAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAACsAAAAWAAAAVQJvASwAAAAWAAAA8wC7AjJ8AABqJgAAaAEAAKQAAAAAAAAA"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="20189190" y="6244590"/>
+          <a:ext cx="228600" cy="104140"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightArrow">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 0"/>
+            <a:gd name="adj2" fmla="val 199390"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="12700" cap="flat">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>249555</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>8890</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>476885</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>116205</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" fLocksText="0">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="Автофигура125"/>
+        <xdr:cNvSpPr>
+          <a:extLst>
+            <a:ext uri="smNativeData">
+              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_YEW8ZhMAAAAlAAAAyAAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAAAAAAAAAAAAAEAAABQAAAA5eEVHH13tz8AAAAAAAAAAAAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAEAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAADAiIHgeAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAACcAAAAWAAAANgBrAScAAAAWAAAAuAK1Ai18AAA8IgAAZgEAAKkAAAAAAAAA"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="20186015" y="5565140"/>
+          <a:ext cx="227330" cy="107315"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightArrow">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 0"/>
+            <a:gd name="adj2" fmla="val 192416"/>
           </a:avLst>
         </a:prstGeom>
         <a:solidFill>
@@ -16608,7 +16562,7 @@
           <a:spLocks noChangeAspect="1"/>
           <a:extLst>
             <a:ext uri="smNativeData">
-              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_h5G7ZhMAAAAlAAAAZAAAAKwAAAAAkAAAAEgAAACQAAAASAAAAAAAAAAAAAAAAAAAAAEAAABQAAAAAAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAEAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAPAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAADMANAAeAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAAAAAAAAAAAAAAAAAADkAAAALAAAAHwNaAQAAAAAAAAAAd1QAAAtEAAAAAAAA"/>
+              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_YEW8ZhMAAAAlAAAAZAAAAKwAAAAAkAAAAEgAAACQAAAASAAAAAAAAAAAAAAAAAAAAAEAAABQAAAAAAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAEAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAPAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAADMANAAeAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAAAAAAAAAAAAAAAAAADkAAAALAAAAHwNaAQAAAAAAAAAAd1QAAAtEAAAAAAAA"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvSpPr>
@@ -16656,7 +16610,7 @@
         <xdr:cNvPicPr>
           <a:extLst>
             <a:ext uri="smNativeData">
-              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_15_h5G7ZhMAAAAlAAAAEQAAAA8AAAAAkAAAAEgAAACQAAAASAAAAAAAAAAAAAAAAAAAAAEAAABQAAAAAAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAAAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAZAAAAAEAAABAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAAAAAAAAAAAAAAAAAAUAAAAAQAAABQAAAAUAAAAFAAAAAEAAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAAAcAAAA4AAAAAAAAAAAAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABkAAAAZAAAAAEAAAAjAAAABAAAAGQAAAAXAAAAFAAAAAAAAAAAAAAA/38AAP9/AAAAAAAACQAAAAQAAAAFAAAAHgAAAGgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABAnAAAQJwAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAUAAAAAAAAAMDA/wAAAAAAZAAAADIAAAAAAAAAZAAAAAAAAAB/f38ACgAAACIAAAAYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAJAAAACQAAAAAAAAABwAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAH9/fwAlAAAAWAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAPwAAAAAAAACghgEAAAAAAAAAAAAAAAAADAAAAAEAAAAAAAAAAAAAAAAAAAAhAAAAMAAAACwAAABDAAAAAQAAADkAKwBTAAAAAQAAADkACwNzCgAAyk0AACcZAADQEAAAAAAAAA=="/>
+              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_15_YEW8ZhMAAAAlAAAAEQAAAA8AAAAAkAAAAEgAAACQAAAASAAAAAAAAAAAAAAAAAAAAAEAAABQAAAAAAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAAAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAZAAAAAEAAABAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAAAAAAAAAAAAAAAAAAUAAAAAQAAABQAAAAUAAAAFAAAAAEAAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAAAcAAAA4AAAAAAAAAAAAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABkAAAAZAAAAAEAAAAjAAAABAAAAGQAAAAXAAAAFAAAAAAAAAAAAAAA/38AAP9/AAAAAAAACQAAAAQAAAAFAAAAHgAAAGgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABAnAAAQJwAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAUAAAAAAAAAMDA/wAAAAAAZAAAADIAAAAAAAAAZAAAAAAAAAB/f38ACgAAACIAAAAYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAJAAAACQAAAAAAAAABwAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAH9/fwAlAAAAWAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAPwAAAAAAAACghgEAAAAAAAAAAAAAAAAADAAAAAEAAAAAAAAAAAAAAAAAAAAhAAAAMAAAACwAAABDAAAAAQAAADkAKwBTAAAAAQAAADkACwNzCgAAyk0AACcZAADQEAAAAAAAAA=="/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPicPr>
@@ -17013,8 +16967,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <dimension ref="A33:W66"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="normal" topLeftCell="A7" zoomScale="85" workbookViewId="0">
-      <selection activeCell="J32" sqref="J32"/>
+    <sheetView tabSelected="1" view="normal" topLeftCell="R4" zoomScale="85" workbookViewId="0">
+      <selection activeCell="V7" sqref="V7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="9" defaultColWidth="10.000000" defaultRowHeight="11.15"/>
@@ -17259,7 +17213,7 @@
   <printOptions>
     <extLst>
       <ext uri="smNativeData">
-        <pm:pageFlags xmlns:pm="smNativeData" id="1723568519" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
+        <pm:pageFlags xmlns:pm="smNativeData" id="1723614560" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
       </ext>
     </extLst>
   </printOptions>
@@ -17268,17 +17222,17 @@
   <headerFooter>
     <extLst>
       <ext uri="smNativeData">
-        <pm:header xmlns:pm="smNativeData" id="1723568519" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
-        <pm:footer xmlns:pm="smNativeData" id="1723568519" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1723568519" Id="0" type="0" value="0"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1723568519" Id="1" type="0" value="0"/>
+        <pm:header xmlns:pm="smNativeData" id="1723614560" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
+        <pm:footer xmlns:pm="smNativeData" id="1723614560" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1723614560" Id="0" type="0" value="0"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1723614560" Id="1" type="0" value="0"/>
       </ext>
     </extLst>
   </headerFooter>
   <drawing r:id="rId1"/>
   <extLst>
     <ext uri="smNativeData">
-      <pm:sheetPrefs xmlns:pm="smNativeData" day="1723568519" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
+      <pm:sheetPrefs xmlns:pm="smNativeData" day="1723614560" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
         <pm:shade id="0" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
         <pm:shade id="1" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
       </pm:sheetPrefs>
@@ -17561,7 +17515,7 @@
   <printOptions>
     <extLst>
       <ext uri="smNativeData">
-        <pm:pageFlags xmlns:pm="smNativeData" id="1723568519" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
+        <pm:pageFlags xmlns:pm="smNativeData" id="1723614560" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
       </ext>
     </extLst>
   </printOptions>
@@ -17570,16 +17524,16 @@
   <headerFooter>
     <extLst>
       <ext uri="smNativeData">
-        <pm:header xmlns:pm="smNativeData" id="1723568519" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
-        <pm:footer xmlns:pm="smNativeData" id="1723568519" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1723568519" Id="0" type="0" value="0"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1723568519" Id="1" type="0" value="0"/>
+        <pm:header xmlns:pm="smNativeData" id="1723614560" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
+        <pm:footer xmlns:pm="smNativeData" id="1723614560" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1723614560" Id="0" type="0" value="0"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1723614560" Id="1" type="0" value="0"/>
       </ext>
     </extLst>
   </headerFooter>
   <extLst>
     <ext uri="smNativeData">
-      <pm:sheetPrefs xmlns:pm="smNativeData" day="1723568519" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
+      <pm:sheetPrefs xmlns:pm="smNativeData" day="1723614560" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
         <pm:shade id="0" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
         <pm:shade id="1" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
       </pm:sheetPrefs>
@@ -17894,7 +17848,7 @@
   <printOptions>
     <extLst>
       <ext uri="smNativeData">
-        <pm:pageFlags xmlns:pm="smNativeData" id="1723568519" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
+        <pm:pageFlags xmlns:pm="smNativeData" id="1723614560" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
       </ext>
     </extLst>
   </printOptions>
@@ -17903,16 +17857,16 @@
   <headerFooter>
     <extLst>
       <ext uri="smNativeData">
-        <pm:header xmlns:pm="smNativeData" id="1723568519" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
-        <pm:footer xmlns:pm="smNativeData" id="1723568519" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1723568519" Id="0" type="0" value="0"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1723568519" Id="1" type="0" value="0"/>
+        <pm:header xmlns:pm="smNativeData" id="1723614560" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
+        <pm:footer xmlns:pm="smNativeData" id="1723614560" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1723614560" Id="0" type="0" value="0"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1723614560" Id="1" type="0" value="0"/>
       </ext>
     </extLst>
   </headerFooter>
   <extLst>
     <ext uri="smNativeData">
-      <pm:sheetPrefs xmlns:pm="smNativeData" day="1723568519" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
+      <pm:sheetPrefs xmlns:pm="smNativeData" day="1723614560" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
         <pm:shade id="0" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
         <pm:shade id="1" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
       </pm:sheetPrefs>
@@ -20435,7 +20389,7 @@
   <printOptions>
     <extLst>
       <ext uri="smNativeData">
-        <pm:pageFlags xmlns:pm="smNativeData" id="1723568519" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
+        <pm:pageFlags xmlns:pm="smNativeData" id="1723614560" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
       </ext>
     </extLst>
   </printOptions>
@@ -20444,16 +20398,16 @@
   <headerFooter>
     <extLst>
       <ext uri="smNativeData">
-        <pm:header xmlns:pm="smNativeData" id="1723568519" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
-        <pm:footer xmlns:pm="smNativeData" id="1723568519" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1723568519" Id="0" type="0" value="0"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1723568519" Id="1" type="0" value="0"/>
+        <pm:header xmlns:pm="smNativeData" id="1723614560" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
+        <pm:footer xmlns:pm="smNativeData" id="1723614560" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1723614560" Id="0" type="0" value="0"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1723614560" Id="1" type="0" value="0"/>
       </ext>
     </extLst>
   </headerFooter>
   <extLst>
     <ext uri="smNativeData">
-      <pm:sheetPrefs xmlns:pm="smNativeData" day="1723568519" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
+      <pm:sheetPrefs xmlns:pm="smNativeData" day="1723614560" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
         <pm:shade id="0" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
         <pm:shade id="1" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
       </pm:sheetPrefs>
@@ -20818,7 +20772,7 @@
   <printOptions>
     <extLst>
       <ext uri="smNativeData">
-        <pm:pageFlags xmlns:pm="smNativeData" id="1723568519" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
+        <pm:pageFlags xmlns:pm="smNativeData" id="1723614560" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
       </ext>
     </extLst>
   </printOptions>
@@ -20827,16 +20781,16 @@
   <headerFooter>
     <extLst>
       <ext uri="smNativeData">
-        <pm:header xmlns:pm="smNativeData" id="1723568519" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
-        <pm:footer xmlns:pm="smNativeData" id="1723568519" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1723568519" Id="0" type="0" value="0"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1723568519" Id="1" type="0" value="0"/>
+        <pm:header xmlns:pm="smNativeData" id="1723614560" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
+        <pm:footer xmlns:pm="smNativeData" id="1723614560" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1723614560" Id="0" type="0" value="0"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1723614560" Id="1" type="0" value="0"/>
       </ext>
     </extLst>
   </headerFooter>
   <extLst>
     <ext uri="smNativeData">
-      <pm:sheetPrefs xmlns:pm="smNativeData" day="1723568519" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
+      <pm:sheetPrefs xmlns:pm="smNativeData" day="1723614560" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
         <pm:shade id="0" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
         <pm:shade id="1" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
       </pm:sheetPrefs>
@@ -21297,7 +21251,7 @@
   <printOptions>
     <extLst>
       <ext uri="smNativeData">
-        <pm:pageFlags xmlns:pm="smNativeData" id="1723568519" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
+        <pm:pageFlags xmlns:pm="smNativeData" id="1723614560" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
       </ext>
     </extLst>
   </printOptions>
@@ -21306,16 +21260,16 @@
   <headerFooter>
     <extLst>
       <ext uri="smNativeData">
-        <pm:header xmlns:pm="smNativeData" id="1723568519" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
-        <pm:footer xmlns:pm="smNativeData" id="1723568519" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1723568519" Id="0" type="0" value="0"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1723568519" Id="1" type="0" value="0"/>
+        <pm:header xmlns:pm="smNativeData" id="1723614560" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
+        <pm:footer xmlns:pm="smNativeData" id="1723614560" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1723614560" Id="0" type="0" value="0"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1723614560" Id="1" type="0" value="0"/>
       </ext>
     </extLst>
   </headerFooter>
   <extLst>
     <ext uri="smNativeData">
-      <pm:sheetPrefs xmlns:pm="smNativeData" day="1723568519" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
+      <pm:sheetPrefs xmlns:pm="smNativeData" day="1723614560" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
         <pm:shade id="0" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
         <pm:shade id="1" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
       </pm:sheetPrefs>
@@ -21903,7 +21857,7 @@
   <printOptions>
     <extLst>
       <ext uri="smNativeData">
-        <pm:pageFlags xmlns:pm="smNativeData" id="1723568519" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
+        <pm:pageFlags xmlns:pm="smNativeData" id="1723614560" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
       </ext>
     </extLst>
   </printOptions>
@@ -21912,17 +21866,17 @@
   <headerFooter>
     <extLst>
       <ext uri="smNativeData">
-        <pm:header xmlns:pm="smNativeData" id="1723568519" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
-        <pm:footer xmlns:pm="smNativeData" id="1723568519" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1723568519" Id="0" type="0" value="0"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1723568519" Id="1" type="0" value="0"/>
+        <pm:header xmlns:pm="smNativeData" id="1723614560" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
+        <pm:footer xmlns:pm="smNativeData" id="1723614560" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1723614560" Id="0" type="0" value="0"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1723614560" Id="1" type="0" value="0"/>
       </ext>
     </extLst>
   </headerFooter>
   <drawing r:id="rId5"/>
   <extLst>
     <ext uri="smNativeData">
-      <pm:sheetPrefs xmlns:pm="smNativeData" day="1723568519" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
+      <pm:sheetPrefs xmlns:pm="smNativeData" day="1723614560" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
         <pm:shade id="0" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
         <pm:shade id="1" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
       </pm:sheetPrefs>
@@ -22438,7 +22392,7 @@
   <printOptions>
     <extLst>
       <ext uri="smNativeData">
-        <pm:pageFlags xmlns:pm="smNativeData" id="1723568519" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
+        <pm:pageFlags xmlns:pm="smNativeData" id="1723614560" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
       </ext>
     </extLst>
   </printOptions>
@@ -22447,17 +22401,17 @@
   <headerFooter>
     <extLst>
       <ext uri="smNativeData">
-        <pm:header xmlns:pm="smNativeData" id="1723568519" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
-        <pm:footer xmlns:pm="smNativeData" id="1723568519" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1723568519" Id="0" type="0" value="0"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1723568519" Id="1" type="0" value="0"/>
+        <pm:header xmlns:pm="smNativeData" id="1723614560" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
+        <pm:footer xmlns:pm="smNativeData" id="1723614560" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1723614560" Id="0" type="0" value="0"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1723614560" Id="1" type="0" value="0"/>
       </ext>
     </extLst>
   </headerFooter>
   <drawing r:id="rId2"/>
   <extLst>
     <ext uri="smNativeData">
-      <pm:sheetPrefs xmlns:pm="smNativeData" day="1723568519" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
+      <pm:sheetPrefs xmlns:pm="smNativeData" day="1723614560" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
         <pm:shade id="0" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
         <pm:shade id="1" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
       </pm:sheetPrefs>

--- a/Google Calendar.xlsx
+++ b/Google Calendar.xlsx
@@ -5,7 +5,7 @@
   <fileSharing readOnlyRecommended="0" userName="HP"/>
   <workbookPr/>
   <bookViews>
-    <workbookView activeTab="0" xWindow="240" yWindow="60" windowWidth="29040" windowHeight="15720" tabRatio="500"/>
+    <workbookView activeTab="7" xWindow="240" yWindow="60" windowWidth="29040" windowHeight="15720" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Декомпозиция" sheetId="1" r:id="rId4"/>
@@ -20,10 +20,10 @@
   <calcPr/>
   <extLst>
     <ext uri="smNativeData">
-      <pm:revision xmlns:pm="smNativeData" day="1723614560" val="1068" rev="124" revOS="4" revMin="124" revMax="0"/>
-      <pm:docPrefs xmlns:pm="smNativeData" id="1723614560" fixedDigits="0" showNotice="1" showFrameBounds="1" autoChart="1" recalcOnPrint="1" recalcOnCopy="1" finalRounding="1" compatTextArt="1" tab="567" useDefinedPrintRange="1" printArea="currentSheet"/>
-      <pm:compatibility xmlns:pm="smNativeData" id="1723614560" overlapCells="1"/>
-      <pm:defCurrency xmlns:pm="smNativeData" id="1723614560"/>
+      <pm:revision xmlns:pm="smNativeData" day="1723724169" val="1068" rev="124" revOS="4" revMin="124" revMax="0"/>
+      <pm:docPrefs xmlns:pm="smNativeData" id="1723724169" fixedDigits="0" showNotice="1" showFrameBounds="1" autoChart="1" recalcOnPrint="1" recalcOnCopy="1" finalRounding="1" compatTextArt="1" tab="567" useDefinedPrintRange="1" printArea="currentSheet"/>
+      <pm:compatibility xmlns:pm="smNativeData" id="1723724169" overlapCells="1"/>
+      <pm:defCurrency xmlns:pm="smNativeData" id="1723724169"/>
     </ext>
   </extLst>
 </workbook>
@@ -1478,7 +1478,7 @@
     <numFmt numFmtId="10" formatCode="0.00%"/>
     <numFmt numFmtId="166" formatCode="0.0%"/>
   </numFmts>
-  <fonts count="32">
+  <fonts count="31">
     <font>
       <name val="Arial"/>
       <charset val="204"/>
@@ -1487,7 +1487,7 @@
       <sz val="10"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1723614560" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1723724169" ulstyle="none" kern="1">
             <pm:latin face="Arial" sz="200" lang="default"/>
             <pm:cs face="Times New Roman" sz="200" lang="default"/>
             <pm:ea face="SimSun" sz="200" lang="default"/>
@@ -1504,7 +1504,7 @@
       <sz val="10"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1723614560" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1723724169" ulstyle="none" kern="1">
             <pm:latin face="Arial" sz="200" lang="default" weight="bold"/>
             <pm:cs face="Times New Roman" sz="200" lang="default" weight="bold"/>
             <pm:ea face="SimSun" sz="200" lang="default" weight="bold"/>
@@ -1520,7 +1520,7 @@
       <sz val="20"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1723614560" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1723724169" ulstyle="none" kern="1">
             <pm:latin face="Calibri" sz="400" lang="default"/>
             <pm:cs face="Times New Roman" sz="400" lang="default"/>
             <pm:ea face="SimSun" sz="400" lang="default"/>
@@ -1536,7 +1536,7 @@
       <sz val="20"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1723614560" fgClr="E26B0A" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1723724169" fgClr="E26B0A" ulstyle="none" kern="1">
             <pm:latin face="Calibri" sz="400" lang="default"/>
             <pm:cs face="Times New Roman" sz="400" lang="default"/>
             <pm:ea face="SimSun" sz="400" lang="default"/>
@@ -1552,7 +1552,7 @@
       <sz val="20"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1723614560" fgClr="FFFFFF" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1723724169" fgClr="FFFFFF" ulstyle="none" kern="1">
             <pm:latin face="Calibri" sz="400" lang="default"/>
             <pm:cs face="Times New Roman" sz="400" lang="default"/>
             <pm:ea face="SimSun" sz="400" lang="default"/>
@@ -1570,7 +1570,7 @@
       <sz val="14"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1723614560" fgClr="FFFFFF" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1723724169" fgClr="FFFFFF" ulstyle="none" kern="1">
             <pm:latin face="Calibri" sz="280" lang="default" weight="bold" i="1"/>
             <pm:cs face="Times New Roman" sz="280" lang="default" weight="bold" i="1"/>
             <pm:ea face="SimSun" sz="280" lang="default" weight="bold" i="1"/>
@@ -1586,7 +1586,7 @@
       <sz val="12"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1723614560" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1723724169" ulstyle="none" kern="1">
             <pm:latin face="Arial" sz="240" lang="default"/>
             <pm:cs face="Times New Roman" sz="240" lang="default"/>
             <pm:ea face="SimSun" sz="240" lang="default"/>
@@ -1603,7 +1603,7 @@
       <sz val="10"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1723614560" fgClr="00007F" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1723724169" fgClr="00007F" ulstyle="none" kern="1">
             <pm:latin face="Arial" sz="200" lang="default" weight="bold"/>
             <pm:cs face="Times New Roman" sz="200" lang="default" weight="bold"/>
             <pm:ea face="SimSun" sz="200" lang="default" weight="bold"/>
@@ -1619,7 +1619,7 @@
       <sz val="8"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1723614560" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1723724169" ulstyle="none" kern="1">
             <pm:latin face="Arial" sz="160" lang="default"/>
             <pm:cs face="Times New Roman" sz="160" lang="default"/>
             <pm:ea face="SimSun" sz="160" lang="default"/>
@@ -1635,7 +1635,7 @@
       <sz val="10"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1723614560" fgClr="00007F" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1723724169" fgClr="00007F" ulstyle="none" kern="1">
             <pm:latin face="Arial" sz="200" lang="default"/>
             <pm:cs face="Times New Roman" sz="200" lang="default"/>
             <pm:ea face="SimSun" sz="200" lang="default"/>
@@ -1652,7 +1652,7 @@
       <u val="single"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1723614560" fgClr="0000FF" ulstyle="single" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1723724169" fgClr="0000FF" ulstyle="single" kern="1">
             <pm:latin face="Arial" sz="200" lang="default"/>
             <pm:cs face="Times New Roman" sz="200" lang="default"/>
             <pm:ea face="SimSun" sz="200" lang="default"/>
@@ -1669,7 +1669,7 @@
       <sz val="8"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1723614560" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1723724169" ulstyle="none" kern="1">
             <pm:latin face="Arial" sz="160" lang="default" weight="bold"/>
             <pm:cs face="Times New Roman" sz="160" lang="default" weight="bold"/>
             <pm:ea face="SimSun" sz="160" lang="default" weight="bold"/>
@@ -1685,7 +1685,7 @@
       <sz val="8"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1723614560" fgClr="974706" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1723724169" fgClr="974706" ulstyle="none" kern="1">
             <pm:latin face="Arial" sz="160" lang="default"/>
             <pm:cs face="Times New Roman" sz="160" lang="default"/>
             <pm:ea face="SimSun" sz="160" lang="default"/>
@@ -1701,7 +1701,7 @@
       <sz val="10"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1723614560" fgClr="FF0000" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1723724169" fgClr="FF0000" ulstyle="none" kern="1">
             <pm:latin face="Arial" sz="200" lang="default"/>
             <pm:cs face="Times New Roman" sz="200" lang="default"/>
             <pm:ea face="SimSun" sz="200" lang="default"/>
@@ -1717,7 +1717,7 @@
       <sz val="10"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1723614560" fgClr="0070C0" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1723724169" fgClr="0070C0" ulstyle="none" kern="1">
             <pm:latin face="Arial" sz="200" lang="default"/>
             <pm:cs face="Times New Roman" sz="200" lang="default"/>
             <pm:ea face="SimSun" sz="200" lang="default"/>
@@ -1733,7 +1733,7 @@
       <sz val="10"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1723614560" fgClr="00B050" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1723724169" fgClr="00B050" ulstyle="none" kern="1">
             <pm:latin face="Arial" sz="200" lang="default"/>
             <pm:cs face="Times New Roman" sz="200" lang="default"/>
             <pm:ea face="SimSun" sz="200" lang="default"/>
@@ -1750,7 +1750,7 @@
       <u val="single"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1723614560" fgClr="0000FF" ulstyle="single" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1723724169" fgClr="0000FF" ulstyle="single" kern="1">
             <pm:latin face="Arial" sz="200" lang="default"/>
             <pm:cs face="Times New Roman" sz="200" lang="default"/>
             <pm:ea face="SimSun" sz="200" lang="default"/>
@@ -1768,7 +1768,7 @@
       <u val="single"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1723614560" fgClr="0000FF" ulstyle="single" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1723724169" fgClr="0000FF" ulstyle="single" kern="1">
             <pm:latin face="Arial" sz="200" lang="default"/>
             <pm:cs face="Times New Roman" sz="200" lang="default"/>
             <pm:ea face="SimSun" sz="200" lang="default"/>
@@ -1786,7 +1786,7 @@
       <u val="single"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1723614560" fgClr="0000FF" ulstyle="single" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1723724169" fgClr="0000FF" ulstyle="single" kern="1">
             <pm:latin face="Arial" sz="200" lang="default"/>
             <pm:cs face="Times New Roman" sz="200" lang="default"/>
             <pm:ea face="SimSun" sz="200" lang="default"/>
@@ -1804,7 +1804,7 @@
       <u val="single"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1723614560" fgClr="0000FF" ulstyle="single" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1723724169" fgClr="0000FF" ulstyle="single" kern="1">
             <pm:latin face="Arial" sz="200" lang="default"/>
             <pm:cs face="Times New Roman" sz="200" lang="default"/>
             <pm:ea face="SimSun" sz="200" lang="default"/>
@@ -1821,7 +1821,7 @@
       <sz val="10"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1723614560" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1723724169" ulstyle="none" kern="1">
             <pm:latin face="Arial" sz="200" lang="default"/>
             <pm:cs face="Arial" sz="200" lang="default"/>
             <pm:ea face="Arial" sz="200" lang="default"/>
@@ -1838,7 +1838,7 @@
       <u val="single"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1723614560" fgClr="0000FF" ulstyle="single" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1723724169" fgClr="0000FF" ulstyle="single" kern="1">
             <pm:latin face="Arial" sz="200" lang="default"/>
             <pm:cs face="Times New Roman" sz="200" lang="default"/>
             <pm:ea face="SimSun" sz="200" lang="default"/>
@@ -1856,7 +1856,7 @@
       <u val="single"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1723614560" fgClr="0000FF" ulstyle="single" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1723724169" fgClr="0000FF" ulstyle="single" kern="1">
             <pm:latin face="Arial" sz="200" lang="default"/>
             <pm:cs face="Times New Roman" sz="200" lang="default"/>
             <pm:ea face="SimSun" sz="200" lang="default"/>
@@ -1874,7 +1874,7 @@
       <u val="single"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1723614560" fgClr="0000FF" ulstyle="single" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1723724169" fgClr="0000FF" ulstyle="single" kern="1">
             <pm:latin face="Arial" sz="200" lang="default"/>
             <pm:cs face="Times New Roman" sz="200" lang="default"/>
             <pm:ea face="SimSun" sz="200" lang="default"/>
@@ -1892,7 +1892,7 @@
       <sz val="10"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1723614560" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1723724169" ulstyle="none" kern="1">
             <pm:latin face="Arial" sz="200" lang="default" weight="bold"/>
             <pm:cs face="Arial" sz="200" lang="default" weight="bold"/>
             <pm:ea face="Arial" sz="200" lang="default" weight="bold"/>
@@ -1909,7 +1909,7 @@
       <sz val="10"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1723614560" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1723724169" ulstyle="none" kern="1">
             <pm:latin face="Arial" sz="200" lang="default" weight="bold"/>
             <pm:cs face="Times New Roman" sz="200" lang="default"/>
             <pm:ea face="SimSun" sz="200" lang="default"/>
@@ -1926,7 +1926,7 @@
       <u val="single"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1723614560" fgClr="0000FF" ulstyle="single" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1723724169" fgClr="0000FF" ulstyle="single" kern="1">
             <pm:latin face="Arial" sz="200" lang="default"/>
             <pm:cs face="Times New Roman" sz="200" lang="default"/>
             <pm:ea face="SimSun" sz="200" lang="default"/>
@@ -1944,7 +1944,7 @@
       <u val="single"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1723614560" fgClr="0000FF" ulstyle="single" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1723724169" fgClr="0000FF" ulstyle="single" kern="1">
             <pm:latin face="Arial" sz="200" lang="default"/>
             <pm:cs face="Times New Roman" sz="200" lang="default"/>
             <pm:ea face="SimSun" sz="200" lang="default"/>
@@ -1962,7 +1962,7 @@
       <sz val="11"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1723614560" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1723724169" ulstyle="none" kern="1">
             <pm:latin face="Arial" sz="220" lang="default" weight="bold"/>
             <pm:cs face="Times New Roman" sz="200" lang="default"/>
             <pm:ea face="SimSun" sz="200" lang="default"/>
@@ -1978,7 +1978,7 @@
       <sz val="11"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1723614560" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1723724169" ulstyle="none" kern="1">
             <pm:latin face="Arial" sz="220" lang="default"/>
             <pm:cs face="Times New Roman" sz="200" lang="default"/>
             <pm:ea face="SimSun" sz="200" lang="default"/>
@@ -1995,26 +1995,10 @@
       <sz val="10"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1723614560" fgClr="FF0000" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1723724169" fgClr="FF0000" ulstyle="none" kern="1">
             <pm:latin face="Arial" sz="200" lang="default" weight="bold"/>
             <pm:cs face="Times New Roman" sz="200" lang="default"/>
             <pm:ea face="SimSun" sz="200" lang="default"/>
-          </pm:charSpec>
-        </ext>
-      </extLst>
-    </font>
-    <font>
-      <name val="Arial"/>
-      <charset val="204"/>
-      <family val="2"/>
-      <color rgb="FF000000"/>
-      <sz val="8"/>
-      <extLst>
-        <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1723614560" ulstyle="none" kern="1">
-            <pm:latin face="Arial" sz="160" lang="default"/>
-            <pm:cs face="Arial" sz="160" lang="default"/>
-            <pm:ea face="Arial" sz="160" lang="default"/>
           </pm:charSpec>
         </ext>
       </extLst>
@@ -2033,7 +2017,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1723614560" type="1" fgLvl="100" fgClr="009E9E9E" bgLvl="0" bgClr="00FFFFFF"/>
+            <pm:shade xmlns:pm="smNativeData" id="1723724169" type="1" fgLvl="100" fgClr="009E9E9E" bgLvl="0" bgClr="00FFFFFF"/>
           </ext>
         </extLst>
       </patternFill>
@@ -2044,7 +2028,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1723614560" type="1" fgLvl="100" fgClr="009E9E9E" bgLvl="0" bgClr="00FFFFFF"/>
+            <pm:shade xmlns:pm="smNativeData" id="1723724169" type="1" fgLvl="100" fgClr="009E9E9E" bgLvl="0" bgClr="00FFFFFF"/>
           </ext>
         </extLst>
       </patternFill>
@@ -2055,7 +2039,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1723614560" type="1" fgLvl="100" fgClr="009E9E9E" bgLvl="0" bgClr="00FFFFFF"/>
+            <pm:shade xmlns:pm="smNativeData" id="1723724169" type="1" fgLvl="100" fgClr="009E9E9E" bgLvl="0" bgClr="00FFFFFF"/>
           </ext>
         </extLst>
       </patternFill>
@@ -2066,7 +2050,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1723614560" type="1" fgLvl="100" fgClr="009E9E9E" bgLvl="0" bgClr="00FFFFFF"/>
+            <pm:shade xmlns:pm="smNativeData" id="1723724169" type="1" fgLvl="100" fgClr="009E9E9E" bgLvl="0" bgClr="00FFFFFF"/>
           </ext>
         </extLst>
       </patternFill>
@@ -2077,7 +2061,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1723614560" type="1" fgLvl="100" fgClr="009E9E9E" bgLvl="0" bgClr="00FFFFFF"/>
+            <pm:shade xmlns:pm="smNativeData" id="1723724169" type="1" fgLvl="100" fgClr="009E9E9E" bgLvl="0" bgClr="00FFFFFF"/>
           </ext>
         </extLst>
       </patternFill>
@@ -2088,7 +2072,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1723614560" type="1" fgLvl="100" fgClr="009E9E9E" bgLvl="0" bgClr="00FFFFFF"/>
+            <pm:shade xmlns:pm="smNativeData" id="1723724169" type="1" fgLvl="100" fgClr="009E9E9E" bgLvl="0" bgClr="00FFFFFF"/>
           </ext>
         </extLst>
       </patternFill>
@@ -2099,7 +2083,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1723614560" type="1" fgLvl="100" fgClr="009E9E9E" bgLvl="0" bgClr="00FFFFFF"/>
+            <pm:shade xmlns:pm="smNativeData" id="1723724169" type="1" fgLvl="100" fgClr="009E9E9E" bgLvl="0" bgClr="00FFFFFF"/>
           </ext>
         </extLst>
       </patternFill>
@@ -2110,7 +2094,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1723614560" type="1" fgLvl="100" fgClr="009E9E9E" bgLvl="0" bgClr="00FFFFFF"/>
+            <pm:shade xmlns:pm="smNativeData" id="1723724169" type="1" fgLvl="100" fgClr="009E9E9E" bgLvl="0" bgClr="00FFFFFF"/>
           </ext>
         </extLst>
       </patternFill>
@@ -2130,7 +2114,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1723614560" type="1" fgLvl="100" fgClr="0000FB00" bgLvl="0" bgClr="00FFFFFF"/>
+            <pm:shade xmlns:pm="smNativeData" id="1723724169" type="1" fgLvl="100" fgClr="0000FB00" bgLvl="0" bgClr="00FFFFFF"/>
           </ext>
         </extLst>
       </patternFill>
@@ -2141,7 +2125,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1723614560" type="1" fgLvl="100" fgClr="00E6E6E6" bgLvl="0" bgClr="00FFFFFF"/>
+            <pm:shade xmlns:pm="smNativeData" id="1723724169" type="1" fgLvl="100" fgClr="00E6E6E6" bgLvl="0" bgClr="00FFFFFF"/>
           </ext>
         </extLst>
       </patternFill>
@@ -2152,7 +2136,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1723614560" type="1" fgLvl="100" fgClr="00FABE8D" bgLvl="0" bgClr="00FFFFFF"/>
+            <pm:shade xmlns:pm="smNativeData" id="1723724169" type="1" fgLvl="100" fgClr="00FABE8D" bgLvl="0" bgClr="00FFFFFF"/>
           </ext>
         </extLst>
       </patternFill>
@@ -2163,7 +2147,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1723614560" type="1" fgLvl="100" fgClr="00F1AA54" bgLvl="0" bgClr="00FFFFFF"/>
+            <pm:shade xmlns:pm="smNativeData" id="1723724169" type="1" fgLvl="100" fgClr="00F1AA54" bgLvl="0" bgClr="00FFFFFF"/>
           </ext>
         </extLst>
       </patternFill>
@@ -2174,7 +2158,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1723614560" type="1" fgLvl="100" fgClr="00FFFF00" bgLvl="0" bgClr="00FFFFFF"/>
+            <pm:shade xmlns:pm="smNativeData" id="1723724169" type="1" fgLvl="100" fgClr="00FFFF00" bgLvl="0" bgClr="00FFFFFF"/>
           </ext>
         </extLst>
       </patternFill>
@@ -2185,7 +2169,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1723614560" type="1" fgLvl="100" fgClr="00FF6600" bgLvl="0" bgClr="00FFFFFF"/>
+            <pm:shade xmlns:pm="smNativeData" id="1723724169" type="1" fgLvl="100" fgClr="00FF6600" bgLvl="0" bgClr="00FFFFFF"/>
           </ext>
         </extLst>
       </patternFill>
@@ -2196,7 +2180,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1723614560" type="1" fgLvl="100" fgClr="00FF0000" bgLvl="0" bgClr="00FFFFFF"/>
+            <pm:shade xmlns:pm="smNativeData" id="1723724169" type="1" fgLvl="100" fgClr="00FF0000" bgLvl="0" bgClr="00FFFFFF"/>
           </ext>
         </extLst>
       </patternFill>
@@ -2207,7 +2191,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1723614560" type="1" fgLvl="100" fgClr="004D4D4D" bgLvl="0" bgClr="00FFFFFF"/>
+            <pm:shade xmlns:pm="smNativeData" id="1723724169" type="1" fgLvl="100" fgClr="004D4D4D" bgLvl="0" bgClr="00FFFFFF"/>
           </ext>
         </extLst>
       </patternFill>
@@ -2218,7 +2202,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1723614560" type="1" fgLvl="100" fgClr="00661E75" bgLvl="0" bgClr="00FFFFFF"/>
+            <pm:shade xmlns:pm="smNativeData" id="1723724169" type="1" fgLvl="100" fgClr="00661E75" bgLvl="0" bgClr="00FFFFFF"/>
           </ext>
         </extLst>
       </patternFill>
@@ -2229,7 +2213,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1723614560" type="1" fgLvl="100" fgClr="0000FFFF" bgLvl="0" bgClr="00FFFFFF"/>
+            <pm:shade xmlns:pm="smNativeData" id="1723724169" type="1" fgLvl="100" fgClr="0000FFFF" bgLvl="0" bgClr="00FFFFFF"/>
           </ext>
         </extLst>
       </patternFill>
@@ -2240,7 +2224,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1723614560" type="1" fgLvl="100" fgClr="004D4D4D" bgLvl="0" bgClr="00FFFFFF"/>
+            <pm:shade xmlns:pm="smNativeData" id="1723724169" type="1" fgLvl="100" fgClr="004D4D4D" bgLvl="0" bgClr="00FFFFFF"/>
           </ext>
         </extLst>
       </patternFill>
@@ -2251,7 +2235,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1723614560" type="1" fgLvl="100" fgClr="007F7F7F" bgLvl="0" bgClr="00FFFFFF"/>
+            <pm:shade xmlns:pm="smNativeData" id="1723724169" type="1" fgLvl="100" fgClr="007F7F7F" bgLvl="0" bgClr="00FFFFFF"/>
           </ext>
         </extLst>
       </patternFill>
@@ -2262,7 +2246,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1723614560" type="1" fgLvl="100" fgClr="00E26B0A" bgLvl="0" bgClr="00FFFFFF"/>
+            <pm:shade xmlns:pm="smNativeData" id="1723724169" type="1" fgLvl="100" fgClr="00E26B0A" bgLvl="0" bgClr="00FFFFFF"/>
           </ext>
         </extLst>
       </patternFill>
@@ -2273,7 +2257,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1723614560" type="1" fgLvl="100" fgClr="00E26B0A" bgLvl="0" bgClr="00FFFFFF"/>
+            <pm:shade xmlns:pm="smNativeData" id="1723724169" type="1" fgLvl="100" fgClr="00E26B0A" bgLvl="0" bgClr="00FFFFFF"/>
           </ext>
         </extLst>
       </patternFill>
@@ -2284,7 +2268,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1723614560" type="1" fgLvl="100" fgClr="00E26B0A" bgLvl="0" bgClr="00FFFFFF"/>
+            <pm:shade xmlns:pm="smNativeData" id="1723724169" type="1" fgLvl="100" fgClr="00E26B0A" bgLvl="0" bgClr="00FFFFFF"/>
           </ext>
         </extLst>
       </patternFill>
@@ -2295,7 +2279,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1723614560" type="1" fgLvl="100" fgClr="00E26B0A" bgLvl="0" bgClr="00FFFFFF"/>
+            <pm:shade xmlns:pm="smNativeData" id="1723724169" type="1" fgLvl="100" fgClr="00E26B0A" bgLvl="0" bgClr="00FFFFFF"/>
           </ext>
         </extLst>
       </patternFill>
@@ -2366,7 +2350,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1723614560" type="1" fgLvl="38" fgClr="00000000" bgLvl="100" bgClr="00FFFFFF"/>
+            <pm:shade xmlns:pm="smNativeData" id="1723724169" type="1" fgLvl="38" fgClr="00000000" bgLvl="100" bgClr="00FFFFFF"/>
           </ext>
         </extLst>
       </patternFill>
@@ -2377,7 +2361,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1723614560" type="1" fgLvl="38" fgClr="00000000" bgLvl="100" bgClr="00FFFFFF"/>
+            <pm:shade xmlns:pm="smNativeData" id="1723724169" type="1" fgLvl="38" fgClr="00000000" bgLvl="100" bgClr="00FFFFFF"/>
           </ext>
         </extLst>
       </patternFill>
@@ -2388,7 +2372,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1723614560" type="1" fgLvl="38" fgClr="00000000" bgLvl="100" bgClr="00FFFFFF"/>
+            <pm:shade xmlns:pm="smNativeData" id="1723724169" type="1" fgLvl="38" fgClr="00000000" bgLvl="100" bgClr="00FFFFFF"/>
           </ext>
         </extLst>
       </patternFill>
@@ -2399,7 +2383,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1723614560" type="1" fgLvl="100" fgClr="007679F1" bgLvl="100" bgClr="00FFFFFF"/>
+            <pm:shade xmlns:pm="smNativeData" id="1723724169" type="1" fgLvl="100" fgClr="007679F1" bgLvl="100" bgClr="00FFFFFF"/>
           </ext>
         </extLst>
       </patternFill>
@@ -2419,7 +2403,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1723614560" type="1" fgLvl="38" fgClr="00000000" bgLvl="100" bgClr="00FFFFFF"/>
+            <pm:shade xmlns:pm="smNativeData" id="1723724169" type="1" fgLvl="38" fgClr="00000000" bgLvl="100" bgClr="00FFFFFF"/>
           </ext>
         </extLst>
       </patternFill>
@@ -2430,7 +2414,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1723614560" type="1" fgLvl="13" fgClr="00000000" bgLvl="100" bgClr="00FFFFFF"/>
+            <pm:shade xmlns:pm="smNativeData" id="1723724169" type="1" fgLvl="13" fgClr="00000000" bgLvl="100" bgClr="00FFFFFF"/>
           </ext>
         </extLst>
       </patternFill>
@@ -2441,7 +2425,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1723614560" type="1" fgLvl="38" fgClr="00000000" bgLvl="100" bgClr="00FFFFFF"/>
+            <pm:shade xmlns:pm="smNativeData" id="1723724169" type="1" fgLvl="38" fgClr="00000000" bgLvl="100" bgClr="00FFFFFF"/>
           </ext>
         </extLst>
       </patternFill>
@@ -2452,7 +2436,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1723614560" type="1" fgLvl="38" fgClr="00000000" bgLvl="100" bgClr="00FFFFFF"/>
+            <pm:shade xmlns:pm="smNativeData" id="1723724169" type="1" fgLvl="38" fgClr="00000000" bgLvl="100" bgClr="00FFFFFF"/>
           </ext>
         </extLst>
       </patternFill>
@@ -2463,7 +2447,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1723614560" type="1" fgLvl="38" fgClr="00000000" bgLvl="100" bgClr="00FFFFFF"/>
+            <pm:shade xmlns:pm="smNativeData" id="1723724169" type="1" fgLvl="38" fgClr="00000000" bgLvl="100" bgClr="00FFFFFF"/>
           </ext>
         </extLst>
       </patternFill>
@@ -2483,7 +2467,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1723614560" type="1" fgLvl="100" fgClr="00F1AA54" bgLvl="0" bgClr="00FFFFFF"/>
+            <pm:shade xmlns:pm="smNativeData" id="1723724169" type="1" fgLvl="100" fgClr="00F1AA54" bgLvl="0" bgClr="00FFFFFF"/>
           </ext>
         </extLst>
       </patternFill>
@@ -2494,7 +2478,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1723614560" type="1" fgLvl="100" fgClr="00F1AA54" bgLvl="0" bgClr="00FFFFFF"/>
+            <pm:shade xmlns:pm="smNativeData" id="1723724169" type="1" fgLvl="100" fgClr="00F1AA54" bgLvl="0" bgClr="00FFFFFF"/>
           </ext>
         </extLst>
       </patternFill>
@@ -2505,7 +2489,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1723614560" type="1" fgLvl="100" fgClr="00FABE8D" bgLvl="0" bgClr="00FFFFFF"/>
+            <pm:shade xmlns:pm="smNativeData" id="1723724169" type="1" fgLvl="100" fgClr="00FABE8D" bgLvl="0" bgClr="00FFFFFF"/>
           </ext>
         </extLst>
       </patternFill>
@@ -2516,7 +2500,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1723614560" type="1" fgLvl="100" fgClr="00FFFF00" bgLvl="0" bgClr="00FFFFFF"/>
+            <pm:shade xmlns:pm="smNativeData" id="1723724169" type="1" fgLvl="100" fgClr="00FFFF00" bgLvl="0" bgClr="00FFFFFF"/>
           </ext>
         </extLst>
       </patternFill>
@@ -2527,7 +2511,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1723614560" type="1" fgLvl="100" fgClr="00007F00" bgLvl="100" bgClr="00FFFFFF"/>
+            <pm:shade xmlns:pm="smNativeData" id="1723724169" type="1" fgLvl="100" fgClr="00007F00" bgLvl="100" bgClr="00FFFFFF"/>
           </ext>
         </extLst>
       </patternFill>
@@ -2538,7 +2522,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1723614560" type="1" fgLvl="88" fgClr="00FABE8D" bgLvl="0" bgClr="00FFFFFF"/>
+            <pm:shade xmlns:pm="smNativeData" id="1723724169" type="1" fgLvl="88" fgClr="00FABE8D" bgLvl="0" bgClr="00FFFFFF"/>
           </ext>
         </extLst>
       </patternFill>
@@ -2549,7 +2533,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1723614560" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="100" bgClr="00000000"/>
+            <pm:shade xmlns:pm="smNativeData" id="1723724169" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="100" bgClr="00000000"/>
           </ext>
         </extLst>
       </patternFill>
@@ -2571,7 +2555,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1723614560"/>
+          <pm:border xmlns:pm="smNativeData" id="1723724169"/>
         </ext>
       </extLst>
     </border>
@@ -2590,7 +2574,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1723614560">
+          <pm:border xmlns:pm="smNativeData" id="1723724169">
             <pm:line position="top" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
           </pm:border>
         </ext>
@@ -2611,7 +2595,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1723614560">
+          <pm:border xmlns:pm="smNativeData" id="1723724169">
             <pm:line position="top" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="right" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
           </pm:border>
@@ -2633,7 +2617,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1723614560">
+          <pm:border xmlns:pm="smNativeData" id="1723724169">
             <pm:line position="left" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
           </pm:border>
         </ext>
@@ -2654,7 +2638,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1723614560"/>
+          <pm:border xmlns:pm="smNativeData" id="1723724169"/>
         </ext>
       </extLst>
     </border>
@@ -2673,7 +2657,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1723614560">
+          <pm:border xmlns:pm="smNativeData" id="1723724169">
             <pm:line position="right" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
           </pm:border>
         </ext>
@@ -2694,7 +2678,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1723614560">
+          <pm:border xmlns:pm="smNativeData" id="1723724169">
             <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
           </pm:border>
         </ext>
@@ -2715,7 +2699,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1723614560">
+          <pm:border xmlns:pm="smNativeData" id="1723724169">
             <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="right" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
           </pm:border>
@@ -2737,7 +2721,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1723614560">
+          <pm:border xmlns:pm="smNativeData" id="1723724169">
             <pm:line position="top" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="left" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
           </pm:border>
@@ -2759,7 +2743,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1723614560">
+          <pm:border xmlns:pm="smNativeData" id="1723724169">
             <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
           </pm:border>
         </ext>
@@ -2780,7 +2764,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1723614560">
+          <pm:border xmlns:pm="smNativeData" id="1723724169">
             <pm:line position="left" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="right" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
           </pm:border>
@@ -2802,7 +2786,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1723614560">
+          <pm:border xmlns:pm="smNativeData" id="1723724169">
             <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="left" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="right" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
@@ -2825,7 +2809,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1723614560"/>
+          <pm:border xmlns:pm="smNativeData" id="1723724169"/>
         </ext>
       </extLst>
     </border>
@@ -2844,7 +2828,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1723614560">
+          <pm:border xmlns:pm="smNativeData" id="1723724169">
             <pm:line position="left" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="right" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
           </pm:border>
@@ -2866,7 +2850,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1723614560">
+          <pm:border xmlns:pm="smNativeData" id="1723724169">
             <pm:line position="left" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="right" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
           </pm:border>
@@ -2888,7 +2872,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1723614560">
+          <pm:border xmlns:pm="smNativeData" id="1723724169">
             <pm:line position="left" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="right" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
           </pm:border>
@@ -2910,7 +2894,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1723614560">
+          <pm:border xmlns:pm="smNativeData" id="1723724169">
             <pm:line position="left" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="right" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
           </pm:border>
@@ -2932,7 +2916,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1723614560">
+          <pm:border xmlns:pm="smNativeData" id="1723724169">
             <pm:line position="left" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="right" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
           </pm:border>
@@ -2954,7 +2938,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1723614560">
+          <pm:border xmlns:pm="smNativeData" id="1723724169">
             <pm:line position="left" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="right" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
           </pm:border>
@@ -2976,7 +2960,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1723614560">
+          <pm:border xmlns:pm="smNativeData" id="1723724169">
             <pm:line position="left" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="right" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
           </pm:border>
@@ -2998,7 +2982,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1723614560">
+          <pm:border xmlns:pm="smNativeData" id="1723724169">
             <pm:line position="left" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="right" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
           </pm:border>
@@ -3020,7 +3004,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1723614560">
+          <pm:border xmlns:pm="smNativeData" id="1723724169">
             <pm:line position="left" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="right" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
           </pm:border>
@@ -3042,7 +3026,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1723614560"/>
+          <pm:border xmlns:pm="smNativeData" id="1723724169"/>
         </ext>
       </extLst>
     </border>
@@ -3061,7 +3045,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1723614560"/>
+          <pm:border xmlns:pm="smNativeData" id="1723724169"/>
         </ext>
       </extLst>
     </border>
@@ -3080,7 +3064,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1723614560">
+          <pm:border xmlns:pm="smNativeData" id="1723724169">
             <pm:line position="top" type="1" style="0" width="30" dist="20" width2="20" rgb="000000"/>
             <pm:line position="bottom" type="1" style="0" width="30" dist="20" width2="20" rgb="000000"/>
             <pm:line position="left" type="1" style="0" width="30" dist="20" width2="20" rgb="000000"/>
@@ -3103,7 +3087,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1723614560">
+          <pm:border xmlns:pm="smNativeData" id="1723724169">
             <pm:line position="top" type="1" style="0" width="30" dist="20" width2="20" rgb="000000"/>
             <pm:line position="bottom" type="1" style="0" width="30" dist="20" width2="20" rgb="000000"/>
           </pm:border>
@@ -3125,7 +3109,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1723614560">
+          <pm:border xmlns:pm="smNativeData" id="1723724169">
             <pm:line position="top" type="1" style="0" width="30" dist="20" width2="20" rgb="000000"/>
             <pm:line position="bottom" type="1" style="0" width="30" dist="20" width2="20" rgb="000000"/>
             <pm:line position="right" type="1" style="0" width="30" dist="20" width2="20" rgb="000000"/>
@@ -3148,7 +3132,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1723614560"/>
+          <pm:border xmlns:pm="smNativeData" id="1723724169"/>
         </ext>
       </extLst>
     </border>
@@ -3167,7 +3151,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1723614560">
+          <pm:border xmlns:pm="smNativeData" id="1723724169">
             <pm:line position="top" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="left" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
@@ -3190,7 +3174,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1723614560">
+          <pm:border xmlns:pm="smNativeData" id="1723724169">
             <pm:line position="top" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
           </pm:border>
@@ -3212,7 +3196,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1723614560">
+          <pm:border xmlns:pm="smNativeData" id="1723724169">
             <pm:line position="top" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="right" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
@@ -3235,7 +3219,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1723614560">
+          <pm:border xmlns:pm="smNativeData" id="1723724169">
             <pm:line position="top" type="1" style="0" width="30" dist="20" width2="20" rgb="000000"/>
             <pm:line position="bottom" type="1" style="0" width="30" dist="20" width2="20" rgb="000000"/>
             <pm:line position="left" type="1" style="0" width="30" dist="20" width2="20" rgb="000000"/>
@@ -3258,7 +3242,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1723614560">
+          <pm:border xmlns:pm="smNativeData" id="1723724169">
             <pm:line position="top" type="1" style="0" width="30" dist="20" width2="20" rgb="000000"/>
             <pm:line position="bottom" type="1" style="0" width="30" dist="20" width2="20" rgb="000000"/>
           </pm:border>
@@ -3280,7 +3264,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1723614560">
+          <pm:border xmlns:pm="smNativeData" id="1723724169">
             <pm:line position="top" type="1" style="0" width="30" dist="20" width2="20" rgb="000000"/>
             <pm:line position="bottom" type="1" style="0" width="30" dist="20" width2="20" rgb="000000"/>
             <pm:line position="right" type="1" style="0" width="30" dist="20" width2="20" rgb="000000"/>
@@ -3303,7 +3287,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1723614560">
+          <pm:border xmlns:pm="smNativeData" id="1723724169">
             <pm:line position="top" type="1" style="0" width="30" dist="20" width2="20" rgb="000000"/>
             <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
           </pm:border>
@@ -3325,7 +3309,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1723614560">
+          <pm:border xmlns:pm="smNativeData" id="1723724169">
             <pm:line position="left" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
           </pm:border>
         </ext>
@@ -3346,7 +3330,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1723614560">
+          <pm:border xmlns:pm="smNativeData" id="1723724169">
             <pm:line position="top" type="1" style="0" width="30" dist="20" width2="20" rgb="000000"/>
             <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="right" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
@@ -3369,7 +3353,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1723614560">
+          <pm:border xmlns:pm="smNativeData" id="1723724169">
             <pm:line position="top" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="left" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
           </pm:border>
@@ -3391,7 +3375,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1723614560">
+          <pm:border xmlns:pm="smNativeData" id="1723724169">
             <pm:line position="top" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
           </pm:border>
         </ext>
@@ -3412,7 +3396,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1723614560">
+          <pm:border xmlns:pm="smNativeData" id="1723724169">
             <pm:line position="right" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
           </pm:border>
         </ext>
@@ -3433,7 +3417,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1723614560">
+          <pm:border xmlns:pm="smNativeData" id="1723724169">
             <pm:line position="top" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="bottom" type="1" style="0" width="40" dist="20" width2="20" rgb="000000"/>
           </pm:border>
@@ -3455,7 +3439,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1723614560">
+          <pm:border xmlns:pm="smNativeData" id="1723724169">
             <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="left" type="1" style="1" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="right" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
@@ -3478,7 +3462,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1723614560">
+          <pm:border xmlns:pm="smNativeData" id="1723724169">
             <pm:line position="bottom" type="1" style="0" width="40" dist="20" width2="20" rgb="000000"/>
             <pm:line position="left" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
           </pm:border>
@@ -3500,7 +3484,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1723614560">
+          <pm:border xmlns:pm="smNativeData" id="1723724169">
             <pm:line position="bottom" type="1" style="0" width="40" dist="20" width2="20" rgb="000000"/>
           </pm:border>
         </ext>
@@ -3521,7 +3505,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1723614560">
+          <pm:border xmlns:pm="smNativeData" id="1723724169">
             <pm:line position="top" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="left" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
@@ -3545,7 +3529,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1723614560">
+          <pm:border xmlns:pm="smNativeData" id="1723724169">
             <pm:line position="top" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="bottom" type="1" style="0" width="40" dist="20" width2="20" rgb="000000"/>
             <pm:line position="left" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
@@ -3569,7 +3553,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1723614560">
+          <pm:border xmlns:pm="smNativeData" id="1723724169">
             <pm:line position="top" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="left" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="right" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
@@ -3592,7 +3576,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1723614560">
+          <pm:border xmlns:pm="smNativeData" id="1723724169">
             <pm:line position="bottom" type="1" style="0" width="40" dist="20" width2="20" rgb="000000"/>
             <pm:line position="left" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="right" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
@@ -3615,7 +3599,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1723614560">
+          <pm:border xmlns:pm="smNativeData" id="1723724169">
             <pm:line position="bottom" type="1" style="0" width="40" dist="20" width2="20" rgb="000000"/>
             <pm:line position="right" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
           </pm:border>
@@ -3637,7 +3621,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1723614560">
+          <pm:border xmlns:pm="smNativeData" id="1723724169">
             <pm:line position="bottom" type="1" style="0" width="40" dist="20" width2="20" rgb="000000"/>
             <pm:line position="left" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="right" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
@@ -3660,7 +3644,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1723614560">
+          <pm:border xmlns:pm="smNativeData" id="1723724169">
             <pm:line position="bottom" type="1" style="0" width="40" dist="20" width2="20" rgb="000000"/>
             <pm:line position="left" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
           </pm:border>
@@ -3682,7 +3666,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1723614560">
+          <pm:border xmlns:pm="smNativeData" id="1723724169">
             <pm:line position="top" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="left" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
@@ -3706,7 +3690,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1723614560">
+          <pm:border xmlns:pm="smNativeData" id="1723724169">
             <pm:line position="top" type="1" style="0" width="40" dist="20" width2="20" rgb="000000"/>
             <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="left" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
@@ -3729,7 +3713,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1723614560">
+          <pm:border xmlns:pm="smNativeData" id="1723724169">
             <pm:line position="top" type="1" style="0" width="40" dist="20" width2="20" rgb="000000"/>
             <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
           </pm:border>
@@ -3751,7 +3735,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1723614560">
+          <pm:border xmlns:pm="smNativeData" id="1723724169">
             <pm:line position="top" type="1" style="0" width="40" dist="20" width2="20" rgb="000000"/>
             <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="right" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
@@ -3774,7 +3758,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1723614560"/>
+          <pm:border xmlns:pm="smNativeData" id="1723724169"/>
         </ext>
       </extLst>
     </border>
@@ -3793,7 +3777,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1723614560">
+          <pm:border xmlns:pm="smNativeData" id="1723724169">
             <pm:line position="top" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="left" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
@@ -3817,7 +3801,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1723614560">
+          <pm:border xmlns:pm="smNativeData" id="1723724169">
             <pm:line position="top" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="left" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
           </pm:border>
@@ -3839,7 +3823,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1723614560">
+          <pm:border xmlns:pm="smNativeData" id="1723724169">
             <pm:line position="top" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
           </pm:border>
         </ext>
@@ -3860,7 +3844,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1723614560">
+          <pm:border xmlns:pm="smNativeData" id="1723724169">
             <pm:line position="top" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="right" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
           </pm:border>
@@ -3882,7 +3866,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1723614560">
+          <pm:border xmlns:pm="smNativeData" id="1723724169">
             <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="left" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
           </pm:border>
@@ -3904,7 +3888,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1723614560">
+          <pm:border xmlns:pm="smNativeData" id="1723724169">
             <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="right" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
           </pm:border>
@@ -3926,7 +3910,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1723614560">
+          <pm:border xmlns:pm="smNativeData" id="1723724169">
             <pm:line position="top" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="right" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
           </pm:border>
@@ -3948,7 +3932,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1723614560">
+          <pm:border xmlns:pm="smNativeData" id="1723724169">
             <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="left" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="right" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
@@ -3971,7 +3955,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1723614560">
+          <pm:border xmlns:pm="smNativeData" id="1723724169">
             <pm:line position="top" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="left" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
@@ -3995,7 +3979,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1723614560">
+          <pm:border xmlns:pm="smNativeData" id="1723724169">
             <pm:line position="top" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="left" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
@@ -4019,7 +4003,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1723614560">
+          <pm:border xmlns:pm="smNativeData" id="1723724169">
             <pm:line position="top" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="left" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
@@ -4043,7 +4027,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1723614560">
+          <pm:border xmlns:pm="smNativeData" id="1723724169">
             <pm:line position="top" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="left" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
@@ -4067,7 +4051,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1723614560">
+          <pm:border xmlns:pm="smNativeData" id="1723724169">
             <pm:line position="top" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="left" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
@@ -4091,7 +4075,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1723614560"/>
+          <pm:border xmlns:pm="smNativeData" id="1723724169"/>
         </ext>
       </extLst>
     </border>
@@ -4435,10 +4419,10 @@
   <tableStyles count="0"/>
   <extLst>
     <ext uri="smNativeData">
-      <pm:charStyles xmlns:pm="smNativeData" id="1723614560" count="1">
+      <pm:charStyles xmlns:pm="smNativeData" id="1723724169" count="1">
         <pm:charStyle name="Обычный" fontId="0" Id="1"/>
       </pm:charStyles>
-      <pm:colors xmlns:pm="smNativeData" id="1723614560" count="18">
+      <pm:colors xmlns:pm="smNativeData" id="1723724169" count="18">
         <pm:color name="Цвет 24" rgb="E26B0A"/>
         <pm:color name="Цвет 25" rgb="974706"/>
         <pm:color name="Цвет 26" rgb="0070C0"/>
@@ -4673,6 +4657,15 @@
           <a:noFill/>
         </a:ln>
       </c:spPr>
+      <c:txPr>
+        <a:bodyPr anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr/>
+          </a:pPr>
+        </a:p>
+      </c:txPr>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
@@ -4700,7 +4693,7 @@
   </c:txPr>
   <c:extLst>
     <c:ext xmlns:sm="smo" uri="smo">
-      <sm:colorScheme xmlns:sm="smo" id="1723614560" val="7"/>
+      <sm:colorScheme xmlns:sm="smo" id="1723724169" val="7"/>
     </c:ext>
   </c:extLst>
 </c:chartSpace>
@@ -5056,7 +5049,7 @@
   </c:txPr>
   <c:extLst>
     <c:ext xmlns:sm="smo" uri="smo">
-      <sm:colorScheme xmlns:sm="smo" id="1723614560" val="7"/>
+      <sm:colorScheme xmlns:sm="smo" id="1723724169" val="7"/>
     </c:ext>
   </c:extLst>
 </c:chartSpace>
@@ -5083,7 +5076,7 @@
         <xdr:cNvSpPr>
           <a:extLst>
             <a:ext uri="smNativeData">
-              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_YEW8ZhMAAAAlAAAAZQAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAABAAAAAAAAAAEAAABQAAAAhbacS3FV1T8AAAAAAAAAAAAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAEAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAAAAAAAAeAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAAAAAAAALAAAAnAB3AwIAAAAOAAAAVQIUA9U/AAAiAAAA+Q0AAB4CAAAAAAAA"/>
+              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_ifG9ZhMAAAAlAAAAZQAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAABAAAAAAAAAAEAAABQAAAAhbacS3FV1T8AAAAAAAAAAAAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAEAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAAAAAAAAeAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAAAAAAAALAAAAnAB3AwIAAAAOAAAAVQIUA9U/AAAiAAAA+Q0AAB4CAAAAAAAA"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvSpPr>
@@ -5169,7 +5162,7 @@
         <xdr:cNvSpPr>
           <a:extLst>
             <a:ext uri="smNativeData">
-              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_YEW8ZhMAAAAlAAAAZQAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAABAAAAAAAAAAEAAABQAAAAhbacS3FV1T8AAAAAAAAAAAAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAEAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAAAAAAAAeAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAAAUAAAAOAAAA6gDJAQcAAAAPAAAANAFmAdNLAACOBAAAUgYAAM4BAAAAAAAA"/>
+              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_ifG9ZhMAAAAlAAAAZQAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAABAAAAAAAAAAEAAABQAAAAhbacS3FV1T8AAAAAAAAAAAAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAEAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAAAAAAAAeAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAAAUAAAAOAAAA6gDJAQcAAAAPAAAANAFmAdNLAACOBAAAUgYAAM4BAAAAAAAA"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvSpPr>
@@ -5244,7 +5237,7 @@
         <xdr:cNvSpPr>
           <a:extLst>
             <a:ext uri="smNativeData">
-              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_YEW8ZhMAAAAlAAAAZQAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAABAAAAAAAAAAEAAABQAAAAhbacS3FV1T8AAAAAAAAAAAAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAEAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAADcANgAeAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAAAUAAAAKAAAAVwD2AwgAAAAMAAAAOQLPAQk8AABuBAAAVwYAAAYDAAAAAAAA"/>
+              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_ifG9ZhMAAAAlAAAAZQAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAABAAAAAAAAAAEAAABQAAAAhbacS3FV1T8AAAAAAAAAAAAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAEAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAADcANgAeAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAAAUAAAAKAAAAVwD2AwgAAAAMAAAAOQLPAQk8AABuBAAAVwYAAAYDAAAAAAAA"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvSpPr>
@@ -5330,7 +5323,7 @@
         <xdr:cNvSpPr>
           <a:extLst>
             <a:ext uri="smNativeData">
-              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_YEW8ZhMAAAAlAAAAZQAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAABAAAAAAAAAAEAAABQAAAAhbacS3FV1T8AAAAAAAAAAAAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAEAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAAJeXl/8eAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAAAUAAAAFAAAApQAAAQgAAAAHAAAARQAfAe0aAAB/BAAAcQsAAIgCAAAAAAAA"/>
+              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_ifG9ZhMAAAAlAAAAZQAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAABAAAAAAAAAAEAAABQAAAAhbacS3FV1T8AAAAAAAAAAAAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAEAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAAJeXl/8eAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAAAUAAAAFAAAApQAAAQgAAAAHAAAARQAfAe0aAAB/BAAAcQsAAIgCAAAAAAAA"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvSpPr>
@@ -5410,7 +5403,7 @@
         <xdr:cNvSpPr>
           <a:extLst>
             <a:ext uri="smNativeData">
-              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_YEW8ZhMAAAAlAAAAZQAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAABAAAAAAAAAAEAAABQAAAAhbacS3FV1T8AAAAAAAAAAAAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAEAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAAAAAAAAeAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAAAUAAAAWAAAABgEmAwcAAAAYAAAA6wH8AA5+AACUBAAAUwYAAPABAAAAAAAA"/>
+              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_ifG9ZhMAAAAlAAAAZQAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAABAAAAAAAAAAEAAABQAAAAhbacS3FV1T8AAAAAAAAAAAAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAEAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAAAAAAAAeAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAAAUAAAAWAAAABgEmAwcAAAAYAAAA6wH8AA5+AACUBAAAUwYAAPABAAAAAAAA"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvSpPr>
@@ -5500,7 +5493,7 @@
         <xdr:cNvCxnSpPr>
           <a:extLst>
             <a:ext uri="smNativeData">
-              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_YEW8ZhMAAAAlAAAADQAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAAAAAAAAAAAAAEAAABQAAAAAAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAAAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAZAAAAAEAAABAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAAAAAAAAeAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAAAQAAAAFAAAAAADqAwQAAAAQAAAARQAsAksgAAB8AwAAjj4AAA8AAAAAAAAA"/>
+              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_ifG9ZhMAAAAlAAAADQAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAAAAAAAAAAAAAEAAABQAAAAAAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAAAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAZAAAAAEAAABAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAAAAAAAAeAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAAAQAAAAFAAAAAADqAwQAAAAQAAAARQAsAksgAAB8AwAAjj4AAA8AAAAAAAAA"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvCxnSpPr>
@@ -5546,7 +5539,7 @@
         <xdr:cNvSpPr>
           <a:extLst>
             <a:ext uri="smNativeData">
-              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_YEW8ZhMAAAAlAAAAZQAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAABAAAAAAAAAAEAAABQAAAAhbacS3FV1T8AAAAAAAAAAAAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAEAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAAObotv8eAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAAAoAAAAJAAAA5gA2AA0AAAAJAAAA2gKUAjwvAADoCAAAUQUAAAoDAAAAAAAA"/>
+              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_ifG9ZhMAAAAlAAAAZQAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAABAAAAAAAAAAEAAABQAAAAhbacS3FV1T8AAAAAAAAAAAAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAEAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAAObotv8eAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAAAoAAAAJAAAA5gA2AA0AAAAJAAAA2gKUAjwvAADoCAAAUQUAAAoDAAAAAAAA"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvSpPr>
@@ -5642,7 +5635,7 @@
         <xdr:cNvSpPr>
           <a:extLst>
             <a:ext uri="smNativeData">
-              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_YEW8ZhMAAAAlAAAAZQAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAABAAAAAAAAAAEAAABQAAAAhbacS3FV1T8AAAAAAAAAAAAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAEAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAAAAAAAAeAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAAAoAAAAHAAAA0wD7AQ0AAAAIAAAATwFZApQnAADkCAAAZAUAALgCAAAAAAAA"/>
+              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_ifG9ZhMAAAAlAAAAZQAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAABAAAAAAAAAAEAAABQAAAAhbacS3FV1T8AAAAAAAAAAAAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAEAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAAAAAAAAeAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAAAoAAAAHAAAA0wD7AQ0AAAAIAAAATwFZApQnAADkCAAAZAUAALgCAAAAAAAA"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvSpPr>
@@ -5717,7 +5710,7 @@
         <xdr:cNvSpPr>
           <a:extLst>
             <a:ext uri="smNativeData">
-              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_YEW8ZhMAAAAlAAAAZQAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAABAAAAAAAAAAEAAABQAAAAhbacS3FV1T8AAAAAAAAAAAAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAEAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAAAAAAAAeAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAAAkAAAAGAAAA+wNXAA0AAAAHAAAAFAEDAdIgAAC1CAAAZQUAANoCAAAAAAAA"/>
+              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_ifG9ZhMAAAAlAAAAZQAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAABAAAAAAAAAAEAAABQAAAAhbacS3FV1T8AAAAAAAAAAAAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAEAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAAAAAAAAeAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAAAkAAAAGAAAA+wNXAA0AAAAHAAAAFAEDAdIgAAC1CAAAZQUAANoCAAAAAAAA"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvSpPr>
@@ -5814,7 +5807,7 @@
         <xdr:cNvSpPr>
           <a:extLst>
             <a:ext uri="smNativeData">
-              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_YEW8ZhMAAAAlAAAAZQAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAABAAAAAAAAAAEAAABQAAAAhbacS3FV1T8AAAAAAAAAAAAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAEAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAAAAAAAAeAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAAAoAAAAFAAAAcwBIAA0AAAAFAAAAFAE1A5oZAADPCAAAZAUAAMACAAAAAAAA"/>
+              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_ifG9ZhMAAAAlAAAAZQAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAABAAAAAAAAAAEAAABQAAAAhbacS3FV1T8AAAAAAAAAAAAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAEAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAAAAAAAAeAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAAAoAAAAFAAAAcwBIAA0AAAAFAAAAFAE1A5oZAADPCAAAZAUAAMACAAAAAAAA"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvSpPr>
@@ -5889,7 +5882,7 @@
         <xdr:cNvSpPr>
           <a:extLst>
             <a:ext uri="smNativeData">
-              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_YEW8ZhMAAAAlAAAAZQAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAABAAAAAAAAAAEAAABQAAAAhbacS3FV1T8AAAAAAAAAAAAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAEAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAAAAAAAAeAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAAAoAAAADAAAAJQDvAQ0AAAAEAAAAegJiA/cRAAC+CAAAcwYAAB8DAAAAAAAA"/>
+              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_ifG9ZhMAAAAlAAAAZQAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAABAAAAAAAAAAEAAABQAAAAhbacS3FV1T8AAAAAAAAAAAAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAEAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAAAAAAAAeAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAAAoAAAADAAAAJQDvAQ0AAAAEAAAAegJiA/cRAAC+CAAAcwYAAB8DAAAAAAAA"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvSpPr>
@@ -5964,7 +5957,7 @@
         <xdr:cNvSpPr>
           <a:extLst>
             <a:ext uri="smNativeData">
-              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_YEW8ZhMAAAAlAAAAZQAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAABAAAAAAAAAAEAAABQAAAAhbacS3FV1T8AAAAAAAAAAAAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAEAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAAAAAAAAeAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAABgAAAACAAAAZgG3AhoAAAAEAAAAeQBvADYNAAA2FQAAAQgAAIoBAAAAAAAA"/>
+              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_ifG9ZhMAAAAlAAAAZQAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAABAAAAAAAAAAEAAABQAAAAhbacS3FV1T8AAAAAAAAAAAAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAEAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAAAAAAAAeAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAABgAAAACAAAAZgG3AhoAAAAEAAAAdwBvADYNAAA2FQAAAQgAAIoBAAAAAAAA"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvSpPr>
@@ -6050,7 +6043,7 @@
         <xdr:cNvSpPr>
           <a:extLst>
             <a:ext uri="smNativeData">
-              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_YEW8ZhMAAAAlAAAAZQAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAABAAAAAAAAAAEAAABQAAAAhbacS3FV1T8AAAAAAAAAAAAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAEAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAAAAAAAAeAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAAA4AAAACAAAAIAO4AhAAAAAEAAAAegO3ADgNAADgDAAATQgAANIBAAAAAAAA"/>
+              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_ifG9ZhMAAAAlAAAAZQAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAABAAAAAAAAAAEAAABQAAAAhbacS3FV1T8AAAAAAAAAAAAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAEAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAAAAAAAAeAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAAA4AAAACAAAAHwO4AhAAAAAEAAAAewO3ADgNAADgDAAATQgAANIBAAAAAAAA"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvSpPr>
@@ -6136,7 +6129,7 @@
         <xdr:cNvSpPr>
           <a:extLst>
             <a:ext uri="smNativeData">
-              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_YEW8ZhMAAAAlAAAAZQAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAABAAAAAAAAAAEAAABQAAAAhbacS3FV1T8AAAAAAAAAAAAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAEAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAAAAAAAAeAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAABEAAAACAAAAOwPNAhMAAAAEAAAAgwOdAFsNAACDDwAADggAAM4BAAAAAAAA"/>
+              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_ifG9ZhMAAAAlAAAAZQAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAABAAAAAAAAAAEAAABQAAAAhbacS3FV1T8AAAAAAAAAAAAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAEAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAAAAAAAAeAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAABEAAAACAAAAOwPNAhMAAAAEAAAAhAOdAFsNAACDDwAADggAAM4BAAAAAAAA"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvSpPr>
@@ -6222,7 +6215,7 @@
         <xdr:cNvSpPr>
           <a:extLst>
             <a:ext uri="smNativeData">
-              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_YEW8ZhMAAAAlAAAAZQAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAABAAAAAAAAAAEAAABQAAAAhbacS3FV1T8AAAAAAAAAAAAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAEAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAAAAAAAAeAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAABUAAAACAAAAEgDNAhYAAAAEAAAA0wORAFsNAABPEgAAAQgAALABAAAAAAAA"/>
+              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_ifG9ZhMAAAAlAAAAZQAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAABAAAAAAAAAAEAAABQAAAAhbacS3FV1T8AAAAAAAAAAAAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAEAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAAAAAAAAeAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAABUAAAACAAAAEgDNAhYAAAAEAAAA0gORAFsNAABPEgAAAQgAALABAAAAAAAA"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvSpPr>
@@ -6308,7 +6301,7 @@
         <xdr:cNvSpPr>
           <a:extLst>
             <a:ext uri="smNativeData">
-              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_YEW8ZhMAAAAlAAAAZQAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAABAAAAAAAAAAEAAABQAAAAhbacS3FV1T8AAAAAAAAAAAAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAEAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAAAAAAAAeAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAAA4AAAAFAAAANwD8ABAAAAAGAAAA9QGxAuUaAAA+DAAAeggAAB8CAAAAAAAA"/>
+              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_ifG9ZhMAAAAlAAAAZQAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAABAAAAAAAAAAEAAABQAAAAhbacS3FV1T8AAAAAAAAAAAAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAEAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAAAAAAAAeAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAAA4AAAAFAAAANwD8ABAAAAAGAAAA9QGxAuUaAAA+DAAAeggAAB8CAAAAAAAA"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvSpPr>
@@ -6378,7 +6371,7 @@
         <xdr:cNvSpPr>
           <a:extLst>
             <a:ext uri="smNativeData">
-              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_YEW8ZhMAAAAlAAAAZQAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAABAAAAAAAAAAEAAABQAAAAhbacS3FV1T8AAAAAAAAAAAAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAEAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAAAAAAAAeAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAABEAAAAFAAAA6gDeABMAAAAGAAAA0gNhAq4aAAACDwAAWggAAGACAAAAAAAA"/>
+              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_ifG9ZhMAAAAlAAAAZQAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAABAAAAAAAAAAEAAABQAAAAhbacS3FV1T8AAAAAAAAAAAAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAEAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAAAAAAAAeAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAABEAAAAFAAAA6gDeABMAAAAGAAAA0gNhAq4aAAACDwAAWggAAGACAAAAAAAA"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvSpPr>
@@ -6453,7 +6446,7 @@
         <xdr:cNvSpPr>
           <a:extLst>
             <a:ext uri="smNativeData">
-              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_YEW8ZhMAAAAlAAAAZQAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAABAAAAAAAAAAEAAABQAAAAhbacS3FV1T8AAAAAAAAAAAAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAEAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAAAEAAAAeAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAABQAAAAFAAAAMQMCARcAAAAGAAAAtAGIAvAaAAAeEgAAQggAAEoCAAAAAAAA"/>
+              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_ifG9ZhMAAAAlAAAAZQAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAABAAAAAAAAAAEAAABQAAAAhbacS3FV1T8AAAAAAAAAAAAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAEAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAAAEAAAAeAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAABQAAAAFAAAAMQMCARcAAAAGAAAAtAGIAvAaAAAeEgAAQggAAEoCAAAAAAAA"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvSpPr>
@@ -6528,7 +6521,7 @@
         <xdr:cNvSpPr>
           <a:extLst>
             <a:ext uri="smNativeData">
-              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_YEW8ZhMAAAAlAAAAZQAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAABAAAAAAAAAAEAAABQAAAAhbacS3FV1T8AAAAAAAAAAAAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAEAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAAAUAAAAeAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAABgAAAAFAAAALgDlABsAAAAGAAAAzwBoArsaAADyFAAAVQgAAMACAAAAAAAA"/>
+              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_ifG9ZhMAAAAlAAAAZQAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAABAAAAAAAAAAEAAABQAAAAhbacS3FV1T8AAAAAAAAAAAAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAEAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAAAUAAAAeAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAABgAAAAFAAAALgDlABsAAAAGAAAAzwBoArsaAADyFAAAVQgAAMACAAAAAAAA"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvSpPr>
@@ -6603,7 +6596,7 @@
         <xdr:cNvSpPr>
           <a:extLst>
             <a:ext uri="smNativeData">
-              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_YEW8ZhMAAAAlAAAAZQAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAABAAAAAAAAAAEAAABQAAAAhbacS3FV1T8AAAAAAAAAAAAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAEAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAAAAAAAAeAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAAA4AAAAIAAAA7gMSABEAAAAJAAAAywHkAIEqAAANDQAAQgYAACYCAAAAAAAA"/>
+              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_ifG9ZhMAAAAlAAAAZQAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAABAAAAAAAAAAEAAABQAAAAhbacS3FV1T8AAAAAAAAAAAAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAEAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAAAAAAAAeAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAAA4AAAAIAAAA7gMSABEAAAAJAAAAywHkAIEqAAANDQAAQgYAACYCAAAAAAAA"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvSpPr>
@@ -6689,7 +6682,7 @@
         <xdr:cNvSpPr>
           <a:extLst>
             <a:ext uri="smNativeData">
-              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_YEW8ZhMAAAAlAAAAZQAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAABAAAAAAAAAAEAAABQAAAAhbacS3FV1T8AAAAAAAAAAAAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAEAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAAAAAAAAeAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAABEAAAAHAAAAsgP4AxQAAAAJAAAA6QP7AGIqAACdDwAAlQYAAKkCAAAAAAAA"/>
+              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_ifG9ZhMAAAAlAAAAZQAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAABAAAAAAAAAAEAAABQAAAAhbacS3FV1T8AAAAAAAAAAAAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAEAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAAAAAAAAeAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAABEAAAAHAAAAsgP4AxQAAAAJAAAA6QP7AGIqAACdDwAAlQYAAKkCAAAAAAAA"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvSpPr>
@@ -6764,7 +6757,7 @@
         <xdr:cNvSpPr>
           <a:extLst>
             <a:ext uri="smNativeData">
-              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_YEW8ZhMAAAAlAAAAZQAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAABAAAAAAAAAAEAAABQAAAAhbacS3FV1T8AAAAAAAAAAAAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAEAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAAAAAAAAeAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAABUAAAAIAAAAAgImABgAAAAJAAAAtAHyAJYqAAC7EgAATAYAAIwCAAAAAAAA"/>
+              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_ifG9ZhMAAAAlAAAAZQAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAABAAAAAAAAAAEAAABQAAAAhbacS3FV1T8AAAAAAAAAAAAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAEAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAAAAAAAAeAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAABUAAAAIAAAAAgImABgAAAAJAAAAtAHyAJYqAAC7EgAATAYAAIwCAAAAAAAA"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvSpPr>
@@ -6839,7 +6832,7 @@
         <xdr:cNvSpPr>
           <a:extLst>
             <a:ext uri="smNativeData">
-              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_YEW8ZhMAAAAlAAAAZQAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAABAAAAAAAAAAEAAABQAAAAhbacS3FV1T8AAAAAAAAAAAAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAEAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAAAAAAAAeAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAABgAAAAIAAAASAMSABsAAAAJAAAAWAHrAIEqAACfFQAAUgYAADECAAAAAAAA"/>
+              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_ifG9ZhMAAAAlAAAAZQAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAABAAAAAAAAAAEAAABQAAAAhbacS3FV1T8AAAAAAAAAAAAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAEAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAAAAAAAAeAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAABgAAAAIAAAASAMSABsAAAAJAAAAWAHrAIEqAACfFQAAUgYAADECAAAAAAAA"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvSpPr>
@@ -6914,7 +6907,7 @@
         <xdr:cNvSpPr>
           <a:extLst>
             <a:ext uri="smNativeData">
-              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_YEW8ZhMAAAAlAAAAZQAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAABAAAAAAAAAAEAAABQAAAAhbacS3FV1T8AAAAAAAAAAAAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAEAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAAAEAAAAeAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAABsAAAAHAAAA2wP8Ax4AAAAJAAAA+QHiAGcqAABcGAAAVwYAADQCAAAAAAAA"/>
+              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_ifG9ZhMAAAAlAAAAZQAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAABAAAAAAAAAAEAAABQAAAAhbacS3FV1T8AAAAAAAAAAAAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAEAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAAAEAAAAeAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAABsAAAAHAAAA2wP8Ax4AAAAJAAAA+QHiAGcqAABcGAAAVwYAADQCAAAAAAAA"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvSpPr>
@@ -6989,7 +6982,7 @@
         <xdr:cNvSpPr>
           <a:extLst>
             <a:ext uri="smNativeData">
-              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_YEW8ZhMAAAAlAAAAZQAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAABAAAAAAAAAAEAAABQAAAAhbacS3FV1T8AAAAAAAAAAAAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAEAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAAAAAAAAeAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAAA8AAAAJAAAAVAFEAhIAAAAKAAAA9QFbA9kzAABbDQAAiAcAAMACAAAAAAAA"/>
+              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_ifG9ZhMAAAAlAAAAZQAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAABAAAAAAAAAAEAAABQAAAAhbacS3FV1T8AAAAAAAAAAAAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAEAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAAAAAAAAeAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAAA8AAAAJAAAAVAFEAhIAAAAKAAAA9QFbA9kzAABbDQAAiAcAAMACAAAAAAAA"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvSpPr>
@@ -7059,7 +7052,7 @@
         <xdr:cNvSpPr>
           <a:extLst>
             <a:ext uri="smNativeData">
-              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_YEW8ZhMAAAAlAAAAZQAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAABAAAAAAAAAAEAAABQAAAAhbacS3FV1T8AAAAAAAAAAAAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAEAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAAAAAAAAeAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAABMAAAAJAAAAqAJDAhYAAAAKAAAA1wPdA9czAAAhEQAAFwgAAN8CAAAAAAAA"/>
+              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_ifG9ZhMAAAAlAAAAZQAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAABAAAAAAAAAAEAAABQAAAAhbacS3FV1T8AAAAAAAAAAAAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAEAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAAAAAAAAeAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAABMAAAAJAAAAqAJDAhYAAAAKAAAA1wPdA9czAAAhEQAAFwgAAN8CAAAAAAAA"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvSpPr>
@@ -7139,7 +7132,7 @@
         <xdr:cNvSpPr>
           <a:extLst>
             <a:ext uri="smNativeData">
-              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_YEW8ZhMAAAAlAAAAZQAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAABAAAAAAAAAAEAAABQAAAAhbacS3FV1T8AAAAAAAAAAAAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAEAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAAAAAAAAeAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAABgAAAAJAAAAFAFLAhsAAAAKAAAAawHNA+kzAAAkFQAA9AcAALACAAAAAAAA"/>
+              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_ifG9ZhMAAAAlAAAAZQAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAABAAAAAAAAAAEAAABQAAAAhbacS3FV1T8AAAAAAAAAAAAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAEAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAAAAAAAAeAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAABgAAAAJAAAAFAFLAhsAAAAKAAAAawHNA+kzAAAkFQAA9AcAALACAAAAAAAA"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvSpPr>
@@ -7219,7 +7212,7 @@
         <xdr:cNvSpPr>
           <a:extLst>
             <a:ext uri="smNativeData">
-              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_YEW8ZhMAAAAlAAAAZQAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAABAAAAAAAAAAEAAABQAAAAhbacS3FV1T8AAAAAAAAAAAAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAEAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAAAAAAAAeAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAAAoAAAAKAAAAEgB0AA0AAAALAAAAJwJtATw4AAC6CAAAZAUAABEDAAAAAAAA"/>
+              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_ifG9ZhMAAAAlAAAAZQAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAABAAAAAAAAAAEAAABQAAAAhbacS3FV1T8AAAAAAAAAAAAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAEAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAAAAAAAAeAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAAAoAAAAKAAAAEgB0AA0AAAALAAAAJwJtATw4AAC6CAAAZAUAABEDAAAAAAAA"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvSpPr>
@@ -7294,7 +7287,7 @@
         <xdr:cNvSpPr>
           <a:extLst>
             <a:ext uri="smNativeData">
-              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_YEW8ZhMAAAAlAAAAZQAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAABAAAAAAAAAAEAAABQAAAAhbacS3FV1T8AAAAAAAAAAAAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAEAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAAAAAAAAeAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAAAkAAAALAAAAoAPyAg0AAAAMAAAA9gLCA0U/AAChCAAAOAUAAFcDAAAAAAAA"/>
+              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_ifG9ZhMAAAAlAAAAZQAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAABAAAAAAAAAAEAAABQAAAAhbacS3FV1T8AAAAAAAAAAAAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAEAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAAAAAAAAeAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAAAkAAAALAAAAoAPyAg0AAAAMAAAA9gLCA0U/AAChCAAAOAUAAFcDAAAAAAAA"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvSpPr>
@@ -7369,7 +7362,7 @@
         <xdr:cNvSpPr>
           <a:extLst>
             <a:ext uri="smNativeData">
-              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_YEW8ZhMAAAAlAAAAZQAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAABAAAAAAAAAAEAAABQAAAAhbacS3FV1T8AAAAAAAAAAAAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAEAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAAAAAAAAeAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAAAoAAAANAAAA0wAQAQ0AAAAOAAAA8AFxAedFAADkCAAAZQUAANsCAAAAAAAA"/>
+              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_ifG9ZhMAAAAlAAAAZQAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAABAAAAAAAAAAEAAABQAAAAhbacS3FV1T8AAAAAAAAAAAAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAEAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAAAAAAAAeAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAAAoAAAANAAAA0wAQAQ0AAAAOAAAA8AFxAedFAADkCAAAZQUAANsCAAAAAAAA"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvSpPr>
@@ -7444,7 +7437,7 @@
         <xdr:cNvSpPr>
           <a:extLst>
             <a:ext uri="smNativeData">
-              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_YEW8ZhMAAAAlAAAAZQAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAABAAAAAAAAAAEAAABQAAAAhbacS3FV1T8AAAAAAAAAAAAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAEAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAAAAAAAAeAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAAAoAAAAPAAAAcwCMAQ0AAAAQAAAAVAEbAXRSAADPCAAA1AgAAM4CAAAAAAAA"/>
+              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_ifG9ZhMAAAAlAAAAZQAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAABAAAAAAAAAAEAAABQAAAAhbacS3FV1T8AAAAAAAAAAAAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAEAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAAAAAAAAeAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAAAoAAAAPAAAAcwCMAQ0AAAAQAAAAVAEbAXRSAADPCAAA1AgAAM4CAAAAAAAA"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvSpPr>
@@ -7519,7 +7512,7 @@
         <xdr:cNvSpPr>
           <a:extLst>
             <a:ext uri="smNativeData">
-              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_YEW8ZhMAAAAlAAAAZQAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAABAAAAAAAAAAEAAABQAAAAhbacS3FV1T8AAAAAAAAAAAAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAEAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAAAAAAAAeAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAAAoAAAAOAAAAcwDpAQ0AAAAPAAAA4gFYAQRMAADPCAAAAwYAAO0CAAAAAAAA"/>
+              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_ifG9ZhMAAAAlAAAAZQAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAABAAAAAAAAAAEAAABQAAAAhbacS3FV1T8AAAAAAAAAAAAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAEAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAAAAAAAAeAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAAAoAAAAOAAAAcwDpAQ0AAAAPAAAA4gFYAQRMAADPCAAAAwYAAO0CAAAAAAAA"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvSpPr>
@@ -7594,7 +7587,7 @@
         <xdr:cNvSpPr>
           <a:extLst>
             <a:ext uri="smNativeData">
-              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_YEW8ZhMAAAAlAAAAZQAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAABAAAAAAAAAAEAAABQAAAAhbacS3FV1T8AAAAAAAAAAAAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAEAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAAAAAAAAeAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAABQAAAAMAAAALQDfAxYAAAAOAAAARQJtA5xEAAB2EQAAuwkAADMCAAAAAAAA"/>
+              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_ifG9ZhMAAAAlAAAAZQAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAABAAAAAAAAAAEAAABQAAAAhbacS3FV1T8AAAAAAAAAAAAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAEAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAAAAAAAAeAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAABQAAAAMAAAALgDfAxYAAAAOAAAARwJtA5xEAAB2EQAAuwkAADMCAAAAAAAA"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvSpPr>
@@ -7669,7 +7662,7 @@
         <xdr:cNvSpPr>
           <a:extLst>
             <a:ext uri="smNativeData">
-              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_YEW8ZhMAAAAlAAAAZQAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAABAAAAAAAAAAEAAABQAAAAhbacS3FV1T8AAAAAAAAAAAAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAEAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAAAAAAAAeAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAABcAAAAMAAAAWwPvAxoAAAAOAAAAdABSA65EAADEFAAAfwkAAPsBAAAAAAAA"/>
+              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_ifG9ZhMAAAAlAAAAZQAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAABAAAAAAAAAAEAAABQAAAAhbacS3FV1T8AAAAAAAAAAAAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAEAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAAAAAAAAeAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAABcAAAAMAAAAWwPvAxoAAAAOAAAAcwBSA65EAADEFAAAfwkAAPsBAAAAAAAA"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvSpPr>
@@ -7744,7 +7737,7 @@
         <xdr:cNvSpPr>
           <a:extLst>
             <a:ext uri="smNativeData">
-              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_YEW8ZhMAAAAlAAAAZQAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAABAAAAAAAAAAEAAABQAAAAhbacS3FV1T8AAAAAAAAAAAAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAEAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAAOR5hQweAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAAA8AAAAPAAAAWwO5AhIAAAAQAAAAhAOeAelUAADMDQAAFQgAAKYCAAAAAAAA"/>
+              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_ifG9ZhMAAAAlAAAAZQAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAABAAAAAAAAAAEAAABQAAAAhbacS3FV1T8AAAAAAAAAAAAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAEAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAAOR5hQweAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAAA8AAAAPAAAAWwO5AhIAAAAQAAAAhAOeAelUAADMDQAAFQgAAKYCAAAAAAAA"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvSpPr>
@@ -7819,7 +7812,7 @@
         <xdr:cNvSpPr>
           <a:extLst>
             <a:ext uri="smNativeData">
-              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_YEW8ZhMAAAAlAAAAZQAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAABAAAAAAAAAAEAAABQAAAAhbacS3FV1T8AAAAAAAAAAAAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAEAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAAAAAAAAeAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAABMAAAAPAAAAmwOvAhYAAAAQAAAA7AKTAdRUAABWEQAABQgAAHcCAAAAAAAA"/>
+              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_ifG9ZhMAAAAlAAAAZQAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAABAAAAAAAAAAEAAABQAAAAhbacS3FV1T8AAAAAAAAAAAAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAEAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAAAAAAAAeAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAABMAAAAPAAAAmwOvAhYAAAAQAAAA7AKTAdRUAABWEQAABQgAAHcCAAAAAAAA"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvSpPr>
@@ -7894,7 +7887,7 @@
         <xdr:cNvSpPr>
           <a:extLst>
             <a:ext uri="smNativeData">
-              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_YEW8ZhMAAAAlAAAAZQAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAABAAAAAAAAAAEAAABQAAAAhbacS3FV1T8AAAAAAAAAAAAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAEAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAAAEAAAAeAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAABcAAAAPAAAAvQG4AhsAAAAQAAAAHQGpAedUAABqFAAAPAgAAFkDAAAAAAAA"/>
+              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_ifG9ZhMAAAAlAAAAZQAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAABAAAAAAAAAAEAAABQAAAAhbacS3FV1T8AAAAAAAAAAAAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAEAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAAAEAAAAeAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAABcAAAAPAAAAvQG4AhsAAAAQAAAAHQGpAedUAABqFAAAPAgAAFkDAAAAAAAA"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvSpPr>
@@ -7996,7 +7989,7 @@
         <xdr:cNvSpPr>
           <a:extLst>
             <a:ext uri="smNativeData">
-              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_YEW8ZhMAAAAlAAAAZQAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAABAAAAAAAAAAEAAABQAAAAhbacS3FV1T8AAAAAAAAAAAAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAEAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAAAAAAAAeAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAAA4AAAAQAAAAewP7AxIAAAASAAAAFwCpAuVkAAD0DAAASQcAAL8CAAAAAAAA"/>
+              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_ifG9ZhMAAAAlAAAAZQAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAABAAAAAAAAAAEAAABQAAAAhbacS3FV1T8AAAAAAAAAAAAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAEAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAAAAAAAAeAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAAA4AAAAQAAAAewP7AxIAAAASAAAAFwCpAuVkAAD0DAAASQcAAL8CAAAAAAAA"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvSpPr>
@@ -8071,7 +8064,7 @@
         <xdr:cNvSpPr>
           <a:extLst>
             <a:ext uri="smNativeData">
-              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_YEW8ZhMAAAAlAAAAZQAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAABAAAAAAAAAAEAAABQAAAAhbacS3FV1T8AAAAAAAAAAAAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAEAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAAAAAAAAeAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAABcAAAARAAAARgEdABoAAAASAAAATALpAhVlAABQFAAAXwcAANYCAAAAAAAA"/>
+              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_ifG9ZhMAAAAlAAAAZQAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAABAAAAAAAAAAEAAABQAAAAhbacS3FV1T8AAAAAAAAAAAAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAEAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAAAAAAAAeAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAABcAAAARAAAARgEdABoAAAASAAAATALpAhVlAABQFAAAXwcAANYCAAAAAAAA"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvSpPr>
@@ -8151,7 +8144,7 @@
         <xdr:cNvSpPr>
           <a:extLst>
             <a:ext uri="smNativeData">
-              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_YEW8ZhMAAAAlAAAAZQAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAABAAAAAAAAAAEAAABQAAAAhbacS3FV1T8AAAAAAAAAAAAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAEAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAAAAAAAAeAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAAB4AAAAIAAAAmwMFACIAAAAJAAAA/gHjAHIqAADrGgAATwYAACIDAAAAAAAA"/>
+              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_ifG9ZhMAAAAlAAAAZQAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAABAAAAAAAAAAEAAABQAAAAhbacS3FV1T8AAAAAAAAAAAAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAEAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAAAAAAAAeAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAAB4AAAAIAAAAmwMFACIAAAAJAAAA/gHjAHIqAADrGgAATwYAACIDAAAAAAAA"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvSpPr>
@@ -8226,7 +8219,7 @@
         <xdr:cNvSpPr>
           <a:extLst>
             <a:ext uri="smNativeData">
-              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_YEW8ZhMAAAAlAAAAZQAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAABAAAAAAAAAAEAAABQAAAAhbacS3FV1T8AAAAAAAAAAAAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAEAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAAAAAAAAeAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAACIAAAAIAAAASAMQACUAAAAJAAAAcwPxAH4qAABVHgAAYgYAAMoCAAAAAAAA"/>
+              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_ifG9ZhMAAAAlAAAAZQAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAABAAAAAAAAAAEAAABQAAAAhbacS3FV1T8AAAAAAAAAAAAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAEAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAAAAAAAAeAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAACIAAAAIAAAASAMQACUAAAAJAAAAcwPxAH4qAABVHgAAYgYAAMoCAAAAAAAA"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvSpPr>
@@ -8301,7 +8294,7 @@
         <xdr:cNvSpPr>
           <a:extLst>
             <a:ext uri="smNativeData">
-              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_YEW8ZhMAAAAlAAAACgAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAAAAAAAAAAAAAEAAABQAAAAAAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAAAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAZAAAAAEAAABAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAAAAAAAAeAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAAA0AAAAJAAAA3wKlARoAAAAJAAAALgC9AXQyAADzCwAANgAAAL0KAAAAAAAA"/>
+              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_ifG9ZhMAAAAlAAAACgAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAAAAAAAAAAAAAEAAABQAAAAAAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAAAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAZAAAAAEAAABAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAAAAAAAAeAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAAA0AAAAJAAAA3wKlARoAAAAJAAAALgC9AXQyAADzCwAANgAAAL0KAAAAAAAA"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvSpPr>
@@ -8347,7 +8340,7 @@
         <xdr:cNvSpPr>
           <a:extLst>
             <a:ext uri="smNativeData">
-              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_YEW8ZhMAAAAlAAAAyAAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAAAAAAAAAAAAAEAAABQAAAAd3d3d3d3tz8AAAAAAAAAAAAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAEAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAAAAAAAAeAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAABQAAAAJAAAA+wO6ARUAAAAJAAAA4wJbAqMyAABKEgAAagEAAKIAAAAAAAAA"/>
+              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_ifG9ZhMAAAAlAAAAyAAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAAAAAAAAAAAAAEAAABQAAAAd3d3d3d3tz8AAAAAAAAAAAAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAEAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAAAAAAAAeAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAABQAAAAJAAAA+wO6ARUAAAAJAAAA4wJbAqMyAABKEgAAagEAAKIAAAAAAAAA"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvSpPr>
@@ -8398,7 +8391,7 @@
         <xdr:cNvSpPr>
           <a:extLst>
             <a:ext uri="smNativeData">
-              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_YEW8ZhMAAAAlAAAAyAAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAAAAAAAAAAAAAEAAABQAAAAd3d3d3d3tz8AAAAAAAAAAAAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAEAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAAAAAAAAeAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAABAAAAAJAAAAkQK4AREAAAAJAAAAeQFYAp8yAAB/DgAAZwEAAKIAAAAAAAAA"/>
+              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_ifG9ZhMAAAAlAAAAyAAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAAAAAAAAAAAAAEAAABQAAAAd3d3d3d3tz8AAAAAAAAAAAAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAEAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAAAAAAAAeAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAABAAAAAJAAAAkQK4AREAAAAJAAAAeQFYAp8yAAB/DgAAZwEAAKIAAAAAAAAA"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvSpPr>
@@ -8449,7 +8442,7 @@
         <xdr:cNvSpPr>
           <a:extLst>
             <a:ext uri="smNativeData">
-              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_YEW8ZhMAAAAlAAAAyAAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAAAAAAAAAAAAAEAAABQAAAAqsdjOVh3tz8AAAAAAAAAAAAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAEAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAAAAAAAAeAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAABkAAAAJAAAACAOwARoAAAAJAAAA5wFQAo0yAABwFgAAZwEAAKAAAAAAAAAA"/>
+              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_ifG9ZhMAAAAlAAAAyAAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAAAAAAAAAAAAAEAAABQAAAAqsdjOVh3tz8AAAAAAAAAAAAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAEAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAAAAAAAAeAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAABkAAAAJAAAACAOwARoAAAAJAAAA5wFQAo0yAABwFgAAZwEAAKAAAAAAAAAA"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvSpPr>
@@ -8500,7 +8493,7 @@
         <xdr:cNvSpPr>
           <a:extLst>
             <a:ext uri="smNativeData">
-              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_YEW8ZhMAAAAlAAAACgAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAAAAAAAAAAAAAEAAABQAAAAAAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAAAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAZAAAAAEAAABAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAAAAAAAAeAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAAA0AAAAHAAAAjwHTAiQAAAAHAAAAjgPsAsUoAACqCwAAIwAAAJoUAAAAAAAA"/>
+              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_ifG9ZhMAAAAlAAAACgAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAAAAAAAAAAAAAEAAABQAAAAAAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAAAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAZAAAAAEAAABAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAAAAAAAAeAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAAA0AAAAHAAAAjwHTAiQAAAAHAAAAjgPsAsUoAACqCwAAIwAAAJoUAAAAAAAA"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvSpPr>
@@ -8546,7 +8539,7 @@
         <xdr:cNvSpPr>
           <a:extLst>
             <a:ext uri="smNativeData">
-              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_YEW8ZhMAAAAlAAAAyAAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAAAAAAAAAAAAAEAAABQAAAAnWyQwGV3tz8AAAAAAAAAAAAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAEAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAAAAAAAAeAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAABAAAAAHAAAAIAD3AhAAAAAHAAAACAP1A/goAAD3DQAAZQEAAKIAAAAAAAAA"/>
+              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_ifG9ZhMAAAAlAAAAyAAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAAAAAAAAAAAAAEAAABQAAAAnWyQwGV3tz8AAAAAAAAAAAAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAEAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAAAAAAAAeAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAABAAAAAHAAAAIAD3AhAAAAAHAAAACAP1A/goAAD3DQAAZQEAAKIAAAAAAAAA"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvSpPr>
@@ -8597,7 +8590,7 @@
         <xdr:cNvSpPr>
           <a:extLst>
             <a:ext uri="smNativeData">
-              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_YEW8ZhMAAAAlAAAAyAAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAAAAAAAAAAAAAEAAABQAAAA+502PYd3tz8AAAAAAAAAAAAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAEAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAAAAAAAAeAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAABMAAAAHAAAAXQHoAhQAAAAHAAAARQDnA+IoAADZEAAAaAEAAKIAAAAAAAAA"/>
+              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_ifG9ZhMAAAAlAAAAyAAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAAAAAAAAAAAAAEAAABQAAAA+502PYd3tz8AAAAAAAAAAAAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAEAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAAAAAAAAeAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAABMAAAAHAAAAXQHoAhQAAAAHAAAARQDnA+IoAADZEAAAaAEAAKIAAAAAAAAA"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvSpPr>
@@ -8648,7 +8641,7 @@
         <xdr:cNvSpPr>
           <a:extLst>
             <a:ext uri="smNativeData">
-              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_YEW8ZhMAAAAlAAAAyAAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAAAAAAAAAAAAAEAAABQAAAAdh2uuIJ3tz8AAAAAAAAAAAAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAEAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAAAAAAAAeAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAABYAAAAHAAAA3wLsAhcAAAAHAAAAwgHuA+goAADKEwAAbAEAAKEAAAAAAAAA"/>
+              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_ifG9ZhMAAAAlAAAAyAAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAAAAAAAAAAAAAEAAABQAAAAdh2uuIJ3tz8AAAAAAAAAAAAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAEAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAAAAAAAAeAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAABYAAAAHAAAA3wLsAhcAAAAHAAAAwgHuA+goAADKEwAAbAEAAKEAAAAAAAAA"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvSpPr>
@@ -8699,7 +8692,7 @@
         <xdr:cNvSpPr>
           <a:extLst>
             <a:ext uri="smNativeData">
-              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_YEW8ZhMAAAAlAAAAyAAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAAAAAAAAAAAAAEAAABQAAAA7pvBynF3tz8AAAAAAAAAAAAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAEAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAAAAAAAAeAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAABkAAAAHAAAAdgP8AhoAAAAHAAAAVQL6A/8oAACIFgAAZgEAAKAAAAAAAAAA"/>
+              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_ifG9ZhMAAAAlAAAAyAAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAAAAAAAAAAAAAEAAABQAAAA7pvBynF3tz8AAAAAAAAAAAAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAEAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAAAAAAAAeAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAABkAAAAHAAAAdgP8AhoAAAAHAAAAVQL6A/8oAACIFgAAZgEAAKAAAAAAAAAA"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvSpPr>
@@ -8750,7 +8743,7 @@
         <xdr:cNvSpPr>
           <a:extLst>
             <a:ext uri="smNativeData">
-              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_YEW8ZhMAAAAlAAAAyAAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAAAAAAAAAAAAAEAAABQAAAA+502PYd3tz8AAAAAAAAAAAAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAEAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAAAAAAAAeAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAABwAAAAHAAAAZAPwAh0AAAAHAAAATALwA+4oAAAhGQAAaAEAAKIAAAAAAAAA"/>
+              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_ifG9ZhMAAAAlAAAAyAAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAAAAAAAAAAAAAEAAABQAAAA+502PYd3tz8AAAAAAAAAAAAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAEAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAAAAAAAAeAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAABwAAAAHAAAAZAPwAh0AAAAHAAAATALwA+4oAAAhGQAAaAEAAKIAAAAAAAAA"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvSpPr>
@@ -8801,7 +8794,7 @@
         <xdr:cNvSpPr>
           <a:extLst>
             <a:ext uri="smNativeData">
-              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_YEW8ZhMAAAAlAAAAyAAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAAAAAAAAAAAAAEAAABQAAAA5eEVHH13tz8AAAAAAAAAAAAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAEAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAADfLaSYeAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAACAAAAAHAAAAvwLwAiEAAAAHAAAAogHvA+4oAAB5HAAAZwEAAKEAAAAAAAAA"/>
+              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_ifG9ZhMAAAAlAAAAyAAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAAAAAAAAAAAAAEAAABQAAAA5eEVHH13tz8AAAAAAAAAAAAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAEAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAADfLaSYeAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAACAAAAAHAAAAvwLwAiEAAAAHAAAAogHvA+4oAAB5HAAAZwEAAKEAAAAAAAAA"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvSpPr>
@@ -8852,7 +8845,7 @@
         <xdr:cNvSpPr>
           <a:extLst>
             <a:ext uri="smNativeData">
-              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_YEW8ZhMAAAAlAAAAyAAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAAAAAAAAAAAAAEAAABQAAAAJIA3MJd3tz8AAAAAAAAAAAAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAEAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAAAAAAAAeAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAACQAAAAHAAAA7QDtAiQAAAAHAAAA0gPqA+koAACwHwAAZQEAAKMAAAAAAAAA"/>
+              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_ifG9ZhMAAAAlAAAAyAAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAAAAAAAAAAAAAEAAABQAAAAJIA3MJd3tz8AAAAAAAAAAAAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAEAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAAAAAAAAeAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAACQAAAAHAAAA7QDtAiQAAAAHAAAA0gPqA+koAACwHwAAZQEAAKMAAAAAAAAA"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvSpPr>
@@ -8903,7 +8896,7 @@
         <xdr:cNvSpPr>
           <a:extLst>
             <a:ext uri="smNativeData">
-              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_YEW8ZhMAAAAlAAAACgAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAAAAAAAAAAAAAEAAABQAAAAAAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAAAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAZAAAAAEAAABAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAAAAAAAAeAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAAA0AAAAGAAAAogHeAxoAAAAGAAAAGAH/A6UkAACuCwAAJAAAADULAAAAAAAA"/>
+              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_ifG9ZhMAAAAlAAAACgAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAAAAAAAAAAAAAEAAABQAAAAAAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAAAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAZAAAAAEAAABAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAAAAAAAAeAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAAA0AAAAGAAAAogHeAxoAAAAGAAAAGAH/A6UkAACuCwAAJAAAADULAAAAAAAA"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvSpPr>
@@ -8949,7 +8942,7 @@
         <xdr:cNvSpPr>
           <a:extLst>
             <a:ext uri="smNativeData">
-              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_YEW8ZhMAAAAlAAAAyAAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAAAAAAAAAAAAAEAAABQAAAA5eEVHH13tz8AAAAAAAAAAAAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAEAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAAAAAAAAeAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAABIAAAAGAAAA8AGSAhMAAAAGAAAA2ADeAz0jAAAaEAAAaAEAAKIAAAAAAAAA"/>
+              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_ifG9ZhMAAAAlAAAAyAAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAAAAAAAAAAAAAEAAABQAAAA5eEVHH13tz8AAAAAAAAAAAAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAEAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAAAAAAAAeAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAABIAAAAGAAAA8AGSAhMAAAAGAAAA2ADeAz0jAAAaEAAAaAEAAKIAAAAAAAAA"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvSpPr>
@@ -9000,7 +8993,7 @@
         <xdr:cNvSpPr>
           <a:extLst>
             <a:ext uri="smNativeData">
-              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_YEW8ZhMAAAAlAAAAyAAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAAAAAAAAAAAAAEAAABQAAAA5eEVHH13tz8AAAAAAAAAAAAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAEAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAAAAAAAAeAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAAA8AAAAGAAAA9QG4AhAAAAAHAAAA2AACAGYjAAB+DQAAZwEAAKEAAAAAAAAA"/>
+              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_ifG9ZhMAAAAlAAAAyAAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAAAAAAAAAAAAAEAAABQAAAA5eEVHH13tz8AAAAAAAAAAAAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAEAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAAAAAAAAeAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAAA8AAAAGAAAA9QG4AhAAAAAHAAAA2AACAGYjAAB+DQAAZwEAAKEAAAAAAAAA"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvSpPr>
@@ -9051,7 +9044,7 @@
         <xdr:cNvSpPr>
           <a:extLst>
             <a:ext uri="smNativeData">
-              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_YEW8ZhMAAAAlAAAAyAAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAAAAAAAAAAAAAEAAABQAAAA+502PYd3tz8AAAAAAAAAAAAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAEAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAADhdf60eAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAABUAAAAGAAAAGgOUAhYAAAAGAAAAAgLgAz8jAAD4EgAAaAEAAKIAAAAAAAAA"/>
+              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_ifG9ZhMAAAAlAAAAyAAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAAAAAAAAAAAAAEAAABQAAAA+502PYd3tz8AAAAAAAAAAAAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAEAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAADhdf60eAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAABUAAAAGAAAAGgOUAhYAAAAGAAAAAgLgAz8jAAD4EgAAaAEAAKIAAAAAAAAA"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvSpPr>
@@ -9102,7 +9095,7 @@
         <xdr:cNvSpPr>
           <a:extLst>
             <a:ext uri="smNativeData">
-              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_YEW8ZhMAAAAlAAAAyAAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAAAAAAAAAAAAAEAAABQAAAAdh2uuIJ3tz8AAAAAAAAAAAAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAEAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAAAAAAAAeAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAABkAAAAGAAAAogGfAhoAAAAGAAAAigDrA0sjAAAiFgAAaAEAAKIAAAAAAAAA"/>
+              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_ifG9ZhMAAAAlAAAAyAAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAAAAAAAAAAAAAEAAABQAAAAdh2uuIJ3tz8AAAAAAAAAAAAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAEAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAAAAAAAAeAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAABkAAAAGAAAAogGfAhoAAAAGAAAAigDrA0sjAAAiFgAAaAEAAKIAAAAAAAAA"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvSpPr>
@@ -9153,7 +9146,7 @@
         <xdr:cNvSpPr>
           <a:extLst>
             <a:ext uri="smNativeData">
-              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_YEW8ZhMAAAAlAAAACgAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAAAAAAAAAAAAAEAAABQAAAAAAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAAAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAZAAAAAEAAABAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAAAAAAAAeAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAAAgAAAADAAAAjQMiAwkAAAAJAAAAAABvAZQTAAC+BwAAZx4AABkAAAAAAAAA"/>
+              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_ifG9ZhMAAAAlAAAACgAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAAAAAAAAAAAAAEAAABQAAAAAAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAAAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAZAAAAAEAAABAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAAAAAAAAeAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAAAgAAAADAAAAjQMiAwkAAAAJAAAAAABvAZQTAAC+BwAAZx4AABkAAAAAAAAA"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvSpPr>
@@ -9199,7 +9192,7 @@
         <xdr:cNvSpPr>
           <a:extLst>
             <a:ext uri="smNativeData">
-              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_YEW8ZhMAAAAlAAAAywAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAAAAAAAAAAAAAEAAABQAAAAH/T8Ift5zj+SkbOwpx2uPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAEAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAAAAAAAAeAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAAAcAAAAFAAAAGgPBAwgAAAAGAAAAyQN9AAAgAADGBgAA+wAAAAUBAAAAAAAA"/>
+              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_ifG9ZhMAAAAlAAAAywAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAAAAAAAAAAAAAEAAABQAAAAH/T8Ift5zj+SkbOwpx2uPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAEAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAAAAAAAAeAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAAAcAAAAFAAAAGgPBAwgAAAAGAAAAyQN9AAAgAADGBgAA+wAAAAUBAAAAAAAA"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvSpPr>
@@ -9251,7 +9244,7 @@
           <a:stCxn id="104" idx="0"/>
           <a:extLst>
             <a:ext uri="smNativeData">
-              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_YEW8ZhMAAAAlAAAADQAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAAAAAAAAAAAAAEAAABQAAAAAAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAAAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAZAAAAAEAAABAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAAAAAAAAeAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAAA0AAAAEAAAAwwIZAhkAAAAEAAAAowIoAgUXAADtCwAAEAAAAG0KAAAAAAAA"/>
+              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_ifG9ZhMAAAAlAAAADQAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAAAAAAAAAAAAAEAAABQAAAAAAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAAAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAZAAAAAEAAABAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAAAAAAAAeAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAAA0AAAAEAAAAwwIZAhkAAAAEAAAAowIoAgUXAADtCwAAEAAAAG0KAAAAAAAA"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvCxnSpPr>
@@ -9297,7 +9290,7 @@
         <xdr:cNvSpPr>
           <a:extLst>
             <a:ext uri="smNativeData">
-              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_YEW8ZhMAAAAlAAAAyAAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAAAAAAAAAAAAAEAAABQAAAAGH6GRo13tz8AAAAAAAAAAAAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAEAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAAAAAAAAeAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAAA8AAAAEAAAA2wPjABAAAAAEAAAAugItArUVAADoDQAAZgEAAKAAAAAAAAAA"/>
+              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_ifG9ZhMAAAAlAAAAyAAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAAAAAAAAAAAAAEAAABQAAAAGH6GRo13tz8AAAAAAAAAAAAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAEAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAAAAAAAAeAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAAA8AAAAEAAAA2wPjABAAAAAEAAAAugItArUVAADoDQAAZgEAAKAAAAAAAAAA"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvSpPr>
@@ -9348,7 +9341,7 @@
         <xdr:cNvSpPr>
           <a:extLst>
             <a:ext uri="smNativeData">
-              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_YEW8ZhMAAAAlAAAAyAAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAAAAAAAAAAAAAEAAABQAAAA+502PYd3tz8AAAAAAAAAAAAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAEAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAAAAAAAAeAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAABIAAAAEAAAAsgO9ABMAAAAEAAAAlQIIAowVAAB8EAAAZwEAAKEAAAAAAAAA"/>
+              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_ifG9ZhMAAAAlAAAAyAAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAAAAAAAAAAAAAEAAABQAAAA+502PYd3tz8AAAAAAAAAAAAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAEAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAAAAAAAAeAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAABIAAAAEAAAAsgO9ABMAAAAEAAAAlQIIAowVAAB8EAAAZwEAAKEAAAAAAAAA"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvSpPr>
@@ -9399,7 +9392,7 @@
         <xdr:cNvSpPr>
           <a:extLst>
             <a:ext uri="smNativeData">
-              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_YEW8ZhMAAAAlAAAAyAAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAAAAAAAAAAAAAEAAABQAAAA+502PYd3tz8AAAAAAAAAAAAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAEAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAAAAAAAAeAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAABUAAAAEAAAAEQO1ABYAAAAEAAAA9QEBAoMVAAD2EgAAaAEAAKEAAAAAAAAA"/>
+              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_ifG9ZhMAAAAlAAAAyAAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAAAAAAAAAAAAAEAAABQAAAA+502PYd3tz8AAAAAAAAAAAAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAEAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAAAAAAAAeAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAABUAAAAEAAAAEQO1ABYAAAAEAAAA9QEBAoMVAAD2EgAAaAEAAKEAAAAAAAAA"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvSpPr>
@@ -9450,7 +9443,7 @@
         <xdr:cNvSpPr>
           <a:extLst>
             <a:ext uri="smNativeData">
-              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_YEW8ZhMAAAAlAAAAyAAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAAAAAAAAAAAAAEAAABQAAAAd3d3d3d3tz8AAAAAAAAAAAAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAEAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAAAAAAAAeAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAABgAAAAEAAAA1wOyABkAAAAEAAAAvwL7AYAVAAC+FQAAZQEAAKIAAAAAAAAA"/>
+              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_ifG9ZhMAAAAlAAAAyAAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAAAAAAAAAAAAAEAAABQAAAAd3d3d3d3tz8AAAAAAAAAAAAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAEAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAAAAAAAAeAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAABgAAAAEAAAA1wOyABkAAAAEAAAAvwL7AYAVAAC+FQAAZQEAAKIAAAAAAAAA"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvSpPr>
@@ -9502,7 +9495,7 @@
           <a:endCxn id="63" idx="0"/>
           <a:extLst>
             <a:ext uri="smNativeData">
-              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_YEW8ZhMAAAAlAAAADQAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAAAAAAAAAAAAAEAAABQAAAAAAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAAAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAZAAAAAEAAABAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAAAAAAAAeAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAAAgAAAAKAAAAoAN9AggAAAAMAAAAyQOcAXA6AADCBwAAuQcAAAkAAAAAAAAA"/>
+              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_ifG9ZhMAAAAlAAAADQAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAAAAAAAAAAAAAEAAABQAAAAAAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAAAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAZAAAAAEAAABAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAAAAAAAAeAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAAAgAAAAKAAAAoAN9AggAAAAMAAAAyQOcAXA6AADCBwAAuQcAAAkAAAAAAAAA"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvCxnSpPr>
@@ -9549,7 +9542,7 @@
           <a:endCxn id="119" idx="0"/>
           <a:extLst>
             <a:ext uri="smNativeData">
-              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_YEW8ZhMAAAAlAAAADQAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAAAAAAAAAAAAAEAAABQAAAAAAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAAAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAZAAAAAEAAABAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAAAAAAAAeAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAAA4AAAAPAAAASwFkABkAAAAPAAAAagFqAAlQAAB6DAAADQAAAJwJAAAAAAAA"/>
+              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_ifG9ZhMAAAAlAAAADQAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAAAAAAAAAAAAAEAAABQAAAAAAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAAAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAZAAAAAEAAABAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAAAAAAAAeAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAAA4AAAAPAAAASwFkABkAAAAPAAAAawFqAAlQAAB6DAAADQAAAJwJAAAAAAAA"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvCxnSpPr>
@@ -9595,7 +9588,7 @@
         <xdr:cNvSpPr>
           <a:extLst>
             <a:ext uri="smNativeData">
-              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_YEW8ZhMAAAAlAAAAyAAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAAAAAAAAAAAAAEAAABQAAAAAAAAAAAAAACy9KEL6lvuPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAEAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAAAAAAAAeAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAABQAAAAOAAAAnwKfAxUAAAAPAAAAigFiAKNOAAD+EQAAYgEAAKMAAAAAAAAA"/>
+              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_ifG9ZhMAAAAlAAAAyAAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAAAAAAAAAAAAAEAAABQAAAAAAAAAAAAAACy9KEL6lvuPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAEAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAAAAAAAAeAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAABQAAAAOAAAAngKfAxUAAAAPAAAAiwFiAKNOAAD+EQAAYgEAAKMAAAAAAAAA"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvSpPr>
@@ -9646,7 +9639,7 @@
         <xdr:cNvSpPr>
           <a:extLst>
             <a:ext uri="smNativeData">
-              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_YEW8ZhMAAAAlAAAAyAAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAAAAAAAAAAAAAEAAABQAAAAAAAAAAAAAACy9KEL6lvuPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAEAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAAAAAAAAeAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAABgAAAAOAAAAjQKpAxkAAAAPAAAAagFqALNOAAB2FQAAYwEAAKAAAAAAAAAA"/>
+              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_ifG9ZhMAAAAlAAAAyAAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAAAAAAAAAAAAAEAAABQAAAAAAAAAAAAAACy9KEL6lvuPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAEAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAAAAAAAAeAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAABgAAAAOAAAAjAKpAxkAAAAPAAAAawFqALNOAAB2FQAAYwEAAKAAAAAAAAAA"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvSpPr>
@@ -9698,7 +9691,7 @@
           <a:stCxn id="95" idx="0"/>
           <a:extLst>
             <a:ext uri="smNativeData">
-              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_YEW8ZhMAAAAlAAAADQAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAAAAAAAAAAAAAEAAABQAAAAAAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAAAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAZAAAAAEAAABAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAAAAAAAAeAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAAA0AAAAPAAAA+QH/ARoAAAAPAAAABwINAmRTAADBCwAAHgAAAFYLAAAAAAAA"/>
+              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_ifG9ZhMAAAAlAAAADQAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAAAAAAAAAAAAAEAAABQAAAAAAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAAAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAZAAAAAEAAABAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAAAAAAAAeAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAAA0AAAAPAAAA+QH/ARoAAAAPAAAABwINAmRTAADBCwAAHgAAAFYLAAAAAAAA"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvCxnSpPr>
@@ -9744,7 +9737,7 @@
         <xdr:cNvSpPr>
           <a:extLst>
             <a:ext uri="smNativeData">
-              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_YEW8ZhMAAAAlAAAAyAAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAAAAAAAAAAAAAEAAABQAAAAnWyQwGV3tz8AAAAAAAAAAAAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAEAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAAAAAAAAeAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAABAAAAAPAAAAcgMOAhEAAAAPAAAAVQK5AoRTAACwDgAAZQEAAKEAAAAAAAAA"/>
+              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_ifG9ZhMAAAAlAAAAyAAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAAAAAAAAAAAAAEAAABQAAAAnWyQwGV3tz8AAAAAAAAAAAAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAEAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAAAAAAAAeAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAABAAAAAPAAAAcgMOAhEAAAAPAAAAVQK5AoRTAACwDgAAZQEAAKEAAAAAAAAA"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvSpPr>
@@ -9795,7 +9788,7 @@
         <xdr:cNvSpPr>
           <a:extLst>
             <a:ext uri="smNativeData">
-              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_YEW8ZhMAAAAlAAAAyAAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAAAAAAAAAAAAAEAAABQAAAA5eEVHH13tz8AAAAAAAAAAAAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAEAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAAAAAAAAeAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAABQAAAAPAAAAMQMUAhUAAAAPAAAAFQK/ApBTAAAeEgAAZgEAAKEAAAAAAAAA"/>
+              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_ifG9ZhMAAAAlAAAAyAAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAAAAAAAAAAAAAEAAABQAAAA5eEVHH13tz8AAAAAAAAAAAAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAEAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAAAAAAAAeAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAABQAAAAPAAAAMQMUAhUAAAAPAAAAFQK/ApBTAAAeEgAAZgEAAKEAAAAAAAAA"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvSpPr>
@@ -9846,7 +9839,7 @@
         <xdr:cNvSpPr>
           <a:extLst>
             <a:ext uri="smNativeData">
-              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_YEW8ZhMAAAAlAAAAyAAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAAAAAAAAAAAAAEAAABQAAAAZ9viFWx3tz8AAAAAAAAAAAAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAEAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAAAAAAAAeAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAABoAAAAPAAAAAAABAhoAAAAPAAAA4wKrAmlTAACmFgAAYwEAAKEAAAAAAAAA"/>
+              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_ifG9ZhMAAAAlAAAAyAAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAAAAAAAAAAAAAEAAABQAAAAZ9viFWx3tz8AAAAAAAAAAAAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAEAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAAAAAAAAeAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAABoAAAAPAAAAAAABAhoAAAAPAAAA4wKrAmlTAACmFgAAYwEAAKEAAAAAAAAA"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvSpPr>
@@ -9897,7 +9890,7 @@
         <xdr:cNvCxnSpPr>
           <a:extLst>
             <a:ext uri="smNativeData">
-              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_YEW8ZhMAAAAlAAAADQAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAAAAAAAAAAAAAEAAABQAAAAAAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAAAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAZAAAAAEAAABAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAAAAAAAAeAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAAAgAAAANAAAAyQMABAkAAAAQAAAAEgAKABZJAADLBwAAoA4AABAAAAAAAAAA"/>
+              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_ifG9ZhMAAAAlAAAADQAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAAAAAAAAAAAAAEAAABQAAAAAAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAAAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAZAAAAAEAAABAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAAAAAAAAeAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAAAgAAAANAAAAyQMABAkAAAAQAAAAEgAKABZJAADLBwAAoA4AABAAAAAAAAAA"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvCxnSpPr>
@@ -9943,7 +9936,7 @@
         <xdr:cNvSpPr>
           <a:extLst>
             <a:ext uri="smNativeData">
-              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_YEW8ZhMAAAAlAAAAywAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAAAAAAAAAAAAAEAAABQAAAAH/T8Ift5zj+SkbOwpx2uPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAEAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAAGlkdGgeAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAAAIAAAANAAAArAJJAAMAAAANAAAAWwM0AQ9FAABTAgAA/wAAAAUBAAAAAAAA"/>
+              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_ifG9ZhMAAAAlAAAAywAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAAAAAAAAAAAAAEAAABQAAAAH/T8Ift5zj+SkbOwpx2uPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAEAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAAGlkdGgeAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAAAIAAAANAAAArAJJAAMAAAANAAAAWwM0AQ9FAABTAgAA/wAAAAUBAAAAAAAA"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvSpPr>
@@ -9994,7 +9987,7 @@
         <xdr:cNvSpPr>
           <a:extLst>
             <a:ext uri="smNativeData">
-              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_YEW8ZhMAAAAlAAAAywAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAAAAAAAAAAAAAEAAABQAAAALuC/X/N5zj+SkbOwpx2uPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAEAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAAHI9IkUeAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAAAMAAAAFAAAA6QOsAwUAAAAGAAAAnABcANkfAAB3AwAA/wAAAAYBAAAAAAAA"/>
+              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_ifG9ZhMAAAAlAAAAywAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAAAAAAAAAAAAAEAAABQAAAALuC/X/N5zj+SkbOwpx2uPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAEAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAAHI9IkUeAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAAAMAAAAFAAAA6QOsAwUAAAAGAAAAnABcANkfAAB3AwAA/wAAAAYBAAAAAAAA"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvSpPr>
@@ -10045,7 +10038,7 @@
         <xdr:cNvSpPr>
           <a:extLst>
             <a:ext uri="smNativeData">
-              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_YEW8ZhMAAAAlAAAAywAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAAAAAAAAAAAAAEAAABQAAAAH/T8Ift5zj+SkbOwpx2uPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAEAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAACI+PHYeAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAAAMAAAALAAAAtwNzAgUAAAALAAAAZQBfA7w+AABsAwAA/wAAAAUBAAAAAAAA"/>
+              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_ifG9ZhMAAAAlAAAAywAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAAAAAAAAAAAAAEAAABQAAAAH/T8Ift5zj+SkbOwpx2uPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAEAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAACI+PHYeAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAAAMAAAALAAAAtwNzAgUAAAALAAAAZQBfA7w+AABsAwAA/wAAAAUBAAAAAAAA"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvSpPr>
@@ -10096,7 +10089,7 @@
         <xdr:cNvSpPr>
           <a:extLst>
             <a:ext uri="smNativeData">
-              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_YEW8ZhMAAAAlAAAAywAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAAAAAAAAAAAAAEAAABQAAAApdSyzA56zj+SkbOwpx2uPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAEAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAAD0iQzYeAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAAAMAAAAOAAAA1wOHAwUAAAAPAAAAhQAfAH5OAABzAwAA+wAAAAUBAAAAAAAA"/>
+              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_ifG9ZhMAAAAlAAAAywAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAAAAAAAAAAAAAEAAABQAAAApdSyzA56zj+SkbOwpx2uPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAEAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAAD0iQzYeAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAAAMAAAAOAAAA1wOHAwUAAAAPAAAAhQAfAH5OAABzAwAA+wAAAAUBAAAAAAAA"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvSpPr>
@@ -10147,7 +10140,7 @@
         <xdr:cNvSpPr>
           <a:extLst>
             <a:ext uri="smNativeData">
-              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_YEW8ZhMAAAAlAAAAywAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAAAAAAAAAAAAAEAAABQAAAApdSyzA56zj+SkbOwpx2uPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAEAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAADRhYzoeAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAAAcAAAAOAAAA3ACQAwgAAAAPAAAAiwEmAIxOAABJBgAA+wAAAAUBAAAAAAAA"/>
+              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_ifG9ZhMAAAAlAAAAywAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAAAAAAAAAAAAAEAAABQAAAApdSyzA56zj+SkbOwpx2uPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAEAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAADRhYzoeAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAAAcAAAAOAAAA3ACQAwgAAAAPAAAAiwEmAIxOAABJBgAA+wAAAAUBAAAAAAAA"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvSpPr>
@@ -10198,7 +10191,7 @@
         <xdr:cNvSpPr>
           <a:extLst>
             <a:ext uri="smNativeData">
-              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_YEW8ZhMAAAAlAAAAywAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAAAAAAAAAAAAAEAAABQAAAAKv77W8R5zj+SkbOwpx2uPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAEAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAAD0iaHQeAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAAAcAAAALAAAAdgMQAgkAAAALAAAAIAD6AlA+AADaBgAA/gAAAAQBAAAAAAAA"/>
+              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_ifG9ZhMAAAAlAAAAywAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAAAAAAAAAAAAAEAAABQAAAAKv77W8R5zj+SkbOwpx2uPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAEAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAAD0iaHQeAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAAAcAAAALAAAAdgMQAgkAAAALAAAAIAD6AlA+AADaBgAA/gAAAAQBAAAAAAAA"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvSpPr>
@@ -10249,7 +10242,7 @@
         <xdr:cNvSpPr>
           <a:extLst>
             <a:ext uri="smNativeData">
-              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_YEW8ZhMAAAAlAAAAywAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAAAAAAAAAAAAAEAAABQAAAAYZo95/p5zj+SkbOwpx2uPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAEAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAAD0iRTEeAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAAA0AAAAGAAAAAABZAw4AAAAHAAAArgAyABUkAABTCwAA+wAAAAUBAAAAAAAA"/>
+              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_ifG9ZhMAAAAlAAAAywAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAAAAAAAAAAAAAEAAABQAAAAYZo95/p5zj+SkbOwpx2uPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAEAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAAD0iRTEeAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAAA0AAAAGAAAAAABZAw4AAAAHAAAArgAyABUkAABTCwAA+wAAAAUBAAAAAAAA"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvSpPr>
@@ -10300,7 +10293,7 @@
         <xdr:cNvSpPr>
           <a:extLst>
             <a:ext uri="smNativeData">
-              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_YEW8ZhMAAAAlAAAAywAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAAAAAAAAAAAAAEAAABQAAAA8PXYwN95zj+SkbOwpx2uPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAEAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAAD0iRTMeAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAAA0AAAAHAAAANAGLAg4AAAAHAAAA2QFAA18oAACWCwAA/wAAAAMBAAAAAAAA"/>
+              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_ifG9ZhMAAAAlAAAAywAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAAAAAAAAAAAAAEAAABQAAAA8PXYwN95zj+SkbOwpx2uPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAEAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAAD0iRTMeAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAAA0AAAAHAAAANAGLAg4AAAAHAAAA2QFAA18oAACWCwAA/wAAAAMBAAAAAAAA"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvSpPr>
@@ -10351,7 +10344,7 @@
         <xdr:cNvSpPr>
           <a:extLst>
             <a:ext uri="smNativeData">
-              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_YEW8ZhMAAAAlAAAAywAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAAAAAAAAAAAAAEAAABQAAAA3Xf5NNB5zj+SkbOwpx2uPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAEAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAAHM9IjIeAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAAA0AAAAJAAAAyQNwAQ8AAAAJAAAAbgDhAf0xAAAmDAAA/gAAAAMBAAAAAAAA"/>
+              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_ifG9ZhMAAAAlAAAAywAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAAAAAAAAAAAAAEAAABQAAAA3Xf5NNB5zj+SkbOwpx2uPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAEAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAAHM9IjIeAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAAA0AAAAJAAAAyQNwAQ8AAAAJAAAAbgDhAf0xAAAmDAAA/gAAAAMBAAAAAAAA"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvSpPr>
@@ -10402,7 +10395,7 @@
         <xdr:cNvSpPr>
           <a:extLst>
             <a:ext uri="smNativeData">
-              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_YEW8ZhMAAAAlAAAAywAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAAAAAAAAAAAAAEAAABQAAAAF1mBbO95zj+SkbOwpx2uPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAEAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAADYiIHQeAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAAA0AAAAEAAAAwwKkAQ4AAAAEAAAAbQOOAoYWAADtCwAA/gAAAAQBAAAAAAAA"/>
+              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_ifG9ZhMAAAAlAAAAywAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAAAAAAAAAAAAAEAAABQAAAAF1mBbO95zj+SkbOwpx2uPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAEAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAADYiIHQeAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAAA0AAAAEAAAAwwKkAQ4AAAAEAAAAbQOOAoYWAADtCwAA/gAAAAQBAAAAAAAA"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvSpPr>
@@ -10453,7 +10446,7 @@
         <xdr:cNvSpPr>
           <a:extLst>
             <a:ext uri="smNativeData">
-              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_YEW8ZhMAAAAlAAAAywAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAAAAAAAAAAAAAEAAABQAAAAF1mBbO95zj+SkbOwpx2uPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAEAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAAG50PSIeAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAAAgAAAADAAAAjQPqAgoAAAAEAAAANwCJAEkTAAC+BwAACwIAAAQBAAAAAAAA"/>
+              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_ifG9ZhMAAAAlAAAAywAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAAAAAAAAAAAAAEAAABQAAAAF1mBbO95zj+SkbOwpx2uPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAEAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAAG50PSIeAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAAAgAAAADAAAAjQPqAgoAAAAEAAAANwCJAEkTAAC+BwAACwIAAAQBAAAAAAAA"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvSpPr>
@@ -10504,7 +10497,7 @@
         <xdr:cNvSpPr>
           <a:extLst>
             <a:ext uri="smNativeData">
-              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_YEW8ZhMAAAAlAAAAywAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAAAAAAAAAAAAAEAAABQAAAAKv77W8R5zj+SkbOwpx2uPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAEAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAADx2PjIeAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAAAgAAAAFAAAAewNTAQoAAAAFAAAAJQDdAYYbAAC6BwAA/gAAAAQBAAAAAAAA"/>
+              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_ifG9ZhMAAAAlAAAAywAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAAAAAAAAAAAAAEAAABQAAAAKv77W8R5zj+SkbOwpx2uPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAEAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAADx2PjIeAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAAAgAAAAFAAAAewNTAQoAAAAFAAAAJQDdAYYbAAC6BwAA/gAAAAQBAAAAAAAA"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvSpPr>
@@ -10555,7 +10548,7 @@
         <xdr:cNvSpPr>
           <a:extLst>
             <a:ext uri="smNativeData">
-              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_YEW8ZhMAAAAlAAAAywAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAAAAAAAAAAAAAEAAABQAAAAgYOU8f55zj+SkbOwpx2uPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAEAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAAG93IHIeAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAAAgAAAAGAAAAoANXAgoAAAAGAAAATgBBA/0iAADCBwAA/gAAAAUBAAAAAAAA"/>
+              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_ifG9ZhMAAAAlAAAAywAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAAAAAAAAAAAAAEAAABQAAAAgYOU8f55zj+SkbOwpx2uPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAEAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAAG93IHIeAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAAAgAAAAGAAAAoANXAgoAAAAGAAAATgBBA/0iAADCBwAA/gAAAAUBAAAAAAAA"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvSpPr>
@@ -10606,7 +10599,7 @@
         <xdr:cNvSpPr>
           <a:extLst>
             <a:ext uri="smNativeData">
-              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_YEW8ZhMAAAAlAAAAywAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAAAAAAAAAAAAAEAAABQAAAAF1mBbO95zj+SkbOwpx2uPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAEAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAAG50PSIeAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAAAkAAAAHAAAAAACdAwoAAAAIAAAAqgBtAOEpAADXBwAAAgEAAAQBAAAAAAAA"/>
+              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_ifG9ZhMAAAAlAAAAywAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAAAAAAAAAAAAAEAAABQAAAAF1mBbO95zj+SkbOwpx2uPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAEAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAAG50PSIeAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAAAkAAAAHAAAAAACdAwoAAAAIAAAAqgBtAOEpAADXBwAAAgEAAAQBAAAAAAAA"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvSpPr>
@@ -10657,7 +10650,7 @@
         <xdr:cNvSpPr>
           <a:extLst>
             <a:ext uri="smNativeData">
-              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_YEW8ZhMAAAAlAAAAywAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAAAAAAAAAAAAAEAAABQAAAAKv77W8R5zj+SkbOwpx2uPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAEAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAAHY+PC8eAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAAAgAAAAJAAAA7gMqAQoAAAAJAAAAmACbAWAxAADTBwAA/gAAAAQBAAAAAAAA"/>
+              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_ifG9ZhMAAAAlAAAAywAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAAAAAAAAAAAAAEAAABQAAAAKv77W8R5zj+SkbOwpx2uPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAEAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAAHY+PC8eAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAAAgAAAAJAAAA7gMqAQoAAAAJAAAAmACbAWAxAADTBwAA/gAAAAQBAAAAAAAA"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvSpPr>
@@ -10708,7 +10701,7 @@
         <xdr:cNvSpPr>
           <a:extLst>
             <a:ext uri="smNativeData">
-              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_YEW8ZhMAAAAlAAAAywAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAAAAAAAAAAAAAEAAABQAAAAgYOU8f55zj+SkbOwpx2uPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAEAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAADxjIHIeAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAAAgAAAANAAAAoAOVAwoAAAAOAAAATgBaAKJIAADCBwAA/gAAAAUBAAAAAAAA"/>
+              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_ifG9ZhMAAAAlAAAAywAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAAAAAAAAAAAAAEAAABQAAAAgYOU8f55zj+SkbOwpx2uPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAEAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAADxjIHIeAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAAAgAAAANAAAAoAOVAwoAAAAOAAAATgBaAKJIAADCBwAA/gAAAAUBAAAAAAAA"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvSpPr>
@@ -10759,7 +10752,7 @@
         <xdr:cNvSpPr>
           <a:extLst>
             <a:ext uri="smNativeData">
-              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_YEW8ZhMAAAAlAAAAywAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAAAAAAAAAAAAAEAAABQAAAApdSyzA56zj+SkbOwpx2uPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAEAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAAHI9IkIeAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAAAgAAAAPAAAAfwMMAAoAAAAPAAAALgCEAFFPAAC7BwAA+wAAAAUBAAAAAAAA"/>
+              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_ifG9ZhMAAAAlAAAAywAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAAAAAAAAAAAAAEAAABQAAAApdSyzA56zj+SkbOwpx2uPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAEAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAAHI9IkIeAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAAAgAAAAPAAAAfwMMAAoAAAAPAAAALgCEAFFPAAC7BwAA+wAAAAUBAAAAAAAA"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvSpPr>
@@ -10810,7 +10803,7 @@
         <xdr:cNvSpPr>
           <a:extLst>
             <a:ext uri="smNativeData">
-              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_YEW8ZhMAAAAlAAAAywAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAAAAAAAAAAAAAEAAABQAAAAKv77W8R5zj+SkbOwpx2uPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAEAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAADx2PjIeAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAAAgAAAAPAAAAOwOuAwkAAAAQAAAA5AMZAOpWAACsBwAA/wAAAAQBAAAAAAAA"/>
+              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_ifG9ZhMAAAAlAAAAywAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAAAAAAAAAAAAAEAAABQAAAAKv77W8R5zj+SkbOwpx2uPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAEAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAADx2PjIeAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAAAgAAAAPAAAAOwOuAwkAAAAQAAAA5AMZAOpWAACsBwAA/wAAAAQBAAAAAAAA"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvSpPr>
@@ -10861,7 +10854,7 @@
         <xdr:cNvSpPr>
           <a:extLst>
             <a:ext uri="smNativeData">
-              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_YEW8ZhMAAAAlAAAAywAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAAAAAAAAAAAAAEAAABQAAAAH/T8Ift5zj+SkbOwpx2uPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAEAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAACB4MTQeAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAAA0AAAAPAAAA+QHQAQ4AAAAPAAAAsQJKAgJTAADBCwAA/wAAAAcBAAAAAAAA"/>
+              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_ifG9ZhMAAAAlAAAAywAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAAAAAAAAAAAAAEAAABQAAAAH/T8Ift5zj+SkbOwpx2uPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAEAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAACB4MTQeAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAAA0AAAAPAAAA+QHQAQ4AAAAPAAAAsQJKAgJTAADBCwAA/wAAAAcBAAAAAAAA"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvSpPr>
@@ -10912,7 +10905,7 @@
         <xdr:cNvSpPr>
           <a:extLst>
             <a:ext uri="smNativeData">
-              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_YEW8ZhMAAAAlAAAAywAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAAAAAAAAAAAAAEAAABQAAAADoX/1wZ6zj+SkbOwpx2uPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAEAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAACI2OCIeAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAAA0AAAAPAAAAvwEhAA4AAAAPAAAAcgKbAH1PAAC0CwAA/wAAAAYBAAAAAAAA"/>
+              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_ifG9ZhMAAAAlAAAAywAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAAAAAAAAAAAAAEAAABQAAAADoX/1wZ6zj+SkbOwpx2uPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAEAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAACI2OCIeAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAAA0AAAAPAAAAvQEhAA4AAAAPAAAAcQKbAH1PAAC0CwAA/wAAAAYBAAAAAAAA"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvSpPr>
@@ -10963,7 +10956,7 @@
         <xdr:cNvCxnSpPr>
           <a:extLst>
             <a:ext uri="smNativeData">
-              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_YEW8ZhMAAAAlAAAADQAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAAAAAAAAAAAAAEAAABQAAAAAAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAAAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAZAAAAAEAAABAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAAAAAAAAeAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAAAQAAAAQAAAAAAAaAgQAAAAXAAAAlAGpApxeAAB8AwAAQCMAAFgAAAAAAAAA"/>
+              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_ifG9ZhMAAAAlAAAADQAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAAAAAAAAAAAAAEAAABQAAAAAAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAAAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAZAAAAAEAAABAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAAAAAAAAeAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAAAQAAAAQAAAAAAAaAgQAAAAXAAAAlAGpApxeAAB8AwAAQCMAAFgAAAAAAAAA"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvCxnSpPr>
@@ -11009,7 +11002,7 @@
         <xdr:cNvSpPr>
           <a:extLst>
             <a:ext uri="smNativeData">
-              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_YEW8ZhMAAAAlAAAAZQAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAABAAAAAAAAAAEAAABQAAAAhbacS3FV1T8AAAAAAAAAAAAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAEAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAADQ0IiAeAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAABsAAAAQAAAAVwD+Ax8AAAASAAAA3gG5Au9kAACYFwAAUQcAANEDAAAAAAAA"/>
+              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_ifG9ZhMAAAAlAAAAZQAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAABAAAAAAAAAAEAAABQAAAAhbacS3FV1T8AAAAAAAAAAAAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAEAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAADQ0IiAeAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAABsAAAAQAAAAVwD+Ax8AAAASAAAA3gG5Au9kAACYFwAAUQcAANEDAAAAAAAA"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvSpPr>
@@ -11084,7 +11077,7 @@
         <xdr:cNvSpPr>
           <a:extLst>
             <a:ext uri="smNativeData">
-              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_YEW8ZhMAAAAlAAAAZQAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAABAAAAAAAAAAEAAABQAAAAhbacS3FV1T8AAAAAAAAAAAAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAEAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAACIgcz0eAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAACAAAAARAAAA2AARACMAAAASAAAABQEMAwhlAAAPHAAAkgcAAK8CAAAAAAAA"/>
+              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_ifG9ZhMAAAAlAAAAZQAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAABAAAAAAAAAAEAAABQAAAAhbacS3FV1T8AAAAAAAAAAAAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAEAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAACIgcz0eAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAACAAAAARAAAA2AARACMAAAASAAAABQEMAwhlAAAPHAAAkgcAAK8CAAAAAAAA"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvSpPr>
@@ -11164,7 +11157,7 @@
         <xdr:cNvSpPr>
           <a:extLst>
             <a:ext uri="smNativeData">
-              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_YEW8ZhMAAAAlAAAAZQAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAABAAAAAAAAAAEAAABQAAAAhbacS3FV1T8AAAAAAAAAAAAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAEAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAACIgdD0eAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAACQAAAARAAAAWQIPACcAAAASAAAAJQEKAwZlAAAAIAAAkQcAAHsCAAAAAAAA"/>
+              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_ifG9ZhMAAAAlAAAAZQAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAABAAAAAAAAAAEAAABQAAAAhbacS3FV1T8AAAAAAAAAAAAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAEAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAACIgdD0eAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAACQAAAARAAAAWQIPACcAAAASAAAAJQEKAwZlAAAAIAAAkQcAAHsCAAAAAAAA"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvSpPr>
@@ -11240,7 +11233,7 @@
           <a:endCxn id="49" idx="0"/>
           <a:extLst>
             <a:ext uri="smNativeData">
-              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_YEW8ZhMAAAAlAAAADQAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAAAAAAAAAAAAAEAAABQAAAAAAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAAAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAZAAAAAEAAABAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAAAAAAAAeAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAAA8AAAASAAAAwAP/AycAAAATAAAAQgM0AKFtAADiDQAAOQAAACcVAAAAAAAA"/>
+              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_ifG9ZhMAAAAlAAAADQAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAAAAAAAAAAAAAEAAABQAAAAAAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAAAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAZAAAAAEAAABAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAAAAAAAAeAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAAA8AAAASAAAAwAP/AycAAAATAAAAQgM0AKFtAADiDQAAOQAAACcVAAAAAAAA"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvCxnSpPr>
@@ -11286,7 +11279,7 @@
         <xdr:cNvSpPr>
           <a:extLst>
             <a:ext uri="smNativeData">
-              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_YEW8ZhMAAAAlAAAAyAAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAAAAAAAAAAAAAEAAABQAAAAnWyQwGV3tz8AAAAAAAAAAAAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAEAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAANCy0LUeAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAAA8AAAASAAAASwHdAxAAAAATAAAAMwApAXxtAABZDQAAaAEAAKIAAAAAAAAA"/>
+              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_ifG9ZhMAAAAlAAAAyAAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAAAAAAAAAAAAAEAAABQAAAAnWyQwGV3tz8AAAAAAAAAAAAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAEAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAANCy0LUeAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAAA8AAAASAAAASwHdAxAAAAATAAAAMwApAXxtAABZDQAAaAEAAKIAAAAAAAAA"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvSpPr>
@@ -11337,7 +11330,7 @@
         <xdr:cNvSpPr>
           <a:extLst>
             <a:ext uri="smNativeData">
-              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_YEW8ZhMAAAAlAAAAyAAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAAAAAAAAAAAAAEAAABQAAAAd3d3d3d3tz8AAAAAAAAAAAAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAEAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAAGVzZXIeAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAACMAAAASAAAAdgLqAyQAAAATAAAAOgE0AYptAAAaHwAAZgEAAKcAAAAAAAAA"/>
+              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_ifG9ZhMAAAAlAAAAyAAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAAAAAAAAAAAAAEAAABQAAAAd3d3d3d3tz8AAAAAAAAAAAAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAEAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAAGVzZXIeAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAACMAAAASAAAAdgLqAyQAAAATAAAAOgE0AYptAAAaHwAAZgEAAKcAAAAAAAAA"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvSpPr>
@@ -11388,7 +11381,7 @@
         <xdr:cNvSpPr>
           <a:extLst>
             <a:ext uri="smNativeData">
-              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_YEW8ZhMAAAAlAAAACgAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAAAAAAAAAAAAAEAAABQAAAAAAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAAAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAZAAAAAEAAABAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAABwdHh8eAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAAA4AAAAQAAAAVwCHAyUAAAAQAAAAhQOHA2FjAABFDAAAAAAAAN4UAAAAAAAA"/>
+              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_ifG9ZhMAAAAlAAAACgAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAAAAAAAAAAAAAEAAABQAAAAAAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAAAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAZAAAAAEAAABAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAABwdHh8eAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAAA4AAAAQAAAAVwCHAyUAAAAQAAAAhQOHA2FjAABFDAAAAAAAAN4UAAAAAAAA"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvSpPr>
@@ -11434,7 +11427,7 @@
         <xdr:cNvSpPr>
           <a:extLst>
             <a:ext uri="smNativeData">
-              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_YEW8ZhMAAAAlAAAAywAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAAAAAAAAAAAAAEAAABQAAAAgYOU8f55zj+SkbOwpx2uPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAEAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAALouIDweAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAAA0AAAAQAAAAEQNnAw4AAAAQAAAAuwOzA/ZiAAD+CwAA/gAAAAQBAAAAAAAA"/>
+              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_ifG9ZhMAAAAlAAAAywAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAAAAAAAAAAAAAEAAABQAAAAgYOU8f55zj+SkbOwpx2uPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAEAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAALouIDweAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAAA0AAAAQAAAAEQNnAw4AAAAQAAAAuwOzA/ZiAAD+CwAA/gAAAAQBAAAAAAAA"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvSpPr>
@@ -11485,7 +11478,7 @@
         <xdr:cNvSpPr>
           <a:extLst>
             <a:ext uri="smNativeData">
-              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_YEW8ZhMAAAAlAAAAyAAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAAAAAAAAAAAAAEAAABQAAAA7pvBynF3tz8AAAAAAAAAAAAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAEAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAALvQtSAeAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAABwAAAAQAAAA7AKHAx0AAAAQAAAA0AHyA2FjAAAHGQAAZgEAAKEAAAAAAAAA"/>
+              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_ifG9ZhMAAAAlAAAAyAAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAAAAAAAAAAAAAEAAABQAAAA7pvBynF3tz8AAAAAAAAAAAAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAEAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAALvQtSAeAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAABwAAAAQAAAA7AKHAx0AAAAQAAAA0AHyA2FjAAAHGQAAZgEAAKEAAAAAAAAA"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvSpPr>
@@ -11536,7 +11529,7 @@
         <xdr:cNvSpPr>
           <a:extLst>
             <a:ext uri="smNativeData">
-              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_YEW8ZhMAAAAlAAAAyAAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAAAAAAAAAAAAAEAAABQAAAA4pBSEW53tz8AAAAAAAAAAAAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAEAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAADxzaT4eAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAACEAAAAQAAAABgGOAyEAAAAQAAAA5AP5A3ljAAD4HAAAZgEAAKAAAAAAAAAA"/>
+              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_ifG9ZhMAAAAlAAAAyAAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAAAAAAAAAAAAAEAAABQAAAA4pBSEW53tz8AAAAAAAAAAAAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAEAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAADxzaT4eAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAACEAAAAQAAAABgGOAyEAAAAQAAAA5AP5A3ljAAD4HAAAZgEAAKAAAAAAAAAA"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvSpPr>
@@ -11587,7 +11580,7 @@
         <xdr:cNvSpPr>
           <a:extLst>
             <a:ext uri="smNativeData">
-              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_YEW8ZhMAAAAlAAAAyAAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAABAAAAAAAAAAEAAABQAAAAJIA3MJd3tz8AAAAAAAAAAAAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAEAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAAHhtbDoeAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAACUAAAAQAAAAEAKGAyYAAAAQAAAAVQHxA15jAADRIAAAZgEAAL0AAAAAAAAA"/>
+              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_ifG9ZhMAAAAlAAAAyAAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAABAAAAAAAAAAEAAABQAAAAJIA3MJd3tz8AAAAAAAAAAAAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAEAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAAHhtbDoeAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAACUAAAAQAAAAEAKGAyYAAAAQAAAAVQHxA15jAADRIAAAZgEAAL0AAAAAAAAA"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvSpPr>
@@ -11638,7 +11631,7 @@
         <xdr:cNvSpPr>
           <a:extLst>
             <a:ext uri="smNativeData">
-              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_YEW8ZhMAAAAlAAAAyAAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAAAAAAAAAAAAAEAAABQAAAAGH6GRo13tz8AAAAAAAAAAAAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAEAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAAC90PjweAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAABgAAAAQAAAAXQGSAxkAAAAQAAAANwD/A4ZjAAA0FQAAbQEAAJ8AAAAAAAAA"/>
+              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_ifG9ZhMAAAAlAAAAyAAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAAAAAAAAAAAAAEAAABQAAAAGH6GRo13tz8AAAAAAAAAAAAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAEAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAAC90PjweAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAABgAAAAQAAAAXQGSAxkAAAAQAAAANwD/A4ZjAAA0FQAAbQEAAJ8AAAAAAAAA"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvSpPr>
@@ -11689,7 +11682,7 @@
         <xdr:cNvSpPr>
           <a:extLst>
             <a:ext uri="smNativeData">
-              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_YEW8ZhMAAAAlAAAAyAAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAAAAAAAAAAAAAEAAABQAAAA5eEVHH13tz8AAAAAAAAAAAAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAEAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAAIPRgtEeAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAABMAAAAQAAAA7AKRAxQAAAAQAAAA2QH9A4NjAAAwEQAAaQEAAKMAAAAAAAAA"/>
+              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_ifG9ZhMAAAAlAAAAyAAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAAAAAAAAAAAAAEAAABQAAAA5eEVHH13tz8AAAAAAAAAAAAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAEAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAAIPRgtEeAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAABMAAAAQAAAA7AKRAxQAAAAQAAAA2QH9A4NjAAAwEQAAaQEAAKMAAAAAAAAA"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvSpPr>
@@ -11740,7 +11733,7 @@
         <xdr:cNvSpPr>
           <a:extLst>
             <a:ext uri="smNativeData">
-              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_YEW8ZhMAAAAlAAAAyAAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAAAAAAAAAAAAAEAAABQAAAAdh2uuIJ3tz8AAAAAAAAAAAAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAEAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAANC+0LIeAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAAA8AAAAQAAAAvACJAw8AAAAQAAAAqQP2A2hjAAA6DQAAbQEAAKMAAAAAAAAA"/>
+              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_ifG9ZhMAAAAlAAAAyAAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAAAAAAAAAAAAAEAAABQAAAAdh2uuIJ3tz8AAAAAAAAAAAAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAEAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAANC+0LIeAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAAA8AAAAQAAAAvACJAw8AAAAQAAAAqQP2A2hjAAA6DQAAbQEAAKMAAAAAAAAA"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvSpPr>
@@ -11791,7 +11784,7 @@
         <xdr:cNvSpPr>
           <a:extLst>
             <a:ext uri="smNativeData">
-              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_YEW8ZhMAAAAlAAAAZQAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAABAAAAAAAAAAEAAABQAAAAhbacS3FV1T8AAAAAAAAAAAAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAEAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAADU4NDweAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAAAoAAAAQAAAALwECAw0AAAARAAAAHwO7AqRhAAD4CAAASAYAAAkDAAAAAAAA"/>
+              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_ifG9ZhMAAAAlAAAAZQAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAABAAAAAAAAAAEAAABQAAAAhbacS3FV1T8AAAAAAAAAAAAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAEAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAADU4NDweAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAAAoAAAAQAAAALwECAw0AAAARAAAAHwO7AqRhAAD4CAAASAYAAAkDAAAAAAAA"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvSpPr>
@@ -11866,7 +11859,7 @@
         <xdr:cNvCxnSpPr>
           <a:extLst>
             <a:ext uri="smNativeData">
-              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_YEW8ZhMAAAAlAAAADQAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAAAAAAAAAAAAAEAAABQAAAAAAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAAAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAZAAAAAEAAABAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAALXQvCAeAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAAAwAAAAWAAAAVQB0ATIAAAAWAAAAxgN1ATd8AACHCgAAAQAAAJMjAAAAAAAA"/>
+              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_ifG9ZhMAAAAlAAAADQAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAAAAAAAAAAAAAEAAABQAAAAAAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAAAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAZAAAAAEAAABAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAALXQvCAeAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAAAwAAAAWAAAAVwB0ATIAAAAWAAAAxwN1ATd8AACHCgAAAQAAAJMjAAAAAAAA"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvCxnSpPr>
@@ -11912,7 +11905,7 @@
         <xdr:cNvSpPr>
           <a:extLst>
             <a:ext uri="smNativeData">
-              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_YEW8ZhMAAAAlAAAAywAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAAAAAAAAAAAAAEAAABQAAAAKv77W8R5zj+SkbOwpx2uPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAEAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAADwvYz4eAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAAA4AAAAWAAAAPwAAAQ8AAAAWAAAA7QDtAbp7AABADAAAAAEAAAUBAAAAAAAA"/>
+              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_ifG9ZhMAAAAlAAAAywAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAAAAAAAAAAAAAEAAABQAAAAKv77W8R5zj+SkbOwpx2uPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAEAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAADwvYz4eAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAAA4AAAAWAAAAQAAAAQ8AAAAWAAAA7wDtAbp7AABADAAAAAEAAAUBAAAAAAAA"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvSpPr>
@@ -11964,7 +11957,7 @@
           <a:stCxn id="74" idx="0"/>
           <a:extLst>
             <a:ext uri="smNativeData">
-              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_YEW8ZhMAAAAlAAAADQAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAAAAAAAAAAAAAEAAABQAAAAAAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAAAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAZAAAAAEAAABAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAACLQlNEeAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAAAgAAAAQAAAAJAPjAwkAAAAhAAAAgQD7A5VkAACnBwAAEkoAAEwAAAAAAAAA"/>
+              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_ifG9ZhMAAAAlAAAADQAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAAAAAAAAAAAAAEAAABQAAAAAAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAAAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAZAAAAAEAAABAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAACLQlNEeAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAAAgAAAAQAAAAJAPjAwkAAAAhAAAAgQD7A5VkAACnBwAAEkoAAEwAAAAAAAAA"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvCxnSpPr>
@@ -12010,7 +12003,7 @@
         <xdr:cNvSpPr>
           <a:extLst>
             <a:ext uri="smNativeData">
-              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_YEW8ZhMAAAAlAAAAywAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAAAAAAAAAAAAAEAAABQAAAAH/T8Ift5zj+SkbOwpx2uPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAEAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAADoxMCIeAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAAAkAAAAQAAAAgQC9AwoAAAARAAAALwEcABZkAADzBwAA/gAAAAUBAAAAAAAA"/>
+              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_ifG9ZhMAAAAlAAAAywAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAAAAAAAAAAAAAEAAABQAAAAH/T8Ift5zj+SkbOwpx2uPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAEAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAADoxMCIeAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAAAkAAAAQAAAAgQC9AwoAAAARAAAALwEcABZkAADzBwAA/gAAAAUBAAAAAAAA"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvSpPr>
@@ -12061,7 +12054,7 @@
         <xdr:cNvSpPr>
           <a:extLst>
             <a:ext uri="smNativeData">
-              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_YEW8ZhMAAAAlAAAAywAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAAAAAAAAAAAAAEAAABQAAAAKv77W8R5zj+SkbOwpx2uPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAEAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAAHQ9InMeAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAAAkAAAAcAAAAVAHHAgoAAAAcAAAA/gGzA6uXAAAhCAAAAAEAAAQBAAAAAAAA"/>
+              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_ifG9ZhMAAAAlAAAAywAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAAAAAAAAAAAAAEAAABQAAAAKv77W8R5zj+SkbOwpx2uPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAEAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAAHQ9InMeAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAAAkAAAAcAAAAVAHHAgoAAAAcAAAA/gGzA6uXAAAhCAAAAAEAAAQBAAAAAAAA"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvSpPr>
@@ -12112,7 +12105,7 @@
         <xdr:cNvSpPr>
           <a:extLst>
             <a:ext uri="smNativeData">
-              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_YEW8ZhMAAAAlAAAAywAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAAAAAAAAAAAAAEAAABQAAAAH/T8Ift5zj+SkbOwpx2uPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAEAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAAHQ9InMeAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAAAgAAAAhAAAA7gNwAwoAAAAiAAAAnABcABCuAADTBwAAAAEAAAUBAAAAAAAA"/>
+              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_ifG9ZhMAAAAlAAAAywAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAAAAAAAAAAAAAEAAABQAAAAH/T8Ift5zj+SkbOwpx2uPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAEAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAAHQ9InMeAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAAAgAAAAhAAAA7gNwAwoAAAAiAAAAnABcABCuAADTBwAAAAEAAAUBAAAAAAAA"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvSpPr>
@@ -12163,7 +12156,7 @@
         <xdr:cNvSpPr>
           <a:extLst>
             <a:ext uri="smNativeData">
-              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_YEW8ZhMAAAAlAAAAywAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAAAAAAAAAAAAAEAAABQAAAAtsuXJgN6zj+SkbOwpx2uPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAEAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAAHQ9InMeAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAAAkAAAAWAAAAGgFmAgoAAAAWAAAAxAFTAz59AAAUCAAAAAEAAAQBAAAAAAAA"/>
+              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_ifG9ZhMAAAAlAAAAywAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAAAAAAAAAAAAAEAAABQAAAAtsuXJgN6zj+SkbOwpx2uPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAEAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAAHQ9InMeAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAAAkAAAAWAAAAGAFmAgoAAAAWAAAAwgFTAz59AAAUCAAAAAEAAAQBAAAAAAAA"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvSpPr>
@@ -12214,7 +12207,7 @@
         <xdr:cNvSpPr>
           <a:extLst>
             <a:ext uri="smNativeData">
-              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_YEW8ZhMAAAAlAAAAywAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAAAAAAAAAAAAAEAAABQAAAAtsuXJgN6zj+SkbOwpx2uPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAEAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAAAAAAAAeAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAAAQAAAAXAAAAEgA0AgUAAAAXAAAAvAAfA12BAACAAwAA/wAAAAQBAAAAAAAA"/>
+              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_ifG9ZhMAAAAlAAAAywAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAAAAAAAAAAAAAEAAABQAAAAtsuXJgN6zj+SkbOwpx2uPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAEAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAAAAAAAAeAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAAAQAAAAXAAAAEgA0AgUAAAAXAAAAvAAfA12BAACAAwAA/wAAAAQBAAAAAAAA"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvSpPr>
@@ -12265,7 +12258,7 @@
         <xdr:cNvSpPr>
           <a:extLst>
             <a:ext uri="smNativeData">
-              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_YEW8ZhMAAAAlAAAAyAAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAAAAAAAAAAAAAEAAABQAAAAJIA3MJd3tz8AAAAAAAAAAAAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAEAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAAAAAAAAeAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAABAAAAAWAAAAbAJvAREAAAAWAAAAVAG4AjJ8AAB3DgAAZAEAAKIAAAAAAAAA"/>
+              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_ifG9ZhMAAAAlAAAAyAAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAAAAAAAAAAAAAEAAABQAAAAJIA3MJd3tz8AAAAAAAAAAAAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAEAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAAAAAAAAeAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAABAAAAAWAAAAbAJvAREAAAAWAAAAVAG4AjJ8AAB3DgAAZAEAAKIAAAAAAAAA"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvSpPr>
@@ -12316,7 +12309,7 @@
         <xdr:cNvSpPr>
           <a:extLst>
             <a:ext uri="smNativeData">
-              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_YEW8ZhMAAAAlAAAAyAAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAAAAAAAAAAAAAEAAABQAAAAJIA3MJd3tz8AAAAAAAAAAAAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAEAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAAAAAAAAeAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAABQAAAAWAAAA7wBmARQAAAAWAAAA1wOwAih8AACgEQAAZgEAAKIAAAAAAAAA"/>
+              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_ifG9ZhMAAAAlAAAAyAAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAAAAAAAAAAAAAEAAABQAAAAJIA3MJd3tz8AAAAAAAAAAAAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAEAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAAAAAAAAeAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAABQAAAAWAAAA7wBmARQAAAAWAAAA1wOwAih8AACgEQAAZgEAAKIAAAAAAAAA"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvSpPr>
@@ -12367,7 +12360,7 @@
         <xdr:cNvSpPr>
           <a:extLst>
             <a:ext uri="smNativeData">
-              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_YEW8ZhMAAAAlAAAAyAAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAAAAAAAAAAAAAEAAABQAAAAd3d3d3d3tz8AAAAAAAAAAAAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAEAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAAG4gcGEeAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAABgAAAAWAAAANQJRARkAAAAWAAAAFAGbAhF8AABjFQAAZgEAAKAAAAAAAAAA"/>
+              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_ifG9ZhMAAAAlAAAAyAAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAAAAAAAAAAAAAEAAABQAAAAd3d3d3d3tz8AAAAAAAAAAAAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAEAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAAG4gcGEeAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAABgAAAAWAAAANQJRARkAAAAWAAAAFAGbAhF8AABjFQAAZgEAAKAAAAAAAAAA"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvSpPr>
@@ -12418,7 +12411,7 @@
         <xdr:cNvSpPr>
           <a:extLst>
             <a:ext uri="smNativeData">
-              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_YEW8ZhMAAAAlAAAAyAAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAAAAAAAAAAAAAEAAABQAAAA5eEVHH13tz8AAAAAAAAAAAAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAEAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAAIXQvtEeAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAABwAAAAWAAAA4ANYAR0AAAAWAAAAyAKjAhl8AAA8GQAAZwEAAKIAAAAAAAAA"/>
+              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_ifG9ZhMAAAAlAAAAyAAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAAAAAAAAAAAAAEAAABQAAAA5eEVHH13tz8AAAAAAAAAAAAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAEAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAAIXQvtEeAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAABwAAAAWAAAA4ANYAR0AAAAWAAAAyAKjAhl8AAA8GQAAZwEAAKIAAAAAAAAA"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvSpPr>
@@ -12469,7 +12462,7 @@
         <xdr:cNvSpPr>
           <a:extLst>
             <a:ext uri="smNativeData">
-              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_YEW8ZhMAAAAlAAAAyAAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAAAAAAAAAAAAAEAAABQAAAAd3d3d3d3tz8AAAAAAAAAAAAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAEAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAAAAAAAAeAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAACIAAAAWAAAAgwJXASMAAAAWAAAAUQGfAhh8AAAqHgAAYwEAAKcAAAAAAAAA"/>
+              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_ifG9ZhMAAAAlAAAAyAAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAAAAAAAAAAAAAEAAABQAAAAd3d3d3d3tz8AAAAAAAAAAAAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAEAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAAAAAAAAeAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAACIAAAAWAAAAgwJXASMAAAAWAAAAUQGfAhh8AAAqHgAAYwEAAKcAAAAAAAAA"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvSpPr>
@@ -12520,7 +12513,7 @@
         <xdr:cNvSpPr>
           <a:extLst>
             <a:ext uri="smNativeData">
-              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_YEW8ZhMAAAAlAAAAywAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAAAAAAAAAAAAAEAAABQAAAAgYOU8f55zj+SkbOwpx2uPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAEAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAAAAAAAAeAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAAAgAAAAKAAAAoAMSAgoAAAAKAAAATgD9Av05AADCBwAA/gAAAAUBAAAAAAAA"/>
+              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_ifG9ZhMAAAAlAAAAywAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAAAAAAAAAAAAAEAAABQAAAAgYOU8f55zj+SkbOwpx2uPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAEAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAAAAAAAAeAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAAAgAAAAKAAAAoAMSAgoAAAAKAAAATgD9Av05AADCBwAA/gAAAAUBAAAAAAAA"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvSpPr>
@@ -12571,7 +12564,7 @@
         <xdr:cNvSpPr>
           <a:extLst>
             <a:ext uri="smNativeData">
-              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_YEW8ZhMAAAAlAAAAywAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAAAAAAAAAAAAAEAAABQAAAApdSyzA56zj+SkbOwpx2uPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAEAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAAAAAAAAeAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAAAgAAAAMAAAAoAMmAQoAAAAMAAAATgASAqlBAADCBwAAAAEAAAUBAAAAAAAA"/>
+              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_ifG9ZhMAAAAlAAAAywAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAAAAAAAAAAAAAEAAABQAAAApdSyzA56zj+SkbOwpx2uPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAEAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAAAAAAAAeAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAAAgAAAAMAAAAoAMmAQoAAAAMAAAATgASAqlBAADCBwAAAAEAAAUBAAAAAAAA"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvSpPr>
@@ -12622,7 +12615,7 @@
         <xdr:cNvSpPr>
           <a:extLst>
             <a:ext uri="smNativeData">
-              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_YEW8ZhMAAAAlAAAAZQAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAABAAAAAAAAAAEAAABQAAAAhbacS3FV1T8AAAAAAAAAAAAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAEAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAAP////8eAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAAAoAAAAVAAAACwKuAw0AAAAXAAAAJQNXAkt6AAAoCQAAOAcAANoCAAAAAAAA"/>
+              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_ifG9ZhMAAAAlAAAAZQAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAABAAAAAAAAAAEAAABQAAAAhbacS3FV1T8AAAAAAAAAAAAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAEAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAAP////8eAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAAAoAAAAVAAAACwKuAw0AAAAXAAAAJANXAkt6AAAoCQAAOAcAANoCAAAAAAAA"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvSpPr>
@@ -12697,7 +12690,7 @@
         <xdr:cNvSpPr>
           <a:extLst>
             <a:ext uri="smNativeData">
-              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_YEW8ZhMAAAAlAAAAZQAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAABAAAAAAAAAAEAAABQAAAAhbacS3FV1T8AAAAAAAAAAAAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAEAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAAP////8eAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAAAoAAAAbAAAA7AGVAw0AAAAdAAAACgM/AjSUAAAhCQAAOQcAANsCAAAAAAAA"/>
+              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_ifG9ZhMAAAAlAAAAZQAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAABAAAAAAAAAAEAAABQAAAAhbacS3FV1T8AAAAAAAAAAAAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAEAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAAP////8eAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAAAoAAAAbAAAA6wGVAw0AAAAdAAAACAM/AjSUAAAhCQAAOQcAANsCAAAAAAAA"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvSpPr>
@@ -12777,7 +12770,7 @@
         <xdr:cNvSpPr>
           <a:extLst>
             <a:ext uri="smNativeData">
-              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_YEW8ZhMAAAAlAAAAZQAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAABAAAAAAAAAAEAAABQAAAAhbacS3FV1T8AAAAAAAAAAAAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAEAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAAAAAAAAeAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAAAoAAAAhAAAAggHUAA0AAAAiAAAAngJ7AzyrAAAKCQAANgcAANsCAAAAAAAA"/>
+              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_ifG9ZhMAAAAlAAAAZQAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAABAAAAAAAAAAEAAABQAAAAhbacS3FV1T8AAAAAAAAAAAAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAEAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAAAAAAAAeAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAAAoAAAAhAAAAggHUAA0AAAAiAAAAngJ7AzyrAAAKCQAANgcAANsCAAAAAAAA"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvSpPr>
@@ -12857,7 +12850,7 @@
         <xdr:cNvSpPr>
           <a:extLst>
             <a:ext uri="smNativeData">
-              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_YEW8ZhMAAAAlAAAAZQAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAABAAAAAAAAAAEAAABQAAAAhbacS3FV1T8AAAAAAAAAAAAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAEAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAAAAAAAAeAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAABIAAAARAAAAtwMLABYAAAASAAAAvAC5AgJlAAB9EAAAPgcAANYCAAAAAAAA"/>
+              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_ifG9ZhMAAAAlAAAAZQAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAABAAAAAAAAAAEAAABQAAAAhbacS3FV1T8AAAAAAAAAAAAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAEAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAAAAAAAAeAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAABIAAAARAAAAtwMLABYAAAASAAAAvAC5AgJlAAB9EAAAPgcAANYCAAAAAAAA"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvSpPr>
@@ -12932,7 +12925,7 @@
         <xdr:cNvSpPr>
           <a:extLst>
             <a:ext uri="smNativeData">
-              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_YEW8ZhMAAAAlAAAAZQAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAABAAAAAAAAAAEAAABQAAAAhbacS3FV1T8AAAAAAAAAAAAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAEAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAAAAAAAAeAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAAA4AAAATAAAAXwMvAREAAAAUAAAAxAPpA+puAADuDAAASwcAALMCAAAAAAAA"/>
+              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_ifG9ZhMAAAAlAAAAZQAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAABAAAAAAAAAAEAAABQAAAAhbacS3FV1T8AAAAAAAAAAAAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAEAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAAAAAAAAeAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAAA4AAAATAAAAXwMvAREAAAAUAAAAxAPpA+puAADuDAAASwcAALMCAAAAAAAA"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvSpPr>
@@ -13007,7 +13000,7 @@
         <xdr:cNvSpPr>
           <a:extLst>
             <a:ext uri="smNativeData">
-              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_YEW8ZhMAAAAlAAAAZQAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAABAAAAAAAAAAEAAABQAAAAhbacS3FV1T8AAAAAAAAAAAAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAEAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAAAAAAAAeAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAABMAAAATAAAAPABsARYAAAAUAAAAMQP+Ay1vAACaEAAAHwcAAEIDAAAAAAAA"/>
+              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_ifG9ZhMAAAAlAAAAZQAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAABAAAAAAAAAAEAAABQAAAAhbacS3FV1T8AAAAAAAAAAAAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAEAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAAAAAAAAeAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAABMAAAATAAAAPABsARYAAAAUAAAAMQP+Ay1vAACaEAAAHwcAAEIDAAAAAAAA"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvSpPr>
@@ -13082,7 +13075,7 @@
         <xdr:cNvSpPr>
           <a:extLst>
             <a:ext uri="smNativeData">
-              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_YEW8ZhMAAAAlAAAAZQAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAABAAAAAAAAAAEAAABQAAAAhbacS3FV1T8AAAAAAAAAAAAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAEAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAAAAAAAAeAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAABcAAAATAAAA/gGoARsAAAAVAAAARwIeAG5vAAB4FAAAAQcAAIwDAAAAAAAA"/>
+              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_ifG9ZhMAAAAlAAAAZQAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAABAAAAAAAAAAEAAABQAAAAhbacS3FV1T8AAAAAAAAAAAAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAEAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAAAAAAAAeAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAABcAAAATAAAA/gGoARsAAAAVAAAARwIeAG5vAAB4FAAAAQcAAIwDAAAAAAAA"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvSpPr>
@@ -13157,7 +13150,7 @@
         <xdr:cNvSpPr>
           <a:extLst>
             <a:ext uri="smNativeData">
-              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_YEW8ZhMAAAAlAAAAZQAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAABAAAAAAAAAAEAAABQAAAAhbacS3FV1T8AAAAAAAAAAAAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAEAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAAAAAAAAeAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAABwAAAATAAAA2gKCASEAAAAUAAAAcwDuA0RvAAADGQAA9gYAANUDAAAAAAAA"/>
+              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_ifG9ZhMAAAAlAAAAZQAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAABAAAAAAAAAAEAAABQAAAAhbacS3FV1T8AAAAAAAAAAAAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAEAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAAAAAAAAeAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAABwAAAATAAAA2gKCASEAAAAUAAAAcwDuA0RvAAADGQAA9gYAANUDAAAAAAAA"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvSpPr>
@@ -13232,7 +13225,7 @@
         <xdr:cNvSpPr>
           <a:extLst>
             <a:ext uri="smNativeData">
-              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_YEW8ZhMAAAAlAAAAZQAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAABAAAAAAAAAAEAAABQAAAAhbacS3FV1T8AAAAAAAAAAAAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAEAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAAAAAAAAeAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAACIAAAATAAAAIABkASYAAAAUAAAAkQHgAyRvAAClHQAABwcAAPcDAAAAAAAA"/>
+              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_ifG9ZhMAAAAlAAAAZQAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAABAAAAAAAAAAEAAABQAAAAhbacS3FV1T8AAAAAAAAAAAAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAEAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAAAAAAAAeAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAACIAAAATAAAAIABkASYAAAAUAAAAkQHgAyRvAAClHQAABwcAAPcDAAAAAAAA"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvSpPr>
@@ -13307,7 +13300,7 @@
         <xdr:cNvSpPr>
           <a:extLst>
             <a:ext uri="smNativeData">
-              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_YEW8ZhMAAAAlAAAAyAAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAAAAAAAAAAAAAEAAABQAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAEAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAAP////8eAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAABEAAAASAAAAQADjAhEAAAATAAAAJAMrAG1sAADdDgAAZAEAAKEAAAAAAAAA"/>
+              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_ifG9ZhMAAAAlAAAAyAAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAAAAAAAAAAAAAEAAABQAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAEAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAAP////8eAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAABEAAAASAAAAQADjAhEAAAATAAAAJAMrAG1sAADdDgAAZAEAAKEAAAAAAAAA"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvSpPr>
@@ -13358,7 +13351,7 @@
         <xdr:cNvSpPr>
           <a:extLst>
             <a:ext uri="smNativeData">
-              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_YEW8ZhMAAAAlAAAAyAAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAAAAAAAAAAAAAEAAABQAAAAnWyQwGV3tz8AAAAAAAAAAAAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAEAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAAAAAAAAeAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAABQAAAATAAAAEQMIABUAAAATAAAA+QFWAattAAAXEgAAagEAAKIAAAAAAAAA"/>
+              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_ifG9ZhMAAAAlAAAAyAAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAAAAAAAAAAAAAEAAABQAAAAnWyQwGV3tz8AAAAAAAAAAAAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAEAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAAAAAAAAeAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAABQAAAATAAAAEQMIABUAAAATAAAA+QFWAattAAAXEgAAagEAAKIAAAAAAAAA"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvSpPr>
@@ -13409,7 +13402,7 @@
         <xdr:cNvSpPr>
           <a:extLst>
             <a:ext uri="smNativeData">
-              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_YEW8ZhMAAAAlAAAAyAAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAAAAAAAAAAAAAEAAABQAAAAnWyQwGV3tz8AAAAAAAAAAAAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAEAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAAAAAAAAeAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAABkAAAATAAAAeQE0ABoAAAATAAAAXACBAdptAAAZFgAAaQEAAKEAAAAAAAAA"/>
+              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_ifG9ZhMAAAAlAAAAyAAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAAAAAAAAAAAAAEAAABQAAAAnWyQwGV3tz8AAAAAAAAAAAAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAEAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAAAAAAAAeAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAABkAAAATAAAAeQE0ABoAAAATAAAAXACBAdptAAAZFgAAaQEAAKEAAAAAAAAA"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvSpPr>
@@ -13460,7 +13453,7 @@
         <xdr:cNvSpPr>
           <a:extLst>
             <a:ext uri="smNativeData">
-              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_YEW8ZhMAAAAlAAAAyAAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAABAAAAAAAAAAEAAABQAAAAnWyQwGV3tz8AAAAAAAAAAAAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAEAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAAAAAAAAeAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAAB4AAAATAAAAPwMNAB8AAAATAAAAJwJaAbBtAADXGgAAaQEAAKIAAAAAAAAA"/>
+              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_ifG9ZhMAAAAlAAAAyAAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAABAAAAAAAAAAEAAABQAAAAnWyQwGV3tz8AAAAAAAAAAAAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAEAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAAAAAAAAeAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAAB4AAAATAAAAPwMNAB8AAAATAAAAJwJaAbBtAADXGgAAaQEAAKIAAAAAAAAA"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvSpPr>
@@ -13511,7 +13504,7 @@
         <xdr:cNvSpPr>
           <a:extLst>
             <a:ext uri="smNativeData">
-              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_YEW8ZhMAAAAlAAAAyAAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAAAAAAAAAAAAAEAAABQAAAAd3d3d3d3tz8AAAAAAAAAAAAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAEAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAAAAAAAAeAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAACcAAAATAAAAQgMVACgAAAATAAAAaAFfAbltAAAJIwAAZQEAAIEAAAAAAAAA"/>
+              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_ifG9ZhMAAAAlAAAAyAAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAAAAAAAAAAAAAEAAABQAAAAd3d3d3d3tz8AAAAAAAAAAAAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAEAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAAAAAAAAeAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAACcAAAATAAAAQgMVACgAAAATAAAAaAFfAbltAAAJIwAAZQEAAIEAAAAAAAAA"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvSpPr>
@@ -13562,7 +13555,7 @@
         <xdr:cNvSpPr>
           <a:extLst>
             <a:ext uri="smNativeData">
-              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_YEW8ZhMAAAAlAAAAZQAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAABAAAAAAAAAAEAAABQAAAAhbacS3FV1T8AAAAAAAAAAAAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAEAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAAAAAAAAeAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAACcAAAATAAAApACPASoAAAAVAAAAFgELAFNvAABZIgAABwcAAOECAAAAAAAA"/>
+              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_ifG9ZhMAAAAlAAAAZQAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAABAAAAAAAAAAEAAABQAAAAhbacS3FV1T8AAAAAAAAAAAAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAEAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAAAAAAAAeAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAACcAAAATAAAApACPASoAAAAVAAAAFgELAFNvAABZIgAABwcAAOECAAAAAAAA"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvSpPr>
@@ -13637,7 +13630,7 @@
         <xdr:cNvSpPr>
           <a:extLst>
             <a:ext uri="smNativeData">
-              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_YEW8ZhMAAAAlAAAAZQAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAABAAAAAAAAAAEAAABQAAAAhbacS3FV1T8AAAAAAAAAAAAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAEAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAAAAAAAAeAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAAA4AAAAWAAAAwwK0AhEAAAAYAAAAXwNuAZJ9AADMDAAASwcAAL8CAAAAAAAA"/>
+              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_ifG9ZhMAAAAlAAAAZQAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAABAAAAAAAAAAEAAABQAAAAhbacS3FV1T8AAAAAAAAAAAAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAEAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAAAAAAAAeAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAAA4AAAAWAAAAwwK0AhEAAAAYAAAAXwNuAZJ9AADMDAAASwcAAL8CAAAAAAAA"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvSpPr>
@@ -13712,7 +13705,7 @@
         <xdr:cNvSpPr>
           <a:extLst>
             <a:ext uri="smNativeData">
-              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_YEW8ZhMAAAAlAAAAZQAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAABAAAAAAAAAAEAAABQAAAAhbacS3FV1T8AAAAAAAAAAAAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAEAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAAA4AAAAeAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAABIAAAAWAAAA6QO/AhYAAAAYAAAAhQB5AZ59AACIEAAASwcAAL8CAAAAAAAA"/>
+              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_ifG9ZhMAAAAlAAAAZQAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAABAAAAAAAAAAEAAABQAAAAhbacS3FV1T8AAAAAAAAAAAAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAEAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAAA4AAAAeAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAABIAAAAWAAAA6QO/AhYAAAAYAAAAhQB5AZ59AACIEAAASwcAAL8CAAAAAAAA"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvSpPr>
@@ -13787,7 +13780,7 @@
         <xdr:cNvSpPr>
           <a:extLst>
             <a:ext uri="smNativeData">
-              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_YEW8ZhMAAAAlAAAAZQAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAABAAAAAAAAAAEAAABQAAAAhbacS3FV1T8AAAAAAAAAAAAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAEAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAAAAAAAAeAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAABcAAAAWAAAAYgGrAhoAAAAYAAAA/gFlAYh9AABWFAAASwcAAL8CAAAAAAAA"/>
+              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_ifG9ZhMAAAAlAAAAZQAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAABAAAAAAAAAAEAAABQAAAAhbacS3FV1T8AAAAAAAAAAAAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAEAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAAAAAAAAeAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAABcAAAAWAAAAYgGrAhoAAAAYAAAA/gFlAYh9AABWFAAASwcAAL8CAAAAAAAA"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvSpPr>
@@ -13862,7 +13855,7 @@
         <xdr:cNvSpPr>
           <a:extLst>
             <a:ext uri="smNativeData">
-              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_YEW8ZhMAAAAlAAAAZQAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAABAAAAAAAAAAEAAABQAAAAhbacS3FV1T8AAAAAAAAAAAAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAEAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAAAAAAAAeAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAAA4AAAAZAAAASAMSABEAAAAaAAAA5APMArqHAADpDAAASgcAAL8CAAAAAAAA"/>
+              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_ifG9ZhMAAAAlAAAAZQAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAABAAAAAAAAAAEAAABQAAAAhbacS3FV1T8AAAAAAAAAAAAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAEAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAAAAAAAAeAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAAA4AAAAZAAAASAMSABEAAAAaAAAA5APMArqHAADpDAAASgcAAL8CAAAAAAAA"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvSpPr>
@@ -13937,7 +13930,7 @@
         <xdr:cNvSpPr>
           <a:extLst>
             <a:ext uri="smNativeData">
-              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_YEW8ZhMAAAAlAAAAZQAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAABAAAAAAAAAAEAAABQAAAAhbacS3FV1T8AAAAAAAAAAAAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAEAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAAAAAAAAeAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAABIAAAAZAAAAhAMeABcAAAAaAAAAswDYAseHAAByEAAASgcAAL4DAAAAAAAA"/>
+              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_ifG9ZhMAAAAlAAAAZQAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAABAAAAAAAAAAEAAABQAAAAhbacS3FV1T8AAAAAAAAAAAAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAEAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAAAAAAAAeAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAABIAAAAZAAAAhAMeABcAAAAaAAAAswDYAseHAAByEAAASgcAAL4DAAAAAAAA"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvSpPr>
@@ -14012,7 +14005,7 @@
         <xdr:cNvSpPr>
           <a:extLst>
             <a:ext uri="smNativeData">
-              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_YEW8ZhMAAAAlAAAAZQAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAABAAAAAAAAAAEAAABQAAAAhbacS3FV1T8AAAAAAAAAAAAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAEAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAAAAAAAAeAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAABgAAAAYAAAAEgD4AxwAAAAaAAAAfwOyAp2HAADsFAAASwcAADsEAAAAAAAA"/>
+              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_ifG9ZhMAAAAlAAAAZQAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAABAAAAAAAAAAEAAABQAAAAhbacS3FV1T8AAAAAAAAAAAAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAEAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAAAAAAAAeAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAABgAAAAYAAAAEgD4AxwAAAAaAAAAfwOyAp2HAADsFAAASwcAADsEAAAAAAAA"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvSpPr>
@@ -14087,7 +14080,7 @@
         <xdr:cNvSpPr>
           <a:extLst>
             <a:ext uri="smNativeData">
-              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_YEW8ZhMAAAAlAAAAZQAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAABAAAAAAAAAAEAAABQAAAAhbacS3FV1T8AAAAAAAAAAAAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAEAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAAAAAAAAeAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAAB4AAAAZAAAAAAAjACIAAAAaAAAAbQPdAsyHAAAiGgAASwcAADsEAAAAAAAA"/>
+              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_ifG9ZhMAAAAlAAAAZQAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAABAAAAAAAAAAEAAABQAAAAhbacS3FV1T8AAAAAAAAAAAAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAEAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAAAAAAAAeAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAAB4AAAAZAAAAAAAjACIAAAAaAAAAbQPdAsyHAAAiGgAASwcAADsEAAAAAAAA"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvSpPr>
@@ -14162,7 +14155,7 @@
         <xdr:cNvSpPr>
           <a:extLst>
             <a:ext uri="smNativeData">
-              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_YEW8ZhMAAAAlAAAAZQAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAABAAAAAAAAAAEAAABQAAAAhbacS3FV1T8AAAAAAAAAAAAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAEAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAAP////8eAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAACMAAAAZAAAAJwMYACcAAAAaAAAAVgKTAsCHAABGHwAABgcAAIUDAAAAAAAA"/>
+              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_ifG9ZhMAAAAlAAAAZQAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAABAAAAAAAAAAEAAABQAAAAhbacS3FV1T8AAAAAAAAAAAAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAEAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAAP////8eAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAACMAAAAZAAAAJwMYACcAAAAaAAAAVgKTAsCHAABGHwAABgcAAIUDAAAAAAAA"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvSpPr>
@@ -14237,7 +14230,7 @@
         <xdr:cNvSpPr>
           <a:extLst>
             <a:ext uri="smNativeData">
-              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_YEW8ZhMAAAAlAAAAZQAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAABAAAAAAAAAAEAAABQAAAAhbacS3FV1T8AAAAAAAAAAAAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAEAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAAAAAAAAeAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAACgAAAAZAAAAjQAjACsAAAAaAAAAKwGfAsyHAABaIwAABwcAAMoCAAAAAAAA"/>
+              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_ifG9ZhMAAAAlAAAAZQAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAABAAAAAAAAAAEAAABQAAAAhbacS3FV1T8AAAAAAAAAAAAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAEAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAAAAAAAAeAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAACgAAAAZAAAAjQAjACsAAAAaAAAAKwGfAsyHAABaIwAABwcAAMoCAAAAAAAA"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvSpPr>
@@ -14312,7 +14305,7 @@
         <xdr:cNvSpPr>
           <a:extLst>
             <a:ext uri="smNativeData">
-              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_YEW8ZhMAAAAlAAAAZQAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAABAAAAAAAAAAEAAABQAAAAhbacS3FV1T8AAAAAAAAAAAAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAEAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAAKwaQAIeAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAACAAAAAWAAAARgG8AiQAAAAYAAAA7wJ7AZt9AAAnHAAAUAcAAPoDAAAAAAAA"/>
+              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_ifG9ZhMAAAAlAAAAZQAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAABAAAAAAAAAAEAAABQAAAAhbacS3FV1T8AAAAAAAAAAAAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAEAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAAKwaQAIeAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAACAAAAAWAAAARgG8AiQAAAAYAAAA7wJ7AZt9AAAnHAAAUAcAAPoDAAAAAAAA"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvSpPr>
@@ -14392,7 +14385,7 @@
         <xdr:cNvSpPr>
           <a:extLst>
             <a:ext uri="smNativeData">
-              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_YEW8ZhMAAAAlAAAAZQAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAABAAAAAAAAAAEAAABQAAAAhbacS3FV1T8AAAAAAAAAAAAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAEAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAAAAAAAAeAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAACUAAAAWAAAAgwHYAikAAAAYAAAABwKYAbl9AACyIAAAUQcAANwDAAAAAAAA"/>
+              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_ifG9ZhMAAAAlAAAAZQAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAABAAAAAAAAAAEAAABQAAAAhbacS3FV1T8AAAAAAAAAAAAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAEAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAAAAAAAAeAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAACUAAAAWAAAAgwHYAikAAAAYAAAABwKYAbl9AACyIAAAUQcAANwDAAAAAAAA"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvSpPr>
@@ -14472,7 +14465,7 @@
         <xdr:cNvSpPr>
           <a:extLst>
             <a:ext uri="smNativeData">
-              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_YEW8ZhMAAAAlAAAAZQAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAABAAAAAAAAAAEAAABQAAAAhbacS3FV1T8AAAAAAAAAAAAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAEAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAAAAAAAAeAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAADEAAAAWAAAAPgDTAjQAAAAYAAAAEwDNAbR9AAAfLAAAkAcAABwDAAAAAAAA"/>
+              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_ifG9ZhMAAAAlAAAAZQAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAABAAAAAAAAAAEAAABQAAAAhbacS3FV1T8AAAAAAAAAAAAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAEAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAAAAAAAAeAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAADEAAAAWAAAAPQDTAjQAAAAYAAAAEwDNAbR9AAAfLAAAkAcAABwDAAAAAAAA"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvSpPr>
@@ -14547,7 +14540,7 @@
         <xdr:cNvSpPr>
           <a:extLst>
             <a:ext uri="smNativeData">
-              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_YEW8ZhMAAAAlAAAAZQAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAABAAAAAAAAAAEAAABQAAAAhbacS3FV1T8AAAAAAAAAAAAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAEAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAAP////8eAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAABsAAAAWAAAAZQCyAh8AAAAYAAAAXgJyAZB9AACbFwAAUQcAAOoDAAAAAAAA"/>
+              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_ifG9ZhMAAAAlAAAAZQAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAABAAAAAAAAAAEAAABQAAAAhbacS3FV1T8AAAAAAAAAAAAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAEAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAAP////8eAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAABsAAAAWAAAAZQCyAh8AAAAYAAAAXgJyAZB9AACbFwAAUQcAAOoDAAAAAAAA"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvSpPr>
@@ -14627,7 +14620,7 @@
         <xdr:cNvSpPr>
           <a:extLst>
             <a:ext uri="smNativeData">
-              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_YEW8ZhMAAAAlAAAAZQAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAABAAAAAAAAAAEAAABQAAAAhbacS3FV1T8AAAAAAAAAAAAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAEAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAAAAAAAAeAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAAC4AAAAWAAAAZADEAjAAAAAYAAAAFQLAAaN9AAACKQAAkwcAAIwCAAAAAAAA"/>
+              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_ifG9ZhMAAAAlAAAAZQAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAABAAAAAAAAAAEAAABQAAAAhbacS3FV1T8AAAAAAAAAAAAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAEAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAAAAAAAAeAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAAC4AAAAWAAAAYwDEAjAAAAAYAAAAFQLAAaN9AAACKQAAkwcAAIwCAAAAAAAA"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvSpPr>
@@ -14707,7 +14700,7 @@
         <xdr:cNvCxnSpPr>
           <a:extLst>
             <a:ext uri="smNativeData">
-              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_YEW8ZhMAAAAlAAAADQAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAAAAAAAAAAAAAEAAABQAAAAAAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAAAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAZAAAAAEAAABAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAAF8AYAAeAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAABAAAAAYAAAAvAD6AikAAAAYAAAALwP6AoqGAAAZDgAAAAAAALYWAAAAAAAA"/>
+              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_ifG9ZhMAAAAlAAAADQAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAAAAAAAAAAAAAEAAABQAAAAAAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAAAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAZAAAAAEAAABAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAAF8AYAAeAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAABAAAAAYAAAAvAD6AikAAAAYAAAALwP6AoqGAAAZDgAAAAAAALYWAAAAAAAA"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvCxnSpPr>
@@ -14753,7 +14746,7 @@
         <xdr:cNvSpPr>
           <a:extLst>
             <a:ext uri="smNativeData">
-              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_YEW8ZhMAAAAlAAAAyAAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAAAAAAAAAAAAAEAAABQAAAAJIA3MJd3tz8AAAAAAAAAAAAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAEAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAACByPSIeAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAAA8AAAAYAAAA8QLfAhAAAAAZAAAA1AEoAG2GAAC1DQAAZAEAAKEAAAAAAAAA"/>
+              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_ifG9ZhMAAAAlAAAAyAAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAAAAAAAAAAAAAEAAABQAAAAJIA3MJd3tz8AAAAAAAAAAAAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAEAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAACByPSIeAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAAA8AAAAYAAAA8QLfAhAAAAAZAAAA1AEoAG2GAAC1DQAAZAEAAKEAAAAAAAAA"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvSpPr>
@@ -14804,7 +14797,7 @@
         <xdr:cNvSpPr>
           <a:extLst>
             <a:ext uri="smNativeData">
-              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_YEW8ZhMAAAAlAAAAyAAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAAAAAAAAAAAAAEAAABQAAAAJIA3MJd3tz8AAAAAAAAAAAAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAEAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAAHBhbnMeAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAABAAAAAYAAAAAgKJAREAAAAYAAAA6gDSAvqEAABgDgAAZQEAAKIAAAAAAAAA"/>
+              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_ifG9ZhMAAAAlAAAAyAAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAAAAAAAAAAAAAEAAABQAAAAJIA3MJd3tz8AAAAAAAAAAAAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAEAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAAHBhbnMeAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAABAAAAAYAAAAAgKJAREAAAAYAAAA6gDSAvqEAABgDgAAZQEAAKIAAAAAAAAA"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvSpPr>
@@ -14855,7 +14848,7 @@
         <xdr:cNvSpPr>
           <a:extLst>
             <a:ext uri="smNativeData">
-              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_YEW8ZhMAAAAlAAAAyAAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAAAAAAAAAAAAAEAAABQAAAAJIA3MJd3tz8AAAAAAAAAAAAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAEAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAAGM+PGMeAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAABQAAAAYAAAA8AH6AhUAAAAZAAAA2ABCAIqGAADYEQAAZAEAAKIAAAAAAAAA"/>
+              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_ifG9ZhMAAAAlAAAAyAAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAAAAAAAAAAAAAEAAABQAAAAJIA3MJd3tz8AAAAAAAAAAAAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAEAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAAGM+PGMeAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAABQAAAAYAAAA8AH6AhUAAAAZAAAA2ABCAIqGAADYEQAAZAEAAKIAAAAAAAAA"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvSpPr>
@@ -14906,7 +14899,7 @@
         <xdr:cNvSpPr>
           <a:extLst>
             <a:ext uri="smNativeData">
-              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_YEW8ZhMAAAAlAAAAyAAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAAAAAAAAAAAAAEAAABQAAAAJIA3MJd3tz8AAAAAAAAAAAAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAEAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAAP////8eAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAABoAAAAYAAAAQQEFAxsAAAAZAAAAKQBNAJaGAADsFgAAYwEAAKIAAAAAAAAA"/>
+              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_ifG9ZhMAAAAlAAAAyAAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAAAAAAAAAAAAAEAAABQAAAAJIA3MJd3tz8AAAAAAAAAAAAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAEAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAAP////8eAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAABoAAAAYAAAAQQEFAxsAAAAZAAAAKQBNAJaGAADsFgAAYwEAAKIAAAAAAAAA"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvSpPr>
@@ -14957,7 +14950,7 @@
         <xdr:cNvSpPr>
           <a:extLst>
             <a:ext uri="smNativeData">
-              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_YEW8ZhMAAAAlAAAAyAAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAAAAAAAAAAAAAEAAABQAAAAJIA3MJd3tz8AAAAAAAAAAAAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAEAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAAHI9IkEeAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAAB8AAAAYAAAAqQPvAiAAAAAZAAAAjAI3AH6GAADNGwAAZAEAAKEAAAAAAAAA"/>
+              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_ifG9ZhMAAAAlAAAAyAAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAAAAAAAAAAAAAEAAABQAAAAJIA3MJd3tz8AAAAAAAAAAAAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAEAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAAHI9IkEeAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAAB8AAAAYAAAAqQPvAiAAAAAZAAAAjAI3AH6GAADNGwAAZAEAAKEAAAAAAAAA"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvSpPr>
@@ -15008,7 +15001,7 @@
         <xdr:cNvSpPr>
           <a:extLst>
             <a:ext uri="smNativeData">
-              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_YEW8ZhMAAAAlAAAAyAAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAAAAAAAAAAAAAEAAABQAAAAJIA3MJd3tz8AAAAAAAAAAAAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAEAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAADEyPC8eAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAACUAAAAYAAAApgILAyYAAAAZAAAAbwFSAJyGAADyIAAAYwEAAKIAAAAAAAAA"/>
+              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_ifG9ZhMAAAAlAAAAyAAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAAAAAAAAAAAAAEAAABQAAAAJIA3MJd3tz8AAAAAAAAAAAAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAEAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAADEyPC8eAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAACUAAAAYAAAApgILAyYAAAAZAAAAbwFSAJyGAADyIAAAYwEAAKIAAAAAAAAA"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvSpPr>
@@ -15059,7 +15052,7 @@
         <xdr:cNvSpPr>
           <a:extLst>
             <a:ext uri="smNativeData">
-              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_YEW8ZhMAAAAlAAAAyAAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAAAAAAAAAAAAAEAAABQAAAAJIA3MJd3tz8AAAAAAAAAAAAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAEAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAAEI1OSIeAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAACkAAAAYAAAAowHlAioAAAAZAAAAjQAsAHOGAAB4JAAAYwEAAKQAAAAAAAAA"/>
+              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_ifG9ZhMAAAAlAAAAyAAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAAAAAAAAAAAAAEAAABQAAAAJIA3MJd3tz8AAAAAAAAAAAAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAEAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAAEI1OSIeAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAACkAAAAYAAAAowHlAioAAAAZAAAAjQAsAHOGAAB4JAAAYwEAAKQAAAAAAAAA"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvSpPr>
@@ -15110,7 +15103,7 @@
         <xdr:cNvSpPr>
           <a:extLst>
             <a:ext uri="smNativeData">
-              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_YEW8ZhMAAAAlAAAAZQAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAABAAAAAAAAAAEAAABQAAAAhbacS3FV1T8AAAAAAAAAAAAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAEAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAAEMxNjQeAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAACoAAAAWAAAAlwHAAi0AAAAYAAAANAK7AZ99AABWJQAAkQcAABkDAAAAAAAA"/>
+              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_ifG9ZhMAAAAlAAAAZQAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAABAAAAAAAAAAEAAABQAAAAhbacS3FV1T8AAAAAAAAAAAAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAEAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAAEMxNjQeAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAACoAAAAWAAAAlQHAAi0AAAAYAAAAMwK7AZ99AABWJQAAkQcAABkDAAAAAAAA"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvSpPr>
@@ -15190,7 +15183,7 @@
         <xdr:cNvSpPr>
           <a:extLst>
             <a:ext uri="smNativeData">
-              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_YEW8ZhMAAAAlAAAAywAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAABAAAAAAAAAAEAAABQAAAAtsuXJgN6zj+SkbOwpx2uPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAEAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAAHQ9IjAeAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAAAcAAAAXAAAAbAJ6AQgAAAAXAAAAFgNnApSAAACgBgAAAQEAAAQBAAAAAAAA"/>
+              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_ifG9ZhMAAAAlAAAAywAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAABAAAAAAAAAAEAAABQAAAAtsuXJgN6zj+SkbOwpx2uPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAEAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAAHQ9IjAeAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAAAcAAAAXAAAAbAJ6AQgAAAAXAAAAFgNnApSAAACgBgAAAQEAAAQBAAAAAAAA"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvSpPr>
@@ -15241,7 +15234,7 @@
         <xdr:cNvSpPr>
           <a:extLst>
             <a:ext uri="smNativeData">
-              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_YEW8ZhMAAAAlAAAAZQAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAABAAAAAAAAAAEAAABQAAAAhbacS3FV1T8AAAAAAAAAAAAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAEAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAAP////8eAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAAA0AAAAeAAAA8AEYAxAAAAAgAAAAhwKlAq+gAAC/CwAALwgAAL4CAAAAAAAA"/>
+              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_ifG9ZhMAAAAlAAAAZQAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAABAAAAAAAAAAEAAABQAAAAhbacS3FV1T8AAAAAAAAAAAAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAEAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAAP////8eAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAAA0AAAAeAAAA8AEYAxAAAAAgAAAAhwKlAq+gAAC/CwAALwgAAL4CAAAAAAAA"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvSpPr>
@@ -15316,7 +15309,7 @@
         <xdr:cNvSpPr>
           <a:extLst>
             <a:ext uri="smNativeData">
-              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_YEW8ZhMAAAAlAAAAZQAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAABAAAAAAAAAAEAAABQAAAAhbacS3FV1T8AAAAAAAAAAAAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAEAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAAAAAAAAeAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAABEAAAAeAAAA3gEzAxQAAAAgAAAARwK/AsygAAA3DwAALggAALQCAAAAAAAA"/>
+              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_ifG9ZhMAAAAlAAAAZQAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAABAAAAAAAAAAEAAABQAAAAhbacS3FV1T8AAAAAAAAAAAAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAEAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAAAAAAAAeAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAABEAAAAeAAAA3gEzAxQAAAAgAAAARwK/AsygAAA3DwAALggAALQCAAAAAAAA"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvSpPr>
@@ -15391,7 +15384,7 @@
         <xdr:cNvSpPr>
           <a:extLst>
             <a:ext uri="smNativeData">
-              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_YEW8ZhMAAAAlAAAAZQAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAABAAAAAAAAAAEAAABQAAAAhbacS3FV1T8AAAAAAAAAAAAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAEAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAADwvcm8eAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAAA4AAAAcAAAA4AOzARIAAAAeAAAAQwJ9AICWAAAKDQAAWwcAACIDAAAAAAAA"/>
+              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_ifG9ZhMAAAAlAAAAZQAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAABAAAAAAAAAAEAAABQAAAAhbacS3FV1T8AAAAAAAAAAAAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAEAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAADwvcm8eAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAAA4AAAAcAAAA4AOzARIAAAAeAAAAQwJ9AICWAAAKDQAAWwcAACIDAAAAAAAA"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvSpPr>
@@ -15435,7 +15428,7 @@
               <a:ea typeface="Arial" pitchFamily="2" charset="204"/>
               <a:cs typeface="Arial" pitchFamily="2" charset="204"/>
             </a:rPr>
-            <a:t>Отключить Праздники</a:t>
+            <a:t>Изменить</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -15476,7 +15469,7 @@
         <xdr:cNvSpPr>
           <a:extLst>
             <a:ext uri="smNativeData">
-              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_YEW8ZhMAAAAlAAAAZQAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAABAAAAAAAAAAEAAABQAAAAhbacS3FV1T8AAAAAAAAAAAAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAEAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAAP////8eAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAABMAAAAcAAAATALPARYAAAAeAAAANgOfAJ6WAAANEQAAYgcAANACAAAAAAAA"/>
+              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_ifG9ZhMAAAAlAAAAZQAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAABAAAAAAAAAAEAAABQAAAAhbacS3FV1T8AAAAAAAAAAAAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAEAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAAP////8eAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAABMAAAAcAAAATALPARYAAAAeAAAANgOfAJ6WAAANEQAAYgcAANACAAAAAAAA"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvSpPr>
@@ -15527,22 +15520,6 @@
           <a:pPr algn="ctr" defTabSz="360045" rtl="0">
             <a:defRPr sz="1000"/>
           </a:pPr>
-          <a:r>
-            <a:rPr lang="ru-ru" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="100" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Arial" pitchFamily="2" charset="204"/>
-              <a:ea typeface="Arial" pitchFamily="2" charset="204"/>
-              <a:cs typeface="Arial" pitchFamily="2" charset="204"/>
-            </a:rPr>
-            <a:t>Праздников</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="ctr" defTabSz="360045" rtl="0">
-            <a:defRPr sz="1000"/>
-          </a:pPr>
         </a:p>
         <a:p>
           <a:pPr algn="ctr" defTabSz="360045" rtl="0">
@@ -15573,7 +15550,7 @@
           <a:endCxn id="16" idx="0"/>
           <a:extLst>
             <a:ext uri="smNativeData">
-              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_YEW8ZhMAAAAlAAAADQAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAAAAAAAAAAAAAEAAABQAAAAAAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAAAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAZAAAAAEAAABAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAADcyMzQeAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAAA4AAAAcAAAA5wF/ABQAAAAcAAAAZAOJADKVAACcDAAACwAAAI0FAAAAAAAA"/>
+              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_ifG9ZhMAAAAlAAAADQAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAAAAAAAAAAAAAEAAABQAAAAAAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAAAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAZAAAAAEAAABAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAADcyMzQeAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAAA4AAAAcAAAA5wF/ABQAAAAcAAAAZAOJADKVAACcDAAACwAAAI0FAAAAAAAA"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvCxnSpPr>
@@ -15619,7 +15596,7 @@
         <xdr:cNvSpPr>
           <a:extLst>
             <a:ext uri="smNativeData">
-              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_YEW8ZhMAAAAlAAAAywAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAAAAAAAAAAAAAEAAABQAAAAKv77W8R5zj+SkbOwpx2uPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAEAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAAHlsZT0eAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAAA0AAAAcAAAALwIIAA4AAAAcAAAA2QL0ALGUAADNCwAA/wAAAAQBAAAAAAAA"/>
+              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_ifG9ZhMAAAAlAAAAywAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAAAAAAAAAAAAAEAAABQAAAAKv77W8R5zj+SkbOwpx2uPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAEAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAAHlsZT0eAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAAA0AAAAcAAAAMAIIAA4AAAAcAAAA2gL0ALGUAADNCwAA/wAAAAQBAAAAAAAA"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvSpPr>
@@ -15670,7 +15647,7 @@
         <xdr:cNvSpPr>
           <a:extLst>
             <a:ext uri="smNativeData">
-              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_YEW8ZhMAAAAlAAAAyAAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAAAAAAAAAAAAAEAAABQAAAAJIA3MJd3tz8AAAAAAAAAAAAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAEAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAACIvPjweAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAABAAAAAcAAAAEgBvABAAAAAcAAAA+gK3ASCVAAD0DQAAZAEAAKIAAAAAAAAA"/>
+              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_ifG9ZhMAAAAlAAAAyAAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAAAAAAAAAAAAAEAAABQAAAAJIA3MJd3tz8AAAAAAAAAAAAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAEAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAACIvPjweAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAABAAAAAcAAAAEgBvABAAAAAcAAAA+gK3ASCVAAD0DQAAZAEAAKIAAAAAAAAA"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvSpPr>
@@ -15721,7 +15698,7 @@
         <xdr:cNvSpPr>
           <a:extLst>
             <a:ext uri="smNativeData">
-              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_YEW8ZhMAAAAlAAAAyAAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAAAAAAAAAAAAAEAAABQAAAAJIA3MJd3tz8AAAAAAAAAAAAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAEAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAAP////8eAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAABQAAAAcAAAAZANrABUAAAAcAAAATAKyARyVAAApEgAAYgEAAKIAAAAAAAAA"/>
+              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_ifG9ZhMAAAAlAAAAyAAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAAAAAAAAAAAAAEAAABQAAAAJIA3MJd3tz8AAAAAAAAAAAAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAEAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAAP////8eAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAABQAAAAcAAAAZANrABUAAAAcAAAATAKyARyVAAApEgAAYgEAAKIAAAAAAAAA"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvSpPr>
@@ -15772,7 +15749,7 @@
         <xdr:cNvCxnSpPr>
           <a:extLst>
             <a:ext uri="smNativeData">
-              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_YEW8ZhMAAAAlAAAADQAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAAAAAAAAAAAAAEAAABQAAAAAAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAAAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAZAAAAAEAAABAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAADcyMzQeAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAAA4AAAAeAAAA2gL0ARMAAAAeAAAAqwEVAnKfAADRDAAAJAAAABkEAAAAAAAA"/>
+              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_ifG9ZhMAAAAlAAAADQAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAAAAAAAAAAAAAEAAABQAAAAAAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAAAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAZAAAAAEAAABAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAADcyMzQeAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAAA4AAAAeAAAA2gL0ARMAAAAeAAAAqwEVAnKfAADRDAAAJAAAABkEAAAAAAAA"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvCxnSpPr>
@@ -15818,7 +15795,7 @@
         <xdr:cNvSpPr>
           <a:extLst>
             <a:ext uri="smNativeData">
-              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_YEW8ZhMAAAAlAAAAyAAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAAAAAAAAAAAAAEAAABQAAAAJIA3MJd3tz8AAAAAAAAAAAAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAEAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAAD48dj4eAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAAA8AAAAeAAAAvwJ6ABAAAAAeAAAAogHBAdidAACqDQAAYwEAAKEAAAAAAAAA"/>
+              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_ifG9ZhMAAAAlAAAAyAAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAAAAAAAAAAAAAEAAABQAAAAJIA3MJd3tz8AAAAAAAAAAAAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAEAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAAD48dj4eAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAAA8AAAAeAAAAvwJ6ABAAAAAeAAAAogHBAdidAACqDQAAYwEAAKEAAAAAAAAA"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvSpPr>
@@ -15869,7 +15846,7 @@
         <xdr:cNvSpPr>
           <a:extLst>
             <a:ext uri="smNativeData">
-              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_YEW8ZhMAAAAlAAAAyAAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAABAAAAAAAAAAEAAABQAAAAJIA3MJd3tz8AAAAAAAAAAAAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAEAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAACI+PHYeAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAAA4AAAAeAAAAAgLZAQ8AAAAeAAAA6gAgA1WfAACiDAAAYgEAAKIAAAAAAAAA"/>
+              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_ifG9ZhMAAAAlAAAAyAAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAABAAAAAAAAAAEAAABQAAAAJIA3MJd3tz8AAAAAAAAAAAAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAEAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAACI+PHYeAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAAA4AAAAeAAAAAgLZAQ8AAAAeAAAA6gAgA1WfAACiDAAAYgEAAKIAAAAAAAAA"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvSpPr>
@@ -15920,7 +15897,7 @@
         <xdr:cNvSpPr>
           <a:extLst>
             <a:ext uri="smNativeData">
-              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_YEW8ZhMAAAAlAAAAyAAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAABAAAAAAAAAAEAAABQAAAAJIA3MJd3tz8AAAAAAAAAAAAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAEAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAAP////8eAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAABIAAAAeAAAA2gIFAhMAAAAeAAAAwgFMA4SfAABNEAAAYwEAAKIAAAAAAAAA"/>
+              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_ifG9ZhMAAAAlAAAAyAAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAABAAAAAAAAAAEAAABQAAAAJIA3MJd3tz8AAAAAAAAAAAAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAEAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAAP////8eAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAABIAAAAeAAAA2gIFAhMAAAAeAAAAwgFMA4SfAABNEAAAYwEAAKIAAAAAAAAA"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvSpPr>
@@ -15971,7 +15948,7 @@
         <xdr:cNvSpPr>
           <a:extLst>
             <a:ext uri="smNativeData">
-              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_YEW8ZhMAAAAlAAAAZQAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAABAAAAAAAAAAEAAABQAAAAhbacS3FV1T8AAAAAAAAAAAAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAEAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAAAAAAAAeAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAAA4AAAAhAAAAPAK0AxIAAAAjAAAAnQB/AlquAACvDAAAXQcAACEDAAAAAAAA"/>
+              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_ifG9ZhMAAAAlAAAAZQAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAABAAAAAAAAAAEAAABQAAAAhbacS3FV1T8AAAAAAAAAAAAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAEAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAAAAAAAAeAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAAA4AAAAhAAAAPgK0AxIAAAAjAAAAnAB/AlquAACvDAAAXQcAACEDAAAAAAAA"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvSpPr>
@@ -16015,7 +15992,7 @@
               <a:ea typeface="Arial" pitchFamily="2" charset="204"/>
               <a:cs typeface="Arial" pitchFamily="2" charset="204"/>
             </a:rPr>
-            <a:t>Отключить Дни рождения</a:t>
+            <a:t>Поделиться</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -16056,7 +16033,7 @@
         <xdr:cNvSpPr>
           <a:extLst>
             <a:ext uri="smNativeData">
-              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_YEW8ZhMAAAAlAAAAZQAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAABAAAAAAAAAAEAAABQAAAAhbacS3FV1T8AAAAAAAAAAAAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAEAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAAG93PjweAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAABMAAAAhAAAAlAGvAxYAAAAjAAAAfgKAAlSuAADlEAAAZAcAANACAAAAAAAA"/>
+              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_ifG9ZhMAAAAlAAAAZQAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAABAAAAAAAAAAEAAABQAAAAhbacS3FV1T8AAAAAAAAAAAAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAEAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAAG93PjweAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAABMAAAAhAAAAlAGvAxYAAAAjAAAAfgKAAlSuAADlEAAAZAcAANACAAAAAAAA"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvSpPr>
@@ -16100,23 +16077,7 @@
               <a:ea typeface="Arial" pitchFamily="2" charset="204"/>
               <a:cs typeface="Arial" pitchFamily="2" charset="204"/>
             </a:rPr>
-            <a:t>Выбрать цвет</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="ctr" defTabSz="360045" rtl="0">
-            <a:defRPr sz="1000"/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="ru-ru" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="100" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Arial" pitchFamily="2" charset="204"/>
-              <a:ea typeface="Arial" pitchFamily="2" charset="204"/>
-              <a:cs typeface="Arial" pitchFamily="2" charset="204"/>
-            </a:rPr>
-            <a:t>Дней рождения</a:t>
+            <a:t>Искать поздравление</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -16153,7 +16114,7 @@
           <a:endCxn id="6" idx="0"/>
           <a:extLst>
             <a:ext uri="smNativeData">
-              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_YEW8ZhMAAAAlAAAADQAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAAAAAAAAAAAAAEAAABQAAAAAAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAAAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAZAAAAAEAAABAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAAAAAAAAeAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAAA0AAAAhAAAAxAMlAhQAAAAhAAAArAJHAqmsAAAlDAAAJQAAANwFAAAAAAAA"/>
+              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_ifG9ZhMAAAAlAAAADQAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAAAAAAAAAAAAAEAAABQAAAAAAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAAAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAZAAAAAEAAABAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAAAAAAAAeAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAAA0AAAAhAAAAxAMlAhQAAAAhAAAArAJHAqmsAAAlDAAAJQAAANwFAAAAAAAA"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvCxnSpPr>
@@ -16199,7 +16160,7 @@
         <xdr:cNvSpPr>
           <a:extLst>
             <a:ext uri="smNativeData">
-              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_YEW8ZhMAAAAlAAAAywAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAAAAAAAAAAAAAEAAABQAAAAKv77W8R5zj+SkbOwpx2uPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAEAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAAP////8eAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAAA0AAAAhAAAAmwOoAQ8AAAAhAAAARQCTAiKsAAAcDAAA/gAAAAQBAAAAAAAA"/>
+              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_ifG9ZhMAAAAlAAAAywAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAAAAAAAAAAAAAEAAABQAAAAKv77W8R5zj+SkbOwpx2uPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAEAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAAP////8eAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAAA0AAAAhAAAAmwOoAQ8AAAAhAAAARQCTAiKsAAAcDAAA/gAAAAQBAAAAAAAA"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvSpPr>
@@ -16250,7 +16211,7 @@
         <xdr:cNvSpPr>
           <a:extLst>
             <a:ext uri="smNativeData">
-              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_YEW8ZhMAAAAlAAAAyAAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAABAAAAAAAAAAEAAABQAAAAJIA3MJd3tz8AAAAAAAAAAAAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAEAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAAP////8eAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAABAAAAAhAAAASwFFAhEAAAAhAAAAMQCLA8ysAAA4DgAAYQEAAKIAAAAAAAAA"/>
+              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_ifG9ZhMAAAAlAAAAyAAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAABAAAAAAAAAAEAAABQAAAAJIA3MJd3tz8AAAAAAAAAAAAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAEAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAAP////8eAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAABAAAAAhAAAASwFFAhEAAAAhAAAAMwCLA8ysAAA4DgAAYQEAAKIAAAAAAAAA"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvSpPr>
@@ -16301,7 +16262,7 @@
         <xdr:cNvSpPr>
           <a:extLst>
             <a:ext uri="smNativeData">
-              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_YEW8ZhMAAAAlAAAAyAAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAAAAAAAAAAAAAEAAABQAAAAJIA3MJd3tz8AAAAAAAAAAAAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAEAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAANC8INEeAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAABQAAAAhAAAArAIpAhUAAAAhAAAAlAFwA62sAAABEgAAYwEAAKIAAAAAAAAA"/>
+              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_ifG9ZhMAAAAlAAAAyAAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAAAAAAAAAAAAAEAAABQAAAAJIA3MJd3tz8AAAAAAAAAAAAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAEAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAANC8INEeAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAABQAAAAhAAAArAIpAhUAAAAhAAAAlAFwA62sAAABEgAAYwEAAKIAAAAAAAAA"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvSpPr>
@@ -16352,7 +16313,7 @@
         <xdr:cNvSpPr>
           <a:extLst>
             <a:ext uri="smNativeData">
-              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_YEW8ZhMAAAAlAAAAyAAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAAAAAAAAAAAAAEAAABQAAAA5eEVHH13tz8AAAAAAAAAAAAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAEAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAAAAAAAAeAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAADIAAAAWAAAAbwF0ATIAAAAWAAAA8QPAAjd8AAB8LQAAaAEAAKkAAAAAAAAA"/>
+              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_ifG9ZhMAAAAlAAAAyAAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAAAAAAAAAAAAAEAAABQAAAA5eEVHH13tz8AAAAAAAAAAAAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAEAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAAAAAAAAeAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAADIAAAAWAAAAbQF0ATIAAAAWAAAA8QPAAjd8AAB8LQAAaAEAAKkAAAAAAAAA"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvSpPr>
@@ -16403,7 +16364,7 @@
         <xdr:cNvSpPr>
           <a:extLst>
             <a:ext uri="smNativeData">
-              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_YEW8ZhMAAAAlAAAAyAAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAAAAAAAAAAAAAEAAABQAAAA5eEVHH13tz8AAAAAAAAAAAAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAEAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAAD0iMCIeAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAAC8AAAAWAAAACABeAS8AAAAWAAAAiQKqAh98AAD3KQAAaAEAAKgAAAAAAAAA"/>
+              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_ifG9ZhMAAAAlAAAAyAAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAAAAAAAAAAAAAEAAABQAAAA5eEVHH13tz8AAAAAAAAAAAAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAEAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAAD0iMCIeAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAAC8AAAAWAAAACABeAS8AAAAWAAAAhwKqAh98AAD3KQAAaAEAAKgAAAAAAAAA"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvSpPr>
@@ -16454,7 +16415,7 @@
         <xdr:cNvSpPr>
           <a:extLst>
             <a:ext uri="smNativeData">
-              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_YEW8ZhMAAAAlAAAAyAAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAAAAAAAAAAAAAEAAABQAAAA5eEVHH13tz8AAAAAAAAAAAAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAEAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAAJeXl/8eAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAACsAAAAWAAAAVQJvASwAAAAWAAAA8wC7AjJ8AABqJgAAaAEAAKQAAAAAAAAA"/>
+              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_ifG9ZhMAAAAlAAAAyAAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAAAAAAAAAAAAAEAAABQAAAA5eEVHH13tz8AAAAAAAAAAAAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAEAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAAJeXl/8eAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAACsAAAAWAAAAVQJvASwAAAAWAAAA9AC7AjJ8AABqJgAAaAEAAKQAAAAAAAAA"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvSpPr>
@@ -16505,7 +16466,7 @@
         <xdr:cNvSpPr>
           <a:extLst>
             <a:ext uri="smNativeData">
-              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_YEW8ZhMAAAAlAAAAyAAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAAAAAAAAAAAAAEAAABQAAAA5eEVHH13tz8AAAAAAAAAAAAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAEAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAADAiIHgeAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAACcAAAAWAAAANgBrAScAAAAWAAAAuAK1Ai18AAA8IgAAZgEAAKkAAAAAAAAA"/>
+              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_ifG9ZhMAAAAlAAAAyAAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAAAAAAAAAAAAAEAAABQAAAA5eEVHH13tz8AAAAAAAAAAAAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAEAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAADAiIHgeAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAACcAAAAWAAAANQBrAScAAAAWAAAAuQK1Ai18AAA8IgAAZgEAAKkAAAAAAAAA"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvSpPr>
@@ -16562,7 +16523,7 @@
           <a:spLocks noChangeAspect="1"/>
           <a:extLst>
             <a:ext uri="smNativeData">
-              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_YEW8ZhMAAAAlAAAAZAAAAKwAAAAAkAAAAEgAAACQAAAASAAAAAAAAAAAAAAAAAAAAAEAAABQAAAAAAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAEAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAPAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAADMANAAeAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAAAAAAAAAAAAAAAAAADkAAAALAAAAHwNaAQAAAAAAAAAAd1QAAAtEAAAAAAAA"/>
+              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_ifG9ZhMAAAAlAAAAZAAAAKwAAAAAkAAAAEgAAACQAAAASAAAAAAAAAAAAAAAAAAAAAEAAABQAAAAAAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAEAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAPAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAADMANAAeAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAAAAAAAAAAAAAAAAAADkAAAALAAAAHwNaAQAAAAAAAAAAd1QAAAtEAAAAAAAA"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvSpPr>
@@ -16610,7 +16571,7 @@
         <xdr:cNvPicPr>
           <a:extLst>
             <a:ext uri="smNativeData">
-              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_15_YEW8ZhMAAAAlAAAAEQAAAA8AAAAAkAAAAEgAAACQAAAASAAAAAAAAAAAAAAAAAAAAAEAAABQAAAAAAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAAAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAZAAAAAEAAABAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAAAAAAAAAAAAAAAAAAUAAAAAQAAABQAAAAUAAAAFAAAAAEAAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAAAcAAAA4AAAAAAAAAAAAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABkAAAAZAAAAAEAAAAjAAAABAAAAGQAAAAXAAAAFAAAAAAAAAAAAAAA/38AAP9/AAAAAAAACQAAAAQAAAAFAAAAHgAAAGgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABAnAAAQJwAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAUAAAAAAAAAMDA/wAAAAAAZAAAADIAAAAAAAAAZAAAAAAAAAB/f38ACgAAACIAAAAYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAJAAAACQAAAAAAAAABwAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAH9/fwAlAAAAWAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAPwAAAAAAAACghgEAAAAAAAAAAAAAAAAADAAAAAEAAAAAAAAAAAAAAAAAAAAhAAAAMAAAACwAAABDAAAAAQAAADkAKwBTAAAAAQAAADkACwNzCgAAyk0AACcZAADQEAAAAAAAAA=="/>
+              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_15_ifG9ZhMAAAAlAAAAEQAAAA8AAAAAkAAAAEgAAACQAAAASAAAAAAAAAAAAAAAAAAAAAEAAABQAAAAAAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAAAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAZAAAAAEAAABAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAAAAAAAAAAAAAAAAAAUAAAAAQAAABQAAAAUAAAAFAAAAAEAAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAAAcAAAA4AAAAAAAAAAAAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABkAAAAZAAAAAEAAAAjAAAABAAAAGQAAAAXAAAAFAAAAAAAAAAAAAAA/38AAP9/AAAAAAAACQAAAAQAAAAFAAAAHgAAAGgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABAnAAAQJwAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAUAAAAAAAAAMDA/wAAAAAAZAAAADIAAAAAAAAAZAAAAAAAAAB/f38ACgAAACIAAAAYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAJAAAACQAAAAAAAAABwAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAH9/fwAlAAAAWAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAPwAAAAAAAACghgEAAAAAAAAAAAAAAAAADAAAAAEAAAAAAAAAAAAAAAAAAAAhAAAAMAAAACwAAABDAAAAAQAAADkAKwBTAAAAAQAAADkACwNzCgAAyk0AACcZAADQEAAAAAAAAA=="/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPicPr>
@@ -16967,8 +16928,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <dimension ref="A33:W66"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="normal" topLeftCell="R4" zoomScale="85" workbookViewId="0">
-      <selection activeCell="V7" sqref="V7"/>
+    <sheetView view="normal" topLeftCell="C1" zoomScale="85" workbookViewId="0">
+      <selection activeCell="L2" sqref="L2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="9" defaultColWidth="10.000000" defaultRowHeight="11.15"/>
@@ -17213,7 +17174,7 @@
   <printOptions>
     <extLst>
       <ext uri="smNativeData">
-        <pm:pageFlags xmlns:pm="smNativeData" id="1723614560" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
+        <pm:pageFlags xmlns:pm="smNativeData" id="1723724169" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
       </ext>
     </extLst>
   </printOptions>
@@ -17222,17 +17183,17 @@
   <headerFooter>
     <extLst>
       <ext uri="smNativeData">
-        <pm:header xmlns:pm="smNativeData" id="1723614560" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
-        <pm:footer xmlns:pm="smNativeData" id="1723614560" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1723614560" Id="0" type="0" value="0"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1723614560" Id="1" type="0" value="0"/>
+        <pm:header xmlns:pm="smNativeData" id="1723724169" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
+        <pm:footer xmlns:pm="smNativeData" id="1723724169" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1723724169" Id="0" type="0" value="0"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1723724169" Id="1" type="0" value="0"/>
       </ext>
     </extLst>
   </headerFooter>
   <drawing r:id="rId1"/>
   <extLst>
     <ext uri="smNativeData">
-      <pm:sheetPrefs xmlns:pm="smNativeData" day="1723614560" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
+      <pm:sheetPrefs xmlns:pm="smNativeData" day="1723724169" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
         <pm:shade id="0" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
         <pm:shade id="1" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
       </pm:sheetPrefs>
@@ -17245,8 +17206,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <dimension ref="A1:G26"/>
   <sheetViews>
-    <sheetView view="normal" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16:E16"/>
+    <sheetView view="normal" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="9" defaultColWidth="10.000000" defaultRowHeight="13.45"/>
@@ -17515,7 +17476,7 @@
   <printOptions>
     <extLst>
       <ext uri="smNativeData">
-        <pm:pageFlags xmlns:pm="smNativeData" id="1723614560" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
+        <pm:pageFlags xmlns:pm="smNativeData" id="1723724169" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
       </ext>
     </extLst>
   </printOptions>
@@ -17524,16 +17485,16 @@
   <headerFooter>
     <extLst>
       <ext uri="smNativeData">
-        <pm:header xmlns:pm="smNativeData" id="1723614560" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
-        <pm:footer xmlns:pm="smNativeData" id="1723614560" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1723614560" Id="0" type="0" value="0"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1723614560" Id="1" type="0" value="0"/>
+        <pm:header xmlns:pm="smNativeData" id="1723724169" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
+        <pm:footer xmlns:pm="smNativeData" id="1723724169" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1723724169" Id="0" type="0" value="0"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1723724169" Id="1" type="0" value="0"/>
       </ext>
     </extLst>
   </headerFooter>
   <extLst>
     <ext uri="smNativeData">
-      <pm:sheetPrefs xmlns:pm="smNativeData" day="1723614560" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
+      <pm:sheetPrefs xmlns:pm="smNativeData" day="1723724169" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
         <pm:shade id="0" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
         <pm:shade id="1" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
       </pm:sheetPrefs>
@@ -17546,8 +17507,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <dimension ref="A1:D51"/>
   <sheetViews>
-    <sheetView view="normal" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="D46" sqref="D46"/>
+    <sheetView view="normal" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="9" defaultColWidth="10.000000" defaultRowHeight="13.45"/>
@@ -17848,7 +17809,7 @@
   <printOptions>
     <extLst>
       <ext uri="smNativeData">
-        <pm:pageFlags xmlns:pm="smNativeData" id="1723614560" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
+        <pm:pageFlags xmlns:pm="smNativeData" id="1723724169" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
       </ext>
     </extLst>
   </printOptions>
@@ -17857,16 +17818,16 @@
   <headerFooter>
     <extLst>
       <ext uri="smNativeData">
-        <pm:header xmlns:pm="smNativeData" id="1723614560" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
-        <pm:footer xmlns:pm="smNativeData" id="1723614560" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1723614560" Id="0" type="0" value="0"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1723614560" Id="1" type="0" value="0"/>
+        <pm:header xmlns:pm="smNativeData" id="1723724169" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
+        <pm:footer xmlns:pm="smNativeData" id="1723724169" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1723724169" Id="0" type="0" value="0"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1723724169" Id="1" type="0" value="0"/>
       </ext>
     </extLst>
   </headerFooter>
   <extLst>
     <ext uri="smNativeData">
-      <pm:sheetPrefs xmlns:pm="smNativeData" day="1723614560" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
+      <pm:sheetPrefs xmlns:pm="smNativeData" day="1723724169" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
         <pm:shade id="0" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
         <pm:shade id="1" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
       </pm:sheetPrefs>
@@ -17879,8 +17840,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <dimension ref="A1:G233"/>
   <sheetViews>
-    <sheetView view="normal" topLeftCell="B210" workbookViewId="0">
-      <selection activeCell="C233" sqref="C233"/>
+    <sheetView view="normal" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="21" defaultColWidth="22.567568" defaultRowHeight="13.45"/>
@@ -20389,7 +20350,7 @@
   <printOptions>
     <extLst>
       <ext uri="smNativeData">
-        <pm:pageFlags xmlns:pm="smNativeData" id="1723614560" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
+        <pm:pageFlags xmlns:pm="smNativeData" id="1723724169" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
       </ext>
     </extLst>
   </printOptions>
@@ -20398,16 +20359,16 @@
   <headerFooter>
     <extLst>
       <ext uri="smNativeData">
-        <pm:header xmlns:pm="smNativeData" id="1723614560" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
-        <pm:footer xmlns:pm="smNativeData" id="1723614560" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1723614560" Id="0" type="0" value="0"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1723614560" Id="1" type="0" value="0"/>
+        <pm:header xmlns:pm="smNativeData" id="1723724169" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
+        <pm:footer xmlns:pm="smNativeData" id="1723724169" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1723724169" Id="0" type="0" value="0"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1723724169" Id="1" type="0" value="0"/>
       </ext>
     </extLst>
   </headerFooter>
   <extLst>
     <ext uri="smNativeData">
-      <pm:sheetPrefs xmlns:pm="smNativeData" day="1723614560" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
+      <pm:sheetPrefs xmlns:pm="smNativeData" day="1723724169" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
         <pm:shade id="0" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
         <pm:shade id="1" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
       </pm:sheetPrefs>
@@ -20420,8 +20381,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <dimension ref="A2:C63"/>
   <sheetViews>
-    <sheetView view="normal" topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="B62" sqref="B62"/>
+    <sheetView view="normal" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="9" defaultColWidth="10.000000" defaultRowHeight="13.45"/>
@@ -20772,7 +20733,7 @@
   <printOptions>
     <extLst>
       <ext uri="smNativeData">
-        <pm:pageFlags xmlns:pm="smNativeData" id="1723614560" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
+        <pm:pageFlags xmlns:pm="smNativeData" id="1723724169" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
       </ext>
     </extLst>
   </printOptions>
@@ -20781,16 +20742,16 @@
   <headerFooter>
     <extLst>
       <ext uri="smNativeData">
-        <pm:header xmlns:pm="smNativeData" id="1723614560" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
-        <pm:footer xmlns:pm="smNativeData" id="1723614560" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1723614560" Id="0" type="0" value="0"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1723614560" Id="1" type="0" value="0"/>
+        <pm:header xmlns:pm="smNativeData" id="1723724169" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
+        <pm:footer xmlns:pm="smNativeData" id="1723724169" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1723724169" Id="0" type="0" value="0"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1723724169" Id="1" type="0" value="0"/>
       </ext>
     </extLst>
   </headerFooter>
   <extLst>
     <ext uri="smNativeData">
-      <pm:sheetPrefs xmlns:pm="smNativeData" day="1723614560" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
+      <pm:sheetPrefs xmlns:pm="smNativeData" day="1723724169" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
         <pm:shade id="0" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
         <pm:shade id="1" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
       </pm:sheetPrefs>
@@ -20804,7 +20765,7 @@
   <dimension ref="A1:S24"/>
   <sheetViews>
     <sheetView view="normal" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="9" defaultColWidth="10.000000" defaultRowHeight="13.45"/>
@@ -21251,7 +21212,7 @@
   <printOptions>
     <extLst>
       <ext uri="smNativeData">
-        <pm:pageFlags xmlns:pm="smNativeData" id="1723614560" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
+        <pm:pageFlags xmlns:pm="smNativeData" id="1723724169" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
       </ext>
     </extLst>
   </printOptions>
@@ -21260,16 +21221,16 @@
   <headerFooter>
     <extLst>
       <ext uri="smNativeData">
-        <pm:header xmlns:pm="smNativeData" id="1723614560" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
-        <pm:footer xmlns:pm="smNativeData" id="1723614560" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1723614560" Id="0" type="0" value="0"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1723614560" Id="1" type="0" value="0"/>
+        <pm:header xmlns:pm="smNativeData" id="1723724169" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
+        <pm:footer xmlns:pm="smNativeData" id="1723724169" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1723724169" Id="0" type="0" value="0"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1723724169" Id="1" type="0" value="0"/>
       </ext>
     </extLst>
   </headerFooter>
   <extLst>
     <ext uri="smNativeData">
-      <pm:sheetPrefs xmlns:pm="smNativeData" day="1723614560" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
+      <pm:sheetPrefs xmlns:pm="smNativeData" day="1723724169" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
         <pm:shade id="0" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
         <pm:shade id="1" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
       </pm:sheetPrefs>
@@ -21282,8 +21243,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <dimension ref="A2:C100"/>
   <sheetViews>
-    <sheetView view="normal" topLeftCell="A83" workbookViewId="0">
-      <selection activeCell="B54" sqref="B54"/>
+    <sheetView view="normal" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="9" defaultColWidth="10.000000" defaultRowHeight="13.45"/>
@@ -21857,7 +21818,7 @@
   <printOptions>
     <extLst>
       <ext uri="smNativeData">
-        <pm:pageFlags xmlns:pm="smNativeData" id="1723614560" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
+        <pm:pageFlags xmlns:pm="smNativeData" id="1723724169" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
       </ext>
     </extLst>
   </printOptions>
@@ -21866,17 +21827,17 @@
   <headerFooter>
     <extLst>
       <ext uri="smNativeData">
-        <pm:header xmlns:pm="smNativeData" id="1723614560" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
-        <pm:footer xmlns:pm="smNativeData" id="1723614560" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1723614560" Id="0" type="0" value="0"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1723614560" Id="1" type="0" value="0"/>
+        <pm:header xmlns:pm="smNativeData" id="1723724169" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
+        <pm:footer xmlns:pm="smNativeData" id="1723724169" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1723724169" Id="0" type="0" value="0"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1723724169" Id="1" type="0" value="0"/>
       </ext>
     </extLst>
   </headerFooter>
   <drawing r:id="rId5"/>
   <extLst>
     <ext uri="smNativeData">
-      <pm:sheetPrefs xmlns:pm="smNativeData" day="1723614560" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
+      <pm:sheetPrefs xmlns:pm="smNativeData" day="1723724169" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
         <pm:shade id="0" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
         <pm:shade id="1" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
       </pm:sheetPrefs>
@@ -21889,8 +21850,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <dimension ref="A1:J49"/>
   <sheetViews>
-    <sheetView view="normal" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView tabSelected="1" view="normal" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="9" defaultColWidth="10.000000" defaultRowHeight="13.45"/>
@@ -22392,7 +22353,7 @@
   <printOptions>
     <extLst>
       <ext uri="smNativeData">
-        <pm:pageFlags xmlns:pm="smNativeData" id="1723614560" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
+        <pm:pageFlags xmlns:pm="smNativeData" id="1723724169" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
       </ext>
     </extLst>
   </printOptions>
@@ -22401,17 +22362,17 @@
   <headerFooter>
     <extLst>
       <ext uri="smNativeData">
-        <pm:header xmlns:pm="smNativeData" id="1723614560" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
-        <pm:footer xmlns:pm="smNativeData" id="1723614560" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1723614560" Id="0" type="0" value="0"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1723614560" Id="1" type="0" value="0"/>
+        <pm:header xmlns:pm="smNativeData" id="1723724169" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
+        <pm:footer xmlns:pm="smNativeData" id="1723724169" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1723724169" Id="0" type="0" value="0"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1723724169" Id="1" type="0" value="0"/>
       </ext>
     </extLst>
   </headerFooter>
   <drawing r:id="rId2"/>
   <extLst>
     <ext uri="smNativeData">
-      <pm:sheetPrefs xmlns:pm="smNativeData" day="1723614560" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
+      <pm:sheetPrefs xmlns:pm="smNativeData" day="1723724169" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
         <pm:shade id="0" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
         <pm:shade id="1" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
       </pm:sheetPrefs>

--- a/Google Calendar.xlsx
+++ b/Google Calendar.xlsx
@@ -20,10 +20,10 @@
   <calcPr/>
   <extLst>
     <ext uri="smNativeData">
-      <pm:revision xmlns:pm="smNativeData" day="1723724169" val="1068" rev="124" revOS="4" revMin="124" revMax="0"/>
-      <pm:docPrefs xmlns:pm="smNativeData" id="1723724169" fixedDigits="0" showNotice="1" showFrameBounds="1" autoChart="1" recalcOnPrint="1" recalcOnCopy="1" finalRounding="1" compatTextArt="1" tab="567" useDefinedPrintRange="1" printArea="currentSheet"/>
-      <pm:compatibility xmlns:pm="smNativeData" id="1723724169" overlapCells="1"/>
-      <pm:defCurrency xmlns:pm="smNativeData" id="1723724169"/>
+      <pm:revision xmlns:pm="smNativeData" day="1723739813" val="1068" rev="124" revOS="4" revMin="124" revMax="0"/>
+      <pm:docPrefs xmlns:pm="smNativeData" id="1723739813" fixedDigits="0" showNotice="1" showFrameBounds="1" autoChart="1" recalcOnPrint="1" recalcOnCopy="1" finalRounding="1" compatTextArt="1" tab="567" useDefinedPrintRange="1" printArea="currentSheet"/>
+      <pm:compatibility xmlns:pm="smNativeData" id="1723739813" overlapCells="1"/>
+      <pm:defCurrency xmlns:pm="smNativeData" id="1723739813"/>
     </ext>
   </extLst>
 </workbook>
@@ -1406,18 +1406,18 @@
     <t>Module</t>
   </si>
   <si>
+    <t>GC-3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">В ходе тестирования было выполнено 183 теста из перечня Acceptance Sheet </t>
+  </si>
+  <si>
     <t>GC-1</t>
   </si>
   <si>
-    <t xml:space="preserve">В ходе тестирования было выполнено 183 теста из перечня Acceptance Sheet </t>
-  </si>
-  <si>
     <t>GC-2</t>
   </si>
   <si>
-    <t>GC-3</t>
-  </si>
-  <si>
     <t>GC-4</t>
   </si>
   <si>
@@ -1457,7 +1457,7 @@
     <t>40 часов</t>
   </si>
   <si>
-    <t>Баги по критичности</t>
+    <t>Качество приложения</t>
   </si>
 </sst>
 </file>
@@ -1487,7 +1487,7 @@
       <sz val="10"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1723724169" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1723739813" ulstyle="none" kern="1">
             <pm:latin face="Arial" sz="200" lang="default"/>
             <pm:cs face="Times New Roman" sz="200" lang="default"/>
             <pm:ea face="SimSun" sz="200" lang="default"/>
@@ -1504,7 +1504,7 @@
       <sz val="10"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1723724169" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1723739813" ulstyle="none" kern="1">
             <pm:latin face="Arial" sz="200" lang="default" weight="bold"/>
             <pm:cs face="Times New Roman" sz="200" lang="default" weight="bold"/>
             <pm:ea face="SimSun" sz="200" lang="default" weight="bold"/>
@@ -1520,7 +1520,7 @@
       <sz val="20"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1723724169" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1723739813" ulstyle="none" kern="1">
             <pm:latin face="Calibri" sz="400" lang="default"/>
             <pm:cs face="Times New Roman" sz="400" lang="default"/>
             <pm:ea face="SimSun" sz="400" lang="default"/>
@@ -1536,7 +1536,7 @@
       <sz val="20"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1723724169" fgClr="E26B0A" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1723739813" fgClr="E26B0A" ulstyle="none" kern="1">
             <pm:latin face="Calibri" sz="400" lang="default"/>
             <pm:cs face="Times New Roman" sz="400" lang="default"/>
             <pm:ea face="SimSun" sz="400" lang="default"/>
@@ -1552,7 +1552,7 @@
       <sz val="20"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1723724169" fgClr="FFFFFF" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1723739813" fgClr="FFFFFF" ulstyle="none" kern="1">
             <pm:latin face="Calibri" sz="400" lang="default"/>
             <pm:cs face="Times New Roman" sz="400" lang="default"/>
             <pm:ea face="SimSun" sz="400" lang="default"/>
@@ -1570,7 +1570,7 @@
       <sz val="14"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1723724169" fgClr="FFFFFF" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1723739813" fgClr="FFFFFF" ulstyle="none" kern="1">
             <pm:latin face="Calibri" sz="280" lang="default" weight="bold" i="1"/>
             <pm:cs face="Times New Roman" sz="280" lang="default" weight="bold" i="1"/>
             <pm:ea face="SimSun" sz="280" lang="default" weight="bold" i="1"/>
@@ -1586,7 +1586,7 @@
       <sz val="12"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1723724169" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1723739813" ulstyle="none" kern="1">
             <pm:latin face="Arial" sz="240" lang="default"/>
             <pm:cs face="Times New Roman" sz="240" lang="default"/>
             <pm:ea face="SimSun" sz="240" lang="default"/>
@@ -1603,7 +1603,7 @@
       <sz val="10"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1723724169" fgClr="00007F" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1723739813" fgClr="00007F" ulstyle="none" kern="1">
             <pm:latin face="Arial" sz="200" lang="default" weight="bold"/>
             <pm:cs face="Times New Roman" sz="200" lang="default" weight="bold"/>
             <pm:ea face="SimSun" sz="200" lang="default" weight="bold"/>
@@ -1619,7 +1619,7 @@
       <sz val="8"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1723724169" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1723739813" ulstyle="none" kern="1">
             <pm:latin face="Arial" sz="160" lang="default"/>
             <pm:cs face="Times New Roman" sz="160" lang="default"/>
             <pm:ea face="SimSun" sz="160" lang="default"/>
@@ -1635,7 +1635,7 @@
       <sz val="10"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1723724169" fgClr="00007F" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1723739813" fgClr="00007F" ulstyle="none" kern="1">
             <pm:latin face="Arial" sz="200" lang="default"/>
             <pm:cs face="Times New Roman" sz="200" lang="default"/>
             <pm:ea face="SimSun" sz="200" lang="default"/>
@@ -1652,7 +1652,7 @@
       <u val="single"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1723724169" fgClr="0000FF" ulstyle="single" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1723739813" fgClr="0000FF" ulstyle="single" kern="1">
             <pm:latin face="Arial" sz="200" lang="default"/>
             <pm:cs face="Times New Roman" sz="200" lang="default"/>
             <pm:ea face="SimSun" sz="200" lang="default"/>
@@ -1669,7 +1669,7 @@
       <sz val="8"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1723724169" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1723739813" ulstyle="none" kern="1">
             <pm:latin face="Arial" sz="160" lang="default" weight="bold"/>
             <pm:cs face="Times New Roman" sz="160" lang="default" weight="bold"/>
             <pm:ea face="SimSun" sz="160" lang="default" weight="bold"/>
@@ -1685,7 +1685,7 @@
       <sz val="8"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1723724169" fgClr="974706" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1723739813" fgClr="974706" ulstyle="none" kern="1">
             <pm:latin face="Arial" sz="160" lang="default"/>
             <pm:cs face="Times New Roman" sz="160" lang="default"/>
             <pm:ea face="SimSun" sz="160" lang="default"/>
@@ -1701,7 +1701,7 @@
       <sz val="10"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1723724169" fgClr="FF0000" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1723739813" fgClr="FF0000" ulstyle="none" kern="1">
             <pm:latin face="Arial" sz="200" lang="default"/>
             <pm:cs face="Times New Roman" sz="200" lang="default"/>
             <pm:ea face="SimSun" sz="200" lang="default"/>
@@ -1717,7 +1717,7 @@
       <sz val="10"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1723724169" fgClr="0070C0" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1723739813" fgClr="0070C0" ulstyle="none" kern="1">
             <pm:latin face="Arial" sz="200" lang="default"/>
             <pm:cs face="Times New Roman" sz="200" lang="default"/>
             <pm:ea face="SimSun" sz="200" lang="default"/>
@@ -1733,7 +1733,7 @@
       <sz val="10"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1723724169" fgClr="00B050" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1723739813" fgClr="00B050" ulstyle="none" kern="1">
             <pm:latin face="Arial" sz="200" lang="default"/>
             <pm:cs face="Times New Roman" sz="200" lang="default"/>
             <pm:ea face="SimSun" sz="200" lang="default"/>
@@ -1750,7 +1750,7 @@
       <u val="single"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1723724169" fgClr="0000FF" ulstyle="single" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1723739813" fgClr="0000FF" ulstyle="single" kern="1">
             <pm:latin face="Arial" sz="200" lang="default"/>
             <pm:cs face="Times New Roman" sz="200" lang="default"/>
             <pm:ea face="SimSun" sz="200" lang="default"/>
@@ -1768,7 +1768,7 @@
       <u val="single"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1723724169" fgClr="0000FF" ulstyle="single" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1723739813" fgClr="0000FF" ulstyle="single" kern="1">
             <pm:latin face="Arial" sz="200" lang="default"/>
             <pm:cs face="Times New Roman" sz="200" lang="default"/>
             <pm:ea face="SimSun" sz="200" lang="default"/>
@@ -1786,7 +1786,7 @@
       <u val="single"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1723724169" fgClr="0000FF" ulstyle="single" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1723739813" fgClr="0000FF" ulstyle="single" kern="1">
             <pm:latin face="Arial" sz="200" lang="default"/>
             <pm:cs face="Times New Roman" sz="200" lang="default"/>
             <pm:ea face="SimSun" sz="200" lang="default"/>
@@ -1804,7 +1804,7 @@
       <u val="single"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1723724169" fgClr="0000FF" ulstyle="single" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1723739813" fgClr="0000FF" ulstyle="single" kern="1">
             <pm:latin face="Arial" sz="200" lang="default"/>
             <pm:cs face="Times New Roman" sz="200" lang="default"/>
             <pm:ea face="SimSun" sz="200" lang="default"/>
@@ -1821,7 +1821,7 @@
       <sz val="10"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1723724169" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1723739813" ulstyle="none" kern="1">
             <pm:latin face="Arial" sz="200" lang="default"/>
             <pm:cs face="Arial" sz="200" lang="default"/>
             <pm:ea face="Arial" sz="200" lang="default"/>
@@ -1838,7 +1838,7 @@
       <u val="single"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1723724169" fgClr="0000FF" ulstyle="single" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1723739813" fgClr="0000FF" ulstyle="single" kern="1">
             <pm:latin face="Arial" sz="200" lang="default"/>
             <pm:cs face="Times New Roman" sz="200" lang="default"/>
             <pm:ea face="SimSun" sz="200" lang="default"/>
@@ -1856,7 +1856,7 @@
       <u val="single"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1723724169" fgClr="0000FF" ulstyle="single" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1723739813" fgClr="0000FF" ulstyle="single" kern="1">
             <pm:latin face="Arial" sz="200" lang="default"/>
             <pm:cs face="Times New Roman" sz="200" lang="default"/>
             <pm:ea face="SimSun" sz="200" lang="default"/>
@@ -1874,7 +1874,7 @@
       <u val="single"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1723724169" fgClr="0000FF" ulstyle="single" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1723739813" fgClr="0000FF" ulstyle="single" kern="1">
             <pm:latin face="Arial" sz="200" lang="default"/>
             <pm:cs face="Times New Roman" sz="200" lang="default"/>
             <pm:ea face="SimSun" sz="200" lang="default"/>
@@ -1892,7 +1892,7 @@
       <sz val="10"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1723724169" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1723739813" ulstyle="none" kern="1">
             <pm:latin face="Arial" sz="200" lang="default" weight="bold"/>
             <pm:cs face="Arial" sz="200" lang="default" weight="bold"/>
             <pm:ea face="Arial" sz="200" lang="default" weight="bold"/>
@@ -1909,7 +1909,7 @@
       <sz val="10"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1723724169" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1723739813" ulstyle="none" kern="1">
             <pm:latin face="Arial" sz="200" lang="default" weight="bold"/>
             <pm:cs face="Times New Roman" sz="200" lang="default"/>
             <pm:ea face="SimSun" sz="200" lang="default"/>
@@ -1926,7 +1926,7 @@
       <u val="single"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1723724169" fgClr="0000FF" ulstyle="single" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1723739813" fgClr="0000FF" ulstyle="single" kern="1">
             <pm:latin face="Arial" sz="200" lang="default"/>
             <pm:cs face="Times New Roman" sz="200" lang="default"/>
             <pm:ea face="SimSun" sz="200" lang="default"/>
@@ -1944,7 +1944,7 @@
       <u val="single"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1723724169" fgClr="0000FF" ulstyle="single" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1723739813" fgClr="0000FF" ulstyle="single" kern="1">
             <pm:latin face="Arial" sz="200" lang="default"/>
             <pm:cs face="Times New Roman" sz="200" lang="default"/>
             <pm:ea face="SimSun" sz="200" lang="default"/>
@@ -1962,7 +1962,7 @@
       <sz val="11"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1723724169" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1723739813" ulstyle="none" kern="1">
             <pm:latin face="Arial" sz="220" lang="default" weight="bold"/>
             <pm:cs face="Times New Roman" sz="200" lang="default"/>
             <pm:ea face="SimSun" sz="200" lang="default"/>
@@ -1978,7 +1978,7 @@
       <sz val="11"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1723724169" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1723739813" ulstyle="none" kern="1">
             <pm:latin face="Arial" sz="220" lang="default"/>
             <pm:cs face="Times New Roman" sz="200" lang="default"/>
             <pm:ea face="SimSun" sz="200" lang="default"/>
@@ -1995,7 +1995,7 @@
       <sz val="10"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1723724169" fgClr="FF0000" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1723739813" fgClr="FF0000" ulstyle="none" kern="1">
             <pm:latin face="Arial" sz="200" lang="default" weight="bold"/>
             <pm:cs face="Times New Roman" sz="200" lang="default"/>
             <pm:ea face="SimSun" sz="200" lang="default"/>
@@ -2017,7 +2017,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1723724169" type="1" fgLvl="100" fgClr="009E9E9E" bgLvl="0" bgClr="00FFFFFF"/>
+            <pm:shade xmlns:pm="smNativeData" id="1723739813" type="1" fgLvl="100" fgClr="009E9E9E" bgLvl="0" bgClr="00FFFFFF"/>
           </ext>
         </extLst>
       </patternFill>
@@ -2028,7 +2028,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1723724169" type="1" fgLvl="100" fgClr="009E9E9E" bgLvl="0" bgClr="00FFFFFF"/>
+            <pm:shade xmlns:pm="smNativeData" id="1723739813" type="1" fgLvl="100" fgClr="009E9E9E" bgLvl="0" bgClr="00FFFFFF"/>
           </ext>
         </extLst>
       </patternFill>
@@ -2039,7 +2039,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1723724169" type="1" fgLvl="100" fgClr="009E9E9E" bgLvl="0" bgClr="00FFFFFF"/>
+            <pm:shade xmlns:pm="smNativeData" id="1723739813" type="1" fgLvl="100" fgClr="009E9E9E" bgLvl="0" bgClr="00FFFFFF"/>
           </ext>
         </extLst>
       </patternFill>
@@ -2050,7 +2050,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1723724169" type="1" fgLvl="100" fgClr="009E9E9E" bgLvl="0" bgClr="00FFFFFF"/>
+            <pm:shade xmlns:pm="smNativeData" id="1723739813" type="1" fgLvl="100" fgClr="009E9E9E" bgLvl="0" bgClr="00FFFFFF"/>
           </ext>
         </extLst>
       </patternFill>
@@ -2061,7 +2061,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1723724169" type="1" fgLvl="100" fgClr="009E9E9E" bgLvl="0" bgClr="00FFFFFF"/>
+            <pm:shade xmlns:pm="smNativeData" id="1723739813" type="1" fgLvl="100" fgClr="009E9E9E" bgLvl="0" bgClr="00FFFFFF"/>
           </ext>
         </extLst>
       </patternFill>
@@ -2072,7 +2072,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1723724169" type="1" fgLvl="100" fgClr="009E9E9E" bgLvl="0" bgClr="00FFFFFF"/>
+            <pm:shade xmlns:pm="smNativeData" id="1723739813" type="1" fgLvl="100" fgClr="009E9E9E" bgLvl="0" bgClr="00FFFFFF"/>
           </ext>
         </extLst>
       </patternFill>
@@ -2083,7 +2083,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1723724169" type="1" fgLvl="100" fgClr="009E9E9E" bgLvl="0" bgClr="00FFFFFF"/>
+            <pm:shade xmlns:pm="smNativeData" id="1723739813" type="1" fgLvl="100" fgClr="009E9E9E" bgLvl="0" bgClr="00FFFFFF"/>
           </ext>
         </extLst>
       </patternFill>
@@ -2094,7 +2094,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1723724169" type="1" fgLvl="100" fgClr="009E9E9E" bgLvl="0" bgClr="00FFFFFF"/>
+            <pm:shade xmlns:pm="smNativeData" id="1723739813" type="1" fgLvl="100" fgClr="009E9E9E" bgLvl="0" bgClr="00FFFFFF"/>
           </ext>
         </extLst>
       </patternFill>
@@ -2114,7 +2114,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1723724169" type="1" fgLvl="100" fgClr="0000FB00" bgLvl="0" bgClr="00FFFFFF"/>
+            <pm:shade xmlns:pm="smNativeData" id="1723739813" type="1" fgLvl="100" fgClr="0000FB00" bgLvl="0" bgClr="00FFFFFF"/>
           </ext>
         </extLst>
       </patternFill>
@@ -2125,7 +2125,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1723724169" type="1" fgLvl="100" fgClr="00E6E6E6" bgLvl="0" bgClr="00FFFFFF"/>
+            <pm:shade xmlns:pm="smNativeData" id="1723739813" type="1" fgLvl="100" fgClr="00E6E6E6" bgLvl="0" bgClr="00FFFFFF"/>
           </ext>
         </extLst>
       </patternFill>
@@ -2136,7 +2136,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1723724169" type="1" fgLvl="100" fgClr="00FABE8D" bgLvl="0" bgClr="00FFFFFF"/>
+            <pm:shade xmlns:pm="smNativeData" id="1723739813" type="1" fgLvl="100" fgClr="00FABE8D" bgLvl="0" bgClr="00FFFFFF"/>
           </ext>
         </extLst>
       </patternFill>
@@ -2147,7 +2147,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1723724169" type="1" fgLvl="100" fgClr="00F1AA54" bgLvl="0" bgClr="00FFFFFF"/>
+            <pm:shade xmlns:pm="smNativeData" id="1723739813" type="1" fgLvl="100" fgClr="00F1AA54" bgLvl="0" bgClr="00FFFFFF"/>
           </ext>
         </extLst>
       </patternFill>
@@ -2158,7 +2158,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1723724169" type="1" fgLvl="100" fgClr="00FFFF00" bgLvl="0" bgClr="00FFFFFF"/>
+            <pm:shade xmlns:pm="smNativeData" id="1723739813" type="1" fgLvl="100" fgClr="00FFFF00" bgLvl="0" bgClr="00FFFFFF"/>
           </ext>
         </extLst>
       </patternFill>
@@ -2169,7 +2169,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1723724169" type="1" fgLvl="100" fgClr="00FF6600" bgLvl="0" bgClr="00FFFFFF"/>
+            <pm:shade xmlns:pm="smNativeData" id="1723739813" type="1" fgLvl="100" fgClr="00FF6600" bgLvl="0" bgClr="00FFFFFF"/>
           </ext>
         </extLst>
       </patternFill>
@@ -2180,7 +2180,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1723724169" type="1" fgLvl="100" fgClr="00FF0000" bgLvl="0" bgClr="00FFFFFF"/>
+            <pm:shade xmlns:pm="smNativeData" id="1723739813" type="1" fgLvl="100" fgClr="00FF0000" bgLvl="0" bgClr="00FFFFFF"/>
           </ext>
         </extLst>
       </patternFill>
@@ -2191,7 +2191,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1723724169" type="1" fgLvl="100" fgClr="004D4D4D" bgLvl="0" bgClr="00FFFFFF"/>
+            <pm:shade xmlns:pm="smNativeData" id="1723739813" type="1" fgLvl="100" fgClr="004D4D4D" bgLvl="0" bgClr="00FFFFFF"/>
           </ext>
         </extLst>
       </patternFill>
@@ -2202,7 +2202,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1723724169" type="1" fgLvl="100" fgClr="00661E75" bgLvl="0" bgClr="00FFFFFF"/>
+            <pm:shade xmlns:pm="smNativeData" id="1723739813" type="1" fgLvl="100" fgClr="00661E75" bgLvl="0" bgClr="00FFFFFF"/>
           </ext>
         </extLst>
       </patternFill>
@@ -2213,7 +2213,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1723724169" type="1" fgLvl="100" fgClr="0000FFFF" bgLvl="0" bgClr="00FFFFFF"/>
+            <pm:shade xmlns:pm="smNativeData" id="1723739813" type="1" fgLvl="100" fgClr="0000FFFF" bgLvl="0" bgClr="00FFFFFF"/>
           </ext>
         </extLst>
       </patternFill>
@@ -2224,7 +2224,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1723724169" type="1" fgLvl="100" fgClr="004D4D4D" bgLvl="0" bgClr="00FFFFFF"/>
+            <pm:shade xmlns:pm="smNativeData" id="1723739813" type="1" fgLvl="100" fgClr="004D4D4D" bgLvl="0" bgClr="00FFFFFF"/>
           </ext>
         </extLst>
       </patternFill>
@@ -2235,7 +2235,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1723724169" type="1" fgLvl="100" fgClr="007F7F7F" bgLvl="0" bgClr="00FFFFFF"/>
+            <pm:shade xmlns:pm="smNativeData" id="1723739813" type="1" fgLvl="100" fgClr="007F7F7F" bgLvl="0" bgClr="00FFFFFF"/>
           </ext>
         </extLst>
       </patternFill>
@@ -2246,7 +2246,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1723724169" type="1" fgLvl="100" fgClr="00E26B0A" bgLvl="0" bgClr="00FFFFFF"/>
+            <pm:shade xmlns:pm="smNativeData" id="1723739813" type="1" fgLvl="100" fgClr="00E26B0A" bgLvl="0" bgClr="00FFFFFF"/>
           </ext>
         </extLst>
       </patternFill>
@@ -2257,7 +2257,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1723724169" type="1" fgLvl="100" fgClr="00E26B0A" bgLvl="0" bgClr="00FFFFFF"/>
+            <pm:shade xmlns:pm="smNativeData" id="1723739813" type="1" fgLvl="100" fgClr="00E26B0A" bgLvl="0" bgClr="00FFFFFF"/>
           </ext>
         </extLst>
       </patternFill>
@@ -2268,7 +2268,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1723724169" type="1" fgLvl="100" fgClr="00E26B0A" bgLvl="0" bgClr="00FFFFFF"/>
+            <pm:shade xmlns:pm="smNativeData" id="1723739813" type="1" fgLvl="100" fgClr="00E26B0A" bgLvl="0" bgClr="00FFFFFF"/>
           </ext>
         </extLst>
       </patternFill>
@@ -2279,7 +2279,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1723724169" type="1" fgLvl="100" fgClr="00E26B0A" bgLvl="0" bgClr="00FFFFFF"/>
+            <pm:shade xmlns:pm="smNativeData" id="1723739813" type="1" fgLvl="100" fgClr="00E26B0A" bgLvl="0" bgClr="00FFFFFF"/>
           </ext>
         </extLst>
       </patternFill>
@@ -2350,7 +2350,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1723724169" type="1" fgLvl="38" fgClr="00000000" bgLvl="100" bgClr="00FFFFFF"/>
+            <pm:shade xmlns:pm="smNativeData" id="1723739813" type="1" fgLvl="38" fgClr="00000000" bgLvl="100" bgClr="00FFFFFF"/>
           </ext>
         </extLst>
       </patternFill>
@@ -2361,7 +2361,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1723724169" type="1" fgLvl="38" fgClr="00000000" bgLvl="100" bgClr="00FFFFFF"/>
+            <pm:shade xmlns:pm="smNativeData" id="1723739813" type="1" fgLvl="38" fgClr="00000000" bgLvl="100" bgClr="00FFFFFF"/>
           </ext>
         </extLst>
       </patternFill>
@@ -2372,7 +2372,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1723724169" type="1" fgLvl="38" fgClr="00000000" bgLvl="100" bgClr="00FFFFFF"/>
+            <pm:shade xmlns:pm="smNativeData" id="1723739813" type="1" fgLvl="38" fgClr="00000000" bgLvl="100" bgClr="00FFFFFF"/>
           </ext>
         </extLst>
       </patternFill>
@@ -2383,7 +2383,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1723724169" type="1" fgLvl="100" fgClr="007679F1" bgLvl="100" bgClr="00FFFFFF"/>
+            <pm:shade xmlns:pm="smNativeData" id="1723739813" type="1" fgLvl="100" fgClr="007679F1" bgLvl="100" bgClr="00FFFFFF"/>
           </ext>
         </extLst>
       </patternFill>
@@ -2403,7 +2403,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1723724169" type="1" fgLvl="38" fgClr="00000000" bgLvl="100" bgClr="00FFFFFF"/>
+            <pm:shade xmlns:pm="smNativeData" id="1723739813" type="1" fgLvl="38" fgClr="00000000" bgLvl="100" bgClr="00FFFFFF"/>
           </ext>
         </extLst>
       </patternFill>
@@ -2414,7 +2414,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1723724169" type="1" fgLvl="13" fgClr="00000000" bgLvl="100" bgClr="00FFFFFF"/>
+            <pm:shade xmlns:pm="smNativeData" id="1723739813" type="1" fgLvl="13" fgClr="00000000" bgLvl="100" bgClr="00FFFFFF"/>
           </ext>
         </extLst>
       </patternFill>
@@ -2425,7 +2425,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1723724169" type="1" fgLvl="38" fgClr="00000000" bgLvl="100" bgClr="00FFFFFF"/>
+            <pm:shade xmlns:pm="smNativeData" id="1723739813" type="1" fgLvl="38" fgClr="00000000" bgLvl="100" bgClr="00FFFFFF"/>
           </ext>
         </extLst>
       </patternFill>
@@ -2436,7 +2436,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1723724169" type="1" fgLvl="38" fgClr="00000000" bgLvl="100" bgClr="00FFFFFF"/>
+            <pm:shade xmlns:pm="smNativeData" id="1723739813" type="1" fgLvl="38" fgClr="00000000" bgLvl="100" bgClr="00FFFFFF"/>
           </ext>
         </extLst>
       </patternFill>
@@ -2447,7 +2447,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1723724169" type="1" fgLvl="38" fgClr="00000000" bgLvl="100" bgClr="00FFFFFF"/>
+            <pm:shade xmlns:pm="smNativeData" id="1723739813" type="1" fgLvl="38" fgClr="00000000" bgLvl="100" bgClr="00FFFFFF"/>
           </ext>
         </extLst>
       </patternFill>
@@ -2467,7 +2467,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1723724169" type="1" fgLvl="100" fgClr="00F1AA54" bgLvl="0" bgClr="00FFFFFF"/>
+            <pm:shade xmlns:pm="smNativeData" id="1723739813" type="1" fgLvl="100" fgClr="00F1AA54" bgLvl="0" bgClr="00FFFFFF"/>
           </ext>
         </extLst>
       </patternFill>
@@ -2478,7 +2478,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1723724169" type="1" fgLvl="100" fgClr="00F1AA54" bgLvl="0" bgClr="00FFFFFF"/>
+            <pm:shade xmlns:pm="smNativeData" id="1723739813" type="1" fgLvl="100" fgClr="00F1AA54" bgLvl="0" bgClr="00FFFFFF"/>
           </ext>
         </extLst>
       </patternFill>
@@ -2489,7 +2489,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1723724169" type="1" fgLvl="100" fgClr="00FABE8D" bgLvl="0" bgClr="00FFFFFF"/>
+            <pm:shade xmlns:pm="smNativeData" id="1723739813" type="1" fgLvl="100" fgClr="00FABE8D" bgLvl="0" bgClr="00FFFFFF"/>
           </ext>
         </extLst>
       </patternFill>
@@ -2500,7 +2500,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1723724169" type="1" fgLvl="100" fgClr="00FFFF00" bgLvl="0" bgClr="00FFFFFF"/>
+            <pm:shade xmlns:pm="smNativeData" id="1723739813" type="1" fgLvl="100" fgClr="00FFFF00" bgLvl="0" bgClr="00FFFFFF"/>
           </ext>
         </extLst>
       </patternFill>
@@ -2511,7 +2511,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1723724169" type="1" fgLvl="100" fgClr="00007F00" bgLvl="100" bgClr="00FFFFFF"/>
+            <pm:shade xmlns:pm="smNativeData" id="1723739813" type="1" fgLvl="100" fgClr="00007F00" bgLvl="100" bgClr="00FFFFFF"/>
           </ext>
         </extLst>
       </patternFill>
@@ -2522,7 +2522,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1723724169" type="1" fgLvl="88" fgClr="00FABE8D" bgLvl="0" bgClr="00FFFFFF"/>
+            <pm:shade xmlns:pm="smNativeData" id="1723739813" type="1" fgLvl="88" fgClr="00FABE8D" bgLvl="0" bgClr="00FFFFFF"/>
           </ext>
         </extLst>
       </patternFill>
@@ -2533,7 +2533,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1723724169" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="100" bgClr="00000000"/>
+            <pm:shade xmlns:pm="smNativeData" id="1723739813" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="100" bgClr="00000000"/>
           </ext>
         </extLst>
       </patternFill>
@@ -2555,7 +2555,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1723724169"/>
+          <pm:border xmlns:pm="smNativeData" id="1723739813"/>
         </ext>
       </extLst>
     </border>
@@ -2574,7 +2574,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1723724169">
+          <pm:border xmlns:pm="smNativeData" id="1723739813">
             <pm:line position="top" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
           </pm:border>
         </ext>
@@ -2595,7 +2595,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1723724169">
+          <pm:border xmlns:pm="smNativeData" id="1723739813">
             <pm:line position="top" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="right" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
           </pm:border>
@@ -2617,7 +2617,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1723724169">
+          <pm:border xmlns:pm="smNativeData" id="1723739813">
             <pm:line position="left" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
           </pm:border>
         </ext>
@@ -2638,7 +2638,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1723724169"/>
+          <pm:border xmlns:pm="smNativeData" id="1723739813"/>
         </ext>
       </extLst>
     </border>
@@ -2657,7 +2657,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1723724169">
+          <pm:border xmlns:pm="smNativeData" id="1723739813">
             <pm:line position="right" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
           </pm:border>
         </ext>
@@ -2678,7 +2678,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1723724169">
+          <pm:border xmlns:pm="smNativeData" id="1723739813">
             <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
           </pm:border>
         </ext>
@@ -2699,7 +2699,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1723724169">
+          <pm:border xmlns:pm="smNativeData" id="1723739813">
             <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="right" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
           </pm:border>
@@ -2721,7 +2721,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1723724169">
+          <pm:border xmlns:pm="smNativeData" id="1723739813">
             <pm:line position="top" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="left" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
           </pm:border>
@@ -2743,7 +2743,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1723724169">
+          <pm:border xmlns:pm="smNativeData" id="1723739813">
             <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
           </pm:border>
         </ext>
@@ -2764,7 +2764,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1723724169">
+          <pm:border xmlns:pm="smNativeData" id="1723739813">
             <pm:line position="left" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="right" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
           </pm:border>
@@ -2786,7 +2786,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1723724169">
+          <pm:border xmlns:pm="smNativeData" id="1723739813">
             <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="left" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="right" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
@@ -2809,7 +2809,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1723724169"/>
+          <pm:border xmlns:pm="smNativeData" id="1723739813"/>
         </ext>
       </extLst>
     </border>
@@ -2828,7 +2828,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1723724169">
+          <pm:border xmlns:pm="smNativeData" id="1723739813">
             <pm:line position="left" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="right" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
           </pm:border>
@@ -2850,7 +2850,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1723724169">
+          <pm:border xmlns:pm="smNativeData" id="1723739813">
             <pm:line position="left" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="right" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
           </pm:border>
@@ -2872,7 +2872,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1723724169">
+          <pm:border xmlns:pm="smNativeData" id="1723739813">
             <pm:line position="left" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="right" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
           </pm:border>
@@ -2894,7 +2894,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1723724169">
+          <pm:border xmlns:pm="smNativeData" id="1723739813">
             <pm:line position="left" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="right" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
           </pm:border>
@@ -2916,7 +2916,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1723724169">
+          <pm:border xmlns:pm="smNativeData" id="1723739813">
             <pm:line position="left" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="right" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
           </pm:border>
@@ -2938,7 +2938,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1723724169">
+          <pm:border xmlns:pm="smNativeData" id="1723739813">
             <pm:line position="left" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="right" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
           </pm:border>
@@ -2960,7 +2960,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1723724169">
+          <pm:border xmlns:pm="smNativeData" id="1723739813">
             <pm:line position="left" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="right" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
           </pm:border>
@@ -2982,7 +2982,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1723724169">
+          <pm:border xmlns:pm="smNativeData" id="1723739813">
             <pm:line position="left" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="right" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
           </pm:border>
@@ -3004,7 +3004,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1723724169">
+          <pm:border xmlns:pm="smNativeData" id="1723739813">
             <pm:line position="left" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="right" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
           </pm:border>
@@ -3026,7 +3026,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1723724169"/>
+          <pm:border xmlns:pm="smNativeData" id="1723739813"/>
         </ext>
       </extLst>
     </border>
@@ -3045,7 +3045,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1723724169"/>
+          <pm:border xmlns:pm="smNativeData" id="1723739813"/>
         </ext>
       </extLst>
     </border>
@@ -3064,7 +3064,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1723724169">
+          <pm:border xmlns:pm="smNativeData" id="1723739813">
             <pm:line position="top" type="1" style="0" width="30" dist="20" width2="20" rgb="000000"/>
             <pm:line position="bottom" type="1" style="0" width="30" dist="20" width2="20" rgb="000000"/>
             <pm:line position="left" type="1" style="0" width="30" dist="20" width2="20" rgb="000000"/>
@@ -3087,7 +3087,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1723724169">
+          <pm:border xmlns:pm="smNativeData" id="1723739813">
             <pm:line position="top" type="1" style="0" width="30" dist="20" width2="20" rgb="000000"/>
             <pm:line position="bottom" type="1" style="0" width="30" dist="20" width2="20" rgb="000000"/>
           </pm:border>
@@ -3109,7 +3109,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1723724169">
+          <pm:border xmlns:pm="smNativeData" id="1723739813">
             <pm:line position="top" type="1" style="0" width="30" dist="20" width2="20" rgb="000000"/>
             <pm:line position="bottom" type="1" style="0" width="30" dist="20" width2="20" rgb="000000"/>
             <pm:line position="right" type="1" style="0" width="30" dist="20" width2="20" rgb="000000"/>
@@ -3132,7 +3132,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1723724169"/>
+          <pm:border xmlns:pm="smNativeData" id="1723739813"/>
         </ext>
       </extLst>
     </border>
@@ -3151,7 +3151,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1723724169">
+          <pm:border xmlns:pm="smNativeData" id="1723739813">
             <pm:line position="top" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="left" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
@@ -3174,7 +3174,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1723724169">
+          <pm:border xmlns:pm="smNativeData" id="1723739813">
             <pm:line position="top" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
           </pm:border>
@@ -3196,7 +3196,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1723724169">
+          <pm:border xmlns:pm="smNativeData" id="1723739813">
             <pm:line position="top" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="right" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
@@ -3219,7 +3219,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1723724169">
+          <pm:border xmlns:pm="smNativeData" id="1723739813">
             <pm:line position="top" type="1" style="0" width="30" dist="20" width2="20" rgb="000000"/>
             <pm:line position="bottom" type="1" style="0" width="30" dist="20" width2="20" rgb="000000"/>
             <pm:line position="left" type="1" style="0" width="30" dist="20" width2="20" rgb="000000"/>
@@ -3242,7 +3242,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1723724169">
+          <pm:border xmlns:pm="smNativeData" id="1723739813">
             <pm:line position="top" type="1" style="0" width="30" dist="20" width2="20" rgb="000000"/>
             <pm:line position="bottom" type="1" style="0" width="30" dist="20" width2="20" rgb="000000"/>
           </pm:border>
@@ -3264,7 +3264,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1723724169">
+          <pm:border xmlns:pm="smNativeData" id="1723739813">
             <pm:line position="top" type="1" style="0" width="30" dist="20" width2="20" rgb="000000"/>
             <pm:line position="bottom" type="1" style="0" width="30" dist="20" width2="20" rgb="000000"/>
             <pm:line position="right" type="1" style="0" width="30" dist="20" width2="20" rgb="000000"/>
@@ -3287,7 +3287,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1723724169">
+          <pm:border xmlns:pm="smNativeData" id="1723739813">
             <pm:line position="top" type="1" style="0" width="30" dist="20" width2="20" rgb="000000"/>
             <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
           </pm:border>
@@ -3309,7 +3309,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1723724169">
+          <pm:border xmlns:pm="smNativeData" id="1723739813">
             <pm:line position="left" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
           </pm:border>
         </ext>
@@ -3330,7 +3330,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1723724169">
+          <pm:border xmlns:pm="smNativeData" id="1723739813">
             <pm:line position="top" type="1" style="0" width="30" dist="20" width2="20" rgb="000000"/>
             <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="right" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
@@ -3353,7 +3353,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1723724169">
+          <pm:border xmlns:pm="smNativeData" id="1723739813">
             <pm:line position="top" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="left" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
           </pm:border>
@@ -3375,7 +3375,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1723724169">
+          <pm:border xmlns:pm="smNativeData" id="1723739813">
             <pm:line position="top" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
           </pm:border>
         </ext>
@@ -3396,7 +3396,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1723724169">
+          <pm:border xmlns:pm="smNativeData" id="1723739813">
             <pm:line position="right" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
           </pm:border>
         </ext>
@@ -3417,7 +3417,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1723724169">
+          <pm:border xmlns:pm="smNativeData" id="1723739813">
             <pm:line position="top" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="bottom" type="1" style="0" width="40" dist="20" width2="20" rgb="000000"/>
           </pm:border>
@@ -3439,7 +3439,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1723724169">
+          <pm:border xmlns:pm="smNativeData" id="1723739813">
             <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="left" type="1" style="1" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="right" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
@@ -3462,7 +3462,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1723724169">
+          <pm:border xmlns:pm="smNativeData" id="1723739813">
             <pm:line position="bottom" type="1" style="0" width="40" dist="20" width2="20" rgb="000000"/>
             <pm:line position="left" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
           </pm:border>
@@ -3484,7 +3484,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1723724169">
+          <pm:border xmlns:pm="smNativeData" id="1723739813">
             <pm:line position="bottom" type="1" style="0" width="40" dist="20" width2="20" rgb="000000"/>
           </pm:border>
         </ext>
@@ -3505,7 +3505,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1723724169">
+          <pm:border xmlns:pm="smNativeData" id="1723739813">
             <pm:line position="top" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="left" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
@@ -3529,7 +3529,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1723724169">
+          <pm:border xmlns:pm="smNativeData" id="1723739813">
             <pm:line position="top" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="bottom" type="1" style="0" width="40" dist="20" width2="20" rgb="000000"/>
             <pm:line position="left" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
@@ -3553,7 +3553,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1723724169">
+          <pm:border xmlns:pm="smNativeData" id="1723739813">
             <pm:line position="top" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="left" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="right" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
@@ -3576,7 +3576,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1723724169">
+          <pm:border xmlns:pm="smNativeData" id="1723739813">
             <pm:line position="bottom" type="1" style="0" width="40" dist="20" width2="20" rgb="000000"/>
             <pm:line position="left" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="right" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
@@ -3599,7 +3599,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1723724169">
+          <pm:border xmlns:pm="smNativeData" id="1723739813">
             <pm:line position="bottom" type="1" style="0" width="40" dist="20" width2="20" rgb="000000"/>
             <pm:line position="right" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
           </pm:border>
@@ -3621,7 +3621,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1723724169">
+          <pm:border xmlns:pm="smNativeData" id="1723739813">
             <pm:line position="bottom" type="1" style="0" width="40" dist="20" width2="20" rgb="000000"/>
             <pm:line position="left" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="right" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
@@ -3644,7 +3644,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1723724169">
+          <pm:border xmlns:pm="smNativeData" id="1723739813">
             <pm:line position="bottom" type="1" style="0" width="40" dist="20" width2="20" rgb="000000"/>
             <pm:line position="left" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
           </pm:border>
@@ -3666,7 +3666,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1723724169">
+          <pm:border xmlns:pm="smNativeData" id="1723739813">
             <pm:line position="top" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="left" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
@@ -3690,7 +3690,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1723724169">
+          <pm:border xmlns:pm="smNativeData" id="1723739813">
             <pm:line position="top" type="1" style="0" width="40" dist="20" width2="20" rgb="000000"/>
             <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="left" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
@@ -3713,7 +3713,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1723724169">
+          <pm:border xmlns:pm="smNativeData" id="1723739813">
             <pm:line position="top" type="1" style="0" width="40" dist="20" width2="20" rgb="000000"/>
             <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
           </pm:border>
@@ -3735,7 +3735,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1723724169">
+          <pm:border xmlns:pm="smNativeData" id="1723739813">
             <pm:line position="top" type="1" style="0" width="40" dist="20" width2="20" rgb="000000"/>
             <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="right" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
@@ -3758,7 +3758,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1723724169"/>
+          <pm:border xmlns:pm="smNativeData" id="1723739813"/>
         </ext>
       </extLst>
     </border>
@@ -3777,7 +3777,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1723724169">
+          <pm:border xmlns:pm="smNativeData" id="1723739813">
             <pm:line position="top" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="left" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
@@ -3801,7 +3801,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1723724169">
+          <pm:border xmlns:pm="smNativeData" id="1723739813">
             <pm:line position="top" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="left" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
           </pm:border>
@@ -3823,7 +3823,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1723724169">
+          <pm:border xmlns:pm="smNativeData" id="1723739813">
             <pm:line position="top" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
           </pm:border>
         </ext>
@@ -3844,7 +3844,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1723724169">
+          <pm:border xmlns:pm="smNativeData" id="1723739813">
             <pm:line position="top" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="right" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
           </pm:border>
@@ -3866,7 +3866,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1723724169">
+          <pm:border xmlns:pm="smNativeData" id="1723739813">
             <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="left" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
           </pm:border>
@@ -3888,7 +3888,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1723724169">
+          <pm:border xmlns:pm="smNativeData" id="1723739813">
             <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="right" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
           </pm:border>
@@ -3910,7 +3910,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1723724169">
+          <pm:border xmlns:pm="smNativeData" id="1723739813">
             <pm:line position="top" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="right" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
           </pm:border>
@@ -3932,7 +3932,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1723724169">
+          <pm:border xmlns:pm="smNativeData" id="1723739813">
             <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="left" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="right" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
@@ -3955,7 +3955,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1723724169">
+          <pm:border xmlns:pm="smNativeData" id="1723739813">
             <pm:line position="top" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="left" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
@@ -3979,7 +3979,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1723724169">
+          <pm:border xmlns:pm="smNativeData" id="1723739813">
             <pm:line position="top" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="left" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
@@ -4003,7 +4003,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1723724169">
+          <pm:border xmlns:pm="smNativeData" id="1723739813">
             <pm:line position="top" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="left" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
@@ -4027,7 +4027,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1723724169">
+          <pm:border xmlns:pm="smNativeData" id="1723739813">
             <pm:line position="top" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="left" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
@@ -4051,7 +4051,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1723724169">
+          <pm:border xmlns:pm="smNativeData" id="1723739813">
             <pm:line position="top" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="left" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
@@ -4075,7 +4075,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1723724169"/>
+          <pm:border xmlns:pm="smNativeData" id="1723739813"/>
         </ext>
       </extLst>
     </border>
@@ -4419,10 +4419,10 @@
   <tableStyles count="0"/>
   <extLst>
     <ext uri="smNativeData">
-      <pm:charStyles xmlns:pm="smNativeData" id="1723724169" count="1">
+      <pm:charStyles xmlns:pm="smNativeData" id="1723739813" count="1">
         <pm:charStyle name="Обычный" fontId="0" Id="1"/>
       </pm:charStyles>
-      <pm:colors xmlns:pm="smNativeData" id="1723724169" count="18">
+      <pm:colors xmlns:pm="smNativeData" id="1723739813" count="18">
         <pm:color name="Цвет 24" rgb="E26B0A"/>
         <pm:color name="Цвет 25" rgb="974706"/>
         <pm:color name="Цвет 26" rgb="0070C0"/>
@@ -4693,7 +4693,7 @@
   </c:txPr>
   <c:extLst>
     <c:ext xmlns:sm="smo" uri="smo">
-      <sm:colorScheme xmlns:sm="smo" id="1723724169" val="7"/>
+      <sm:colorScheme xmlns:sm="smo" id="1723739813" val="7"/>
     </c:ext>
   </c:extLst>
 </c:chartSpace>
@@ -4955,18 +4955,18 @@
             <c:numRef>
               <c:f>отчет!$G$35:$J$35</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.0%</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>0.973</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="1" formatCode="0.00%">
                   <c:v>0.0052</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="2" formatCode="0.00%">
                   <c:v>0.0109</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="3" formatCode="0.00%">
                   <c:v>0.0109</c:v>
                 </c:pt>
               </c:numCache>
@@ -5026,6 +5026,15 @@
           <a:noFill/>
         </a:ln>
       </c:spPr>
+      <c:txPr>
+        <a:bodyPr anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr/>
+          </a:pPr>
+        </a:p>
+      </c:txPr>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
@@ -5049,7 +5058,7 @@
   </c:txPr>
   <c:extLst>
     <c:ext xmlns:sm="smo" uri="smo">
-      <sm:colorScheme xmlns:sm="smo" id="1723724169" val="7"/>
+      <sm:colorScheme xmlns:sm="smo" id="1723739813" val="7"/>
     </c:ext>
   </c:extLst>
 </c:chartSpace>
@@ -5076,7 +5085,7 @@
         <xdr:cNvSpPr>
           <a:extLst>
             <a:ext uri="smNativeData">
-              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_ifG9ZhMAAAAlAAAAZQAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAABAAAAAAAAAAEAAABQAAAAhbacS3FV1T8AAAAAAAAAAAAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAEAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAAAAAAAAeAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAAAAAAAALAAAAnAB3AwIAAAAOAAAAVQIUA9U/AAAiAAAA+Q0AAB4CAAAAAAAA"/>
+              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_pS6+ZhMAAAAlAAAAZQAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAABAAAAAAAAAAEAAABQAAAAhbacS3FV1T8AAAAAAAAAAAAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAEAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAAAAAAAAeAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAAAAAAAALAAAAnAB3AwIAAAAOAAAAVQIUA9U/AAAiAAAA+Q0AAB4CAAAAAAAA"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvSpPr>
@@ -5162,7 +5171,7 @@
         <xdr:cNvSpPr>
           <a:extLst>
             <a:ext uri="smNativeData">
-              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_ifG9ZhMAAAAlAAAAZQAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAABAAAAAAAAAAEAAABQAAAAhbacS3FV1T8AAAAAAAAAAAAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAEAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAAAAAAAAeAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAAAUAAAAOAAAA6gDJAQcAAAAPAAAANAFmAdNLAACOBAAAUgYAAM4BAAAAAAAA"/>
+              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_pS6+ZhMAAAAlAAAAZQAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAABAAAAAAAAAAEAAABQAAAAhbacS3FV1T8AAAAAAAAAAAAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAEAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAAAAAAAAeAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAAAUAAAAOAAAA6gDJAQcAAAAPAAAANAFmAdNLAACOBAAAUgYAAM4BAAAAAAAA"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvSpPr>
@@ -5237,7 +5246,7 @@
         <xdr:cNvSpPr>
           <a:extLst>
             <a:ext uri="smNativeData">
-              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_ifG9ZhMAAAAlAAAAZQAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAABAAAAAAAAAAEAAABQAAAAhbacS3FV1T8AAAAAAAAAAAAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAEAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAADcANgAeAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAAAUAAAAKAAAAVwD2AwgAAAAMAAAAOQLPAQk8AABuBAAAVwYAAAYDAAAAAAAA"/>
+              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_pS6+ZhMAAAAlAAAAZQAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAABAAAAAAAAAAEAAABQAAAAhbacS3FV1T8AAAAAAAAAAAAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAEAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAADcANgAeAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAAAUAAAAKAAAAVwD2AwgAAAAMAAAAOQLPAQk8AABuBAAAVwYAAAYDAAAAAAAA"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvSpPr>
@@ -5323,7 +5332,7 @@
         <xdr:cNvSpPr>
           <a:extLst>
             <a:ext uri="smNativeData">
-              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_ifG9ZhMAAAAlAAAAZQAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAABAAAAAAAAAAEAAABQAAAAhbacS3FV1T8AAAAAAAAAAAAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAEAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAAJeXl/8eAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAAAUAAAAFAAAApQAAAQgAAAAHAAAARQAfAe0aAAB/BAAAcQsAAIgCAAAAAAAA"/>
+              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_pS6+ZhMAAAAlAAAAZQAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAABAAAAAAAAAAEAAABQAAAAhbacS3FV1T8AAAAAAAAAAAAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAEAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAAJeXl/8eAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAAAUAAAAFAAAApQAAAQgAAAAHAAAARQAfAe0aAAB/BAAAcQsAAIgCAAAAAAAA"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvSpPr>
@@ -5403,7 +5412,7 @@
         <xdr:cNvSpPr>
           <a:extLst>
             <a:ext uri="smNativeData">
-              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_ifG9ZhMAAAAlAAAAZQAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAABAAAAAAAAAAEAAABQAAAAhbacS3FV1T8AAAAAAAAAAAAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAEAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAAAAAAAAeAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAAAUAAAAWAAAABgEmAwcAAAAYAAAA6wH8AA5+AACUBAAAUwYAAPABAAAAAAAA"/>
+              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_pS6+ZhMAAAAlAAAAZQAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAABAAAAAAAAAAEAAABQAAAAhbacS3FV1T8AAAAAAAAAAAAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAEAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAAAAAAAAeAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAAAUAAAAWAAAABgEmAwcAAAAYAAAA6wH8AA5+AACUBAAAUwYAAPABAAAAAAAA"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvSpPr>
@@ -5493,7 +5502,7 @@
         <xdr:cNvCxnSpPr>
           <a:extLst>
             <a:ext uri="smNativeData">
-              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_ifG9ZhMAAAAlAAAADQAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAAAAAAAAAAAAAEAAABQAAAAAAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAAAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAZAAAAAEAAABAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAAAAAAAAeAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAAAQAAAAFAAAAAADqAwQAAAAQAAAARQAsAksgAAB8AwAAjj4AAA8AAAAAAAAA"/>
+              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_pS6+ZhMAAAAlAAAADQAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAAAAAAAAAAAAAEAAABQAAAAAAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAAAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAZAAAAAEAAABAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAAAAAAAAeAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAAAQAAAAFAAAAAADqAwQAAAAQAAAARQAsAksgAAB8AwAAjj4AAA8AAAAAAAAA"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvCxnSpPr>
@@ -5539,7 +5548,7 @@
         <xdr:cNvSpPr>
           <a:extLst>
             <a:ext uri="smNativeData">
-              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_ifG9ZhMAAAAlAAAAZQAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAABAAAAAAAAAAEAAABQAAAAhbacS3FV1T8AAAAAAAAAAAAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAEAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAAObotv8eAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAAAoAAAAJAAAA5gA2AA0AAAAJAAAA2gKUAjwvAADoCAAAUQUAAAoDAAAAAAAA"/>
+              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_pS6+ZhMAAAAlAAAAZQAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAABAAAAAAAAAAEAAABQAAAAhbacS3FV1T8AAAAAAAAAAAAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAEAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAAObotv8eAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAAAoAAAAJAAAA5gA2AA0AAAAJAAAA2gKUAjwvAADoCAAAUQUAAAoDAAAAAAAA"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvSpPr>
@@ -5635,7 +5644,7 @@
         <xdr:cNvSpPr>
           <a:extLst>
             <a:ext uri="smNativeData">
-              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_ifG9ZhMAAAAlAAAAZQAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAABAAAAAAAAAAEAAABQAAAAhbacS3FV1T8AAAAAAAAAAAAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAEAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAAAAAAAAeAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAAAoAAAAHAAAA0wD7AQ0AAAAIAAAATwFZApQnAADkCAAAZAUAALgCAAAAAAAA"/>
+              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_pS6+ZhMAAAAlAAAAZQAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAABAAAAAAAAAAEAAABQAAAAhbacS3FV1T8AAAAAAAAAAAAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAEAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAAAAAAAAeAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAAAoAAAAHAAAA0wD7AQ0AAAAIAAAATwFZApQnAADkCAAAZAUAALgCAAAAAAAA"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvSpPr>
@@ -5710,7 +5719,7 @@
         <xdr:cNvSpPr>
           <a:extLst>
             <a:ext uri="smNativeData">
-              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_ifG9ZhMAAAAlAAAAZQAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAABAAAAAAAAAAEAAABQAAAAhbacS3FV1T8AAAAAAAAAAAAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAEAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAAAAAAAAeAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAAAkAAAAGAAAA+wNXAA0AAAAHAAAAFAEDAdIgAAC1CAAAZQUAANoCAAAAAAAA"/>
+              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_pS6+ZhMAAAAlAAAAZQAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAABAAAAAAAAAAEAAABQAAAAhbacS3FV1T8AAAAAAAAAAAAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAEAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAAAAAAAAeAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAAAkAAAAGAAAA+wNXAA0AAAAHAAAAFAEDAdIgAAC1CAAAZQUAANoCAAAAAAAA"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvSpPr>
@@ -5807,7 +5816,7 @@
         <xdr:cNvSpPr>
           <a:extLst>
             <a:ext uri="smNativeData">
-              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_ifG9ZhMAAAAlAAAAZQAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAABAAAAAAAAAAEAAABQAAAAhbacS3FV1T8AAAAAAAAAAAAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAEAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAAAAAAAAeAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAAAoAAAAFAAAAcwBIAA0AAAAFAAAAFAE1A5oZAADPCAAAZAUAAMACAAAAAAAA"/>
+              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_pS6+ZhMAAAAlAAAAZQAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAABAAAAAAAAAAEAAABQAAAAhbacS3FV1T8AAAAAAAAAAAAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAEAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAAAAAAAAeAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAAAoAAAAFAAAAcwBIAA0AAAAFAAAAFAE1A5oZAADPCAAAZAUAAMACAAAAAAAA"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvSpPr>
@@ -5882,7 +5891,7 @@
         <xdr:cNvSpPr>
           <a:extLst>
             <a:ext uri="smNativeData">
-              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_ifG9ZhMAAAAlAAAAZQAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAABAAAAAAAAAAEAAABQAAAAhbacS3FV1T8AAAAAAAAAAAAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAEAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAAAAAAAAeAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAAAoAAAADAAAAJQDvAQ0AAAAEAAAAegJiA/cRAAC+CAAAcwYAAB8DAAAAAAAA"/>
+              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_pS6+ZhMAAAAlAAAAZQAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAABAAAAAAAAAAEAAABQAAAAhbacS3FV1T8AAAAAAAAAAAAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAEAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAAAAAAAAeAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAAAoAAAADAAAAJQDvAQ0AAAAEAAAAegJiA/cRAAC+CAAAcwYAAB8DAAAAAAAA"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvSpPr>
@@ -5957,7 +5966,7 @@
         <xdr:cNvSpPr>
           <a:extLst>
             <a:ext uri="smNativeData">
-              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_ifG9ZhMAAAAlAAAAZQAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAABAAAAAAAAAAEAAABQAAAAhbacS3FV1T8AAAAAAAAAAAAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAEAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAAAAAAAAeAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAABgAAAACAAAAZgG3AhoAAAAEAAAAdwBvADYNAAA2FQAAAQgAAIoBAAAAAAAA"/>
+              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_pS6+ZhMAAAAlAAAAZQAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAABAAAAAAAAAAEAAABQAAAAhbacS3FV1T8AAAAAAAAAAAAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAEAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAAAAAAAAeAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAABgAAAACAAAAZgG3AhoAAAAEAAAAdwBvADYNAAA2FQAAAQgAAIoBAAAAAAAA"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvSpPr>
@@ -6043,7 +6052,7 @@
         <xdr:cNvSpPr>
           <a:extLst>
             <a:ext uri="smNativeData">
-              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_ifG9ZhMAAAAlAAAAZQAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAABAAAAAAAAAAEAAABQAAAAhbacS3FV1T8AAAAAAAAAAAAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAEAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAAAAAAAAeAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAAA4AAAACAAAAHwO4AhAAAAAEAAAAewO3ADgNAADgDAAATQgAANIBAAAAAAAA"/>
+              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_pS6+ZhMAAAAlAAAAZQAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAABAAAAAAAAAAEAAABQAAAAhbacS3FV1T8AAAAAAAAAAAAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAEAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAAAAAAAAeAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAAA4AAAACAAAAHwO4AhAAAAAEAAAAewO3ADgNAADgDAAATQgAANIBAAAAAAAA"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvSpPr>
@@ -6129,7 +6138,7 @@
         <xdr:cNvSpPr>
           <a:extLst>
             <a:ext uri="smNativeData">
-              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_ifG9ZhMAAAAlAAAAZQAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAABAAAAAAAAAAEAAABQAAAAhbacS3FV1T8AAAAAAAAAAAAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAEAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAAAAAAAAeAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAABEAAAACAAAAOwPNAhMAAAAEAAAAhAOdAFsNAACDDwAADggAAM4BAAAAAAAA"/>
+              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_pS6+ZhMAAAAlAAAAZQAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAABAAAAAAAAAAEAAABQAAAAhbacS3FV1T8AAAAAAAAAAAAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAEAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAAAAAAAAeAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAABEAAAACAAAAOwPNAhMAAAAEAAAAhAOdAFsNAACDDwAADggAAM4BAAAAAAAA"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvSpPr>
@@ -6215,7 +6224,7 @@
         <xdr:cNvSpPr>
           <a:extLst>
             <a:ext uri="smNativeData">
-              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_ifG9ZhMAAAAlAAAAZQAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAABAAAAAAAAAAEAAABQAAAAhbacS3FV1T8AAAAAAAAAAAAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAEAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAAAAAAAAeAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAABUAAAACAAAAEgDNAhYAAAAEAAAA0gORAFsNAABPEgAAAQgAALABAAAAAAAA"/>
+              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_pS6+ZhMAAAAlAAAAZQAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAABAAAAAAAAAAEAAABQAAAAhbacS3FV1T8AAAAAAAAAAAAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAEAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAAAAAAAAeAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAABUAAAACAAAAEgDNAhYAAAAEAAAA0gORAFsNAABPEgAAAQgAALABAAAAAAAA"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvSpPr>
@@ -6301,7 +6310,7 @@
         <xdr:cNvSpPr>
           <a:extLst>
             <a:ext uri="smNativeData">
-              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_ifG9ZhMAAAAlAAAAZQAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAABAAAAAAAAAAEAAABQAAAAhbacS3FV1T8AAAAAAAAAAAAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAEAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAAAAAAAAeAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAAA4AAAAFAAAANwD8ABAAAAAGAAAA9QGxAuUaAAA+DAAAeggAAB8CAAAAAAAA"/>
+              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_pS6+ZhMAAAAlAAAAZQAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAABAAAAAAAAAAEAAABQAAAAhbacS3FV1T8AAAAAAAAAAAAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAEAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAAAAAAAAeAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAAA4AAAAFAAAANwD8ABAAAAAGAAAA9QGxAuUaAAA+DAAAeggAAB8CAAAAAAAA"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvSpPr>
@@ -6371,7 +6380,7 @@
         <xdr:cNvSpPr>
           <a:extLst>
             <a:ext uri="smNativeData">
-              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_ifG9ZhMAAAAlAAAAZQAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAABAAAAAAAAAAEAAABQAAAAhbacS3FV1T8AAAAAAAAAAAAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAEAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAAAAAAAAeAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAABEAAAAFAAAA6gDeABMAAAAGAAAA0gNhAq4aAAACDwAAWggAAGACAAAAAAAA"/>
+              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_pS6+ZhMAAAAlAAAAZQAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAABAAAAAAAAAAEAAABQAAAAhbacS3FV1T8AAAAAAAAAAAAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAEAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAAAAAAAAeAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAABEAAAAFAAAA6gDeABMAAAAGAAAA0gNhAq4aAAACDwAAWggAAGACAAAAAAAA"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvSpPr>
@@ -6446,7 +6455,7 @@
         <xdr:cNvSpPr>
           <a:extLst>
             <a:ext uri="smNativeData">
-              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_ifG9ZhMAAAAlAAAAZQAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAABAAAAAAAAAAEAAABQAAAAhbacS3FV1T8AAAAAAAAAAAAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAEAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAAAEAAAAeAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAABQAAAAFAAAAMQMCARcAAAAGAAAAtAGIAvAaAAAeEgAAQggAAEoCAAAAAAAA"/>
+              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_pS6+ZhMAAAAlAAAAZQAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAABAAAAAAAAAAEAAABQAAAAhbacS3FV1T8AAAAAAAAAAAAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAEAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAAAEAAAAeAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAABQAAAAFAAAAMQMCARcAAAAGAAAAtAGIAvAaAAAeEgAAQggAAEoCAAAAAAAA"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvSpPr>
@@ -6521,7 +6530,7 @@
         <xdr:cNvSpPr>
           <a:extLst>
             <a:ext uri="smNativeData">
-              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_ifG9ZhMAAAAlAAAAZQAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAABAAAAAAAAAAEAAABQAAAAhbacS3FV1T8AAAAAAAAAAAAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAEAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAAAUAAAAeAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAABgAAAAFAAAALgDlABsAAAAGAAAAzwBoArsaAADyFAAAVQgAAMACAAAAAAAA"/>
+              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_pS6+ZhMAAAAlAAAAZQAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAABAAAAAAAAAAEAAABQAAAAhbacS3FV1T8AAAAAAAAAAAAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAEAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAAAUAAAAeAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAABgAAAAFAAAALgDlABsAAAAGAAAAzwBoArsaAADyFAAAVQgAAMACAAAAAAAA"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvSpPr>
@@ -6596,7 +6605,7 @@
         <xdr:cNvSpPr>
           <a:extLst>
             <a:ext uri="smNativeData">
-              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_ifG9ZhMAAAAlAAAAZQAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAABAAAAAAAAAAEAAABQAAAAhbacS3FV1T8AAAAAAAAAAAAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAEAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAAAAAAAAeAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAAA4AAAAIAAAA7gMSABEAAAAJAAAAywHkAIEqAAANDQAAQgYAACYCAAAAAAAA"/>
+              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_pS6+ZhMAAAAlAAAAZQAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAABAAAAAAAAAAEAAABQAAAAhbacS3FV1T8AAAAAAAAAAAAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAEAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAUAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAAAAAAAAeAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAAA4AAAAIAAAA7gMSABEAAAAJAAAAywHkAIEqAAANDQAAQgYAACYCAAAAAAAA"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvSpPr>
@@ -6682,7 +6691,7 @@
         <xdr:cNvSpPr>
           <a:extLst>
             <a:ext uri="smNativeData">
-              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_ifG9ZhMAAAAlAAAAZQAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAABAAAAAAAAAAEAAABQAAAAhbacS3FV1T8AAAAAAAAAAAAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAEAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA